--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cblomart\github\ztAssess\src\powerpointgenerator\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062C8197-263F-4672-A5F3-1474CAA5C6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B27BCC6-F122-7F41-A1DA-9FFB27F62FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Zero Trust Architecture" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="Identity - Assessment" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="AssessedOn">'Zero Trust Architecture'!$K$9</definedName>
-    <definedName name="AssessmentRunBy">'Zero Trust Architecture'!$C$9</definedName>
-    <definedName name="TenantId">'Zero Trust Architecture'!$C$6</definedName>
-    <definedName name="TenantName">'Zero Trust Architecture'!$K$6</definedName>
+    <definedName name="AssessedOn">'Zero Trust Architecture'!$L$9</definedName>
+    <definedName name="AssessmentRunBy">'Zero Trust Architecture'!$D$9</definedName>
+    <definedName name="TenantId">'Zero Trust Architecture'!$D$6</definedName>
+    <definedName name="TenantName">'Zero Trust Architecture'!$L$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -414,7 +414,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,16 +588,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -633,13 +633,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
-    <cellStyle name="Neutre" xfId="4" builtinId="28"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Satisfaisant" xfId="2" builtinId="26"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,18 +663,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>251882</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>86255</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>59795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>681564</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139168</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -682,7 +689,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1072090" y="9254068"/>
+          <a:off x="1072090" y="9426045"/>
           <a:ext cx="11092391" cy="509057"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -760,18 +767,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>258234</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171979</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>145518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>687916</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>185208</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145520</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158748</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -786,8 +793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1081750" y="2607800"/>
-          <a:ext cx="11135385" cy="6561666"/>
+          <a:off x="1078442" y="2566456"/>
+          <a:ext cx="11092391" cy="6561667"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -832,18 +839,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>226234</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>502709</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66145</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>767293</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>39684</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -858,8 +865,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="555625" y="8374063"/>
-          <a:ext cx="5688542" cy="463020"/>
+          <a:off x="1375833" y="8347602"/>
+          <a:ext cx="5688543" cy="463020"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -900,18 +907,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14220</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>176195</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>278804</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>149735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>392622</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>102981</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657206</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76521</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -926,8 +933,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="6678545" y="7471948"/>
-          <a:ext cx="2878715" cy="323661"/>
+          <a:off x="6616104" y="7693535"/>
+          <a:ext cx="2854902" cy="333186"/>
           <a:chOff x="3355655" y="5890375"/>
           <a:chExt cx="2854902" cy="333186"/>
         </a:xfrm>
@@ -1029,18 +1036,18 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>516190</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>99764</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>780773</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>73303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>541375</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161536</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>805958</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>135076</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1055,8 +1062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5469190" y="6602164"/>
-          <a:ext cx="2501685" cy="264972"/>
+          <a:off x="5437440" y="6859866"/>
+          <a:ext cx="2485810" cy="260210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1190,18 +1197,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>116031</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>49817</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380615</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>116031</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167956</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380615</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>141495</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1218,8 +1225,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6720031" y="3910617"/>
-          <a:ext cx="0" cy="2353339"/>
+          <a:off x="6677698" y="4230232"/>
+          <a:ext cx="0" cy="2300951"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1252,18 +1259,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685449</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>81046</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129824</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>54585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>372115</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142818</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>636698</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>116358</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1278,8 +1285,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638449" y="3332246"/>
-          <a:ext cx="2163166" cy="264972"/>
+          <a:off x="5606699" y="3666148"/>
+          <a:ext cx="2147291" cy="260210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,18 +1420,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676527</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120902</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>24221</xdr:rowOff>
+      <xdr:rowOff>196198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676527</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61967</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120902</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35506</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1441,8 +1448,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8106027" y="2869021"/>
-          <a:ext cx="0" cy="3695346"/>
+          <a:off x="8058402" y="3212448"/>
+          <a:ext cx="0" cy="3609621"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1475,18 +1482,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>138866</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167493</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403449</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>141032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>673810</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167493</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>118185</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>141032</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1503,7 +1510,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7568366" y="5044293"/>
+          <a:off x="7520741" y="5340095"/>
           <a:ext cx="534944" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1537,18 +1544,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>253831</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>518414</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>22946</xdr:rowOff>
+      <xdr:rowOff>194923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>309451</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>91266</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>574034</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>64805</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1563,8 +1570,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2757319" y="6326512"/>
-          <a:ext cx="889057" cy="855720"/>
+          <a:off x="2728214" y="6519523"/>
+          <a:ext cx="881120" cy="885882"/>
           <a:chOff x="3532169" y="4490816"/>
           <a:chExt cx="1002445" cy="1002445"/>
         </a:xfrm>
@@ -2377,18 +2384,18 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>253831</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>126510</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>518414</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>309451</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>194830</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>574034</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168370</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2403,8 +2410,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2757319" y="3447163"/>
-          <a:ext cx="889057" cy="868420"/>
+          <a:off x="2728214" y="3579850"/>
+          <a:ext cx="881120" cy="881120"/>
           <a:chOff x="3532169" y="1564391"/>
           <a:chExt cx="1002445" cy="1002445"/>
         </a:xfrm>
@@ -3854,18 +3861,18 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>748113</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99637</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>192488</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>73176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>803733</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167957</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>248108</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>141496</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3880,8 +3887,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9919101" y="5609453"/>
-          <a:ext cx="889057" cy="855720"/>
+          <a:off x="9831788" y="5788176"/>
+          <a:ext cx="881120" cy="881120"/>
           <a:chOff x="8046234" y="3992399"/>
           <a:chExt cx="1002445" cy="1002445"/>
         </a:xfrm>
@@ -5867,18 +5874,18 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>748113</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>149454</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>192488</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>803733</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>248108</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>14574</xdr:rowOff>
+      <xdr:rowOff>186551</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5893,8 +5900,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9919101" y="7045157"/>
-          <a:ext cx="889057" cy="854133"/>
+          <a:off x="9831788" y="7260394"/>
+          <a:ext cx="881120" cy="876357"/>
           <a:chOff x="7017394" y="5358871"/>
           <a:chExt cx="1002445" cy="1002445"/>
         </a:xfrm>
@@ -6112,22 +6119,22 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>264584</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>6802</xdr:rowOff>
+      <xdr:rowOff>178779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>131678</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>115631</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396261</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>89170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
+        <xdr:cNvPr id="12" name="txtIdentities">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2505C-94AF-454A-BC83-40BB34F9401E}"/>
@@ -6138,8 +6145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1651000" y="3461202"/>
-          <a:ext cx="957178" cy="312029"/>
+          <a:off x="1640417" y="3790342"/>
+          <a:ext cx="951886" cy="307266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6277,18 +6284,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>139440</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>121238</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404024</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>94778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>131677</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>26867</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>407</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6303,8 +6310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790440" y="6420438"/>
-          <a:ext cx="817737" cy="312029"/>
+          <a:off x="1779857" y="6682903"/>
+          <a:ext cx="812445" cy="302504"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6442,18 +6449,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>73075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>183130</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>337658</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>535107</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>84507</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>799691</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>58047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6468,8 +6475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10804575" y="5669530"/>
-          <a:ext cx="1287532" cy="307777"/>
+          <a:off x="10735783" y="5951045"/>
+          <a:ext cx="1282241" cy="298252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6607,18 +6614,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>73076</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>29747</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>337659</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>146349</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>138576</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>410933</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112115</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6633,8 +6640,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10804576" y="7141747"/>
-          <a:ext cx="898773" cy="312029"/>
+          <a:off x="10735784" y="7385162"/>
+          <a:ext cx="893482" cy="307266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6772,18 +6779,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676144</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61524</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120519</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>758569</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61524</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>202944</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6800,8 +6807,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8105644" y="6563924"/>
-          <a:ext cx="1733425" cy="0"/>
+          <a:off x="8058019" y="6821626"/>
+          <a:ext cx="1722842" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6834,18 +6841,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>309451</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160670</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>574034</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>543235</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>167264</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>807819</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6862,8 +6869,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3611451" y="3615070"/>
-          <a:ext cx="1059284" cy="6594"/>
+          <a:off x="3590284" y="3944210"/>
+          <a:ext cx="1053993" cy="6594"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6896,18 +6903,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>543233</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>169569</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>807817</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>543233</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>191028</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>807817</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>164567</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6924,8 +6931,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4670733" y="3623969"/>
-          <a:ext cx="0" cy="1443859"/>
+          <a:off x="4644275" y="3953109"/>
+          <a:ext cx="0" cy="1410521"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6958,18 +6965,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219391</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167956</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>483974</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>141495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>375412</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>164590</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>639996</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>138130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6984,8 +6991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8474391" y="6263956"/>
-          <a:ext cx="981521" cy="606234"/>
+          <a:off x="8421474" y="6531183"/>
+          <a:ext cx="976230" cy="591947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7160,18 +7167,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>730278</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>111336</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174653</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>340129</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>200386</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604712</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7186,8 +7193,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4032278" y="3768936"/>
-          <a:ext cx="1260851" cy="495450"/>
+          <a:off x="4011111" y="4093313"/>
+          <a:ext cx="1250268" cy="485925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7327,18 +7334,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>730278</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>118345</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174653</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>340129</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>48934</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604712</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22474</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7353,8 +7360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4032278" y="4385545"/>
-          <a:ext cx="1260851" cy="336989"/>
+          <a:off x="4011111" y="4695635"/>
+          <a:ext cx="1250268" cy="327464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7494,18 +7501,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>684634</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>93304</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>129009</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>748114</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>93304</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>192489</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66844</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7522,8 +7529,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8114134" y="4360504"/>
-          <a:ext cx="1714480" cy="0"/>
+          <a:off x="8066509" y="4670594"/>
+          <a:ext cx="1703897" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7556,18 +7563,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523172</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>134633</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787756</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37718</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>134633</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>302301</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108172</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7584,8 +7591,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4650672" y="5417833"/>
-          <a:ext cx="1165546" cy="0"/>
+          <a:off x="4624214" y="5704110"/>
+          <a:ext cx="1154962" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7618,18 +7625,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>540367</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139842</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>804951</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>113381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>540367</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87077</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>804951</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60616</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7646,8 +7653,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4667867" y="5423042"/>
-          <a:ext cx="0" cy="1166435"/>
+          <a:off x="4641409" y="5709319"/>
+          <a:ext cx="0" cy="1137860"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7680,18 +7687,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>301421</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63768</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>566004</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>37307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>535204</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>70361</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>799788</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7708,8 +7715,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3603421" y="6566168"/>
-          <a:ext cx="1059283" cy="6593"/>
+          <a:off x="3582254" y="6823870"/>
+          <a:ext cx="1053992" cy="6593"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7742,18 +7749,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>748113</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>49818</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>192488</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>803733</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>118138</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>248108</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91678</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7768,8 +7775,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9919101" y="4164221"/>
-          <a:ext cx="889057" cy="868420"/>
+          <a:off x="9831788" y="4315958"/>
+          <a:ext cx="881120" cy="881120"/>
           <a:chOff x="8046234" y="2294010"/>
           <a:chExt cx="1002445" cy="1002445"/>
         </a:xfrm>
@@ -8543,18 +8550,18 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>748113</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>192488</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>803733</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>68320</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>248108</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41859</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8569,8 +8576,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9919101" y="2728516"/>
-          <a:ext cx="889057" cy="858895"/>
+          <a:off x="9831788" y="2838977"/>
+          <a:ext cx="881120" cy="885882"/>
           <a:chOff x="7017394" y="966860"/>
           <a:chExt cx="1002445" cy="1002445"/>
         </a:xfrm>
@@ -8794,18 +8801,18 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>73076</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>83494</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>337659</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>636051</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>188071</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161610</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8820,8 +8827,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10804576" y="2725094"/>
-          <a:ext cx="562975" cy="307777"/>
+          <a:off x="10735784" y="3073284"/>
+          <a:ext cx="562975" cy="303014"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8959,18 +8966,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>73075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133312</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>337658</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>680848</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38941</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>125223</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8985,8 +8992,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10804575" y="4197312"/>
-          <a:ext cx="607773" cy="312029"/>
+          <a:off x="10735783" y="4512164"/>
+          <a:ext cx="607773" cy="302504"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9124,18 +9131,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>684632</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>129007</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12896</xdr:rowOff>
+      <xdr:rowOff>184873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>748113</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>192488</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12896</xdr:rowOff>
+      <xdr:rowOff>184873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9152,8 +9159,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8114132" y="2857696"/>
-          <a:ext cx="1714481" cy="0"/>
+          <a:off x="8066507" y="3201123"/>
+          <a:ext cx="1703898" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9186,18 +9193,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>119458</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171009</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384041</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>477180</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>167643</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>741764</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>141183</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9212,8 +9219,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8374458" y="2609409"/>
-          <a:ext cx="1183222" cy="606234"/>
+          <a:off x="8321541" y="2962361"/>
+          <a:ext cx="1177931" cy="591947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9353,18 +9360,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>543233</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>182428</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>807817</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>155967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>804035</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>182428</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>248410</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>155967</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9381,8 +9388,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4670733" y="5059228"/>
-          <a:ext cx="1086302" cy="0"/>
+          <a:off x="4644275" y="5355030"/>
+          <a:ext cx="1081010" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9415,18 +9422,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>796432</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>131547</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240807</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>261130</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525714</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>15346</xdr:rowOff>
+      <xdr:rowOff>187323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9449,8 +9456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6574932" y="3585947"/>
-          <a:ext cx="290199" cy="290199"/>
+          <a:off x="6537890" y="3915087"/>
+          <a:ext cx="284907" cy="280674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9459,18 +9466,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>789272</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233647</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>14635</xdr:rowOff>
+      <xdr:rowOff>186612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>268292</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>532876</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>89496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9493,8 +9500,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6567772" y="6313835"/>
-          <a:ext cx="304521" cy="304521"/>
+          <a:off x="6530730" y="6576300"/>
+          <a:ext cx="299229" cy="299759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9503,18 +9510,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>650042</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>118384</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>94417</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>423276</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>48995</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>687859</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9529,8 +9536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952042" y="5604784"/>
-          <a:ext cx="1424234" cy="337011"/>
+          <a:off x="3930875" y="5886299"/>
+          <a:ext cx="1413651" cy="327486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9670,18 +9677,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>569257</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>172055</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13632</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504061</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>102666</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>768644</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9696,8 +9703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3871257" y="6064855"/>
-          <a:ext cx="1585804" cy="337011"/>
+          <a:off x="3850090" y="6336845"/>
+          <a:ext cx="1575221" cy="327486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9837,18 +9844,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>264202</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>200163</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528785</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>173703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>322963</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>200073</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>587547</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9863,8 +9870,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8519202" y="4060963"/>
-          <a:ext cx="884261" cy="609510"/>
+          <a:off x="8466285" y="4380578"/>
+          <a:ext cx="878970" cy="595222"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10004,18 +10011,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7290</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>271873</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>20252</xdr:rowOff>
+      <xdr:rowOff>192229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552951</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>817534</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>4785</xdr:rowOff>
+      <xdr:rowOff>176762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10030,8 +10037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7436790" y="5506652"/>
-          <a:ext cx="1371161" cy="594133"/>
+          <a:off x="7389165" y="5788167"/>
+          <a:ext cx="1365869" cy="579845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10172,18 +10179,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>777017</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>70582</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>221392</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>280548</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>147189</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>545131</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120729</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10198,8 +10205,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5774467" y="4383423"/>
-          <a:ext cx="2003844" cy="1862544"/>
+          <a:off x="5733192" y="4539921"/>
+          <a:ext cx="1974739" cy="1905408"/>
           <a:chOff x="6252798" y="2498464"/>
           <a:chExt cx="1980312" cy="1905677"/>
         </a:xfrm>
@@ -10625,18 +10632,18 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>698748</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>177329</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143123</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>150869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>251650</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104115</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>516234</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>77655</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10651,8 +10658,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4029323" y="7473082"/>
-          <a:ext cx="2893002" cy="323661"/>
+          <a:off x="4003923" y="7694669"/>
+          <a:ext cx="2849611" cy="333186"/>
           <a:chOff x="3355655" y="5890375"/>
           <a:chExt cx="2854902" cy="333186"/>
         </a:xfrm>
@@ -10754,18 +10761,18 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>65133</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>43735</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>329716</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158061</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>82500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>422644</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10780,8 +10787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5843633" y="7155735"/>
-          <a:ext cx="1743928" cy="241965"/>
+          <a:off x="5806591" y="7399150"/>
+          <a:ext cx="1733345" cy="237202"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10909,18 +10916,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>362289</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>167912</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>626872</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>141451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>679014</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123389</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>15090</xdr:rowOff>
+      <xdr:rowOff>187067</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10935,8 +10942,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6140789" y="7483112"/>
-          <a:ext cx="1142225" cy="253578"/>
+          <a:off x="6103747" y="7721764"/>
+          <a:ext cx="1136934" cy="244053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11067,17 +11074,22 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>507465</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>154762</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176735</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128301</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="384682" cy="357328"/>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336522</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88754</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="TextBox 68">
+        <xdr:cNvPr id="69" name="txtIdentityStatus">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708D325D-26AC-700E-B8FC-6632806338D1}"/>
@@ -11088,7 +11100,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1330981" y="3781208"/>
+          <a:off x="1327673" y="3739864"/>
           <a:ext cx="384682" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11124,15 +11136,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>651453</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>35753</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95828</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9293</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="381000" cy="381000"/>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476828</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>191855</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="70" name="TextBox 69">
@@ -11146,7 +11163,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1474969" y="6638761"/>
+          <a:off x="1471661" y="6597418"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11182,15 +11199,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447190</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>108873</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711773</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82412</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="384682" cy="357328"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276247</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42865</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="71" name="TextBox 70">
@@ -11204,7 +11226,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3741253" y="4132194"/>
+          <a:off x="3728023" y="4090850"/>
           <a:ext cx="384682" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11240,15 +11262,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>384067</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>55819</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>648650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>29359</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="384682" cy="357328"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>213124</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>188249</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="72" name="TextBox 71">
@@ -11262,7 +11289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3678130" y="4674452"/>
+          <a:off x="3664900" y="4633109"/>
           <a:ext cx="384682" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11298,15 +11325,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>390985</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>110527</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>655568</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84067</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="384682" cy="357328"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220042</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44520</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="73" name="TextBox 72">
@@ -11320,7 +11352,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3685048" y="6316660"/>
+          <a:off x="3671818" y="6275317"/>
           <a:ext cx="384682" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11356,15 +11388,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>473345</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>107377</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>737928</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80917</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="384682" cy="357328"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>302402</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41370</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="74" name="TextBox 73">
@@ -11378,7 +11415,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3767408" y="5916635"/>
+          <a:off x="3754178" y="5875292"/>
           <a:ext cx="384682" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11414,15 +11451,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>87675</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352258</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>11788</xdr:rowOff>
+      <xdr:rowOff>183765</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="384682" cy="357328"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>736940</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144218</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="75" name="TextBox 74">
@@ -11436,7 +11478,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8322831" y="6614796"/>
+          <a:off x="8289758" y="6573453"/>
           <a:ext cx="384682" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11472,15 +11514,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403015</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>98123</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>667598</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71662</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="381000" cy="381000"/>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228390</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55787</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="76" name="TextBox 75">
@@ -11494,7 +11541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6167624" y="6502694"/>
+          <a:off x="6144473" y="6461350"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11530,15 +11577,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>737871</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182246</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>11339</xdr:rowOff>
+      <xdr:rowOff>183316</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="384682" cy="357328"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>566928</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143769</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="77" name="TextBox 76">
@@ -11552,7 +11604,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8149512" y="3042472"/>
+          <a:off x="8119746" y="3001129"/>
           <a:ext cx="384682" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11588,15 +11640,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>781343</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>35378</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225718</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8917</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="384682" cy="357328"/>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>610400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167808</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="78" name="TextBox 77">
@@ -11610,7 +11667,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8192984" y="4455574"/>
+          <a:off x="8163218" y="4414230"/>
           <a:ext cx="384682" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11646,15 +11703,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>731395</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>163399</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175770</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136938</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="381000" cy="381000"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556770</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121063</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="79" name="TextBox 78">
@@ -11668,7 +11730,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7319520" y="5774220"/>
+          <a:off x="7293062" y="5732876"/>
           <a:ext cx="381000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11704,15 +11766,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>726305</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>32237</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5776</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="384682" cy="357328"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>555362</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>164667</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="80" name="TextBox 79">
@@ -11726,7 +11793,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4859441" y="3714486"/>
+          <a:off x="5647555" y="3617339"/>
           <a:ext cx="384682" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11762,15 +11829,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>648594</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>92969</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>2782</xdr:rowOff>
+      <xdr:rowOff>174759</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="436384" cy="357328"/>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>529353</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>135212</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="81" name="TextBox 80">
@@ -11784,7 +11856,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1472110" y="8391728"/>
+          <a:off x="1468802" y="8350384"/>
           <a:ext cx="436384" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11820,15 +11892,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>166903</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>74716</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431487</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48255</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1103097" cy="357328"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8708</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="82" name="TextBox 81">
@@ -11842,7 +11919,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="987111" y="8448779"/>
+          <a:off x="1807320" y="8422318"/>
           <a:ext cx="1103097" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11883,15 +11960,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>594288</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>181376</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38663</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>154916</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="436384" cy="357328"/>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>475047</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>115369</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="83" name="TextBox 82">
@@ -11905,7 +11987,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3064835" y="8371884"/>
+          <a:off x="3054913" y="8330541"/>
           <a:ext cx="436384" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11941,15 +12023,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>107637</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>74716</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>372220</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48255</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1678302" cy="357328"/>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>410105</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8708</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="84" name="TextBox 83">
@@ -11963,7 +12050,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3388470" y="8250341"/>
+          <a:off x="3388470" y="8422318"/>
           <a:ext cx="1678302" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12004,15 +12091,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>402730</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>667313</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>2782</xdr:rowOff>
+      <xdr:rowOff>174759</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="436384" cy="357328"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>283489</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>135212</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="85" name="TextBox 84">
@@ -12026,7 +12118,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5343824" y="8391728"/>
+          <a:off x="5323980" y="8350384"/>
           <a:ext cx="436384" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12062,15 +12154,20 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>736286</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>74716</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180661</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48255</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1678302" cy="357328"/>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218546</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8708</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="86" name="TextBox 85">
@@ -12084,7 +12181,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4837328" y="8448779"/>
+          <a:off x="5657536" y="8422318"/>
           <a:ext cx="1678302" cy="357328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12125,8 +12222,8 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>277813</xdr:colOff>
@@ -12134,8 +12231,8 @@
       <xdr:rowOff>132291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>648229</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>487853</xdr:rowOff>
     </xdr:to>
@@ -12275,6 +12372,74 @@
             </a:rPr>
             <a:t>Zero Trust Assessment</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>277815</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>153011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>39687</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>56103</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rounded Rectangle 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F8D083-A0B6-0B35-A2C3-8A79081DD405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104080" y="1198593"/>
+          <a:ext cx="11049061" cy="1127189"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9259"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="127000">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12818,9 +12983,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12858,7 +13023,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -12964,7 +13129,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13106,7 +13271,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13117,55 +13282,112 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="C3:K9"/>
+  <dimension ref="C3:P9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="15" width="10.83203125" style="2"/>
+    <col min="16" max="16" width="10.6640625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="51" x14ac:dyDescent="1.25">
-      <c r="C3" s="1"/>
+    <row r="3" spans="3:16" ht="50" x14ac:dyDescent="0.6">
+      <c r="D3" s="1"/>
     </row>
-    <row r="5" spans="3:11" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C5" s="37"/>
+      <c r="D5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="K5" s="3" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="36" t="s">
         <v>1</v>
       </c>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
     </row>
-    <row r="6" spans="3:11" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="K6" s="5"/>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C6" s="37"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
     </row>
-    <row r="7" spans="3:11" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="K7" s="5"/>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="37"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
     </row>
-    <row r="8" spans="3:11" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C8" s="37"/>
+      <c r="D8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="K8" s="3" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="36" t="s">
         <v>3</v>
       </c>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="3:11" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="C9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="K9" s="6"/>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C9" s="37"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13182,314 +13404,314 @@
   <dimension ref="C2:I42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="8"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="51" x14ac:dyDescent="0.45">
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="3:7" ht="50" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="29" x14ac:dyDescent="0.75">
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="3:7" ht="28" x14ac:dyDescent="0.35">
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C5" s="13"/>
+    <row r="5" spans="3:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="3:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="14">
+      <c r="D8" s="5"/>
+      <c r="E8" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="14">
+      <c r="D9" s="5"/>
+      <c r="E9" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="14">
+      <c r="D10" s="5"/>
+      <c r="E10" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="14">
+      <c r="D11" s="5"/>
+      <c r="E11" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="14">
+      <c r="D12" s="5"/>
+      <c r="E12" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="10" t="s">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="3:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="9" t="s">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="14">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="10">
         <v>1</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="9" t="s">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="14">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="10">
         <v>1</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C18" s="9" t="s">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="14">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="10">
         <v>2</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C19" s="9" t="s">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="14">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10">
         <v>2</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="9" t="s">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="14">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="10">
         <v>5</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C21" s="9" t="s">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="14">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="10">
         <v>0</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="5"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C23" s="8" t="s">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="14" t="s">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C26" s="8" t="s">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="15">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="29" x14ac:dyDescent="0.75">
-      <c r="C30" s="13" t="s">
+    <row r="30" spans="3:9" ht="28" x14ac:dyDescent="0.35">
+      <c r="C30" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="11" t="s">
+    <row r="31" spans="3:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="C31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="17" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C32" s="9" t="s">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="16">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C33" s="9" t="s">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="16">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C34" s="9" t="s">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="16">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="29" x14ac:dyDescent="0.75">
-      <c r="C38" s="13" t="s">
+    <row r="38" spans="3:9" ht="28" x14ac:dyDescent="0.35">
+      <c r="C38" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C39" s="11" t="s">
+    <row r="39" spans="3:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="17" t="s">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C40" s="9" t="s">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="18">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="14">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C41" s="9" t="s">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="18">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C42" s="9" t="s">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="18">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="14">
         <v>3</v>
       </c>
     </row>
@@ -13511,512 +13733,512 @@
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="103.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.4140625" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="51" x14ac:dyDescent="0.45">
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="2:10" ht="50" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="32"/>
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="28"/>
+      <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="33"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="32"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="28"/>
+      <c r="C7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="32"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="28"/>
+      <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="29"/>
     </row>
-    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="19"/>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="19"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="33"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="19"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="19"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="15"/>
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="33"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="19"/>
-      <c r="C16" s="9" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="19"/>
-      <c r="C17" s="9" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="33"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B18" s="19"/>
-      <c r="C18" s="9" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="33"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="19"/>
-      <c r="C19" s="9" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="15"/>
+      <c r="C19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="33"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B20" s="19"/>
-      <c r="C20" s="9" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="33"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="19"/>
-      <c r="C21" s="9" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="33"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="28" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B23" s="19"/>
-      <c r="C23" s="9" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="33"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B24" s="19"/>
-      <c r="C24" s="9" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="33"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B25" s="19"/>
-      <c r="C25" s="9" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="33"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="29"/>
     </row>
-    <row r="26" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="19"/>
-      <c r="C27" s="9" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+      <c r="C27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="33"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B28" s="19"/>
-      <c r="C28" s="9" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="33"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="29"/>
     </row>
-    <row r="29" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B29" s="19"/>
-      <c r="C29" s="9" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="15"/>
+      <c r="C29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="33"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="29"/>
     </row>
-    <row r="30" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="19"/>
-      <c r="C30" s="9" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="15"/>
+      <c r="C30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="33"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="29"/>
     </row>
-    <row r="31" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B31" s="31" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B32" s="28" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B33" s="19"/>
-      <c r="C33" s="9" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="15"/>
+      <c r="C33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="33"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="29"/>
     </row>
-    <row r="34" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B34" s="19"/>
-      <c r="C34" s="9" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="15"/>
+      <c r="C34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="33"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="29"/>
     </row>
-    <row r="35" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B35" s="19"/>
-      <c r="C35" s="9" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="15"/>
+      <c r="C35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="33"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="29"/>
     </row>
-    <row r="36" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B36" s="19"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="33"/>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="15"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="29"/>
     </row>
-    <row r="37" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="19"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="33"/>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="15"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="29"/>
     </row>
-    <row r="38" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B38" s="19"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="33"/>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="15"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="29"/>
     </row>
-    <row r="39" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B39" s="19"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="33"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="15"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="29"/>
     </row>
-    <row r="40" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B40" s="19"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="33"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="15"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="29"/>
     </row>
-    <row r="41" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B41" s="20"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="16"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14031,11 +14253,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="2"/>
   </cols>
@@ -14053,10 +14275,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB9442E-164D-C246-9FC9-9E3DC8CF720D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3419B76-BD8C-D94E-B131-EB029096DA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="710" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="253">
   <si>
     <t>Devices</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>Apps</t>
-  </si>
-  <si>
-    <t>Devices: Assessment</t>
   </si>
   <si>
     <t>Enroll devices into MDM management</t>
@@ -806,6 +803,18 @@
   <si>
     <t>Tenant ID: 232323</t>
   </si>
+  <si>
+    <t>Azure Active Directory Tenant Configuration</t>
+  </si>
+  <si>
+    <t>Intune Tenant Configuration</t>
+  </si>
+  <si>
+    <t>Intune Assessment Results</t>
+  </si>
+  <si>
+    <t>Azure Active Directory Assessment Results</t>
+  </si>
 </sst>
 </file>
 
@@ -1345,7 +1354,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1521,6 +1530,12 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,12 +1548,12 @@
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -14372,7 +14387,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>42872</xdr:colOff>
@@ -14898,15 +14913,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14921,8 +14936,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="546100" y="482600"/>
-          <a:ext cx="1257300" cy="1257300"/>
+          <a:off x="596900" y="584200"/>
+          <a:ext cx="1054100" cy="1054100"/>
           <a:chOff x="546100" y="482600"/>
           <a:chExt cx="1257300" cy="1257300"/>
         </a:xfrm>
@@ -24450,7 +24465,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30365</xdr:colOff>
@@ -35796,7 +35811,7 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23822</xdr:colOff>
@@ -36324,7 +36339,7 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361958</xdr:colOff>
@@ -36847,6 +36862,56 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA0F34A-72EA-FB4A-B187-2EBC8C2938DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="431800"/>
+          <a:ext cx="1092200" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -36856,13 +36921,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>347663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -36908,15 +36973,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>604839</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -36948,8 +37013,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="328611"/>
-          <a:ext cx="433389" cy="433389"/>
+          <a:off x="806450" y="560386"/>
+          <a:ext cx="793750" cy="793750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -36962,13 +37027,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -37015,13 +37080,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -37083,14 +37148,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>357187</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -37136,13 +37201,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209552</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -37204,13 +37269,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209552</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -37268,7 +37333,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>42871</xdr:colOff>
@@ -37796,7 +37861,7 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47631</xdr:colOff>
@@ -38319,30 +38384,25 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4765</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>576263</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Graphic 1">
+        <xdr:cNvPr id="13" name="Graphic 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2030CC1F-EBE8-40FA-90EB-09A03F26FEA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A8C255-FDD2-3F42-B192-9D007B244F11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38351,13 +38411,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -38367,8 +38424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219076" y="695324"/>
-          <a:ext cx="519114" cy="461964"/>
+          <a:off x="469900" y="431800"/>
+          <a:ext cx="1092200" cy="1092200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -38377,7 +38434,12 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>42078</xdr:colOff>
@@ -38385,8 +38447,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>343406</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>445006</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>348752</xdr:rowOff>
     </xdr:to>
@@ -38423,10 +38485,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -38447,7 +38509,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="5" name="Rounded Rectangle 68">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{730DC2F1-5ADB-8AF8-5ABA-B896ACA34B45}"/>
@@ -38508,7 +38570,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A327D578-5C8D-CD81-E661-CFE4D76A41FE}"/>
@@ -38560,7 +38622,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6244C4-3426-9353-2B51-D5DA03A88E26}"/>
@@ -38621,7 +38683,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2D6134-D221-FC99-6C9E-D1DF9BA7DF08}"/>
@@ -38682,7 +38744,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F3E292-465D-C32D-825E-B47488A6FCAB}"/>
@@ -38739,7 +38801,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7676D3A-C662-CC27-C1C9-45B29EEE93FB}"/>
@@ -38796,7 +38858,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C32522-CDCA-D763-A096-5F43FC2A8894}"/>
@@ -38848,7 +38910,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D26A39-C56B-0D1F-9098-28D37FF12831}"/>
@@ -38898,6 +38960,59 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphic 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B652477-0667-6C4F-8ADC-A3E9CE8D4F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="469900"/>
+          <a:ext cx="793750" cy="793750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -39202,9 +39317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6C57C3-010E-3649-B978-A4ACB529691A}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39249,213 +39362,213 @@
       <c r="AA1" s="86"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
     </row>
     <row r="3" spans="1:27" ht="31" x14ac:dyDescent="0.2">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="92" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="96" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
     </row>
     <row r="9" spans="1:27" ht="50" x14ac:dyDescent="0.6">
       <c r="D9" s="1"/>
@@ -39585,7 +39698,7 @@
       <c r="D3" s="40"/>
       <c r="E3" s="39"/>
       <c r="F3" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="42"/>
       <c r="H3" s="39"/>
@@ -39609,31 +39722,31 @@
       <c r="Z3" s="39"/>
       <c r="AA3" s="36"/>
       <c r="AC3" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AE3" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AF3" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" s="48" t="s">
+      <c r="AG3" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="AG3" s="49" t="s">
+      <c r="AH3" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="AH3" s="50" t="s">
+      <c r="AI3" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AJ3" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="AJ3" s="52" t="s">
+      <c r="AK3" s="53" t="s">
         <v>91</v>
-      </c>
-      <c r="AK3" s="53" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
@@ -39671,27 +39784,27 @@
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="54"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
       <c r="Q5" s="55"/>
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
       <c r="T5" s="55"/>
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
       <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39806,21 +39919,21 @@
       <c r="D11" s="59"/>
       <c r="E11" s="60"/>
       <c r="G11" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" s="60"/>
       <c r="L11" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="P11" s="62" t="s">
         <v>95</v>
-      </c>
-      <c r="P11" s="62" t="s">
-        <v>96</v>
       </c>
       <c r="Q11" s="63"/>
       <c r="R11" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S11" s="63"/>
       <c r="T11" s="63"/>
@@ -39837,21 +39950,21 @@
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
       <c r="G12" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" s="60"/>
       <c r="L12" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N12" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P12" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="66"/>
       <c r="R12" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S12" s="66"/>
       <c r="T12" s="66"/>
@@ -39877,17 +39990,17 @@
       <c r="D14" s="59"/>
       <c r="E14" s="60"/>
       <c r="G14" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J14" s="60"/>
       <c r="L14" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="64" t="s">
+      <c r="P14" s="68" t="s">
         <v>100</v>
-      </c>
-      <c r="P14" s="68" t="s">
-        <v>101</v>
       </c>
       <c r="Q14" s="69"/>
       <c r="R14" s="69"/>
@@ -39903,17 +40016,17 @@
       <c r="D15" s="59"/>
       <c r="E15" s="60"/>
       <c r="G15" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" s="60"/>
       <c r="L15" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N15" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P15" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="66"/>
       <c r="R15"/>
@@ -39938,23 +40051,23 @@
       <c r="D17" s="59"/>
       <c r="E17" s="60"/>
       <c r="G17" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J17" s="60"/>
       <c r="L17" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="62" t="s">
+      <c r="P17" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="62" t="s">
+      <c r="R17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="62" t="s">
+      <c r="T17" s="62" t="s">
         <v>106</v>
-      </c>
-      <c r="T17" s="62" t="s">
-        <v>107</v>
       </c>
       <c r="V17" s="60"/>
     </row>
@@ -39965,23 +40078,23 @@
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
       <c r="G18" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" s="60"/>
       <c r="L18" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N18" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P18" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R18" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T18" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V18" s="60"/>
     </row>
@@ -40001,20 +40114,20 @@
       <c r="D20" s="59"/>
       <c r="E20" s="60"/>
       <c r="G20" s="61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J20" s="60"/>
       <c r="L20" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="N20" s="68" t="s">
+      <c r="P20" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="P20" s="61" t="s">
+      <c r="R20" s="67" t="s">
         <v>111</v>
-      </c>
-      <c r="R20" s="67" t="s">
-        <v>112</v>
       </c>
       <c r="T20"/>
       <c r="V20" s="60"/>
@@ -40026,20 +40139,20 @@
       <c r="D21" s="59"/>
       <c r="E21" s="60"/>
       <c r="G21" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" s="60"/>
       <c r="L21" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N21" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P21" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R21" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V21" s="60"/>
     </row>
@@ -40078,27 +40191,27 @@
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
       <c r="G24" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J24" s="60"/>
       <c r="L24" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="68" t="s">
+      <c r="P24" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="P24" s="68" t="s">
+      <c r="R24" s="68" t="s">
         <v>116</v>
-      </c>
-      <c r="R24" s="68" t="s">
-        <v>117</v>
       </c>
       <c r="V24" s="60"/>
       <c r="X24" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z24" s="64" t="s">
         <v>118</v>
-      </c>
-      <c r="Z24" s="64" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -40108,27 +40221,27 @@
       <c r="D25" s="59"/>
       <c r="E25" s="60"/>
       <c r="G25" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" s="60"/>
       <c r="L25" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N25" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P25" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R25" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V25" s="60"/>
       <c r="X25" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z25" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -40147,28 +40260,28 @@
       <c r="D27" s="59"/>
       <c r="E27" s="60"/>
       <c r="G27" s="67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J27" s="60"/>
       <c r="L27" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="N27" s="71" t="s">
+      <c r="P27" s="67" t="s">
         <v>122</v>
-      </c>
-      <c r="P27" s="67" t="s">
-        <v>123</v>
       </c>
       <c r="Q27" s="69"/>
       <c r="R27" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S27" s="69"/>
       <c r="T27" s="69"/>
       <c r="U27" s="69"/>
       <c r="V27" s="60"/>
       <c r="X27" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -40178,28 +40291,28 @@
       <c r="D28" s="59"/>
       <c r="E28" s="60"/>
       <c r="G28" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J28" s="60"/>
       <c r="L28" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N28" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P28" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="66"/>
       <c r="R28" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S28" s="66"/>
       <c r="T28" s="66"/>
       <c r="U28" s="66"/>
       <c r="V28" s="60"/>
       <c r="X28" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -40220,19 +40333,19 @@
       <c r="G30"/>
       <c r="J30" s="60"/>
       <c r="L30" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="N30" s="71" t="s">
+      <c r="P30" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="P30" s="71" t="s">
+      <c r="R30" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="R30" s="67" t="s">
+      <c r="T30" s="71" t="s">
         <v>129</v>
-      </c>
-      <c r="T30" s="71" t="s">
-        <v>130</v>
       </c>
       <c r="V30" s="60"/>
     </row>
@@ -40245,19 +40358,19 @@
       <c r="G31"/>
       <c r="J31" s="60"/>
       <c r="L31" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N31" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P31" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R31" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T31" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V31" s="60"/>
     </row>
@@ -40278,13 +40391,13 @@
       <c r="E33" s="60"/>
       <c r="J33" s="60"/>
       <c r="L33" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="N33" s="61" t="s">
+      <c r="P33" s="71" t="s">
         <v>132</v>
-      </c>
-      <c r="P33" s="71" t="s">
-        <v>133</v>
       </c>
       <c r="R33"/>
       <c r="S33"/>
@@ -40299,13 +40412,13 @@
       <c r="E34" s="60"/>
       <c r="J34" s="60"/>
       <c r="L34" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N34" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P34" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R34"/>
       <c r="S34"/>
@@ -40330,20 +40443,20 @@
       <c r="G36"/>
       <c r="J36" s="60"/>
       <c r="L36" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="N36" s="61" t="s">
+      <c r="P36" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="P36" s="61" t="s">
+      <c r="R36" s="61" t="s">
         <v>136</v>
-      </c>
-      <c r="R36" s="61" t="s">
-        <v>137</v>
       </c>
       <c r="V36" s="60"/>
       <c r="X36" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -40355,20 +40468,20 @@
       <c r="G37"/>
       <c r="J37" s="60"/>
       <c r="L37" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N37" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P37" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R37" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V37" s="60"/>
       <c r="X37" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -40389,10 +40502,10 @@
       <c r="G39"/>
       <c r="J39" s="60"/>
       <c r="L39" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="N39" s="67" t="s">
         <v>139</v>
-      </c>
-      <c r="N39" s="67" t="s">
-        <v>140</v>
       </c>
       <c r="U39" s="69"/>
       <c r="V39" s="60"/>
@@ -40406,10 +40519,10 @@
       <c r="G40"/>
       <c r="J40" s="60"/>
       <c r="L40" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N40" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P40"/>
       <c r="U40" s="66"/>
@@ -40434,20 +40547,20 @@
       <c r="G42"/>
       <c r="J42" s="60"/>
       <c r="L42" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="N42" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="N42" s="61" t="s">
+      <c r="P42" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="P42" s="61" t="s">
+      <c r="R42" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="R42" s="71" t="s">
-        <v>144</v>
       </c>
       <c r="V42" s="60"/>
       <c r="X42" s="67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -40459,20 +40572,20 @@
       <c r="G43"/>
       <c r="J43" s="60"/>
       <c r="L43" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N43" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P43" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R43" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V43" s="60"/>
       <c r="X43" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -40500,21 +40613,21 @@
       <c r="D46" s="59"/>
       <c r="E46" s="60"/>
       <c r="G46" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J46" s="60"/>
       <c r="L46" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="N46" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="N46" s="71" t="s">
+      <c r="P46" s="61" t="s">
         <v>148</v>
-      </c>
-      <c r="P46" s="61" t="s">
-        <v>149</v>
       </c>
       <c r="Q46"/>
       <c r="R46" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V46" s="60"/>
     </row>
@@ -40525,21 +40638,21 @@
       <c r="D47" s="59"/>
       <c r="E47" s="60"/>
       <c r="G47" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" s="60"/>
       <c r="L47" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N47" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P47" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q47"/>
       <c r="R47" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V47" s="60"/>
     </row>
@@ -40564,10 +40677,10 @@
       <c r="G49"/>
       <c r="J49" s="60"/>
       <c r="L49" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="N49" s="61" t="s">
         <v>151</v>
-      </c>
-      <c r="N49" s="61" t="s">
-        <v>152</v>
       </c>
       <c r="R49"/>
       <c r="V49" s="60"/>
@@ -40581,10 +40694,10 @@
       <c r="G50"/>
       <c r="J50" s="60"/>
       <c r="L50" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N50" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R50"/>
       <c r="V50" s="60"/>
@@ -40614,14 +40727,14 @@
       <c r="D53" s="59"/>
       <c r="E53" s="60"/>
       <c r="G53" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J53" s="60"/>
       <c r="L53" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="N53" s="67" t="s">
         <v>154</v>
-      </c>
-      <c r="N53" s="67" t="s">
-        <v>155</v>
       </c>
       <c r="P53"/>
       <c r="R53"/>
@@ -40634,14 +40747,14 @@
       <c r="D54" s="59"/>
       <c r="E54" s="60"/>
       <c r="G54" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J54" s="60"/>
       <c r="L54" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N54" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P54"/>
       <c r="R54"/>
@@ -40663,14 +40776,14 @@
       <c r="D56" s="59"/>
       <c r="E56" s="60"/>
       <c r="G56" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J56" s="60"/>
       <c r="L56" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="N56" s="61" t="s">
         <v>157</v>
-      </c>
-      <c r="N56" s="61" t="s">
-        <v>158</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
@@ -40684,14 +40797,14 @@
       <c r="D57" s="59"/>
       <c r="E57" s="60"/>
       <c r="G57" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J57" s="60"/>
       <c r="L57" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N57" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
@@ -40714,11 +40827,11 @@
       <c r="D59" s="59"/>
       <c r="E59" s="60"/>
       <c r="G59" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J59" s="60"/>
       <c r="L59" s="61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -40733,11 +40846,11 @@
       <c r="D60" s="59"/>
       <c r="E60" s="60"/>
       <c r="G60" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J60" s="60"/>
       <c r="L60" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
@@ -40761,14 +40874,14 @@
       <c r="D62" s="59"/>
       <c r="E62" s="60"/>
       <c r="G62" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J62" s="60"/>
       <c r="L62" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="N62" s="67" t="s">
         <v>162</v>
-      </c>
-      <c r="N62" s="67" t="s">
-        <v>163</v>
       </c>
       <c r="P62"/>
       <c r="Q62"/>
@@ -40782,14 +40895,14 @@
       <c r="D63" s="59"/>
       <c r="E63" s="60"/>
       <c r="G63" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J63" s="60"/>
       <c r="L63" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N63" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
@@ -40814,7 +40927,7 @@
       <c r="G65"/>
       <c r="J65" s="60"/>
       <c r="L65" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -40832,7 +40945,7 @@
       <c r="G66"/>
       <c r="J66" s="60"/>
       <c r="L66" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -40860,17 +40973,17 @@
       <c r="E68" s="60"/>
       <c r="F68"/>
       <c r="G68" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J68" s="60"/>
       <c r="L68" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="N68" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="N68" s="71" t="s">
+      <c r="P68" s="67" t="s">
         <v>167</v>
-      </c>
-      <c r="P68" s="67" t="s">
-        <v>168</v>
       </c>
       <c r="R68"/>
       <c r="V68" s="60"/>
@@ -40882,17 +40995,17 @@
       <c r="D69" s="59"/>
       <c r="E69" s="60"/>
       <c r="G69" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J69" s="60"/>
       <c r="L69" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N69" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P69" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R69"/>
       <c r="V69" s="60"/>
@@ -40914,13 +41027,13 @@
       <c r="E71" s="60"/>
       <c r="J71" s="60"/>
       <c r="L71" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="N71" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="N71" s="71" t="s">
+      <c r="P71" s="71" t="s">
         <v>170</v>
-      </c>
-      <c r="P71" s="71" t="s">
-        <v>171</v>
       </c>
       <c r="R71"/>
       <c r="V71" s="60"/>
@@ -40933,13 +41046,13 @@
       <c r="E72" s="60"/>
       <c r="J72" s="60"/>
       <c r="L72" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N72" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P72" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="60"/>
@@ -43055,7 +43168,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -43135,7 +43248,7 @@
       <c r="D3" s="75"/>
       <c r="E3" s="74"/>
       <c r="F3" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G3" s="77"/>
       <c r="H3" s="74"/>
@@ -43159,31 +43272,31 @@
       <c r="Z3" s="74"/>
       <c r="AA3" s="73"/>
       <c r="AC3" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="AD3" s="46" t="s">
+      <c r="AE3" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AF3" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" s="48" t="s">
+      <c r="AG3" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="AG3" s="49" t="s">
+      <c r="AH3" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="AH3" s="50" t="s">
+      <c r="AI3" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AJ3" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="AJ3" s="52" t="s">
+      <c r="AK3" s="53" t="s">
         <v>91</v>
-      </c>
-      <c r="AK3" s="53" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
@@ -43221,27 +43334,27 @@
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
       <c r="E5" s="73"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="80"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
       <c r="S5" s="81"/>
       <c r="T5" s="81"/>
       <c r="U5" s="81"/>
       <c r="V5" s="80"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
       <c r="AA5" s="73"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43357,13 +43470,13 @@
       <c r="E11" s="60"/>
       <c r="J11" s="60"/>
       <c r="L11" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="N11" s="83" t="s">
+      <c r="P11" s="83" t="s">
         <v>173</v>
-      </c>
-      <c r="P11" s="83" t="s">
-        <v>174</v>
       </c>
       <c r="Q11" s="63"/>
       <c r="R11" s="63"/>
@@ -43372,10 +43485,10 @@
       <c r="U11" s="63"/>
       <c r="V11" s="60"/>
       <c r="X11" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z11" s="83" t="s">
         <v>175</v>
-      </c>
-      <c r="Z11" s="83" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -43387,13 +43500,13 @@
       <c r="G12" s="66"/>
       <c r="J12" s="60"/>
       <c r="L12" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N12" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P12" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="66"/>
       <c r="R12" s="66"/>
@@ -43402,10 +43515,10 @@
       <c r="U12" s="66"/>
       <c r="V12" s="60"/>
       <c r="X12" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z12" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -43433,17 +43546,17 @@
       <c r="D15" s="59"/>
       <c r="E15" s="60"/>
       <c r="G15" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J15" s="60"/>
       <c r="L15" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="N15" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="N15" s="61" t="s">
+      <c r="P15" s="61" t="s">
         <v>179</v>
-      </c>
-      <c r="P15" s="61" t="s">
-        <v>180</v>
       </c>
       <c r="Q15" s="69"/>
       <c r="R15" s="69"/>
@@ -43459,17 +43572,17 @@
       <c r="D16" s="59"/>
       <c r="E16" s="60"/>
       <c r="G16" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" s="60"/>
       <c r="L16" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N16" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P16" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="66"/>
       <c r="R16"/>
@@ -43494,7 +43607,7 @@
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
       <c r="G18" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J18" s="60"/>
       <c r="V18" s="60"/>
@@ -43506,7 +43619,7 @@
       <c r="D19" s="59"/>
       <c r="E19" s="60"/>
       <c r="G19" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" s="60"/>
       <c r="V19" s="60"/>
@@ -43528,16 +43641,16 @@
       <c r="E21" s="60"/>
       <c r="J21" s="60"/>
       <c r="N21" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="P21" s="71" t="s">
+      <c r="R21" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="R21" s="61" t="s">
+      <c r="T21" s="61" t="s">
         <v>184</v>
-      </c>
-      <c r="T21" s="61" t="s">
-        <v>185</v>
       </c>
       <c r="V21" s="60"/>
     </row>
@@ -43549,16 +43662,16 @@
       <c r="E22" s="60"/>
       <c r="J22" s="60"/>
       <c r="N22" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P22" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R22" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T22" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V22" s="60"/>
     </row>
@@ -43578,11 +43691,11 @@
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
       <c r="G24" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J24" s="60"/>
       <c r="L24" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V24" s="60"/>
     </row>
@@ -43593,11 +43706,11 @@
       <c r="D25" s="59"/>
       <c r="E25" s="60"/>
       <c r="G25" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" s="60"/>
       <c r="L25" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V25" s="60"/>
     </row>
@@ -43635,17 +43748,17 @@
       <c r="D29" s="59"/>
       <c r="E29" s="60"/>
       <c r="G29" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J29" s="60"/>
       <c r="L29" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="N29" s="61" t="s">
+      <c r="P29" s="61" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="61" t="s">
-        <v>180</v>
       </c>
       <c r="Q29" s="69"/>
       <c r="R29" s="69"/>
@@ -43661,17 +43774,17 @@
       <c r="D30" s="59"/>
       <c r="E30" s="60"/>
       <c r="G30" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J30" s="60"/>
       <c r="L30" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N30" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P30" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="66"/>
       <c r="R30"/>
@@ -43696,7 +43809,7 @@
       <c r="D32" s="59"/>
       <c r="E32" s="60"/>
       <c r="G32" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J32" s="60"/>
       <c r="V32" s="60"/>
@@ -43708,7 +43821,7 @@
       <c r="D33" s="59"/>
       <c r="E33" s="60"/>
       <c r="G33" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J33" s="60"/>
       <c r="V33" s="60"/>
@@ -43730,16 +43843,16 @@
       <c r="E35" s="60"/>
       <c r="J35" s="60"/>
       <c r="N35" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="P35" s="71" t="s">
+      <c r="R35" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="R35" s="61" t="s">
+      <c r="T35" s="61" t="s">
         <v>184</v>
-      </c>
-      <c r="T35" s="61" t="s">
-        <v>185</v>
       </c>
       <c r="V35" s="60"/>
     </row>
@@ -43751,16 +43864,16 @@
       <c r="E36" s="60"/>
       <c r="J36" s="60"/>
       <c r="N36" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P36" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R36" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T36" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V36" s="60"/>
     </row>
@@ -43780,11 +43893,11 @@
       <c r="D38" s="59"/>
       <c r="E38" s="60"/>
       <c r="G38" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J38" s="60"/>
       <c r="L38" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V38" s="60"/>
     </row>
@@ -43795,11 +43908,11 @@
       <c r="D39" s="59"/>
       <c r="E39" s="60"/>
       <c r="G39" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J39" s="60"/>
       <c r="L39" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V39" s="60"/>
     </row>
@@ -43837,14 +43950,14 @@
       <c r="D43" s="59"/>
       <c r="E43" s="60"/>
       <c r="G43" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J43" s="60"/>
       <c r="N43" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="P43" s="61" t="s">
         <v>188</v>
-      </c>
-      <c r="P43" s="61" t="s">
-        <v>189</v>
       </c>
       <c r="U43" s="69"/>
       <c r="V43" s="60"/>
@@ -43856,14 +43969,14 @@
       <c r="D44" s="59"/>
       <c r="E44" s="60"/>
       <c r="G44" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J44" s="60"/>
       <c r="N44" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P44" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U44"/>
       <c r="V44" s="60"/>
@@ -43884,17 +43997,17 @@
       <c r="D46" s="59"/>
       <c r="E46" s="60"/>
       <c r="G46" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J46" s="60"/>
       <c r="N46" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="P46" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="P46" s="61" t="s">
+      <c r="R46" s="61" t="s">
         <v>191</v>
-      </c>
-      <c r="R46" s="61" t="s">
-        <v>192</v>
       </c>
       <c r="V46" s="60"/>
     </row>
@@ -43905,17 +44018,17 @@
       <c r="D47" s="59"/>
       <c r="E47" s="60"/>
       <c r="G47" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" s="60"/>
       <c r="N47" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P47" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R47" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V47" s="60"/>
     </row>
@@ -43935,17 +44048,17 @@
       <c r="D49" s="59"/>
       <c r="E49" s="60"/>
       <c r="G49" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J49" s="60"/>
       <c r="N49" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="P49" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="P49" s="61" t="s">
+      <c r="R49" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="R49" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="V49" s="60"/>
     </row>
@@ -43956,17 +44069,17 @@
       <c r="D50" s="59"/>
       <c r="E50" s="60"/>
       <c r="G50" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J50" s="60"/>
       <c r="N50" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P50" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R50" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V50" s="60"/>
     </row>
@@ -43991,10 +44104,10 @@
       <c r="G52"/>
       <c r="J52" s="60"/>
       <c r="N52" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="P52" s="61" t="s">
         <v>197</v>
-      </c>
-      <c r="P52" s="61" t="s">
-        <v>198</v>
       </c>
       <c r="R52"/>
       <c r="V52" s="60"/>
@@ -44008,10 +44121,10 @@
       <c r="G53"/>
       <c r="J53" s="60"/>
       <c r="N53" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P53" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R53"/>
       <c r="V53" s="60"/>
@@ -44033,10 +44146,10 @@
       <c r="E55" s="60"/>
       <c r="J55" s="60"/>
       <c r="N55" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="P55" s="61" t="s">
         <v>184</v>
-      </c>
-      <c r="P55" s="61" t="s">
-        <v>185</v>
       </c>
       <c r="R55"/>
       <c r="V55" s="60"/>
@@ -44049,10 +44162,10 @@
       <c r="E56" s="60"/>
       <c r="J56" s="60"/>
       <c r="N56" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P56" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R56"/>
       <c r="V56" s="60"/>
@@ -44074,13 +44187,13 @@
       <c r="E58" s="60"/>
       <c r="J58" s="60"/>
       <c r="N58" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P58" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="R58" s="71" t="s">
         <v>199</v>
-      </c>
-      <c r="R58" s="71" t="s">
-        <v>200</v>
       </c>
       <c r="V58" s="60"/>
     </row>
@@ -44092,13 +44205,13 @@
       <c r="E59" s="60"/>
       <c r="J59" s="60"/>
       <c r="N59" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P59" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R59" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V59" s="60"/>
     </row>
@@ -44136,14 +44249,14 @@
       <c r="D63" s="59"/>
       <c r="E63" s="60"/>
       <c r="G63" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J63" s="60"/>
       <c r="N63" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="P63" s="61" t="s">
         <v>188</v>
-      </c>
-      <c r="P63" s="61" t="s">
-        <v>189</v>
       </c>
       <c r="U63" s="69"/>
       <c r="V63" s="60"/>
@@ -44155,14 +44268,14 @@
       <c r="D64" s="59"/>
       <c r="E64" s="60"/>
       <c r="G64" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J64" s="60"/>
       <c r="N64" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P64" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U64" s="66"/>
       <c r="V64" s="60"/>
@@ -44183,17 +44296,17 @@
       <c r="D66" s="59"/>
       <c r="E66" s="60"/>
       <c r="G66" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J66" s="60"/>
       <c r="N66" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="P66" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="P66" s="61" t="s">
+      <c r="R66" s="61" t="s">
         <v>191</v>
-      </c>
-      <c r="R66" s="61" t="s">
-        <v>192</v>
       </c>
       <c r="V66" s="60"/>
     </row>
@@ -44204,17 +44317,17 @@
       <c r="D67" s="59"/>
       <c r="E67" s="60"/>
       <c r="G67" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J67" s="60"/>
       <c r="N67" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P67" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R67" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V67" s="60"/>
     </row>
@@ -44234,17 +44347,17 @@
       <c r="D69" s="59"/>
       <c r="E69" s="60"/>
       <c r="G69" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J69" s="60"/>
       <c r="N69" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="P69" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="P69" s="61" t="s">
+      <c r="R69" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="R69" s="61" t="s">
-        <v>196</v>
       </c>
       <c r="V69" s="60"/>
     </row>
@@ -44255,17 +44368,17 @@
       <c r="D70" s="59"/>
       <c r="E70" s="60"/>
       <c r="G70" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J70" s="60"/>
       <c r="N70" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P70" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R70" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V70" s="60"/>
     </row>
@@ -44288,14 +44401,14 @@
       <c r="E72" s="60"/>
       <c r="F72"/>
       <c r="G72" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J72" s="60"/>
       <c r="N72" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="P72" s="61" t="s">
         <v>197</v>
-      </c>
-      <c r="P72" s="61" t="s">
-        <v>198</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="60"/>
@@ -44307,14 +44420,14 @@
       <c r="D73" s="59"/>
       <c r="E73" s="60"/>
       <c r="G73" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J73" s="60"/>
       <c r="N73" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P73" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R73"/>
       <c r="V73" s="60"/>
@@ -44336,10 +44449,10 @@
       <c r="E75" s="60"/>
       <c r="J75" s="60"/>
       <c r="N75" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="P75" s="61" t="s">
         <v>184</v>
-      </c>
-      <c r="P75" s="61" t="s">
-        <v>185</v>
       </c>
       <c r="R75"/>
       <c r="V75" s="60"/>
@@ -44352,10 +44465,10 @@
       <c r="E76" s="60"/>
       <c r="J76" s="60"/>
       <c r="N76" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P76" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R76"/>
       <c r="V76" s="60"/>
@@ -44377,13 +44490,13 @@
       <c r="E78" s="60"/>
       <c r="J78" s="60"/>
       <c r="N78" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P78" s="72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R78" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V78" s="60"/>
     </row>
@@ -44395,13 +44508,13 @@
       <c r="E79" s="60"/>
       <c r="J79" s="60"/>
       <c r="N79" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P79" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R79" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V79" s="60"/>
     </row>
@@ -44435,25 +44548,25 @@
       <c r="D83" s="59"/>
       <c r="E83" s="60"/>
       <c r="G83" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J83" s="60"/>
       <c r="L83" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="N83" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="N83" s="61" t="s">
+      <c r="P83" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="P83" s="61" t="s">
-        <v>206</v>
-      </c>
       <c r="R83" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U83" s="69"/>
       <c r="V83" s="60"/>
       <c r="X83" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44463,25 +44576,25 @@
       <c r="D84" s="59"/>
       <c r="E84" s="60"/>
       <c r="G84" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J84" s="60"/>
       <c r="L84" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N84" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P84" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R84" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U84"/>
       <c r="V84" s="60"/>
       <c r="X84" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44500,24 +44613,24 @@
       <c r="D86" s="59"/>
       <c r="E86" s="60"/>
       <c r="G86" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J86" s="60"/>
       <c r="L86" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="N86" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="N86" s="71" t="s">
+      <c r="P86" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="P86" s="61" t="s">
+      <c r="R86" s="61" t="s">
         <v>210</v>
-      </c>
-      <c r="R86" s="61" t="s">
-        <v>211</v>
       </c>
       <c r="V86" s="60"/>
       <c r="X86" s="61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44527,24 +44640,24 @@
       <c r="D87" s="59"/>
       <c r="E87" s="60"/>
       <c r="G87" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J87" s="60"/>
       <c r="L87" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N87" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P87" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R87" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V87" s="60"/>
       <c r="X87" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44563,24 +44676,24 @@
       <c r="D89" s="59"/>
       <c r="E89" s="60"/>
       <c r="G89" s="61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J89" s="60"/>
       <c r="L89" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="N89" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="N89" s="61" t="s">
+      <c r="P89" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="R89" s="61" t="s">
         <v>215</v>
-      </c>
-      <c r="P89" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="R89" s="61" t="s">
-        <v>216</v>
       </c>
       <c r="V89" s="60"/>
       <c r="X89" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44590,24 +44703,24 @@
       <c r="D90" s="59"/>
       <c r="E90" s="60"/>
       <c r="G90" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J90" s="60"/>
       <c r="L90" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N90" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P90" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R90" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V90" s="60"/>
       <c r="X90" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44629,24 +44742,24 @@
       <c r="E92" s="60"/>
       <c r="F92"/>
       <c r="G92" s="67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J92" s="60"/>
       <c r="L92" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="N92" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="N92" s="61" t="s">
+      <c r="P92" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="P92" s="61" t="s">
+      <c r="R92" s="61" t="s">
         <v>221</v>
-      </c>
-      <c r="R92" s="61" t="s">
-        <v>222</v>
       </c>
       <c r="V92" s="60"/>
       <c r="X92" s="61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44656,24 +44769,24 @@
       <c r="D93" s="59"/>
       <c r="E93" s="60"/>
       <c r="G93" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J93" s="60"/>
       <c r="L93" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N93" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P93" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R93" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V93" s="60"/>
       <c r="X93" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44692,14 +44805,14 @@
       <c r="D95" s="59"/>
       <c r="E95" s="60"/>
       <c r="G95" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J95" s="60"/>
       <c r="L95" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="N95" s="61" t="s">
         <v>225</v>
-      </c>
-      <c r="N95" s="61" t="s">
-        <v>226</v>
       </c>
       <c r="P95"/>
       <c r="Q95"/>
@@ -44713,14 +44826,14 @@
       <c r="D96" s="59"/>
       <c r="E96" s="60"/>
       <c r="G96" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J96" s="60"/>
       <c r="L96" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N96" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P96"/>
       <c r="Q96"/>
@@ -44746,7 +44859,7 @@
       <c r="D98" s="59"/>
       <c r="E98" s="60"/>
       <c r="G98" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J98" s="60"/>
       <c r="L98"/>
@@ -44765,7 +44878,7 @@
       <c r="D99" s="59"/>
       <c r="E99" s="60"/>
       <c r="G99" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J99" s="60"/>
       <c r="L99"/>
@@ -44790,7 +44903,7 @@
       <c r="E101" s="60"/>
       <c r="F101" s="84"/>
       <c r="G101" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J101" s="60"/>
       <c r="V101" s="60"/>
@@ -44798,7 +44911,7 @@
     <row r="102" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E102" s="60"/>
       <c r="G102" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J102" s="60"/>
       <c r="V102" s="60"/>
@@ -44814,16 +44927,16 @@
       <c r="G104" s="85"/>
       <c r="J104" s="60"/>
       <c r="L104" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="N104" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="N104" s="71" t="s">
+      <c r="P104" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="P104" s="61" t="s">
+      <c r="R104" s="61" t="s">
         <v>231</v>
-      </c>
-      <c r="R104" s="61" t="s">
-        <v>232</v>
       </c>
       <c r="V104" s="60"/>
     </row>
@@ -44831,16 +44944,16 @@
       <c r="E105" s="60"/>
       <c r="J105" s="60"/>
       <c r="L105" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N105" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P105" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R105" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V105" s="60"/>
     </row>
@@ -44853,10 +44966,10 @@
       <c r="E107" s="60"/>
       <c r="J107" s="60"/>
       <c r="L107" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="N107" s="61" t="s">
         <v>233</v>
-      </c>
-      <c r="N107" s="61" t="s">
-        <v>234</v>
       </c>
       <c r="V107" s="60"/>
     </row>
@@ -44864,10 +44977,10 @@
       <c r="E108" s="60"/>
       <c r="J108" s="60"/>
       <c r="L108" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N108" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V108" s="60"/>
     </row>
@@ -44897,30 +45010,30 @@
       <c r="D112" s="59"/>
       <c r="E112" s="60"/>
       <c r="G112" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J112" s="60"/>
       <c r="L112" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="N112" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="N112" s="61" t="s">
+      <c r="P112" s="61" t="s">
         <v>237</v>
-      </c>
-      <c r="P112" s="61" t="s">
-        <v>238</v>
       </c>
       <c r="Q112" s="69"/>
       <c r="R112" s="61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S112" s="69"/>
       <c r="T112" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U112" s="69"/>
       <c r="V112" s="60"/>
       <c r="X112" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44930,30 +45043,30 @@
       <c r="D113" s="59"/>
       <c r="E113" s="60"/>
       <c r="G113" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J113" s="60"/>
       <c r="L113" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N113" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P113" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q113" s="66"/>
       <c r="R113" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S113" s="66"/>
       <c r="T113" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U113" s="66"/>
       <c r="V113" s="60"/>
       <c r="X113" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -44972,27 +45085,27 @@
       <c r="D115" s="59"/>
       <c r="E115" s="60"/>
       <c r="G115" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J115" s="60"/>
       <c r="L115" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N115" s="61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P115" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="R115" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="T115" s="61" t="s">
         <v>243</v>
-      </c>
-      <c r="R115" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="T115" s="61" t="s">
-        <v>244</v>
       </c>
       <c r="V115" s="60"/>
       <c r="X115" s="61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -45002,27 +45115,27 @@
       <c r="D116" s="59"/>
       <c r="E116" s="60"/>
       <c r="G116" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J116" s="60"/>
       <c r="L116" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N116" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P116" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R116" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T116" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V116" s="60"/>
       <c r="X116" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -45630,26 +45743,232 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8363E681-A1AE-4887-9EC0-161837175EE7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="4.33203125" style="97" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+    </row>
+    <row r="3" spans="1:32" ht="31" x14ac:dyDescent="0.2">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
-  <dimension ref="C1:I43"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -45659,307 +45978,479 @@
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" s="88" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:6" ht="50" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
+    <row r="1" spans="1:32" s="88" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+    </row>
+    <row r="3" spans="1:32" ht="31" x14ac:dyDescent="0.2">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+    </row>
+    <row r="10" spans="1:32" ht="50" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="28" x14ac:dyDescent="0.35">
-      <c r="C5" s="9" t="s">
+    <row r="12" spans="1:32" ht="28" x14ac:dyDescent="0.35">
+      <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="9"/>
+    <row r="13" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="9"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+    <row r="15" spans="1:32" ht="17" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10">
+      <c r="D16" s="5"/>
+      <c r="E16" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="5" t="s">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10">
+      <c r="D17" s="5"/>
+      <c r="E17" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="5" t="s">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10">
+      <c r="D18" s="5"/>
+      <c r="E18" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="5" t="s">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10">
+      <c r="D19" s="5"/>
+      <c r="E19" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="5" t="s">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10">
+      <c r="D20" s="5"/>
+      <c r="E20" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="6" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+    <row r="23" spans="3:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="5" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="10">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="10">
         <v>1</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G24" s="5"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="5" t="s">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="10">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="10">
         <v>1</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G25" s="5"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="5" t="s">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="10">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="10">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G26" s="5"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="5" t="s">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="10">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="10">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G27" s="5"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="5" t="s">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="10">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="10">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G28" s="5"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="5" t="s">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="10">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G29" s="5"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="4" t="s">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="10" t="s">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="10" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="28" x14ac:dyDescent="0.35">
-      <c r="C31" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="12">
-        <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="12">
-        <v>1</v>
+      <c r="C34" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="11">
         <v>30</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="12">
-        <v>0.05</v>
-      </c>
     </row>
-    <row r="39" spans="3:9" ht="28" x14ac:dyDescent="0.35">
-      <c r="C39" s="9" t="s">
-        <v>31</v>
+    <row r="38" spans="3:9" ht="28" x14ac:dyDescent="0.35">
+      <c r="C38" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="C40" s="7" t="s">
+    <row r="39" spans="3:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="13" t="s">
-        <v>38</v>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="12">
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="14">
-        <v>32</v>
+      <c r="I41" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="14">
+      <c r="I42" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="28" x14ac:dyDescent="0.35">
+      <c r="C46" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="C47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C43" s="5" t="s">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="14">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="14">
         <v>3</v>
       </c>
     </row>
@@ -45972,7 +46463,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B22CC3-1E7C-46FC-913F-FE980CD50DF3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45981,530 +46472,961 @@
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:32" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+    </row>
+    <row r="3" spans="1:32" ht="31" x14ac:dyDescent="0.2">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
-  <dimension ref="B1:J42"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="103.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="2" max="5" width="5.33203125" customWidth="1"/>
+    <col min="6" max="6" width="103.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:10" ht="50" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+    <row r="1" spans="1:21" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+    </row>
+    <row r="2" spans="1:21" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+    </row>
+    <row r="3" spans="1:21" s="97" customFormat="1" ht="31" x14ac:dyDescent="0.2">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+    </row>
+    <row r="4" spans="1:21" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+    </row>
+    <row r="5" spans="1:21" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="28"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="28"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="28"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="33" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="15"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="15"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="15"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="29"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="29"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="29"/>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="15"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="29"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="32" t="s">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="15"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="29"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="29"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="15"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="29"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="33" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="15"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="29"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="15"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="29"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="29"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="29"/>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="15"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="29"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
-      <c r="C13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
-      <c r="C14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="15"/>
-      <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
-      <c r="C18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
-      <c r="C19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
-      <c r="C20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
-      <c r="C21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="29"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="15"/>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
-      <c r="C24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="C25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
-      <c r="C28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="29"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
-      <c r="C29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
-      <c r="C30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="15"/>
-      <c r="C31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
-      <c r="C34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="29"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="C35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="29"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="29"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="29"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="29"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="29"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="29"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="29"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="16"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="31"/>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="15"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="29"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="15"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="29"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="15"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="29"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10604"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3419B76-BD8C-D94E-B131-EB029096DA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDEA02-68F8-F242-97D8-31AD9E2EC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="710" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="46080" yWindow="-3940" windowWidth="40960" windowHeight="23040" tabRatio="710" activeTab="1" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -52,8 +52,240 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{C3B10DBD-B82C-FA43-A1DF-0FA363DD4218}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Establish the high level security posture of the organization. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This will drive how the conditional access policies should look like.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{EE3D982D-EC6C-884D-9816-32867CD70F20}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rollout Conditional Access policies to protect your apps with MFA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0" shapeId="0" xr:uid="{C6B42E34-C23D-9B49-9EE8-B588C9C92B16}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Update your CA policies to allow access from compliant device, or hybrid ad join</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{647F570A-60C4-404C-91E8-1EF912B47378}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Update your CA policies to include additional controls for based on user and sign-in risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R11" authorId="0" shapeId="0" xr:uid="{DAD2FA75-5FB0-D749-99AB-2CFB10244BFC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Deploy cross-tenant access policies, and create dedicated conditional access policies targeting external users</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00723F6C-0BC8-AB4C-8F5E-287DA61A7AA4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>New applications procured or built by the organization use modern authentication protocols and use Azure AD as the identity provider.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{DDB8F416-E0FC-C044-AD35-158F82E71844}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Configure your VPN infrastructure to use Azure AD for SSO.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{A8B8F0EB-70BF-E948-9A49-84ACA8A220B4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Deploy AppProxy and/or SHA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{195AE507-FE53-CB4E-A997-BE3C0CDA041C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Define Access Reviews for application assignments and for underlying security group</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{9F8D778B-9696-CE48-8A11-139A641E0E4C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri Light"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Identify all the modern auth applications that are not in Azure AD and migrate to Azure AD.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri Light"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri Light"/>
+            <family val="34"/>
+          </rPr>
+          <t>This includes apps based on SAML, WS-Federation, Oauth, or Open ID Connect across the existing systems (ADFS, or similar on prem or cloud IDPs) that will be migrated to Azure AD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N17" authorId="0" shapeId="0" xr:uid="{5CA7E3DC-A76E-9F49-9A47-E21CF389831B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enable Azure AD Domain Services to prepare the migration of servers that are currently joined to on-premises infrastructure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0" shapeId="0" xr:uid="{38A06F51-B133-1F4B-9C34-E06708B075F9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Move servers in your on-premises domain to either Azure AD Domain Services, or virtualized domain controllers in IaaS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R17" authorId="0" shapeId="0" xr:uid="{6C6B6BE1-DD1F-EF4B-A8B7-36D53357DEE2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Define approach to VDI to either adopt a cloud-managed solution like Windows 365 or Azure Virtual Desktop, or integrate existing solution with Azure AD for SSO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{E4B97FD2-895D-774E-A596-54790848DF7D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mj-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Identify all the applications in the environment that use Integrated Windows Authentication, LDAP, Kerberos, or similar legacy protocols</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="255">
   <si>
     <t>Devices</t>
   </si>
@@ -332,18 +564,6 @@
   </si>
   <si>
     <t>Design Conditional Access posture</t>
-  </si>
-  <si>
-    <t>Conditional Access with MFA controls</t>
-  </si>
-  <si>
-    <t>Conditional Access with device controls</t>
-  </si>
-  <si>
-    <t>Conditional Access with risk controls</t>
-  </si>
-  <si>
-    <t>Conditional Access for External Identities</t>
   </si>
   <si>
     <t>Stop buying or building Active Directory dependent apps</t>
@@ -815,12 +1035,30 @@
   <si>
     <t>Azure Active Directory Assessment Results</t>
   </si>
+  <si>
+    <t>Rollout Conditional Access for Workload Identities</t>
+  </si>
+  <si>
+    <t>Enforce authentication with strong creds for all privileged accounts</t>
+  </si>
+  <si>
+    <t>Rollout CA with risk controls</t>
+  </si>
+  <si>
+    <t>Rollout CA with device controls</t>
+  </si>
+  <si>
+    <t>Rollout CA with MFA controls</t>
+  </si>
+  <si>
+    <t>Rollout CA for External Identities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1042,6 +1280,18 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="+mj-lt"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="34"/>
     </font>
   </fonts>
   <fills count="22">
@@ -1354,7 +1604,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1536,6 +1786,9 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1548,12 +1801,6 @@
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1562,12 +1809,170 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="142">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1644,12 +2049,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1657,7 +2062,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1673,13 +2097,51 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1692,10 +2154,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1706,7 +2171,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1791,12 +2275,554 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1875,7 +2901,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1883,7 +2920,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1899,51 +2955,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1955,616 +2970,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16172,6 +16577,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="20" name="Graphic 19">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0966660E-816A-4FE5-91CB-43BD87D90A58}"/>
@@ -16183,10 +16589,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16222,6 +16628,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="21" name="Graphic 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF75BDB-E37B-4EB1-9DB0-125890741ED6}"/>
@@ -16233,10 +16640,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16272,6 +16679,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="22" name="Graphic 21">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F956E146-0608-49CD-BB91-B528EC0FABB9}"/>
@@ -16283,10 +16691,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16322,6 +16730,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="Graphic 22">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC13BED9-7F18-414E-8828-EE9AAB344AEA}"/>
@@ -16333,10 +16742,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16372,6 +16781,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="24" name="Graphic 23">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EA72D3-C6AB-439F-8602-AF504F2454CC}"/>
@@ -16383,10 +16793,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16422,6 +16832,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="25" name="IconGrantMultifactorAuthentication">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9087FF93-931F-4A53-A549-4CE397B08CEE}"/>
@@ -16433,10 +16844,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16751,10 +17162,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16801,10 +17212,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17209,10 +17620,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17350,10 +17761,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId34"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17475,10 +17886,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId36"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -17969,6 +18380,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="45" name="Graphic 44">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437B74C4-7B93-47DA-AA7D-CA29B4AE8428}"/>
@@ -17980,10 +18392,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18019,6 +18431,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="46" name="Graphic 45">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AB21BC-F109-4F6D-8AA8-9837F36DAF57}"/>
@@ -18030,10 +18443,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId34"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId42"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18064,6 +18477,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="47" name="Graphic 46">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D99AC9E-00A7-4BC3-AB1A-09C770132A51}"/>
@@ -18075,10 +18489,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId36"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId45"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18114,6 +18528,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="48" name="Graphic 47">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFED0CE3-BC41-4365-B311-F781E63B9ACC}"/>
@@ -18125,10 +18540,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18175,10 +18590,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18225,10 +18640,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId42"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18275,10 +18690,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId44"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18314,6 +18729,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="52" name="Graphic 51">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C52011F-EF1B-484C-9A60-B151F92CEE4B}"/>
@@ -18325,10 +18741,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18364,6 +18780,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="53" name="Graphic 52">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E115FD-7FEA-493A-B8D9-682513DF2C2E}"/>
@@ -18425,10 +18842,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18475,10 +18892,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId60"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -18544,10 +18961,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -18579,10 +18996,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -18619,6 +19036,7 @@
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="59" name="Group 58">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B1A6B0-1E09-4877-9086-5555BE2F846D}"/>
@@ -18649,10 +19067,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -18684,10 +19102,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -18754,10 +19172,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -18789,10 +19207,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId69"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -18859,10 +19277,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId58"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -18894,10 +19312,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId56"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId69"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -18945,10 +19363,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19014,10 +19432,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -19621,10 +20039,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -19656,10 +20074,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -19707,10 +20125,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId60"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19757,10 +20175,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19807,10 +20225,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId77"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19857,10 +20275,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId66"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId79"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -19961,10 +20379,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -20031,10 +20449,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -20066,10 +20484,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -20136,10 +20554,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -20171,10 +20589,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -20222,10 +20640,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20272,10 +20690,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId68"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId81"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20322,10 +20740,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId70"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20372,10 +20790,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId72"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId85"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20422,10 +20840,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId86"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20491,10 +20909,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -20526,10 +20944,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -20577,10 +20995,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId88"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20627,10 +21045,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId77"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId90"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -20677,10 +21095,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId79"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId92"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22514,13 +22932,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId81"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId94"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22567,10 +22985,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId96"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22636,10 +23054,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId70"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -22671,10 +23089,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -22722,10 +23140,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId85"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId98"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22772,10 +23190,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId87"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId100"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22822,10 +23240,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId89"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId102"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22872,10 +23290,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22941,10 +23359,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -22976,10 +23394,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -23027,10 +23445,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId48"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId60"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23131,10 +23549,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId62"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -23182,10 +23600,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId91"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId104"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23232,10 +23650,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId93"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId106"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23336,10 +23754,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId93"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId106"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -23406,10 +23824,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId95"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId108"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -23441,10 +23859,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId52"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -23492,10 +23910,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId70"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23542,10 +23960,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId97"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId110"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23592,10 +24010,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId97"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId110"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23642,10 +24060,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId64"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId77"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23692,10 +24110,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId99"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId112"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23742,10 +24160,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId101"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId114"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23792,10 +24210,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId103"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId116"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23842,10 +24260,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId86"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23892,10 +24310,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId105"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId118"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23942,10 +24360,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId107"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId120"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23992,10 +24410,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId121">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId109"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId122"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24042,10 +24460,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId123">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId111"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId124"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24092,10 +24510,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId125">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId113"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId126"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24142,10 +24560,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId127">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId115"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId128"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24192,10 +24610,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId116"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId129"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24242,10 +24660,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId130">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId118"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId131"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24292,10 +24710,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId132">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId120"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId133"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24342,10 +24760,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId121">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId134">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId122"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId135"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24392,10 +24810,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId123">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId136">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId124"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId137"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24442,10 +24860,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId125">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId138">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId126"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId139"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -24511,10 +24929,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId127">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId140">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId128"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId141"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -24535,7 +24953,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="13" name="Rounded Rectangle 68">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId129"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId142"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AF9766-91FD-4FA1-B63A-E9D958B2006D}"/>
@@ -24596,7 +25014,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="155" name="Rectangle: Rounded Corners 154">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId143"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB52BAFC-57F3-DC0D-5CE9-B9FA94E4E223}"/>
@@ -24648,7 +25066,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="156" name="Rectangle: Rounded Corners 155">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId131"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId144"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB51F562-AD1A-45D6-B4C8-267047625BD1}"/>
@@ -24709,7 +25127,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="157" name="Rectangle: Rounded Corners 156">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId145"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529AFD91-2A5F-4B9E-AB8A-96043DA26673}"/>
@@ -24770,7 +25188,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="158" name="Rectangle: Rounded Corners 157">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId133"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId146"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC103D6D-146F-4C8A-A70C-5E052C7F4F96}"/>
@@ -24827,7 +25245,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="159" name="Rectangle: Rounded Corners 158">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId134"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId147"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC51B2A8-60A1-4FFB-8A38-E063F98AB2CB}"/>
@@ -24884,7 +25302,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="160" name="Rectangle: Rounded Corners 159">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId135"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId148"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E55A9E8-A8D7-4AD9-B21C-E4CAA59169DB}"/>
@@ -24936,7 +25354,7 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="161" name="Rectangle: Rounded Corners 160">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId136"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId149"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53E7B9C-A1F0-4201-844C-6A34E8F82207}"/>
@@ -24986,6 +25404,106 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>461600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>626700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="Graphic 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EF7BE4-91E9-CB4C-B569-0A4ECA8095B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10045700" y="29768800"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>397000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>626700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="IconGrantMultifactorAuthentication">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD1986D-27BB-094B-829D-02EB35B0F708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12166600" y="29768800"/>
+          <a:ext cx="270000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -39317,9 +39835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6C57C3-010E-3649-B978-A4ACB529691A}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" style="2" customWidth="1"/>
@@ -39332,7 +39850,7 @@
     <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="30" customHeight="1">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -39361,7 +39879,7 @@
       <c r="Z1" s="86"/>
       <c r="AA1" s="86"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" s="89"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -39390,13 +39908,13 @@
       <c r="Z2" s="89"/>
       <c r="AA2" s="89"/>
     </row>
-    <row r="3" spans="1:27" ht="31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="31">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
@@ -39421,7 +39939,7 @@
       <c r="Z3" s="89"/>
       <c r="AA3" s="89"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" s="89"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
@@ -39450,13 +39968,13 @@
       <c r="Z4" s="89"/>
       <c r="AA4" s="89"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" s="89"/>
       <c r="B5" s="89"/>
       <c r="C5" s="89"/>
       <c r="D5" s="89"/>
       <c r="E5" s="92" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
@@ -39481,7 +39999,7 @@
       <c r="Z5" s="89"/>
       <c r="AA5" s="89"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6" s="89"/>
       <c r="B6" s="89"/>
       <c r="C6" s="89"/>
@@ -39510,13 +40028,13 @@
       <c r="Z6" s="89"/>
       <c r="AA6" s="89"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" s="89"/>
       <c r="B7" s="89"/>
       <c r="C7" s="89"/>
       <c r="D7" s="89"/>
       <c r="E7" s="92" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F7" s="89"/>
       <c r="G7" s="89"/>
@@ -39541,7 +40059,7 @@
       <c r="Z7" s="89"/>
       <c r="AA7" s="89"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" s="89"/>
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
@@ -39570,7 +40088,7 @@
       <c r="Z8" s="89"/>
       <c r="AA8" s="89"/>
     </row>
-    <row r="9" spans="1:27" ht="50" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:27" ht="50">
       <c r="D9" s="1"/>
     </row>
   </sheetData>
@@ -39581,19 +40099,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2427E81-A9D4-416D-8A7C-62D85A12860D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2427E81-A9D4-416D-8A7C-62D85A12860D}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AK150"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="37" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="37"/>
@@ -39625,7 +40143,7 @@
     <col min="38" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="30" customHeight="1">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -39654,7 +40172,7 @@
       <c r="Z1" s="86"/>
       <c r="AA1" s="86"/>
     </row>
-    <row r="2" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="10" customHeight="1">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -39691,7 +40209,7 @@
       <c r="AJ2" s="38"/>
       <c r="AK2" s="38"/>
     </row>
-    <row r="3" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="41" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -39749,7 +40267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="11" customHeight="1">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -39778,36 +40296,36 @@
       <c r="Z4" s="36"/>
       <c r="AA4" s="36"/>
     </row>
-    <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:37" ht="30" customHeight="1">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="54"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
       <c r="Q5" s="55"/>
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
       <c r="T5" s="55"/>
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
       <c r="AA5" s="36"/>
     </row>
-    <row r="6" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="5" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -39836,7 +40354,7 @@
       <c r="Z6" s="54"/>
       <c r="AA6" s="36"/>
     </row>
-    <row r="7" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="14" customHeight="1">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -39865,7 +40383,7 @@
       <c r="Z7" s="56"/>
       <c r="AA7" s="56"/>
     </row>
-    <row r="8" spans="1:37" ht="4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="4" customHeight="1">
       <c r="A8" s="57"/>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
@@ -39894,7 +40412,7 @@
       <c r="Z8" s="58"/>
       <c r="AA8" s="58"/>
     </row>
-    <row r="9" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="30" customHeight="1">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -39903,7 +40421,7 @@
       <c r="J9" s="60"/>
       <c r="V9" s="60"/>
     </row>
-    <row r="10" spans="1:37" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" ht="10" customHeight="1" thickBot="1">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -39912,7 +40430,7 @@
       <c r="J10" s="60"/>
       <c r="V10" s="60"/>
     </row>
-    <row r="11" spans="1:37" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="68" customHeight="1">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -39922,18 +40440,18 @@
         <v>92</v>
       </c>
       <c r="J11" s="60"/>
-      <c r="L11" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="62" t="s">
-        <v>95</v>
+      <c r="L11" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="P11" s="68" t="s">
+        <v>251</v>
       </c>
       <c r="Q11" s="63"/>
-      <c r="R11" s="64" t="s">
-        <v>96</v>
+      <c r="R11" s="68" t="s">
+        <v>254</v>
       </c>
       <c r="S11" s="63"/>
       <c r="T11" s="63"/>
@@ -39943,7 +40461,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
     </row>
-    <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="59"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -39974,7 +40492,7 @@
       <c r="Y12"/>
       <c r="Z12"/>
     </row>
-    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -39983,24 +40501,24 @@
       <c r="J13" s="60"/>
       <c r="V13" s="60"/>
     </row>
-    <row r="14" spans="1:37" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="68" customHeight="1">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
       <c r="E14" s="60"/>
       <c r="G14" s="67" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J14" s="60"/>
       <c r="L14" s="61" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N14" s="64" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P14" s="68" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="69"/>
       <c r="R14" s="69"/>
@@ -40009,7 +40527,7 @@
       <c r="U14" s="69"/>
       <c r="V14" s="60"/>
     </row>
-    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -40035,7 +40553,7 @@
       <c r="U15" s="66"/>
       <c r="V15" s="60"/>
     </row>
-    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="59"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -40044,34 +40562,34 @@
       <c r="J16" s="60"/>
       <c r="V16" s="60"/>
     </row>
-    <row r="17" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="68" customHeight="1">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
       <c r="E17" s="60"/>
       <c r="G17" s="61" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J17" s="60"/>
       <c r="L17" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="T17" s="62" t="s">
         <v>102</v>
-      </c>
-      <c r="N17" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="R17" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="T17" s="62" t="s">
-        <v>106</v>
       </c>
       <c r="V17" s="60"/>
     </row>
-    <row r="18" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="59"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -40098,7 +40616,7 @@
       </c>
       <c r="V18" s="60"/>
     </row>
-    <row r="19" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -40107,32 +40625,32 @@
       <c r="J19" s="60"/>
       <c r="V19" s="60"/>
     </row>
-    <row r="20" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="68" customHeight="1">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="60"/>
       <c r="G20" s="61" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J20" s="60"/>
       <c r="L20" s="68" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N20" s="68" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P20" s="61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R20" s="67" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T20"/>
       <c r="V20" s="60"/>
     </row>
-    <row r="21" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="59"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -40156,7 +40674,7 @@
       </c>
       <c r="V21" s="60"/>
     </row>
-    <row r="22" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="30" customHeight="1">
       <c r="A22" s="59"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -40175,7 +40693,7 @@
       <c r="T22"/>
       <c r="V22" s="60"/>
     </row>
-    <row r="23" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
@@ -40184,37 +40702,37 @@
       <c r="J23" s="60"/>
       <c r="V23" s="60"/>
     </row>
-    <row r="24" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="68" customHeight="1">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
       <c r="G24" s="71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J24" s="60"/>
       <c r="L24" s="64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N24" s="68" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P24" s="68" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R24" s="68" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="V24" s="60"/>
       <c r="X24" s="68" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Z24" s="64" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -40244,7 +40762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="59"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -40253,38 +40771,38 @@
       <c r="J26" s="60"/>
       <c r="V26" s="60"/>
     </row>
-    <row r="27" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="68" customHeight="1">
       <c r="A27" s="59"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
       <c r="E27" s="60"/>
       <c r="G27" s="67" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J27" s="60"/>
       <c r="L27" s="67" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N27" s="71" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P27" s="67" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q27" s="69"/>
       <c r="R27" s="67" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="S27" s="69"/>
       <c r="T27" s="69"/>
       <c r="U27" s="69"/>
       <c r="V27" s="60"/>
       <c r="X27" s="68" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="59"/>
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
@@ -40315,7 +40833,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="59"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -40324,7 +40842,7 @@
       <c r="J29" s="60"/>
       <c r="V29" s="60"/>
     </row>
-    <row r="30" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="68" customHeight="1">
       <c r="A30" s="59"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
@@ -40333,23 +40851,23 @@
       <c r="G30"/>
       <c r="J30" s="60"/>
       <c r="L30" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="R30" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="T30" s="71" t="s">
         <v>125</v>
-      </c>
-      <c r="N30" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="P30" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="R30" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="T30" s="71" t="s">
-        <v>129</v>
       </c>
       <c r="V30" s="60"/>
     </row>
-    <row r="31" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="59"/>
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
@@ -40374,7 +40892,7 @@
       </c>
       <c r="V31" s="60"/>
     </row>
-    <row r="32" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="59"/>
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
@@ -40383,7 +40901,7 @@
       <c r="J32" s="60"/>
       <c r="V32" s="60"/>
     </row>
-    <row r="33" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="68" customHeight="1">
       <c r="A33" s="59"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
@@ -40391,20 +40909,20 @@
       <c r="E33" s="60"/>
       <c r="J33" s="60"/>
       <c r="L33" s="61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P33" s="71" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
       <c r="V33" s="60"/>
     </row>
-    <row r="34" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="59"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
@@ -40425,7 +40943,7 @@
       <c r="T34"/>
       <c r="V34" s="60"/>
     </row>
-    <row r="35" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
@@ -40434,7 +40952,7 @@
       <c r="J35" s="60"/>
       <c r="V35" s="60"/>
     </row>
-    <row r="36" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="68" customHeight="1">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -40443,23 +40961,23 @@
       <c r="G36"/>
       <c r="J36" s="60"/>
       <c r="L36" s="71" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N36" s="61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P36" s="61" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="R36" s="61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="V36" s="60"/>
       <c r="X36" s="61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
@@ -40484,7 +41002,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
@@ -40493,7 +41011,7 @@
       <c r="J38" s="60"/>
       <c r="V38" s="60"/>
     </row>
-    <row r="39" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="68" customHeight="1">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -40502,15 +41020,15 @@
       <c r="G39"/>
       <c r="J39" s="60"/>
       <c r="L39" s="67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N39" s="67" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U39" s="69"/>
       <c r="V39" s="60"/>
     </row>
-    <row r="40" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A40" s="59"/>
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
@@ -40528,7 +41046,7 @@
       <c r="U40" s="66"/>
       <c r="V40" s="60"/>
     </row>
-    <row r="41" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -40538,7 +41056,7 @@
       <c r="J41" s="60"/>
       <c r="V41" s="60"/>
     </row>
-    <row r="42" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="68" customHeight="1">
       <c r="A42" s="59"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -40547,23 +41065,23 @@
       <c r="G42"/>
       <c r="J42" s="60"/>
       <c r="L42" s="71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N42" s="61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P42" s="61" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="R42" s="71" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V42" s="60"/>
       <c r="X42" s="67" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
@@ -40588,7 +41106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="30" customHeight="1">
       <c r="A44" s="59"/>
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
@@ -40597,7 +41115,7 @@
       <c r="J44" s="60"/>
       <c r="V44" s="60"/>
     </row>
-    <row r="45" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A45" s="59"/>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
@@ -40606,32 +41124,32 @@
       <c r="J45" s="60"/>
       <c r="V45" s="60"/>
     </row>
-    <row r="46" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="68" customHeight="1">
       <c r="A46" s="59"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
       <c r="E46" s="60"/>
       <c r="G46" s="61" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J46" s="60"/>
       <c r="L46" s="61" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N46" s="71" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P46" s="61" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q46"/>
       <c r="R46" s="71" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V46" s="60"/>
     </row>
-    <row r="47" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A47" s="59"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
@@ -40656,7 +41174,7 @@
       </c>
       <c r="V47" s="60"/>
     </row>
-    <row r="48" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A48" s="59"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
@@ -40667,7 +41185,7 @@
       <c r="J48" s="60"/>
       <c r="V48" s="60"/>
     </row>
-    <row r="49" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="68" customHeight="1">
       <c r="A49" s="59"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
@@ -40677,15 +41195,15 @@
       <c r="G49"/>
       <c r="J49" s="60"/>
       <c r="L49" s="71" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N49" s="61" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="R49"/>
       <c r="V49" s="60"/>
     </row>
-    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
@@ -40702,7 +41220,7 @@
       <c r="R50"/>
       <c r="V50" s="60"/>
     </row>
-    <row r="51" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="30" customHeight="1">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
@@ -40711,7 +41229,7 @@
       <c r="J51" s="60"/>
       <c r="V51" s="60"/>
     </row>
-    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
@@ -40720,27 +41238,27 @@
       <c r="J52" s="60"/>
       <c r="V52" s="60"/>
     </row>
-    <row r="53" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="68" customHeight="1">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
       <c r="E53" s="60"/>
       <c r="G53" s="71" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J53" s="60"/>
       <c r="L53" s="71" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N53" s="67" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P53"/>
       <c r="R53"/>
       <c r="V53" s="60"/>
     </row>
-    <row r="54" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A54" s="59"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
@@ -40760,7 +41278,7 @@
       <c r="R54"/>
       <c r="V54" s="60"/>
     </row>
-    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
@@ -40769,28 +41287,28 @@
       <c r="J55" s="60"/>
       <c r="V55" s="60"/>
     </row>
-    <row r="56" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="68" customHeight="1">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
       <c r="E56" s="60"/>
       <c r="G56" s="71" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J56" s="60"/>
       <c r="L56" s="67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N56" s="61" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="V56" s="60"/>
     </row>
-    <row r="57" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -40811,7 +41329,7 @@
       <c r="R57"/>
       <c r="V57" s="60"/>
     </row>
-    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -40820,18 +41338,18 @@
       <c r="J58" s="60"/>
       <c r="V58" s="60"/>
     </row>
-    <row r="59" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="68" customHeight="1">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
       <c r="E59" s="60"/>
       <c r="G59" s="61" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J59" s="60"/>
       <c r="L59" s="61" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -40839,7 +41357,7 @@
       <c r="U59" s="69"/>
       <c r="V59" s="60"/>
     </row>
-    <row r="60" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
@@ -40858,7 +41376,7 @@
       <c r="U60" s="66"/>
       <c r="V60" s="60"/>
     </row>
-    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -40867,28 +41385,32 @@
       <c r="J61" s="60"/>
       <c r="V61" s="60"/>
     </row>
-    <row r="62" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="68" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
       <c r="E62" s="60"/>
       <c r="G62" s="67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J62" s="60"/>
       <c r="L62" s="72" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N62" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="P62"/>
+        <v>158</v>
+      </c>
+      <c r="P62" s="67" t="s">
+        <v>249</v>
+      </c>
       <c r="Q62"/>
-      <c r="R62"/>
+      <c r="R62" s="72" t="s">
+        <v>250</v>
+      </c>
       <c r="V62" s="60"/>
     </row>
-    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -40904,12 +41426,16 @@
       <c r="N63" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="P63"/>
+      <c r="P63" s="65" t="s">
+        <v>84</v>
+      </c>
       <c r="Q63"/>
-      <c r="R63"/>
+      <c r="R63" s="65" t="s">
+        <v>84</v>
+      </c>
       <c r="V63" s="60"/>
     </row>
-    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -40918,7 +41444,7 @@
       <c r="J64" s="60"/>
       <c r="V64" s="60"/>
     </row>
-    <row r="65" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="68" customHeight="1">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -40927,7 +41453,7 @@
       <c r="G65"/>
       <c r="J65" s="60"/>
       <c r="L65" s="71" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -40936,7 +41462,7 @@
       <c r="R65"/>
       <c r="V65" s="60"/>
     </row>
-    <row r="66" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
@@ -40954,7 +41480,7 @@
       <c r="R66"/>
       <c r="V66" s="60"/>
     </row>
-    <row r="67" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
@@ -40965,7 +41491,7 @@
       <c r="J67" s="60"/>
       <c r="V67" s="60"/>
     </row>
-    <row r="68" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="68" customHeight="1">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -40973,22 +41499,22 @@
       <c r="E68" s="60"/>
       <c r="F68"/>
       <c r="G68" s="61" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J68" s="60"/>
       <c r="L68" s="61" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N68" s="71" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P68" s="67" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="R68"/>
       <c r="V68" s="60"/>
     </row>
-    <row r="69" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
@@ -41010,7 +41536,7 @@
       <c r="R69"/>
       <c r="V69" s="60"/>
     </row>
-    <row r="70" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
@@ -41019,7 +41545,7 @@
       <c r="J70" s="60"/>
       <c r="V70" s="60"/>
     </row>
-    <row r="71" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="68" customHeight="1">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
@@ -41027,18 +41553,18 @@
       <c r="E71" s="60"/>
       <c r="J71" s="60"/>
       <c r="L71" s="71" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N71" s="71" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P71" s="71" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R71"/>
       <c r="V71" s="60"/>
     </row>
-    <row r="72" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="30" customHeight="1" thickBot="1">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
@@ -41057,7 +41583,7 @@
       <c r="R72"/>
       <c r="V72" s="60"/>
     </row>
-    <row r="73" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="30" customHeight="1">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
@@ -41066,7 +41592,7 @@
       <c r="J73" s="60"/>
       <c r="V73" s="60"/>
     </row>
-    <row r="74" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="68" customHeight="1">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -41094,7 +41620,7 @@
       <c r="Y74"/>
       <c r="Z74"/>
     </row>
-    <row r="75" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="30" customHeight="1">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -41122,7 +41648,7 @@
       <c r="Y75"/>
       <c r="Z75"/>
     </row>
-    <row r="76" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="30" customHeight="1">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -41150,7 +41676,7 @@
       <c r="Y76"/>
       <c r="Z76"/>
     </row>
-    <row r="77" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="30" customHeight="1">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -41178,7 +41704,7 @@
       <c r="Y77"/>
       <c r="Z77"/>
     </row>
-    <row r="78" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="30" customHeight="1">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -41206,7 +41732,7 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="68" customHeight="1">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -41234,7 +41760,7 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="30" customHeight="1">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -41262,7 +41788,7 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="30" customHeight="1">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -41290,7 +41816,7 @@
       <c r="Y81"/>
       <c r="Z81"/>
     </row>
-    <row r="82" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="68" customHeight="1">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -41318,7 +41844,7 @@
       <c r="Y82"/>
       <c r="Z82"/>
     </row>
-    <row r="83" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="30" customHeight="1">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -41346,7 +41872,7 @@
       <c r="Y83"/>
       <c r="Z83"/>
     </row>
-    <row r="84" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="30" customHeight="1">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -41374,7 +41900,7 @@
       <c r="Y84"/>
       <c r="Z84"/>
     </row>
-    <row r="85" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="68" customHeight="1">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -41402,7 +41928,7 @@
       <c r="Y85"/>
       <c r="Z85"/>
     </row>
-    <row r="86" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="30" customHeight="1">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -41430,7 +41956,7 @@
       <c r="Y86"/>
       <c r="Z86"/>
     </row>
-    <row r="87" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="30" customHeight="1">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -41458,7 +41984,7 @@
       <c r="Y87"/>
       <c r="Z87"/>
     </row>
-    <row r="88" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="68" customHeight="1">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -41486,7 +42012,7 @@
       <c r="Y88"/>
       <c r="Z88"/>
     </row>
-    <row r="89" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="30" customHeight="1">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -41514,7 +42040,7 @@
       <c r="Y89"/>
       <c r="Z89"/>
     </row>
-    <row r="90" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="30" customHeight="1">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -41542,7 +42068,7 @@
       <c r="Y90"/>
       <c r="Z90"/>
     </row>
-    <row r="91" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="68" customHeight="1">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -41570,7 +42096,7 @@
       <c r="Y91"/>
       <c r="Z91"/>
     </row>
-    <row r="92" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="30" customHeight="1">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -41598,7 +42124,7 @@
       <c r="Y92"/>
       <c r="Z92"/>
     </row>
-    <row r="93" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="30" customHeight="1">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -41626,7 +42152,7 @@
       <c r="Y93"/>
       <c r="Z93"/>
     </row>
-    <row r="94" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="68" customHeight="1">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -41654,7 +42180,7 @@
       <c r="Y94"/>
       <c r="Z94"/>
     </row>
-    <row r="95" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="30" customHeight="1">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -41682,7 +42208,7 @@
       <c r="Y95"/>
       <c r="Z95"/>
     </row>
-    <row r="96" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="30" customHeight="1">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -41710,7 +42236,7 @@
       <c r="Y96"/>
       <c r="Z96"/>
     </row>
-    <row r="97" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="68" customHeight="1">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -41738,7 +42264,7 @@
       <c r="Y97"/>
       <c r="Z97"/>
     </row>
-    <row r="98" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="30" customHeight="1">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -41766,7 +42292,7 @@
       <c r="Y98"/>
       <c r="Z98"/>
     </row>
-    <row r="99" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="30" customHeight="1">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -41794,7 +42320,7 @@
       <c r="Y99"/>
       <c r="Z99"/>
     </row>
-    <row r="100" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="68" customHeight="1">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -41822,7 +42348,7 @@
       <c r="Y100"/>
       <c r="Z100"/>
     </row>
-    <row r="101" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="30" customHeight="1">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -41850,7 +42376,7 @@
       <c r="Y101"/>
       <c r="Z101"/>
     </row>
-    <row r="102" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" ht="30" customHeight="1">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -41878,7 +42404,7 @@
       <c r="Y102"/>
       <c r="Z102"/>
     </row>
-    <row r="103" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="68" customHeight="1">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -41906,7 +42432,7 @@
       <c r="Y103"/>
       <c r="Z103"/>
     </row>
-    <row r="104" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="30" customHeight="1">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -41934,7 +42460,7 @@
       <c r="Y104"/>
       <c r="Z104"/>
     </row>
-    <row r="105" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" ht="30" customHeight="1">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -41962,7 +42488,7 @@
       <c r="Y105"/>
       <c r="Z105"/>
     </row>
-    <row r="106" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" ht="30" customHeight="1">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -41990,7 +42516,7 @@
       <c r="Y106"/>
       <c r="Z106"/>
     </row>
-    <row r="107" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="30" customHeight="1">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -42018,7 +42544,7 @@
       <c r="Y107"/>
       <c r="Z107"/>
     </row>
-    <row r="108" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" ht="68" customHeight="1">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -42046,7 +42572,7 @@
       <c r="Y108"/>
       <c r="Z108"/>
     </row>
-    <row r="109" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" ht="30" customHeight="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -42074,7 +42600,7 @@
       <c r="Y109"/>
       <c r="Z109"/>
     </row>
-    <row r="110" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" ht="30" customHeight="1">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -42102,7 +42628,7 @@
       <c r="Y110"/>
       <c r="Z110"/>
     </row>
-    <row r="111" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" ht="68" customHeight="1">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -42130,7 +42656,7 @@
       <c r="Y111"/>
       <c r="Z111"/>
     </row>
-    <row r="112" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="30" customHeight="1">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -42158,7 +42684,7 @@
       <c r="Y112"/>
       <c r="Z112"/>
     </row>
-    <row r="113" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" ht="30" customHeight="1">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -42186,7 +42712,7 @@
       <c r="Y113"/>
       <c r="Z113"/>
     </row>
-    <row r="114" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="68" customHeight="1">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -42217,7 +42743,7 @@
       <c r="AB114"/>
       <c r="AC114"/>
     </row>
-    <row r="115" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" ht="30" customHeight="1">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -42248,7 +42774,7 @@
       <c r="AB115"/>
       <c r="AC115"/>
     </row>
-    <row r="116" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" ht="30" customHeight="1">
       <c r="A116" s="59"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -42279,7 +42805,7 @@
       <c r="AB116"/>
       <c r="AC116"/>
     </row>
-    <row r="117" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" ht="68" customHeight="1">
       <c r="A117" s="59"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -42310,7 +42836,7 @@
       <c r="AB117"/>
       <c r="AC117"/>
     </row>
-    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="30" customHeight="1">
       <c r="A118" s="59"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -42341,7 +42867,7 @@
       <c r="AB118"/>
       <c r="AC118"/>
     </row>
-    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" ht="30" customHeight="1">
       <c r="A119" s="59"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -42372,7 +42898,7 @@
       <c r="AB119"/>
       <c r="AC119"/>
     </row>
-    <row r="120" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" ht="68" customHeight="1">
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
@@ -42402,7 +42928,7 @@
       <c r="AB120"/>
       <c r="AC120"/>
     </row>
-    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="30" customHeight="1">
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
@@ -42432,7 +42958,7 @@
       <c r="AB121"/>
       <c r="AC121"/>
     </row>
-    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="30" customHeight="1">
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -42462,7 +42988,7 @@
       <c r="AB122"/>
       <c r="AC122"/>
     </row>
-    <row r="123" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="68" customHeight="1">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -42492,7 +43018,7 @@
       <c r="AB123"/>
       <c r="AC123"/>
     </row>
-    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="30" customHeight="1">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -42522,7 +43048,7 @@
       <c r="AB124"/>
       <c r="AC124"/>
     </row>
-    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="30" customHeight="1">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -42552,7 +43078,7 @@
       <c r="AB125"/>
       <c r="AC125"/>
     </row>
-    <row r="126" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="68" customHeight="1">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -42582,7 +43108,7 @@
       <c r="AB126"/>
       <c r="AC126"/>
     </row>
-    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" ht="30" customHeight="1">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -42612,7 +43138,7 @@
       <c r="AB127"/>
       <c r="AC127"/>
     </row>
-    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="30" customHeight="1">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -42642,7 +43168,7 @@
       <c r="AB128"/>
       <c r="AC128"/>
     </row>
-    <row r="129" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:29" ht="68" customHeight="1">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -42672,7 +43198,7 @@
       <c r="AB129"/>
       <c r="AC129"/>
     </row>
-    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:29" ht="30" customHeight="1">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -42702,7 +43228,7 @@
       <c r="AB130"/>
       <c r="AC130"/>
     </row>
-    <row r="131" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:29" ht="30" customHeight="1">
       <c r="L131"/>
       <c r="M131"/>
       <c r="N131"/>
@@ -42711,7 +43237,7 @@
       <c r="Q131"/>
       <c r="R131"/>
     </row>
-    <row r="132" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:29" ht="68" customHeight="1">
       <c r="L132"/>
       <c r="M132"/>
       <c r="N132"/>
@@ -42720,7 +43246,7 @@
       <c r="Q132"/>
       <c r="R132"/>
     </row>
-    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:29" ht="30" customHeight="1">
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
@@ -42729,7 +43255,7 @@
       <c r="Q133"/>
       <c r="R133"/>
     </row>
-    <row r="134" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:29" ht="30" customHeight="1">
       <c r="L134"/>
       <c r="M134"/>
       <c r="N134"/>
@@ -42738,7 +43264,7 @@
       <c r="Q134"/>
       <c r="R134"/>
     </row>
-    <row r="135" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:29" ht="68" customHeight="1">
       <c r="L135"/>
       <c r="M135"/>
       <c r="N135"/>
@@ -42747,7 +43273,7 @@
       <c r="Q135"/>
       <c r="R135"/>
     </row>
-    <row r="136" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:29" ht="30" customHeight="1">
       <c r="L136"/>
       <c r="M136"/>
       <c r="N136"/>
@@ -42756,7 +43282,7 @@
       <c r="Q136"/>
       <c r="R136"/>
     </row>
-    <row r="137" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:29" ht="30" customHeight="1">
       <c r="L137"/>
       <c r="M137"/>
       <c r="N137"/>
@@ -42765,7 +43291,7 @@
       <c r="Q137"/>
       <c r="R137"/>
     </row>
-    <row r="138" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:29" ht="68" customHeight="1">
       <c r="L138"/>
       <c r="M138"/>
       <c r="N138"/>
@@ -42774,10 +43300,10 @@
       <c r="Q138"/>
       <c r="R138"/>
     </row>
-    <row r="141" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="2:29" ht="68" customHeight="1"/>
+    <row r="144" spans="2:29" ht="68" customHeight="1"/>
+    <row r="147" ht="68" customHeight="1"/>
+    <row r="150" ht="68" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F5:H5"/>
@@ -42785,376 +43311,429 @@
     <mergeCell ref="W5:Z5"/>
   </mergeCells>
   <conditionalFormatting sqref="A24:K25">
-    <cfRule type="cellIs" dxfId="125" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="97" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="98" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="99" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="100" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="101" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="102" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="103" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="104" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:O47 A67:AA73 A9:AA10 O11 Q11 A11:K12 M11:M12 S11:W12 AA11:AA12 L12 N12:R12 A13:AA13 Q14:AA14 A14:M15 O14:O15 N15 P15:Q15 S15 U15:AA15 A16:AA16 A17:K18 M17:M18 O17:O18 Q17:Q18 S17:S18 U17:AA18 L18 N18 P18 R18 T18 A19:AA19 M20 O20:Q20 R20:S21 A20:K22 U20:AA22 A23:AA23 O24:O25 Q24:Q25 S24:W25 Y24:Y25 AA24:AA25 A26:AA26 A27:W28 Y27:AA28 A29:AA29 A30:F31 H30:AA31 A32:AA32 A33:Q34 U33:AA34 A35:AA35 A36:F37 H36:AA37 A38:AA38 H39:O40 Q39:AA40 A39:F43 H41:AA43 A44:AA45 A48:AA48 A49:O50 Q49:AA50 A53:O54 Q53:AA54 A55:AA55 A56:O57 S56:AA57 A58:AA58 A59:M60 Q59:AA60 A61:AA61 A62:O63 S62:AA63 A64:AA64 A65:F66 H65:M66 S65:AA66 AA74:AA115 A116:K207 S116:AA207 L124:R215">
-    <cfRule type="cellIs" dxfId="117" priority="104" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A46:O47 A67:AA73 A9:AA10 O11 Q11 A11:K12 M11:M12 S11:W12 AA11:AA12 L12 N12:R12 A13:AA13 Q14:AA14 A14:M15 O14:O15 N15 P15:Q15 S15 U15:AA15 A16:AA16 A17:K18 M17:M18 O17:O18 Q17:Q18 S17:S18 U17:AA18 L18 N18 P18 R18 T18 A19:AA19 M20 O20:Q20 R20:S21 A20:K22 U20:AA22 A23:AA23 O24:O25 Q24:Q25 S24:W25 Y24:Y25 AA24:AA25 A26:AA26 A27:W28 Y27:AA28 A29:AA29 A30:F31 H30:AA31 A32:AA32 A33:Q34 U33:AA34 A35:AA35 A36:F37 H36:AA37 A38:AA38 H39:O40 Q39:AA40 A39:F43 H41:AA43 A44:AA45 A48:AA48 A49:O50 Q49:AA50 A53:O54 Q53:AA54 A55:AA55 A56:O57 S56:AA57 A58:AA58 A59:M60 Q59:AA60 A61:AA61 A64:AA64 A65:F66 H65:M66 S65:AA66 AA74:AA115 A116:K207 S116:AA207 L124:R215">
+    <cfRule type="cellIs" dxfId="133" priority="120" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:AA10 O11 Q11 A11:K12 M11:M12 S11:W12 AA11:AA12 L12 N12:R12 A13:AA13 Q14:AA14 A14:M15 O14:O15 N15 P15:Q15 S15 U15:AA15 A16:AA16 A17:K18 M17:M18 O17:O18 Q17:Q18 S17:S18 U17:AA18 L18 N18 P18 R18 T18 A19:AA19 M20 O20:Q20 R20:S21 A20:K22 U20:AA22 A23:AA23 O24:O25 Q24:Q25 S24:W25 Y24:Y25 AA24:AA25 A26:AA26 A27:W28 Y27:AA28 A29:AA29 A30:F31 H30:AA31 A32:AA32 A33:Q34 U33:AA34 A35:AA35 A36:F37 H36:AA37 A38:AA38 H39:O40 Q39:AA40 A39:F43 H41:AA43 A44:AA45 A46:O47 A48:AA48 A49:O50 Q49:AA50 A53:O54 Q53:AA54 A55:AA55 A56:O57 S56:AA57 A58:AA58 A59:M60 Q59:AA60 A61:AA61 A62:O63 S62:AA63 A64:AA64 A65:F66 H65:M66 S65:AA66 A67:AA73 AA74:AA115 A116:K207 S116:AA207 L124:R215">
-    <cfRule type="cellIs" dxfId="116" priority="105" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A62:P63">
+    <cfRule type="cellIs" dxfId="132" priority="10" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="11" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="12" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="13" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="14" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="15" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="16" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="9" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:AA10 O11 Q11 A11:K12 M11:M12 S11:W12 AA11:AA12 L12 N12:R12 A13:AA13 Q14:AA14 A14:M15 O14:O15 N15 P15:Q15 S15 U15:AA15 A16:AA16 A17:K18 M17:M18 O17:O18 Q17:Q18 S17:S18 U17:AA18 L18 N18 P18 R18 T18 A19:AA19 M20 O20:Q20 R20:S21 A20:K22 U20:AA22 A23:AA23 O24:O25 Q24:Q25 S24:W25 Y24:Y25 AA24:AA25 A26:AA26 A27:W28 Y27:AA28 A29:AA29 A30:F31 H30:AA31 A32:AA32 A33:Q34 U33:AA34 A35:AA35 A36:F37 H36:AA37 A38:AA38 H39:O40 Q39:AA40 A39:F43 H41:AA43 A44:AA45 A46:O47 A48:AA48 A49:O50 Q49:AA50 A53:O54 Q53:AA54 A55:AA55 A56:O57 S56:AA57 A58:AA58 A59:M60 Q59:AA60 A61:AA61 A64:AA64 A65:F66 H65:M66 S65:AA66 A67:AA73 AA74:AA115 A116:K207 S116:AA207 L124:R215">
+    <cfRule type="cellIs" dxfId="124" priority="121" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="122" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="123" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="124" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="125" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="126" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="127" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:AA52">
-    <cfRule type="cellIs" dxfId="109" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="117" priority="24" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="23" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="22" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="21" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="20" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="19" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="18" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="4" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="8" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="110" priority="17" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47 G69">
-    <cfRule type="cellIs" dxfId="101" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="113" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="114" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="115" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="116" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="117" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="118" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="119" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="94" priority="73" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="102" priority="95" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="94" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="93" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="92" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="91" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="90" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="75" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="76" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="77" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="78" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="79" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="95" priority="89" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:Q21">
-    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="94" priority="112" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="111" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="110" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="109" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="108" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="107" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="106" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="91" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="92" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="93" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="94" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="95" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="96" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="87" priority="105" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="78" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="87" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="85" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="83" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="82" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="81" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="66" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="67" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="68" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="71" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="88" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="70" priority="57" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="78" priority="80" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="78" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="77" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="76" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="75" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="74" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="59" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="63" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="64" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:P47">
-    <cfRule type="cellIs" dxfId="62" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="39" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="38" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="37" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="36" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="35" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="34" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="33" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="18" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="19" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="20" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="21" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="22" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="23" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="40" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="68" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="65" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="60" priority="71" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="70" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="69" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="72" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="67" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="53" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="54" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="55" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="56" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="55" priority="66" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R46:AA47">
-    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="26" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="32" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="31" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="30" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="25" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="28" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="27" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="29" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R62:AA63">
+    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="2" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="8" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="38" priority="41" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="38" priority="64" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="63" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="62" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="61" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="60" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="59" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="58" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="43" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="44" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="45" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="46" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="47" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="48" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="31" priority="57" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="30" priority="48" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="47" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="46" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="45" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="44" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="43" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="42" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="23" priority="41" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25">
-    <cfRule type="cellIs" dxfId="22" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="49" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="50" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="51" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="52" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="53" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="54" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="56" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="55" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="40" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
-    </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P25 L34 T18 N12 G15 G18 G12 L15 N21 P21 S15 U15 P28:U28 L21 P15:Q15 R25 G28 L28 N28 L37 T31 R21 N34 P34 G21:G22 P12:U12 R31 L40 N57 U40 L50 G50 G47 N40 P43 X37 N43 L43 R43 X43 L47 L54 N47 N50 G57 N54 L57 R47 X25 U60 N69 N72 G60 G54 L63 L60 N63 G63 P37 G69 R37 Z25 P69 L66 P72 P47 X28 L31 N31 P31 N37 L69 L72 L12 L18 N18 P18 R18 G25 L25 N25 N15" xr:uid="{3A299E98-9D2B-4BA1-A962-F8EE8EBC665F}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P25 L34 T18 N12 G15 G18 G12 L15 N21 P21 S15 U15 P28:U28 L21 P15:Q15 R25 G28 L28 N28 L37 T31 R21 N34 P34 G21:G22 P12:U12 R31 L40 N57 U40 L50 G50 G47 N40 P43 X37 N43 L43 R43 X43 L47 L54 N47 N50 G57 N54 L57 R47 X25 U60 N69 N72 G60 G54 L63 L60 N63 G63 P37 G69 R37 Z25 P69 L66 P72 P47 X28 L31 N31 P31 N37 L69 L72 L12 L18 N18 P18 R18 G25 L25 N25 N15 P63 R63" xr:uid="{3A299E98-9D2B-4BA1-A962-F8EE8EBC665F}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="29" fitToHeight="10" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -43171,7 +43750,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="37" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="37"/>
@@ -43203,8 +43782,8 @@
     <col min="38" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="86" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="86" customFormat="1" ht="30" customHeight="1"/>
+    <row r="2" spans="1:37" ht="10" customHeight="1">
       <c r="A2" s="73"/>
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
@@ -43241,14 +43820,14 @@
       <c r="AJ2" s="38"/>
       <c r="AK2" s="38"/>
     </row>
-    <row r="3" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="41" customHeight="1">
       <c r="A3" s="73"/>
       <c r="B3" s="74"/>
       <c r="C3" s="74"/>
       <c r="D3" s="75"/>
       <c r="E3" s="74"/>
       <c r="F3" s="76" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G3" s="77"/>
       <c r="H3" s="74"/>
@@ -43299,7 +43878,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="11" customHeight="1">
       <c r="A4" s="73"/>
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
@@ -43328,36 +43907,36 @@
       <c r="Z4" s="73"/>
       <c r="AA4" s="73"/>
     </row>
-    <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:37" ht="30" customHeight="1">
       <c r="A5" s="73"/>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
       <c r="E5" s="73"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
       <c r="I5" s="80"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
       <c r="S5" s="81"/>
       <c r="T5" s="81"/>
       <c r="U5" s="81"/>
       <c r="V5" s="80"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
       <c r="AA5" s="73"/>
     </row>
-    <row r="6" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="5" customHeight="1">
       <c r="A6" s="73"/>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
@@ -43386,7 +43965,7 @@
       <c r="Z6" s="80"/>
       <c r="AA6" s="73"/>
     </row>
-    <row r="7" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="14" customHeight="1">
       <c r="A7" s="73"/>
       <c r="B7" s="73"/>
       <c r="C7" s="73"/>
@@ -43415,7 +43994,7 @@
       <c r="Z7" s="82"/>
       <c r="AA7" s="82"/>
     </row>
-    <row r="8" spans="1:37" ht="4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="4" customHeight="1">
       <c r="A8" s="57"/>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
@@ -43444,7 +44023,7 @@
       <c r="Z8" s="58"/>
       <c r="AA8" s="58"/>
     </row>
-    <row r="9" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="30" customHeight="1">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -43453,7 +44032,7 @@
       <c r="J9" s="60"/>
       <c r="V9" s="60"/>
     </row>
-    <row r="10" spans="1:37" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" ht="10" customHeight="1" thickBot="1">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -43462,7 +44041,7 @@
       <c r="J10" s="60"/>
       <c r="V10" s="60"/>
     </row>
-    <row r="11" spans="1:37" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="76" customHeight="1">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -43470,13 +44049,13 @@
       <c r="E11" s="60"/>
       <c r="J11" s="60"/>
       <c r="L11" s="83" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N11" s="83" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P11" s="83" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="63"/>
       <c r="R11" s="63"/>
@@ -43485,13 +44064,13 @@
       <c r="U11" s="63"/>
       <c r="V11" s="60"/>
       <c r="X11" s="71" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z11" s="83" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="59"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -43521,7 +44100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="30" customHeight="1">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -43530,7 +44109,7 @@
       <c r="J13" s="60"/>
       <c r="V13" s="60"/>
     </row>
-    <row r="14" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -43539,24 +44118,24 @@
       <c r="J14" s="60"/>
       <c r="V14" s="60"/>
     </row>
-    <row r="15" spans="1:37" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="64" customHeight="1">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="60"/>
       <c r="G15" s="71" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J15" s="60"/>
       <c r="L15" s="61" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N15" s="61" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P15" s="61" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q15" s="69"/>
       <c r="R15" s="69"/>
@@ -43565,7 +44144,7 @@
       <c r="U15" s="69"/>
       <c r="V15" s="60"/>
     </row>
-    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="59"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -43591,7 +44170,7 @@
       <c r="U16" s="66"/>
       <c r="V16" s="60"/>
     </row>
-    <row r="17" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -43600,19 +44179,19 @@
       <c r="J17" s="60"/>
       <c r="V17" s="60"/>
     </row>
-    <row r="18" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="65" customHeight="1">
       <c r="A18" s="59"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
       <c r="G18" s="67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J18" s="60"/>
       <c r="V18" s="60"/>
     </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -43624,7 +44203,7 @@
       <c r="J19" s="60"/>
       <c r="V19" s="60"/>
     </row>
-    <row r="20" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -43633,7 +44212,7 @@
       <c r="J20" s="60"/>
       <c r="V20" s="60"/>
     </row>
-    <row r="21" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="67" customHeight="1">
       <c r="A21" s="59"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -43641,20 +44220,20 @@
       <c r="E21" s="60"/>
       <c r="J21" s="60"/>
       <c r="N21" s="61" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P21" s="71" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="R21" s="61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T21" s="61" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V21" s="60"/>
     </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="59"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -43675,7 +44254,7 @@
       </c>
       <c r="V22" s="60"/>
     </row>
-    <row r="23" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
@@ -43684,22 +44263,22 @@
       <c r="J23" s="60"/>
       <c r="V23" s="60"/>
     </row>
-    <row r="24" spans="1:22" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="59" customHeight="1">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
       <c r="G24" s="61" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J24" s="60"/>
       <c r="L24" s="61" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="V24" s="60"/>
     </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -43714,7 +44293,7 @@
       </c>
       <c r="V25" s="60"/>
     </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="59"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -43723,7 +44302,7 @@
       <c r="J26" s="60"/>
       <c r="V26" s="60"/>
     </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="59"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
@@ -43732,7 +44311,7 @@
       <c r="J27" s="60"/>
       <c r="V27" s="60"/>
     </row>
-    <row r="28" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="59"/>
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
@@ -43741,24 +44320,24 @@
       <c r="J28" s="60"/>
       <c r="V28" s="60"/>
     </row>
-    <row r="29" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="67" customHeight="1">
       <c r="A29" s="59"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
       <c r="E29" s="60"/>
       <c r="G29" s="71" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J29" s="60"/>
       <c r="L29" s="61" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N29" s="61" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P29" s="61" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="69"/>
       <c r="R29" s="69"/>
@@ -43767,7 +44346,7 @@
       <c r="U29" s="69"/>
       <c r="V29" s="60"/>
     </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="59"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
@@ -43793,7 +44372,7 @@
       <c r="U30"/>
       <c r="V30" s="60"/>
     </row>
-    <row r="31" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="59"/>
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
@@ -43802,19 +44381,19 @@
       <c r="J31" s="60"/>
       <c r="V31" s="60"/>
     </row>
-    <row r="32" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="67" customHeight="1">
       <c r="A32" s="59"/>
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
       <c r="E32" s="60"/>
       <c r="G32" s="67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J32" s="60"/>
       <c r="V32" s="60"/>
     </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="59"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
@@ -43826,7 +44405,7 @@
       <c r="J33" s="60"/>
       <c r="V33" s="60"/>
     </row>
-    <row r="34" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="59"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
@@ -43835,7 +44414,7 @@
       <c r="J34" s="60"/>
       <c r="V34" s="60"/>
     </row>
-    <row r="35" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="67" customHeight="1">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
@@ -43843,20 +44422,20 @@
       <c r="E35" s="60"/>
       <c r="J35" s="60"/>
       <c r="N35" s="61" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P35" s="71" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="R35" s="61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T35" s="61" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V35" s="60"/>
     </row>
-    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -43877,7 +44456,7 @@
       </c>
       <c r="V36" s="60"/>
     </row>
-    <row r="37" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
@@ -43886,22 +44465,22 @@
       <c r="J37" s="60"/>
       <c r="V37" s="60"/>
     </row>
-    <row r="38" spans="1:22" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="67" customHeight="1">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
       <c r="E38" s="60"/>
       <c r="G38" s="71" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J38" s="60"/>
       <c r="L38" s="61" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="V38" s="60"/>
     </row>
-    <row r="39" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -43916,7 +44495,7 @@
       </c>
       <c r="V39" s="60"/>
     </row>
-    <row r="40" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="59"/>
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
@@ -43925,7 +44504,7 @@
       <c r="J40" s="60"/>
       <c r="V40" s="60"/>
     </row>
-    <row r="41" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -43934,7 +44513,7 @@
       <c r="J41" s="60"/>
       <c r="V41" s="60"/>
     </row>
-    <row r="42" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A42" s="59"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -43943,26 +44522,26 @@
       <c r="J42" s="60"/>
       <c r="V42" s="60"/>
     </row>
-    <row r="43" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="68" customHeight="1">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
       <c r="E43" s="60"/>
       <c r="G43" s="71" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J43" s="60"/>
       <c r="N43" s="61" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P43" s="61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="U43" s="69"/>
       <c r="V43" s="60"/>
     </row>
-    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A44" s="59"/>
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
@@ -43981,7 +44560,7 @@
       <c r="U44"/>
       <c r="V44" s="60"/>
     </row>
-    <row r="45" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A45" s="59"/>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
@@ -43990,28 +44569,28 @@
       <c r="J45" s="60"/>
       <c r="V45" s="60"/>
     </row>
-    <row r="46" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="68" customHeight="1">
       <c r="A46" s="59"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
       <c r="E46" s="60"/>
       <c r="G46" s="67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J46" s="60"/>
       <c r="N46" s="61" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P46" s="61" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R46" s="61" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="V46" s="60"/>
     </row>
-    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A47" s="59"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
@@ -44032,7 +44611,7 @@
       </c>
       <c r="V47" s="60"/>
     </row>
-    <row r="48" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A48" s="59"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
@@ -44041,28 +44620,28 @@
       <c r="J48" s="60"/>
       <c r="V48" s="60"/>
     </row>
-    <row r="49" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="68" customHeight="1">
       <c r="A49" s="59"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
       <c r="E49" s="60"/>
       <c r="G49" s="71" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J49" s="60"/>
       <c r="N49" s="61" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P49" s="61" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R49" s="61" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="V49" s="60"/>
     </row>
-    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
@@ -44083,7 +44662,7 @@
       </c>
       <c r="V50" s="60"/>
     </row>
-    <row r="51" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
@@ -44094,7 +44673,7 @@
       <c r="J51" s="60"/>
       <c r="V51" s="60"/>
     </row>
-    <row r="52" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="68" customHeight="1">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
@@ -44104,15 +44683,15 @@
       <c r="G52"/>
       <c r="J52" s="60"/>
       <c r="N52" s="61" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P52" s="61" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R52"/>
       <c r="V52" s="60"/>
     </row>
-    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
@@ -44129,7 +44708,7 @@
       <c r="R53"/>
       <c r="V53" s="60"/>
     </row>
-    <row r="54" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A54" s="59"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
@@ -44138,7 +44717,7 @@
       <c r="J54" s="60"/>
       <c r="V54" s="60"/>
     </row>
-    <row r="55" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="68" customHeight="1">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
@@ -44146,15 +44725,15 @@
       <c r="E55" s="60"/>
       <c r="J55" s="60"/>
       <c r="N55" s="61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P55" s="61" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="R55"/>
       <c r="V55" s="60"/>
     </row>
-    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
@@ -44170,7 +44749,7 @@
       <c r="R56"/>
       <c r="V56" s="60"/>
     </row>
-    <row r="57" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -44179,7 +44758,7 @@
       <c r="J57" s="60"/>
       <c r="V57" s="60"/>
     </row>
-    <row r="58" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="68" customHeight="1">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -44187,17 +44766,17 @@
       <c r="E58" s="60"/>
       <c r="J58" s="60"/>
       <c r="N58" s="61" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P58" s="61" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R58" s="71" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V58" s="60"/>
     </row>
-    <row r="59" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
@@ -44215,7 +44794,7 @@
       </c>
       <c r="V59" s="60"/>
     </row>
-    <row r="60" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="30" customHeight="1">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
@@ -44224,7 +44803,7 @@
       <c r="J60" s="60"/>
       <c r="V60" s="60"/>
     </row>
-    <row r="61" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="30" customHeight="1">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -44233,7 +44812,7 @@
       <c r="J61" s="60"/>
       <c r="V61" s="60"/>
     </row>
-    <row r="62" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
@@ -44242,26 +44821,26 @@
       <c r="J62" s="60"/>
       <c r="V62" s="60"/>
     </row>
-    <row r="63" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="68" customHeight="1">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
       <c r="D63" s="59"/>
       <c r="E63" s="60"/>
       <c r="G63" s="71" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J63" s="60"/>
       <c r="N63" s="61" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P63" s="61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="U63" s="69"/>
       <c r="V63" s="60"/>
     </row>
-    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -44280,7 +44859,7 @@
       <c r="U64" s="66"/>
       <c r="V64" s="60"/>
     </row>
-    <row r="65" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -44289,28 +44868,28 @@
       <c r="J65" s="60"/>
       <c r="V65" s="60"/>
     </row>
-    <row r="66" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="68" customHeight="1">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
       <c r="E66" s="60"/>
       <c r="G66" s="67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J66" s="60"/>
       <c r="N66" s="61" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P66" s="61" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R66" s="61" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="V66" s="60"/>
     </row>
-    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
@@ -44331,7 +44910,7 @@
       </c>
       <c r="V67" s="60"/>
     </row>
-    <row r="68" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -44340,28 +44919,28 @@
       <c r="J68" s="60"/>
       <c r="V68" s="60"/>
     </row>
-    <row r="69" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="68" customHeight="1">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
       <c r="E69" s="60"/>
       <c r="G69" s="61" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J69" s="60"/>
       <c r="N69" s="61" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P69" s="61" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R69" s="61" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="V69" s="60"/>
     </row>
-    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
@@ -44382,7 +44961,7 @@
       </c>
       <c r="V70" s="60"/>
     </row>
-    <row r="71" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
@@ -44393,7 +44972,7 @@
       <c r="J71" s="60"/>
       <c r="V71" s="60"/>
     </row>
-    <row r="72" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="68" customHeight="1">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
@@ -44401,19 +44980,19 @@
       <c r="E72" s="60"/>
       <c r="F72"/>
       <c r="G72" s="61" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J72" s="60"/>
       <c r="N72" s="61" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P72" s="61" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="60"/>
     </row>
-    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
@@ -44432,7 +45011,7 @@
       <c r="R73"/>
       <c r="V73" s="60"/>
     </row>
-    <row r="74" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
@@ -44441,7 +45020,7 @@
       <c r="J74" s="60"/>
       <c r="V74" s="60"/>
     </row>
-    <row r="75" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="68" customHeight="1">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -44449,15 +45028,15 @@
       <c r="E75" s="60"/>
       <c r="J75" s="60"/>
       <c r="N75" s="61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P75" s="61" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="R75"/>
       <c r="V75" s="60"/>
     </row>
-    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
@@ -44473,7 +45052,7 @@
       <c r="R76"/>
       <c r="V76" s="60"/>
     </row>
-    <row r="77" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
@@ -44482,7 +45061,7 @@
       <c r="J77" s="60"/>
       <c r="V77" s="60"/>
     </row>
-    <row r="78" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="68" customHeight="1">
       <c r="A78" s="59"/>
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
@@ -44490,17 +45069,17 @@
       <c r="E78" s="60"/>
       <c r="J78" s="60"/>
       <c r="N78" s="61" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P78" s="72" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="R78" s="71" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V78" s="60"/>
     </row>
-    <row r="79" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="30" customHeight="1" thickBot="1">
       <c r="A79" s="59"/>
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
@@ -44518,7 +45097,7 @@
       </c>
       <c r="V79" s="60"/>
     </row>
-    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="30" customHeight="1">
       <c r="A80" s="59"/>
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
@@ -44527,12 +45106,12 @@
       <c r="J80" s="60"/>
       <c r="V80" s="60"/>
     </row>
-    <row r="81" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" ht="30" customHeight="1">
       <c r="E81" s="60"/>
       <c r="J81" s="60"/>
       <c r="V81" s="60"/>
     </row>
-    <row r="82" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
@@ -44541,35 +45120,35 @@
       <c r="J82" s="60"/>
       <c r="V82" s="60"/>
     </row>
-    <row r="83" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" ht="68" customHeight="1">
       <c r="A83" s="59"/>
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
       <c r="E83" s="60"/>
       <c r="G83" s="61" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J83" s="60"/>
       <c r="L83" s="61" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N83" s="61" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P83" s="61" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R83" s="61" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="U83" s="69"/>
       <c r="V83" s="60"/>
       <c r="X83" s="61" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A84" s="59"/>
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
@@ -44597,7 +45176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A85" s="59"/>
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
@@ -44606,34 +45185,34 @@
       <c r="J85" s="60"/>
       <c r="V85" s="60"/>
     </row>
-    <row r="86" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" ht="68" customHeight="1">
       <c r="A86" s="59"/>
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="59"/>
       <c r="E86" s="60"/>
       <c r="G86" s="61" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J86" s="60"/>
       <c r="L86" s="61" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N86" s="71" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P86" s="61" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R86" s="61" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="V86" s="60"/>
       <c r="X86" s="61" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A87" s="59"/>
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
@@ -44660,7 +45239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
@@ -44669,34 +45248,34 @@
       <c r="J88" s="60"/>
       <c r="V88" s="60"/>
     </row>
-    <row r="89" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" ht="68" customHeight="1">
       <c r="A89" s="59"/>
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
       <c r="E89" s="60"/>
       <c r="G89" s="61" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J89" s="60"/>
       <c r="L89" s="61" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N89" s="61" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P89" s="61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="R89" s="61" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="V89" s="60"/>
       <c r="X89" s="61" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A90" s="59"/>
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
@@ -44723,7 +45302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A91" s="59"/>
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
@@ -44734,7 +45313,7 @@
       <c r="J91" s="60"/>
       <c r="V91" s="60"/>
     </row>
-    <row r="92" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" ht="68" customHeight="1">
       <c r="A92" s="59"/>
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
@@ -44742,27 +45321,27 @@
       <c r="E92" s="60"/>
       <c r="F92"/>
       <c r="G92" s="67" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J92" s="60"/>
       <c r="L92" s="71" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N92" s="61" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P92" s="61" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R92" s="61" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="V92" s="60"/>
       <c r="X92" s="61" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A93" s="59"/>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
@@ -44789,7 +45368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A94" s="59"/>
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
@@ -44798,28 +45377,28 @@
       <c r="J94" s="60"/>
       <c r="V94" s="60"/>
     </row>
-    <row r="95" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" ht="68" customHeight="1">
       <c r="A95" s="59"/>
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
       <c r="E95" s="60"/>
       <c r="G95" s="71" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J95" s="60"/>
       <c r="L95" s="61" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N95" s="61" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95"/>
       <c r="V95" s="60"/>
     </row>
-    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A96" s="59"/>
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
@@ -44840,7 +45419,7 @@
       <c r="R96"/>
       <c r="V96" s="60"/>
     </row>
-    <row r="97" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
@@ -44852,14 +45431,14 @@
       <c r="R97"/>
       <c r="V97" s="60"/>
     </row>
-    <row r="98" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" ht="68" customHeight="1">
       <c r="A98" s="59"/>
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
       <c r="E98" s="60"/>
       <c r="G98" s="61" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J98" s="60"/>
       <c r="L98"/>
@@ -44871,7 +45450,7 @@
       <c r="R98"/>
       <c r="V98" s="60"/>
     </row>
-    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A99" s="59"/>
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
@@ -44890,7 +45469,7 @@
       <c r="R99"/>
       <c r="V99" s="60"/>
     </row>
-    <row r="100" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
@@ -44899,16 +45478,16 @@
       <c r="J100" s="60"/>
       <c r="V100" s="60"/>
     </row>
-    <row r="101" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" ht="68" customHeight="1" thickTop="1" thickBot="1">
       <c r="E101" s="60"/>
       <c r="F101" s="84"/>
       <c r="G101" s="61" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J101" s="60"/>
       <c r="V101" s="60"/>
     </row>
-    <row r="102" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="E102" s="60"/>
       <c r="G102" s="65" t="s">
         <v>84</v>
@@ -44916,31 +45495,31 @@
       <c r="J102" s="60"/>
       <c r="V102" s="60"/>
     </row>
-    <row r="103" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="E103" s="60"/>
       <c r="G103" s="85"/>
       <c r="J103" s="60"/>
       <c r="V103" s="60"/>
     </row>
-    <row r="104" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" ht="68" customHeight="1">
       <c r="E104" s="60"/>
       <c r="G104" s="85"/>
       <c r="J104" s="60"/>
       <c r="L104" s="61" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N104" s="71" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P104" s="61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R104" s="61" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V104" s="60"/>
     </row>
-    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="E105" s="60"/>
       <c r="J105" s="60"/>
       <c r="L105" s="65" t="s">
@@ -44957,23 +45536,23 @@
       </c>
       <c r="V105" s="60"/>
     </row>
-    <row r="106" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="E106" s="60"/>
       <c r="J106" s="60"/>
       <c r="V106" s="60"/>
     </row>
-    <row r="107" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" ht="68" customHeight="1">
       <c r="E107" s="60"/>
       <c r="J107" s="60"/>
       <c r="L107" s="61" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N107" s="61" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="V107" s="60"/>
     </row>
-    <row r="108" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="E108" s="60"/>
       <c r="J108" s="60"/>
       <c r="L108" s="65" t="s">
@@ -44984,17 +45563,17 @@
       </c>
       <c r="V108" s="60"/>
     </row>
-    <row r="109" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" ht="30" customHeight="1">
       <c r="E109" s="60"/>
       <c r="J109" s="60"/>
       <c r="V109" s="60"/>
     </row>
-    <row r="110" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" ht="30" customHeight="1">
       <c r="E110" s="60"/>
       <c r="J110" s="60"/>
       <c r="V110" s="60"/>
     </row>
-    <row r="111" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" ht="30" customHeight="1" thickBot="1">
       <c r="A111" s="59"/>
       <c r="B111" s="59"/>
       <c r="C111" s="59"/>
@@ -45003,40 +45582,40 @@
       <c r="J111" s="60"/>
       <c r="V111" s="60"/>
     </row>
-    <row r="112" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" ht="68" customHeight="1">
       <c r="A112" s="59"/>
       <c r="B112" s="59"/>
       <c r="C112" s="59"/>
       <c r="D112" s="59"/>
       <c r="E112" s="60"/>
       <c r="G112" s="61" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J112" s="60"/>
       <c r="L112" s="61" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N112" s="61" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P112" s="61" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q112" s="69"/>
       <c r="R112" s="61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S112" s="69"/>
       <c r="T112" s="61" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="U112" s="69"/>
       <c r="V112" s="60"/>
       <c r="X112" s="61" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1">
       <c r="A113" s="59"/>
       <c r="B113" s="59"/>
       <c r="C113" s="59"/>
@@ -45069,7 +45648,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:29" ht="30" customHeight="1" thickBot="1">
       <c r="A114" s="59"/>
       <c r="B114" s="59"/>
       <c r="C114" s="59"/>
@@ -45078,37 +45657,37 @@
       <c r="J114" s="60"/>
       <c r="V114" s="60"/>
     </row>
-    <row r="115" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" ht="68" customHeight="1">
       <c r="A115" s="59"/>
       <c r="B115" s="59"/>
       <c r="C115" s="59"/>
       <c r="D115" s="59"/>
       <c r="E115" s="60"/>
       <c r="G115" s="71" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J115" s="60"/>
       <c r="L115" s="61" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N115" s="61" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P115" s="61" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="R115" s="61" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T115" s="61" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="V115" s="60"/>
       <c r="X115" s="61" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:29" ht="30" customHeight="1" thickBot="1">
       <c r="A116" s="59"/>
       <c r="B116" s="59"/>
       <c r="C116" s="59"/>
@@ -45138,7 +45717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" ht="30" customHeight="1">
       <c r="A117" s="59"/>
       <c r="B117" s="59"/>
       <c r="C117" s="59"/>
@@ -45147,7 +45726,7 @@
       <c r="J117" s="60"/>
       <c r="V117" s="60"/>
     </row>
-    <row r="118" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="68" customHeight="1">
       <c r="A118" s="59"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -45178,7 +45757,7 @@
       <c r="AB118"/>
       <c r="AC118"/>
     </row>
-    <row r="119" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" ht="30" customHeight="1">
       <c r="A119" s="59"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -45209,7 +45788,7 @@
       <c r="AB119"/>
       <c r="AC119"/>
     </row>
-    <row r="120" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" ht="30" customHeight="1">
       <c r="A120" s="59"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -45240,7 +45819,7 @@
       <c r="AB120"/>
       <c r="AC120"/>
     </row>
-    <row r="121" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="68" customHeight="1">
       <c r="A121" s="59"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -45271,7 +45850,7 @@
       <c r="AB121"/>
       <c r="AC121"/>
     </row>
-    <row r="122" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="30" customHeight="1">
       <c r="A122" s="59"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -45302,7 +45881,7 @@
       <c r="AB122"/>
       <c r="AC122"/>
     </row>
-    <row r="123" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="30" customHeight="1">
       <c r="A123" s="59"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -45333,7 +45912,7 @@
       <c r="AB123"/>
       <c r="AC123"/>
     </row>
-    <row r="124" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="68" customHeight="1">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -45363,7 +45942,7 @@
       <c r="AB124"/>
       <c r="AC124"/>
     </row>
-    <row r="125" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="30" customHeight="1">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -45393,7 +45972,7 @@
       <c r="AB125"/>
       <c r="AC125"/>
     </row>
-    <row r="126" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="30" customHeight="1">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -45423,7 +46002,7 @@
       <c r="AB126"/>
       <c r="AC126"/>
     </row>
-    <row r="127" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" ht="68" customHeight="1">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -45453,7 +46032,7 @@
       <c r="AB127"/>
       <c r="AC127"/>
     </row>
-    <row r="128" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="30" customHeight="1">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -45483,7 +46062,7 @@
       <c r="AB128"/>
       <c r="AC128"/>
     </row>
-    <row r="129" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:29" ht="30" customHeight="1">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -45513,7 +46092,7 @@
       <c r="AB129"/>
       <c r="AC129"/>
     </row>
-    <row r="130" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:29" ht="68" customHeight="1">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -45543,7 +46122,7 @@
       <c r="AB130"/>
       <c r="AC130"/>
     </row>
-    <row r="131" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:29" ht="30" customHeight="1">
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -45573,7 +46152,7 @@
       <c r="AB131"/>
       <c r="AC131"/>
     </row>
-    <row r="132" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:29" ht="30" customHeight="1">
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -45603,7 +46182,7 @@
       <c r="AB132"/>
       <c r="AC132"/>
     </row>
-    <row r="133" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:29" ht="68" customHeight="1">
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -45633,7 +46212,7 @@
       <c r="AB133"/>
       <c r="AC133"/>
     </row>
-    <row r="134" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:29" ht="30" customHeight="1">
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
@@ -45663,13 +46242,13 @@
       <c r="AB134"/>
       <c r="AC134"/>
     </row>
-    <row r="136" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="2:29" ht="68" customHeight="1"/>
+    <row r="139" spans="2:29" ht="68" customHeight="1"/>
+    <row r="142" spans="2:29" ht="68" customHeight="1"/>
+    <row r="145" ht="68" customHeight="1"/>
+    <row r="148" ht="68" customHeight="1"/>
+    <row r="151" ht="68" customHeight="1"/>
+    <row r="154" ht="68" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F5:H5"/>
@@ -45677,26 +46256,26 @@
     <mergeCell ref="W5:Z5"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:AA11 A12:R12 U12:AA12 A13:AA15 A16:Q16 S16 U16:AA16 A17:AA29 A30:Q30 V30:AA30 A31:AA42 A43:Q43 S43:AA43 A44:T44 V44:AA44 A45:AA83 A84:T84 V84:AA84 A85:AA211">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:AA83 A84:T84 V84:AA84 A85:AA211 A9:AA11 A12:R12 U12:AA12 A13:AA15 A16:Q16 S16 U16:AA16 A17:AA29 A30:Q30 V30:AA30 A31:AA42 A43:Q43 S43:AA43 A44:T44 V44:AA44">
@@ -45705,26 +46284,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50 G70 G73 L84 R84 X84 L87 N87 P87 R87 X87 G90 L90 N90 P90 R90 X90 G93 L93 N93 P93 R93 X93 G96 L96 N96 G99 G102 L105 N105 P105 R105 L108 N108">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -45747,13 +46326,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="97" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="97"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="30" customHeight="1">
       <c r="A1" s="87"/>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -45787,7 +46365,7 @@
       <c r="AE1" s="87"/>
       <c r="AF1" s="87"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="A2" s="89"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -45821,13 +46399,13 @@
       <c r="AE2" s="89"/>
       <c r="AF2" s="89"/>
     </row>
-    <row r="3" spans="1:32" ht="31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="31">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
@@ -45857,7 +46435,7 @@
       <c r="AE3" s="89"/>
       <c r="AF3" s="89"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="A4" s="89"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
@@ -45891,7 +46469,7 @@
       <c r="AE4" s="89"/>
       <c r="AF4" s="89"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="A5" s="89"/>
       <c r="B5" s="89"/>
       <c r="C5" s="89"/>
@@ -45925,7 +46503,7 @@
       <c r="AE5" s="89"/>
       <c r="AF5" s="89"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="A6" s="89"/>
       <c r="B6" s="89"/>
       <c r="C6" s="89"/>
@@ -45972,14 +46550,14 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="4" customWidth="1"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="88" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="88" customFormat="1" ht="30" customHeight="1"/>
+    <row r="2" spans="1:32">
       <c r="A2" s="89"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -46013,13 +46591,13 @@
       <c r="AE2" s="89"/>
       <c r="AF2" s="89"/>
     </row>
-    <row r="3" spans="1:32" ht="31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="31">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
@@ -46049,7 +46627,7 @@
       <c r="AE3" s="89"/>
       <c r="AF3" s="89"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="A4" s="89"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
@@ -46083,7 +46661,7 @@
       <c r="AE4" s="89"/>
       <c r="AF4" s="89"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="A5" s="89"/>
       <c r="B5" s="89"/>
       <c r="C5" s="89"/>
@@ -46117,7 +46695,7 @@
       <c r="AE5" s="89"/>
       <c r="AF5" s="89"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="A6" s="89"/>
       <c r="B6" s="89"/>
       <c r="C6" s="89"/>
@@ -46151,25 +46729,25 @@
       <c r="AE6" s="89"/>
       <c r="AF6" s="89"/>
     </row>
-    <row r="10" spans="1:32" ht="50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="50">
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="28">
       <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="7.5" customHeight="1">
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32">
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="17">
       <c r="C15" s="7" t="s">
         <v>3</v>
       </c>
@@ -46178,7 +46756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32">
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -46187,7 +46765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7">
       <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
@@ -46196,7 +46774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7">
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
@@ -46205,7 +46783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7">
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
@@ -46214,7 +46792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7">
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
@@ -46223,12 +46801,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7">
       <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" ht="17">
       <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
@@ -46238,7 +46816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7">
       <c r="C24" s="5" t="s">
         <v>10</v>
       </c>
@@ -46249,7 +46827,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7">
       <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
@@ -46260,7 +46838,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7">
       <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
@@ -46271,7 +46849,7 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7">
       <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
@@ -46282,7 +46860,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7">
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
@@ -46293,7 +46871,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7">
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
@@ -46304,32 +46882,32 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7">
       <c r="C31" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7">
       <c r="C32" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9">
       <c r="C34" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9">
       <c r="C35" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="28" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:9" ht="28">
       <c r="C38" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" ht="17">
       <c r="C39" s="7" t="s">
         <v>26</v>
       </c>
@@ -46344,7 +46922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:9">
       <c r="C40" s="5" t="s">
         <v>28</v>
       </c>
@@ -46359,7 +46937,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:9">
       <c r="C41" s="5" t="s">
         <v>29</v>
       </c>
@@ -46374,7 +46952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:9">
       <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
@@ -46389,12 +46967,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="28" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:9" ht="28">
       <c r="C46" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" ht="17">
       <c r="C47" s="7" t="s">
         <v>26</v>
       </c>
@@ -46409,7 +46987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:9">
       <c r="C48" s="5" t="s">
         <v>32</v>
       </c>
@@ -46424,7 +47002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:9">
       <c r="C49" s="5" t="s">
         <v>33</v>
       </c>
@@ -46439,7 +47017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:9">
       <c r="C50" s="5" t="s">
         <v>34</v>
       </c>
@@ -46467,12 +47045,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="30" customHeight="1">
       <c r="A1" s="87"/>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -46506,7 +47084,7 @@
       <c r="AE1" s="87"/>
       <c r="AF1" s="87"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="A2" s="89"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -46540,12 +47118,12 @@
       <c r="AE2" s="89"/>
       <c r="AF2" s="89"/>
     </row>
-    <row r="3" spans="1:32" ht="31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="31">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="90" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E3" s="89"/>
       <c r="F3" s="90"/>
@@ -46576,7 +47154,7 @@
       <c r="AE3" s="89"/>
       <c r="AF3" s="89"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="A4" s="89"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
@@ -46610,7 +47188,7 @@
       <c r="AE4" s="89"/>
       <c r="AF4" s="89"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="A5" s="89"/>
       <c r="B5" s="89"/>
       <c r="C5" s="89"/>
@@ -46644,7 +47222,7 @@
       <c r="AE5" s="89"/>
       <c r="AF5" s="89"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="A6" s="89"/>
       <c r="B6" s="89"/>
       <c r="C6" s="89"/>
@@ -46691,7 +47269,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="5" width="5.33203125" customWidth="1"/>
@@ -46701,7 +47279,7 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="97" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="30" customHeight="1">
       <c r="A1" s="87"/>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -46724,7 +47302,7 @@
       <c r="T1" s="87"/>
       <c r="U1" s="87"/>
     </row>
-    <row r="2" spans="1:21" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="89"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -46747,14 +47325,14 @@
       <c r="T2" s="89"/>
       <c r="U2" s="89"/>
     </row>
-    <row r="3" spans="1:21" s="97" customFormat="1" ht="31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="31">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
       <c r="F3" s="90" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G3" s="90"/>
       <c r="H3" s="90"/>
@@ -46772,7 +47350,7 @@
       <c r="T3" s="89"/>
       <c r="U3" s="89"/>
     </row>
-    <row r="4" spans="1:21" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="89"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
@@ -46795,7 +47373,7 @@
       <c r="T4" s="89"/>
       <c r="U4" s="89"/>
     </row>
-    <row r="5" spans="1:21" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="89"/>
       <c r="B5" s="89"/>
       <c r="C5" s="89"/>
@@ -46818,7 +47396,7 @@
       <c r="T5" s="89"/>
       <c r="U5" s="89"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="B8" s="19" t="s">
         <v>43</v>
       </c>
@@ -46844,13 +47422,13 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -46858,11 +47436,11 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="B10" s="28"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
@@ -46876,11 +47454,11 @@
       <c r="J10" s="5"/>
       <c r="K10" s="29"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="B11" s="28"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>41</v>
       </c>
@@ -46894,11 +47472,11 @@
       <c r="J11" s="5"/>
       <c r="K11" s="29"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="B12" s="28"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
         <v>42</v>
       </c>
@@ -46912,7 +47490,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="29"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="B13" s="24" t="s">
         <v>44</v>
       </c>
@@ -46926,11 +47504,8 @@
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="B14" s="15"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
       <c r="F14" s="5" t="s">
         <v>45</v>
       </c>
@@ -46944,11 +47519,8 @@
       <c r="J14" s="5"/>
       <c r="K14" s="29"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="B15" s="15"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
       <c r="F15" s="5" t="s">
         <v>46</v>
       </c>
@@ -46962,11 +47534,8 @@
       <c r="J15" s="5"/>
       <c r="K15" s="29"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="B16" s="15"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
       <c r="F16" s="5" t="s">
         <v>47</v>
       </c>
@@ -46980,11 +47549,8 @@
       <c r="J16" s="5"/>
       <c r="K16" s="29"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="15"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
       <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
@@ -46998,7 +47564,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="29"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="24" t="s">
         <v>54</v>
       </c>
@@ -47014,7 +47580,7 @@
       <c r="J18" s="22"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="24" t="s">
         <v>55</v>
       </c>
@@ -47028,11 +47594,8 @@
       <c r="J19" s="22"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="15"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
       <c r="F20" s="5" t="s">
         <v>59</v>
       </c>
@@ -47046,11 +47609,8 @@
       <c r="J20" s="5"/>
       <c r="K20" s="29"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="15"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
       <c r="F21" s="5" t="s">
         <v>60</v>
       </c>
@@ -47064,11 +47624,8 @@
       <c r="J21" s="5"/>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="15"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
       <c r="F22" s="5" t="s">
         <v>61</v>
       </c>
@@ -47082,11 +47639,8 @@
       <c r="J22" s="5"/>
       <c r="K22" s="29"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="15"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
       <c r="F23" s="5" t="s">
         <v>56</v>
       </c>
@@ -47100,11 +47654,8 @@
       <c r="J23" s="5"/>
       <c r="K23" s="29"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="15"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
       <c r="F24" s="5" t="s">
         <v>57</v>
       </c>
@@ -47118,11 +47669,8 @@
       <c r="J24" s="5"/>
       <c r="K24" s="29"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="15"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
       <c r="F25" s="5" t="s">
         <v>58</v>
       </c>
@@ -47136,7 +47684,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="29"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="24" t="s">
         <v>62</v>
       </c>
@@ -47150,11 +47698,8 @@
       <c r="J26" s="22"/>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="15"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
       <c r="F27" s="5" t="s">
         <v>63</v>
       </c>
@@ -47166,11 +47711,8 @@
       <c r="J27" s="5"/>
       <c r="K27" s="29"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="15"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
       <c r="F28" s="5" t="s">
         <v>64</v>
       </c>
@@ -47182,11 +47724,8 @@
       <c r="J28" s="5"/>
       <c r="K28" s="29"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="15"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
       <c r="F29" s="5" t="s">
         <v>65</v>
       </c>
@@ -47198,13 +47737,13 @@
       <c r="J29" s="5"/>
       <c r="K29" s="29"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -47212,11 +47751,8 @@
       <c r="J30" s="22"/>
       <c r="K30" s="23"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="15"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
       <c r="F31" s="5" t="s">
         <v>67</v>
       </c>
@@ -47228,11 +47764,8 @@
       <c r="J31" s="5"/>
       <c r="K31" s="29"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="15"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
       <c r="F32" s="5" t="s">
         <v>68</v>
       </c>
@@ -47244,11 +47777,8 @@
       <c r="J32" s="5"/>
       <c r="K32" s="29"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="15"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
       <c r="F33" s="5" t="s">
         <v>69</v>
       </c>
@@ -47260,11 +47790,8 @@
       <c r="J33" s="5"/>
       <c r="K33" s="29"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="15"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
       <c r="F34" s="5" t="s">
         <v>70</v>
       </c>
@@ -47276,13 +47803,13 @@
       <c r="J34" s="5"/>
       <c r="K34" s="29"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11">
       <c r="B35" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
@@ -47290,13 +47817,13 @@
       <c r="J35" s="25"/>
       <c r="K35" s="26"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
@@ -47304,11 +47831,8 @@
       <c r="J36" s="22"/>
       <c r="K36" s="23"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11">
       <c r="B37" s="15"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
       <c r="F37" s="5" t="s">
         <v>79</v>
       </c>
@@ -47320,11 +47844,8 @@
       <c r="J37" s="5"/>
       <c r="K37" s="29"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11">
       <c r="B38" s="15"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
       <c r="F38" s="5" t="s">
         <v>73</v>
       </c>
@@ -47336,11 +47857,8 @@
       <c r="J38" s="5"/>
       <c r="K38" s="29"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11">
       <c r="B39" s="15"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
       <c r="F39" s="5" t="s">
         <v>74</v>
       </c>
@@ -47352,11 +47870,8 @@
       <c r="J39" s="5"/>
       <c r="K39" s="29"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11">
       <c r="B40" s="15"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -47364,11 +47879,8 @@
       <c r="J40" s="5"/>
       <c r="K40" s="29"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11">
       <c r="B41" s="15"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -47376,11 +47888,8 @@
       <c r="J41" s="5"/>
       <c r="K41" s="29"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11">
       <c r="B42" s="15"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -47388,11 +47897,8 @@
       <c r="J42" s="5"/>
       <c r="K42" s="29"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11">
       <c r="B43" s="15"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -47400,11 +47906,8 @@
       <c r="J43" s="5"/>
       <c r="K43" s="29"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11">
       <c r="B44" s="15"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -47412,7 +47915,7 @@
       <c r="J44" s="5"/>
       <c r="K44" s="29"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11">
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF78D3A1-D9D4-2043-BCD9-4B56B228BB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3539A8E3-C164-3E4F-A3C2-CE97528435D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="46080" windowHeight="25920" tabRatio="710" activeTab="2" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="3440" yWindow="2860" windowWidth="46080" windowHeight="25920" tabRatio="710" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="256">
   <si>
     <t>Devices</t>
   </si>
@@ -1870,9 +1870,6 @@
     <t>Native update management</t>
   </si>
   <si>
-    <t>Zero Trust Workshop - Device</t>
-  </si>
-  <si>
     <t>Zero Trust Assessment for Australian Unity</t>
   </si>
   <si>
@@ -1910,6 +1907,12 @@
   </si>
   <si>
     <t>Rollout CA for External Identities</t>
+  </si>
+  <si>
+    <t>Zero Trust Workshop - Devices</t>
+  </si>
+  <si>
+    <t>Android Enterprise Provisioning</t>
   </si>
 </sst>
 </file>
@@ -2675,6 +2678,706 @@
   </cellStyles>
   <dxfs count="142">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
@@ -2749,7 +3452,195 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2768,7 +3659,48 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2798,7 +3730,94 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2822,13 +3841,40 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2847,45 +3893,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2986,7 +4005,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2994,7 +4024,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3010,51 +4059,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3069,1015 +4077,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF797BAA"/>
       <color rgb="FF3969AD"/>
       <color rgb="FFCFE2FD"/>
       <color rgb="FF000000"/>
@@ -16393,6 +16397,78 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="bannerLogoBg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EFD6E2-A7C0-FF45-9E06-A1D61E2DC117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="673100"/>
+          <a:ext cx="2590800" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="797BAA">
+              <a:alpha val="81176"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26657,6 +26733,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Graphic 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988BD7E9-0EDD-4C4B-A988-D6A41B26B929}"/>
@@ -26668,10 +26745,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -26707,6 +26784,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Graphic 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB859D2-F0A8-4963-B485-24D106F5DE54}"/>
@@ -26718,10 +26796,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -26768,10 +26846,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -26818,10 +26896,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27009,10 +27087,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27048,7 +27126,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Graphic 8">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115294D6-A570-4F86-A91C-12A00F4323B8}"/>
@@ -27060,10 +27138,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27099,7 +27177,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Graphic 9">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3065C75A-C86E-45DF-97F5-29951A396FB0}"/>
@@ -27111,10 +27189,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27150,7 +27228,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Graphic 10">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436B87B8-4D67-45B2-9957-9C8115B2E633}"/>
@@ -27162,10 +27240,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27201,7 +27279,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="Graphic 11">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3FD923-7DC2-4F67-930B-94780BD36643}"/>
@@ -27213,10 +27291,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27443,10 +27521,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27482,7 +27560,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="Graphic 15">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818CC4A1-8FCE-4E45-85F3-5826BABAD5A1}"/>
@@ -27494,10 +27572,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27533,7 +27611,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="Graphic 16">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD0B997-BB71-4F91-8385-437D6AC6A05A}"/>
@@ -27545,10 +27623,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27595,10 +27673,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28090,6 +28168,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="24" name="Graphic 23">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252BE3CA-7CD7-4F33-9554-3915F6EDC834}"/>
@@ -28101,10 +28180,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28315,6 +28394,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="27" name="Graphic 26">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A58BF1-0103-4E9A-8B70-5409A7E6E876}"/>
@@ -28326,10 +28406,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28360,6 +28440,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="28" name="Graphic 27">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBFBEA0-D279-425B-9332-D8AC2681C07B}"/>
@@ -28371,10 +28452,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28405,6 +28486,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="29" name="Graphic 28">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908A397C-EF4B-4C9A-8999-897D9DAAE66D}"/>
@@ -28416,10 +28498,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28649,6 +28731,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="32" name="Graphic 31">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1BFB66F-C297-4AAD-B0FC-D440234CB9BE}"/>
@@ -28660,10 +28743,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28694,6 +28777,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="33" name="Graphic 32">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CE6A1D-5ACC-4C82-B853-C5455D704180}"/>
@@ -28705,10 +28789,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28739,6 +28823,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="34" name="Graphic 33">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738262BC-57FA-42F3-93C3-5AA9E0DA614F}"/>
@@ -28750,10 +28835,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28875,6 +28960,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="36" name="Graphic 35">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C39F63-A027-426A-81EB-B80F642E921C}"/>
@@ -28886,10 +28972,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28936,10 +29022,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28986,10 +29072,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -29036,13 +29122,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId34"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -29089,13 +29175,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId36"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId42"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -29393,10 +29479,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId44"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -29427,6 +29513,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="47" name="Graphic 46">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C92EAD-2A3B-4A23-8676-6B9794E697E1}"/>
@@ -29438,10 +29525,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -29472,6 +29559,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="48" name="Graphic 47">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48039D1E-4A53-42D6-933B-2EA3969F0776}"/>
@@ -29483,10 +29571,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -29636,10 +29724,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId32"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId38"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -29681,10 +29769,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -29730,7 +29818,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5327650" y="19151600"/>
+          <a:off x="5327650" y="18999200"/>
           <a:ext cx="2434861" cy="507613"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -29826,13 +29914,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -29879,7 +29967,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5341310" y="20694810"/>
+          <a:off x="5341310" y="20542410"/>
           <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -29975,13 +30063,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -30028,7 +30116,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5325942" y="23866609"/>
+          <a:off x="5325942" y="23714209"/>
           <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -30124,13 +30212,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -30177,7 +30265,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5360947" y="22211980"/>
+          <a:off x="5360947" y="22059580"/>
           <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -30273,13 +30361,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -30326,7 +30414,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="25435858"/>
+          <a:off x="5376315" y="25283458"/>
           <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -30439,13 +30527,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -30492,7 +30580,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="27061458"/>
+          <a:off x="5376315" y="26909058"/>
           <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -30588,13 +30676,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -30780,6 +30868,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="72" name="Graphic 71">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFC16A7-AB72-4405-BDDC-B5578FB99070}"/>
@@ -30791,10 +30880,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -30825,6 +30914,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="73" name="Graphic 72">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6B8A92-3A5B-4F1A-8BD2-3E68FF103AEE}"/>
@@ -30836,10 +30926,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -30989,10 +31079,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -31038,7 +31128,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5327650" y="29667200"/>
+          <a:off x="5327650" y="29514800"/>
           <a:ext cx="2434861" cy="507613"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -31134,13 +31224,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -31187,7 +31277,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5341310" y="31210410"/>
+          <a:off x="5341310" y="31058010"/>
           <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -31283,13 +31373,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -31336,7 +31426,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5325942" y="34382209"/>
+          <a:off x="5325942" y="34229809"/>
           <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -31432,13 +31522,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -31485,7 +31575,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5360947" y="32727580"/>
+          <a:off x="5360947" y="32575180"/>
           <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -31581,13 +31671,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -31634,7 +31724,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="35951458"/>
+          <a:off x="5376315" y="35799058"/>
           <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -31747,13 +31837,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -31800,7 +31890,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5376315" y="37577058"/>
+          <a:off x="5376315" y="37424658"/>
           <a:ext cx="2434861" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
@@ -31896,13 +31986,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId40"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId46"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -31945,10 +32035,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32144,10 +32234,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32280,10 +32370,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32314,6 +32404,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="100" name="Graphic 99">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A3E94E-426B-4126-84CF-E683BE06BDC8}"/>
@@ -32325,10 +32416,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32375,10 +32466,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId42"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId50"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32420,10 +32511,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32465,10 +32556,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32510,10 +32601,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32555,10 +32646,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32680,6 +32771,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="107" name="Graphic 106">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB5217F-8E2F-4AE8-B8EA-31E78AACD11C}"/>
@@ -32691,10 +32783,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32890,10 +32982,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -32935,10 +33027,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId30"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33077,6 +33169,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="113" name="Graphic 112">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE0536D-6562-4D6C-997E-436E69B2E8AD}"/>
@@ -33088,10 +33181,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33138,10 +33231,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId44"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId54"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33187,7 +33280,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="730969" y="57050389"/>
+          <a:off x="730969" y="56897989"/>
           <a:ext cx="1220613" cy="1230491"/>
           <a:chOff x="620888" y="57714444"/>
           <a:chExt cx="1411111" cy="1411111"/>
@@ -33207,7 +33300,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -33236,10 +33329,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId47"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -33271,6 +33364,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="118" name="Graphic 117">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FDDCB1-EE47-411C-946F-7CF73A7EEF80}"/>
@@ -33282,10 +33376,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33321,7 +33415,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="119" name="Graphic 118">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BAA803-49EF-42F4-B1E7-1BF51277F0B5}"/>
@@ -33333,10 +33427,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33383,10 +33477,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId22"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33422,6 +33516,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="121" name="Graphic 120">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86FB7C3-F11A-4891-8EC1-7034CF9C54D0}"/>
@@ -33433,10 +33528,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33472,6 +33567,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="122" name="Graphic 121">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A6C288-4876-4D11-8CED-819248F0D30C}"/>
@@ -33483,10 +33579,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33522,6 +33618,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="123" name="Graphic 122">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDC7A1B-F67D-42C5-B4FD-843BCFF5AFE9}"/>
@@ -33533,10 +33630,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33572,6 +33669,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="124" name="Graphic 123">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C91ADBC-EE14-4893-99A5-F32B94BA902F}"/>
@@ -33583,10 +33681,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33622,6 +33720,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="125" name="Graphic 124">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8084AF76-2C55-4197-B953-73120464CDBC}"/>
@@ -33633,10 +33732,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33672,6 +33771,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="126" name="Graphic 125">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD05D4AE-FD0D-477D-8779-97A539FCA579}"/>
@@ -33683,10 +33783,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33722,6 +33822,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="127" name="Graphic 126">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB2D564-8804-4752-993E-33DAE3056917}"/>
@@ -33733,10 +33834,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33747,156 +33848,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7793327" y="18516887"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>71581</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>286325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>431581</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>646325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="128" name="Graphic 127">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666B321A-FA71-433E-BB31-FA22FF1A2BEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9877569" y="20207863"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>73889</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>286325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>433889</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>646325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="129" name="Graphic 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB4D269-DC04-47D9-8582-845EED42233D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11975377" y="20207863"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>80819</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>215899</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>440819</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>575899</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="Graphic 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD2C63E-917B-4C06-A5F5-1746CBE492D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781782" y="21761449"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -33922,6 +33873,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="131" name="Graphic 130">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109E36DA-88AD-4DC3-A2AD-3FA861F88236}"/>
@@ -33933,10 +33885,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId70"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -33983,10 +33935,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId72"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34022,6 +33974,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="133" name="Graphic 132">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFAA064-B0FE-43D6-8F78-CD29DD5B6956}"/>
@@ -34033,10 +33986,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId74"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34072,6 +34025,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="134" name="Graphic 133">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E6A247-9729-439F-9FD5-E01A5898DC11}"/>
@@ -34083,10 +34037,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId63"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId77"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34122,6 +34076,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="135" name="Graphic 134">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE77469-E99F-42A3-97B5-3141F562B518}"/>
@@ -34133,10 +34088,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId80"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34172,6 +34127,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="136" name="Graphic 135">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C3BE7D-A532-48E6-BD65-43EE1F148FB0}"/>
@@ -34183,10 +34139,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34222,6 +34178,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="137" name="Graphic 136">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8361ACCA-B88E-407D-AD42-EE4FBC25234D}"/>
@@ -34233,10 +34190,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34272,6 +34229,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="138" name="Graphic 137">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E37C90-5F07-4BED-B5A9-A7D490EC50EC}"/>
@@ -34283,10 +34241,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34322,6 +34280,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="139" name="Graphic 138">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B548EF-7BE8-4FED-A961-91FC9110FA9F}"/>
@@ -34333,10 +34292,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34372,6 +34331,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="140" name="Graphic 139">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09498787-8A6F-4490-A32F-750941C763DE}"/>
@@ -34383,10 +34343,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34422,6 +34382,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="141" name="Graphic 140">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1851BC02-19D8-4972-85F5-220DE6381147}"/>
@@ -34433,10 +34394,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34472,6 +34433,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="142" name="Graphic 141">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87B0D12-D27C-44D0-B14C-F44C165B5A7C}"/>
@@ -34483,10 +34445,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34522,6 +34484,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="143" name="Graphic 142">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D7AB39-061C-4A89-90BE-FCF8332C2978}"/>
@@ -34533,10 +34496,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34572,6 +34535,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="144" name="Graphic 143">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47890D9A-F81F-471A-A46F-934905CA1198}"/>
@@ -34583,10 +34547,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34622,6 +34586,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="145" name="Graphic 144">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E406BDD-2D88-4FF4-A78D-D95F960E6FBA}"/>
@@ -34633,10 +34598,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId69"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId88"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34672,6 +34637,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="146" name="Graphic 145">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3383A6-6A59-475E-9569-8F02268F0761}"/>
@@ -34683,10 +34649,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34697,156 +34663,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7747144" y="29057600"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>83127</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>263233</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>443127</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>623233</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="Graphic 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30AD9C9-0D38-4E82-8605-136FD79A897F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9889115" y="30690846"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85435</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>263233</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>445435</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>623233</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="Graphic 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4959F17F-83AB-4DDF-AC62-5CB384394EFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11986923" y="30690846"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>92365</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>192807</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>452365</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>552807</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="Graphic 148">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E65639C-D20D-4446-B826-024644AEE468}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7793328" y="32244432"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -34872,6 +34688,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="150" name="Graphic 149">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893A073C-7509-4D61-91D4-257992548455}"/>
@@ -34883,10 +34700,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId70"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34897,56 +34714,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9900662" y="32244432"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>73892</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>192807</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>433892</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>552807</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="151" name="Graphic 150">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE09DE97-E502-408E-987F-DB17EB299F01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11975380" y="32244432"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -34972,6 +34739,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="152" name="Graphic 151">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB7A42FC-F0B4-4F7F-96CB-65B020F6AA63}"/>
@@ -34983,10 +34751,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId74"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -34997,106 +34765,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7793328" y="30658522"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>115455</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>219363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>475455</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>579363</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="Graphic 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5718B2B-6C61-49B2-8F68-4C6A2A3D2EA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId63"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7816418" y="33895001"/>
-          <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>80819</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>219361</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>440819</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>579361</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="154" name="Graphic 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2245D558-EF1C-4B18-A809-5C304436B38F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9886807" y="33894999"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -35122,6 +34790,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="155" name="Graphic 154">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BF6D60-9137-4C8D-AAAE-2E7CA817ECC7}"/>
@@ -35133,10 +34802,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35172,6 +34841,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="156" name="Graphic 155">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999F82ED-0414-4664-9D11-9DC51BB80EFA}"/>
@@ -35183,10 +34853,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35222,6 +34892,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="157" name="Graphic 156">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA31A14F-8C55-42A2-BD6D-3A819DB70CA3}"/>
@@ -35233,10 +34904,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35272,6 +34943,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="158" name="Graphic 157">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03D2D64-510F-4DA0-800E-AE9A76CAB7AD}"/>
@@ -35283,10 +34955,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId94"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35322,6 +34994,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="159" name="IconGrantHybridJoined">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACFB72D-DB95-4594-8BE5-4FFAE131C57C}"/>
@@ -35333,10 +35006,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId97"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35372,6 +35045,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="160" name="Graphic 159">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AE2EF2-8F30-4EEB-8016-A184598F7136}"/>
@@ -35383,10 +35057,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35422,6 +35096,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="161" name="Graphic 160">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5301BEB1-BEA9-4C6A-8989-C556D58D2B1B}"/>
@@ -35433,10 +35108,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35472,6 +35147,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="162" name="Graphic 161">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641E6B64-0146-4807-8C67-CBCD0DD18BC6}"/>
@@ -35483,10 +35159,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId100"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35533,10 +35209,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId77"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId102"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35583,10 +35259,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId79"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId104"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35622,6 +35298,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="165" name="Graphic 164">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA50ACD1-327A-4232-A970-3624DE1A7E4A}"/>
@@ -35633,10 +35310,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId81"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId107"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35672,6 +35349,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="166" name="Graphic 165">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C3CCB3-BB65-4C1E-97BC-62AA6BD698C9}"/>
@@ -35683,10 +35361,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35722,6 +35400,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="167" name="Graphic 166">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4851CC-D55D-4C81-967F-ED37188E940B}"/>
@@ -35733,10 +35412,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId69"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId88"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35772,6 +35451,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="168" name="Graphic 167">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DEDF09-DDB7-4933-9311-40747667F95E}"/>
@@ -35783,10 +35463,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId112"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35822,6 +35502,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="169" name="Graphic 168">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2296D8ED-2ABD-4109-9AEA-F7FA9A4ED4B4}"/>
@@ -35833,10 +35514,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId85"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId114"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35872,6 +35553,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="170" name="Graphic 169">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId115"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11F538A-FE6D-4053-9D73-D1D373C63606}"/>
@@ -35883,10 +35565,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId87"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId117"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35922,6 +35604,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="171" name="Graphic 170">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3F0B27-ACA0-4356-AAAA-7743B7A09C1A}"/>
@@ -35933,10 +35616,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35972,6 +35655,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="172" name="Graphic 171">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDCE172-B465-4E79-B231-4D9D00482000}"/>
@@ -35983,10 +35667,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36022,6 +35706,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="173" name="Graphic 172">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId119"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D394CCC8-E984-46F8-842A-83FF0B9A6365}"/>
@@ -36033,10 +35718,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36072,6 +35757,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="174" name="Graphic 173">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1821D22D-9B7C-4AAD-8792-9A0BE5CD5ED1}"/>
@@ -36083,10 +35769,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId121">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId89"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId122"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36122,6 +35808,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="175" name="Graphic 174">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId123"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801BAAD7-1828-49B1-B3D7-50D722C06BE1}"/>
@@ -36133,10 +35820,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId91"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId125"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36172,6 +35859,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="176" name="Graphic 175">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17790B29-9B90-48C2-B97E-BAD979D3E1DA}"/>
@@ -36183,10 +35871,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId127">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId93"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId128"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36222,6 +35910,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="177" name="Graphic 176">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId129"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3D47E1-63C7-4BBE-81A2-CB92EF67A3F5}"/>
@@ -36233,10 +35922,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId130">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId95"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId131"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36272,6 +35961,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="178" name="Graphic 177">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6F0C80-7685-4812-8750-7DAAFF70774C}"/>
@@ -36283,10 +35973,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId133">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId97"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId134"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36322,6 +36012,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="179" name="Graphic 178">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId135"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6726C5ED-5F58-46E2-B902-39585B97B348}"/>
@@ -36333,10 +36024,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId136">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId99"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId137"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36372,6 +36063,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="180" name="Graphic 179">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId138"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F47321F-3AAF-44FF-B3D1-15B73AF41283}"/>
@@ -36383,10 +36075,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId81"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId107"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36422,6 +36114,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="181" name="Graphic 180">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId139"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B412047-5F73-4362-8797-00A8FF63934F}"/>
@@ -36433,10 +36126,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId140">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId101"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId141"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36472,6 +36165,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="182" name="Graphic 181">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12F9A6A-F3CC-4DA4-A6E5-98DA39B19DEE}"/>
@@ -36483,10 +36177,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId142">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId103"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId143"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36522,6 +36216,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="183" name="Graphic 182">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId144"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D61E0DD-3A00-40FB-BF86-60D6FD8FE66B}"/>
@@ -36533,10 +36228,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId145">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId105"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId146"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36572,6 +36267,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="184" name="Graphic 183">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId147"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE1B36C-B750-4A70-9118-B2A0854538C7}"/>
@@ -36583,10 +36279,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId148">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId107"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId149"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36622,6 +36318,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="185" name="Graphic 184">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36993517-4439-4068-BECB-7D58F434A086}"/>
@@ -36633,10 +36330,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId150">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId109"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId151"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36683,10 +36380,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36722,6 +36419,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="187" name="Graphic 186">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId152"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A4E9DE-B0F5-420C-AED4-6C132E7DDAD1}"/>
@@ -36733,10 +36431,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId153">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId111"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId154"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36782,7 +36480,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16239834" y="39947274"/>
+          <a:off x="16239834" y="39794874"/>
           <a:ext cx="486582" cy="440398"/>
           <a:chOff x="14743545" y="39681728"/>
           <a:chExt cx="486582" cy="440398"/>
@@ -36802,10 +36500,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId155">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId113"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId156"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -36837,10 +36535,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId97"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -36877,6 +36575,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="191" name="Graphic 190">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId157"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746AB24E-69EB-4A49-9BD2-FA581F585F20}"/>
@@ -36888,10 +36587,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId142">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId103"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId143"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36927,6 +36626,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="192" name="Graphic 191">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId157"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A5C30A-4A1F-46C9-B21F-00AD27838AAE}"/>
@@ -36938,10 +36638,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId69"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId88"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36977,6 +36677,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="193" name="Graphic 192">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId144"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C985B87-B42C-4104-8F12-9AF68ACEB986}"/>
@@ -36988,10 +36689,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId145">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId105"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId146"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37027,6 +36728,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="194" name="Graphic 193">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId157"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87738B0B-09D0-40D4-862E-E9E45D39151B}"/>
@@ -37038,10 +36740,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId158">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId115"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId159"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37088,10 +36790,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId77"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId102"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37127,6 +36829,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="196" name="Graphic 195">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId157"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD281DBA-22AC-48C6-A646-13AD90CCA4B9}"/>
@@ -37138,10 +36841,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId160">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId117"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId161"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37177,6 +36880,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="197" name="Graphic 196">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBB09F7-A67C-4D22-B921-BD5B2E94C704}"/>
@@ -37188,10 +36892,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId83"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37227,6 +36931,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="198" name="Graphic 197">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4684A6CC-E09D-4F78-84D2-5FB850889D2D}"/>
@@ -37238,10 +36943,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId80"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37277,6 +36982,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="199" name="Graphic 198">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId162"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4031F4E-7B72-4177-A869-A456376C2689}"/>
@@ -37288,10 +36994,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId163">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId164"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37327,6 +37033,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="200" name="Graphic 199">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId165"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD134788-B938-490D-B8F6-3FB57F0079FA}"/>
@@ -37338,10 +37045,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId166">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId119"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId167"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37387,7 +37094,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7801263" y="39970363"/>
+          <a:off x="7801263" y="39817963"/>
           <a:ext cx="420091" cy="547092"/>
           <a:chOff x="7793181" y="39635545"/>
           <a:chExt cx="420091" cy="547092"/>
@@ -37407,10 +37114,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId168">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId121"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId169"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -37442,10 +37149,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId170">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId123"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId171"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -37493,10 +37200,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId172">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId125"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId173"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37532,7 +37239,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="215" name="Rounded Rectangle 68">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId174"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2982CF-46C3-E60D-2568-6347213B4FC3}"/>
@@ -37608,7 +37315,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="216" name="Rectangle: Rounded Corners 215">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId127"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId175"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4F1E4C-DADC-AB24-C30A-BE4390271669}"/>
@@ -37675,7 +37382,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="217" name="Rectangle: Rounded Corners 216">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId128"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId176"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F64B7F-C6F3-1452-4B46-B4D361A5B1A5}"/>
@@ -37751,7 +37458,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="218" name="Rectangle: Rounded Corners 217">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId129"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId177"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E338A249-973C-F0E7-A4D6-B61A4F3036C8}"/>
@@ -37831,7 +37538,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="219" name="Rectangle: Rounded Corners 218">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId178"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD61DC4-A146-ACA0-5D49-F761821799F1}"/>
@@ -37903,7 +37610,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="220" name="Rectangle: Rounded Corners 219">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId131"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId179"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD3EE2F-D7A5-C7BB-6B46-E830291E68ED}"/>
@@ -37975,7 +37682,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="221" name="Rectangle: Rounded Corners 220">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId180"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E7C57A-42F9-10B7-31B3-CA7CED9DB40F}"/>
@@ -38042,7 +37749,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="222" name="Rectangle: Rounded Corners 221">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId133"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId181"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA932537-12E2-2B35-FCBB-A34D9F40E7F3}"/>
@@ -38091,6 +37798,503 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>474300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>626700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="205" name="Picture 204">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId182"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44AEABB-F9CF-FBAB-D414-C93582F59FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId183"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12026900" y="20612100"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>436200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>563200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="206" name="Graphic 205">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB38F7B-F98F-5602-7A11-D69E168D4969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId184">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId185"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9893300" y="20548600"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="207" name="Graphic 206">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId186"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8ADE18B-2857-62AE-1CC5-439C8DD2552C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId187">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId188"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734300" y="22199600"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>601300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="Graphic 207">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId189"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09668307-BDFC-834A-BDCD-304443BD7FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId117"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11988800" y="32727900"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>510300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>637300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="Graphic 208">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId190"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1E7DAA-51C3-AC4B-E549-4E9C965E14C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId191">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId192"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="32727900"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>448900</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>626700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="Picture 209">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6827D568-28BF-6B42-A38C-3571DBFD8071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId183"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12001500" y="31127700"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>448900</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>563200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="Graphic 210">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35CD1A3-A67B-D84D-B556-A49618B2D5C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId184">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId185"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="31064200"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>825500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="Graphic 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68137734-05C3-4133-9347-DF09E7EBA86D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId193">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId194"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29057600" y="68478400"/>
+          <a:ext cx="342900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>458000</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>637300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="224" name="Graphic 223">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId195"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9400763-20BA-A7B3-DAF7-46E6132505B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId196">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId197"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="34201100"/>
+          <a:ext cx="356400" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>497600</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>637300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="226" name="Graphic 225">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId198"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED89B10-A056-7580-1FC3-8FB3C67EFDF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId199">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId200"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="34201100"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -41528,7 +41732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6C57C3-010E-3649-B978-A4ACB529691A}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -41607,7 +41813,7 @@
       <c r="C3" s="89"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
@@ -41667,7 +41873,7 @@
       <c r="C5" s="89"/>
       <c r="D5" s="89"/>
       <c r="E5" s="92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="89"/>
       <c r="G5" s="89"/>
@@ -41727,7 +41933,7 @@
       <c r="C7" s="89"/>
       <c r="D7" s="89"/>
       <c r="E7" s="92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F7" s="89"/>
       <c r="G7" s="89"/>
@@ -42134,17 +42340,17 @@
       </c>
       <c r="J11" s="60"/>
       <c r="L11" s="68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N11" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P11" s="68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="63"/>
       <c r="R11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S11" s="63"/>
       <c r="T11" s="63"/>
@@ -43094,11 +43300,11 @@
         <v>158</v>
       </c>
       <c r="P62" s="67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q62"/>
       <c r="R62" s="72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V62" s="60"/>
     </row>
@@ -45003,29 +45209,29 @@
     <mergeCell ref="W5:Z5"/>
   </mergeCells>
   <conditionalFormatting sqref="A24:K25">
-    <cfRule type="cellIs" dxfId="141" priority="97" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="141" priority="104" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="103" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="102" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="101" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="100" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="99" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="98" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="99" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="100" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="101" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="102" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="103" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="104" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="134" priority="97" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:O47 A67:AA73 A9:AA10 O11 Q11 A11:K12 M11:M12 S11:W12 AA11:AA12 L12 N12:R12 A13:AA13 Q14:AA14 A14:M15 O14:O15 N15 P15:Q15 S15 U15:AA15 A16:AA16 A17:K18 M17:M18 O17:O18 Q17:Q18 S17:S18 U17:AA18 L18 N18 P18 R18 T18 A19:AA19 M20 O20:Q20 R20:S21 A20:K22 U20:AA22 A23:AA23 O24:O25 S24:W25 Y24:Y25 AA24:AA25 A26:AA26 A27:W28 Y27:AA28 A29:AA29 A30:F31 H30:AA31 A32:AA32 A33:Q34 U33:AA34 A35:AA35 A36:F37 H36:AA37 A38:AA38 H39:O40 Q39:AA40 A39:F43 H41:AA43 A44:AA45 A48:AA48 A49:O50 Q49:AA50 A53:O54 Q53:AA54 A55:AA55 A56:O57 S56:AA57 A58:AA58 A59:M60 Q59:AA60 A61:AA61 A64:AA64 A65:F66 H65:M66 S65:AA66 AA74:AA115 A116:K207 S116:AA207 L124:R215">
@@ -45034,92 +45240,92 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:P63">
-    <cfRule type="cellIs" dxfId="132" priority="9" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="10" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="11" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="12" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="13" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="14" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="15" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="16" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="9" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:AA10 O11 Q11 A11:K12 M11:M12 S11:W12 AA11:AA12 L12 N12:R12 A13:AA13 Q14:AA14 A14:M15 O14:O15 N15 P15:Q15 S15 U15:AA15 A16:AA16 A17:K18 M17:M18 O17:O18 Q17:Q18 S17:S18 U17:AA18 L18 N18 P18 R18 T18 A19:AA19 M20 O20:Q20 R20:S21 A20:K22 U20:AA22 A23:AA23 O24:O25 S24:W25 Y24:Y25 AA24:AA25 A26:AA26 A27:W28 Y27:AA28 A29:AA29 A30:F31 H30:AA31 A32:AA32 A33:Q34 U33:AA34 A35:AA35 A36:F37 H36:AA37 A38:AA38 H39:O40 Q39:AA40 A39:F43 H41:AA43 A44:AA45 A46:O47 A48:AA48 A49:O50 Q49:AA50 A53:O54 Q53:AA54 A55:AA55 A56:O57 S56:AA57 A58:AA58 A59:M60 Q59:AA60 A61:AA61 A64:AA64 A65:F66 H65:M66 S65:AA66 A67:AA73 AA74:AA115 A116:K207 S116:AA207 L124:R215">
-    <cfRule type="cellIs" dxfId="124" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="127" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="121" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="122" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="122" priority="126" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="125" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="124" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="123" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="124" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="125" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="126" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="127" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="118" priority="122" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:AA52">
-    <cfRule type="cellIs" dxfId="117" priority="17" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="18" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="19" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="24" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="23" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="22" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="21" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="20" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="21" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="22" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="23" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="24" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="110" priority="17" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47 G69">
-    <cfRule type="cellIs" dxfId="109" priority="113" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="119" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="114" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="115" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="116" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="105" priority="117" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
@@ -45127,120 +45333,120 @@
     <cfRule type="cellIs" dxfId="104" priority="118" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="119" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="103" priority="113" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="102" priority="89" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="102" priority="95" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="90" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="101" priority="94" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="91" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="100" priority="93" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="99" priority="92" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="91" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="90" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="89" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:Q21">
+    <cfRule type="cellIs" dxfId="94" priority="112" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="111" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="110" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="109" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="108" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="107" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="106" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="105" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="78" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="95" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="84" priority="77" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="75" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="74" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="73" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21:Q21">
-    <cfRule type="cellIs" dxfId="94" priority="105" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="P25">
+    <cfRule type="cellIs" dxfId="78" priority="72" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="65" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="66" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="67" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="68" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="112" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="83" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="85" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="87" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="88" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="75" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="77" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="78" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="79" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="80" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:P47">
-    <cfRule type="cellIs" dxfId="70" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="34" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="33" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="34" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="68" priority="35" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
@@ -45261,160 +45467,160 @@
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="62" priority="65" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="R46:AA47">
+    <cfRule type="cellIs" dxfId="62" priority="26" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="32" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="31" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="30" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="29" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="28" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="25" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="66" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="27" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="68" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="69" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="70" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="71" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="72" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R46:AA47">
-    <cfRule type="cellIs" dxfId="54" priority="25" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="26" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="27" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="28" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="29" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="30" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="32" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R62:AA63">
-    <cfRule type="cellIs" dxfId="46" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="8" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="2" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="46" priority="87" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="81" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="82" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="83" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="84" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="85" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="86" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="88" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="38" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="64" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="57" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="58" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="36" priority="63" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="59" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="60" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="35" priority="62" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="61" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="62" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="33" priority="60" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="63" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="32" priority="59" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="64" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="31" priority="58" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="30" priority="41" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="30" priority="48" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="47" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="46" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="45" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="44" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="43" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="42" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="43" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="44" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="45" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="46" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="47" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="48" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="23" priority="41" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25">
-    <cfRule type="cellIs" dxfId="22" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="55" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="49" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="50" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="51" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="52" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="18" priority="56" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="53" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="54" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="55" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="56" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="15" priority="52" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -45437,9 +45643,9 @@
   </sheetPr>
   <dimension ref="A1:AK154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -45519,7 +45725,7 @@
       <c r="D3" s="75"/>
       <c r="E3" s="74"/>
       <c r="F3" s="76" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="G3" s="77"/>
       <c r="H3" s="74"/>
@@ -45733,7 +45939,7 @@
       <c r="J10" s="60"/>
       <c r="V10" s="60"/>
     </row>
-    <row r="11" spans="1:37" ht="76" customHeight="1">
+    <row r="11" spans="1:37" ht="64" customHeight="1">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -46267,7 +46473,7 @@
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
       <c r="E46" s="60"/>
-      <c r="G46" s="67" t="s">
+      <c r="G46" s="72" t="s">
         <v>176</v>
       </c>
       <c r="J46" s="60"/>
@@ -46678,8 +46884,8 @@
       <c r="N72" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="P72" s="61" t="s">
-        <v>193</v>
+      <c r="P72" s="71" t="s">
+        <v>255</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="60"/>
@@ -46953,7 +47159,7 @@
       <c r="L89" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="N89" s="61" t="s">
+      <c r="N89" s="71" t="s">
         <v>210</v>
       </c>
       <c r="P89" s="61" t="s">
@@ -47012,7 +47218,7 @@
       <c r="D92" s="59"/>
       <c r="E92" s="60"/>
       <c r="F92"/>
-      <c r="G92" s="67" t="s">
+      <c r="G92" s="72" t="s">
         <v>213</v>
       </c>
       <c r="J92" s="60"/>
@@ -47947,55 +48153,55 @@
     <mergeCell ref="J5:P5"/>
     <mergeCell ref="W5:Z5"/>
   </mergeCells>
-  <conditionalFormatting sqref="A9:AA11 A12:R12 U12:AA12 A13:AA15 A16:Q16 S16 U16:AA16 A17:AA29 A30:Q30 V30:AA30 A31:AA42 A43:Q43 S43:AA43 A44:T44 V44:AA44 A45:AA83 A84:T84 V84:AA84 A85:AA211">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+  <conditionalFormatting sqref="A9:AA11 A12:R12 U12:AA12 A13:AA15 A16:Q16 S16 U16:AA16 A17:AA29 A30:Q30 V30:AA30 A31:AA42 A43:Q43 S43:AA43 A44:T44 V44:AA44 A45:AA63 A64:S64 U64:AA64 A65:AA83 A84:T84 V84:AA84 A85:AA211">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:AA83 A84:T84 V84:AA84 A85:AA211 A9:AA11 A12:R12 U12:AA12 A13:AA15 A16:Q16 S16 U16:AA16 A17:AA29 A30:Q30 V30:AA30 A31:AA42 A43:Q43 S43:AA43 A44:T44 V44:AA44">
+  <conditionalFormatting sqref="A45:AA63 A65:AA83 A84:T84 V84:AA84 A85:AA211 A9:AA11 A12:R12 U12:AA12 A13:AA15 A16:Q16 S16 U16:AA16 A17:AA29 A30:Q30 V30:AA30 A31:AA42 A43:Q43 S43:AA43 A44:T44 V44:AA44 A64:S64 U64:AA64">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50 G70 G73 L84 R84 X84 L87 N87 P87 R87 X87 G90 L90 N90 P90 R90 X90 G93 L93 N93 P93 R93 X93 G96 L96 N96 G99 G102 L105 N105 P105 R105 L108 N108">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -48097,7 +48303,7 @@
       <c r="C3" s="89"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
@@ -48240,9 +48446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -48291,7 +48495,7 @@
       <c r="C3" s="89"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F3" s="89"/>
       <c r="G3" s="89"/>
@@ -48817,7 +49021,7 @@
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="89"/>
       <c r="F3" s="90"/>
@@ -49026,7 +49230,7 @@
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
       <c r="F3" s="90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G3" s="90"/>
       <c r="H3" s="90"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616EE747-AA23-6441-BBA0-A864936673C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B5836A-86FD-6645-8253-DDA884E18F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43300" yWindow="-20560" windowWidth="34960" windowHeight="18860" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="-82920" yWindow="-20700" windowWidth="34960" windowHeight="18860" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="ListStatus">'Identity ✍️'!$G$93:$G$100</definedName>
     <definedName name="Status" localSheetId="2">'Device ✍️'!$AD$3:$AK$3</definedName>
     <definedName name="Status">'Identity ✍️'!$AD$3:$AK$3</definedName>
+    <definedName name="Table_WindowsEnrollment">'Device ⚙️'!$D$56</definedName>
     <definedName name="WorkshopData" localSheetId="2">'Device ✍️'!$A$2:$AA$216</definedName>
     <definedName name="WorkshopData">'Identity ✍️'!$A$2:$AA$212</definedName>
   </definedNames>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="256">
   <si>
     <t>Devices</t>
   </si>
@@ -1903,12 +1904,24 @@
   <si>
     <t>Intune Configuration Assessment</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Applies to</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>📌</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2155,6 +2168,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Semibold"/>
     </font>
   </fonts>
   <fills count="22">
@@ -2562,14 +2601,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2730,18 +2770,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2868,10 +2896,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
@@ -42433,27 +42481,27 @@
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
       <c r="V5" s="33"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
       <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -45875,9 +45923,9 @@
   </sheetPr>
   <dimension ref="A1:AK154"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC3" sqref="AC3:AK3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -45907,8 +45955,8 @@
     <col min="25" max="25" width="2" style="16" customWidth="1"/>
     <col min="26" max="26" width="22" style="16" customWidth="1"/>
     <col min="27" max="28" width="10.83203125" style="16"/>
-    <col min="29" max="29" width="10.83203125" style="16" customWidth="1"/>
-    <col min="30" max="37" width="25.83203125" style="16" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" style="16" hidden="1" customWidth="1"/>
+    <col min="30" max="37" width="25.83203125" style="16" hidden="1" customWidth="1"/>
     <col min="38" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
@@ -46043,27 +46091,27 @@
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
       <c r="Q5" s="60"/>
       <c r="R5" s="60"/>
       <c r="S5" s="60"/>
       <c r="T5" s="60"/>
       <c r="U5" s="60"/>
       <c r="V5" s="59"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
       <c r="AA5" s="52"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -48676,9 +48724,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
-  <dimension ref="A1:AF50"/>
+  <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -49132,7 +49182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="3:9">
+    <row r="49" spans="3:11">
       <c r="C49" s="5" t="s">
         <v>33</v>
       </c>
@@ -49147,7 +49197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="3:9">
+    <row r="50" spans="3:11">
       <c r="C50" s="5" t="s">
         <v>34</v>
       </c>
@@ -49162,10 +49212,51 @@
         <v>3</v>
       </c>
     </row>
+    <row r="54" spans="3:11" ht="28">
+      <c r="C54" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" s="119" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11">
+      <c r="D55" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122" t="s">
+        <v>253</v>
+      </c>
+      <c r="K55" s="122"/>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="D56" s="121"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="121"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="J55:K55"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C54" r:id="rId1" location="view/Microsoft_AAD_IAM/MdmAppsListBlade" xr:uid="{7CC02CD1-5A3A-C841-B0E4-23769402B4DC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -49397,7 +49488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
   <dimension ref="A1:AF397"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -49557,1555 +49648,1555 @@
       <c r="T5" s="68"/>
       <c r="U5" s="68"/>
     </row>
-    <row r="8" spans="1:32" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B8" s="77" t="s">
+    <row r="8" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B8" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="96" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78" t="s">
+      <c r="G8" s="74"/>
+      <c r="H8" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-    </row>
-    <row r="9" spans="1:32" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B9" s="81" t="s">
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+    </row>
+    <row r="9" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B9" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84"/>
-    </row>
-    <row r="10" spans="1:32" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+    </row>
+    <row r="10" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103" t="s">
+      <c r="H10" s="99"/>
+      <c r="I10" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
-    </row>
-    <row r="11" spans="1:32" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106" t="s">
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+    </row>
+    <row r="11" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106" t="s">
+      <c r="H11" s="102"/>
+      <c r="I11" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="106"/>
-      <c r="K11" s="107"/>
-    </row>
-    <row r="12" spans="1:32" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109" t="s">
+      <c r="J11" s="102"/>
+      <c r="K11" s="103"/>
+    </row>
+    <row r="12" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109" t="s">
+      <c r="H12" s="105"/>
+      <c r="I12" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-    </row>
-    <row r="13" spans="1:32" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B13" s="81" t="s">
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
+    </row>
+    <row r="13" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B13" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-    </row>
-    <row r="14" spans="1:32" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B14" s="89"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103" t="s">
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+    </row>
+    <row r="14" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B14" s="85"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103" t="s">
+      <c r="H14" s="99"/>
+      <c r="I14" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="103"/>
-      <c r="K14" s="104"/>
-    </row>
-    <row r="15" spans="1:32" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B15" s="89"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106" t="s">
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
+    </row>
+    <row r="15" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B15" s="85"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106" t="s">
+      <c r="H15" s="102"/>
+      <c r="I15" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107"/>
-    </row>
-    <row r="16" spans="1:32" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B16" s="89"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="106" t="s">
+      <c r="J15" s="102"/>
+      <c r="K15" s="103"/>
+    </row>
+    <row r="16" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B16" s="85"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106" t="s">
+      <c r="H16" s="102"/>
+      <c r="I16" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="107"/>
-    </row>
-    <row r="17" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B17" s="89"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109" t="s">
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
+    </row>
+    <row r="17" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B17" s="85"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109" t="s">
+      <c r="H17" s="105"/>
+      <c r="I17" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
-    </row>
-    <row r="18" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B18" s="81" t="s">
+      <c r="J17" s="105"/>
+      <c r="K17" s="106"/>
+    </row>
+    <row r="18" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B18" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="88"/>
-    </row>
-    <row r="19" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B19" s="81" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+    </row>
+    <row r="19" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B19" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="88"/>
-    </row>
-    <row r="20" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B20" s="89"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103" t="s">
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+    </row>
+    <row r="20" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B20" s="85"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103" t="s">
+      <c r="H20" s="99"/>
+      <c r="I20" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="103"/>
-      <c r="K20" s="104"/>
-    </row>
-    <row r="21" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B21" s="89"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="106" t="s">
+      <c r="J20" s="99"/>
+      <c r="K20" s="100"/>
+    </row>
+    <row r="21" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B21" s="85"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106" t="s">
+      <c r="H21" s="102"/>
+      <c r="I21" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="106"/>
-      <c r="K21" s="107"/>
-    </row>
-    <row r="22" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B22" s="89"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="106" t="s">
+      <c r="J21" s="102"/>
+      <c r="K21" s="103"/>
+    </row>
+    <row r="22" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B22" s="85"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106" t="s">
+      <c r="H22" s="102"/>
+      <c r="I22" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="106"/>
-      <c r="K22" s="107"/>
-    </row>
-    <row r="23" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B23" s="89"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="106" t="s">
+      <c r="J22" s="102"/>
+      <c r="K22" s="103"/>
+    </row>
+    <row r="23" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B23" s="85"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106" t="s">
+      <c r="H23" s="102"/>
+      <c r="I23" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="106"/>
-      <c r="K23" s="107"/>
-    </row>
-    <row r="24" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B24" s="89"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="106" t="s">
+      <c r="J23" s="102"/>
+      <c r="K23" s="103"/>
+    </row>
+    <row r="24" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B24" s="85"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106" t="s">
+      <c r="H24" s="102"/>
+      <c r="I24" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="106"/>
-      <c r="K24" s="107"/>
-    </row>
-    <row r="25" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B25" s="89"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="109" t="s">
+      <c r="J24" s="102"/>
+      <c r="K24" s="103"/>
+    </row>
+    <row r="25" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B25" s="85"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109" t="s">
+      <c r="H25" s="105"/>
+      <c r="I25" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110"/>
-    </row>
-    <row r="26" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B26" s="81" t="s">
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
+    </row>
+    <row r="26" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B26" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="88"/>
-    </row>
-    <row r="27" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B27" s="89"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103" t="s">
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+    </row>
+    <row r="27" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B27" s="85"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="104"/>
-    </row>
-    <row r="28" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B28" s="89"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="106" t="s">
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="100"/>
+    </row>
+    <row r="28" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B28" s="85"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="107"/>
-    </row>
-    <row r="29" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B29" s="89"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="109" t="s">
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="103"/>
+    </row>
+    <row r="29" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B29" s="85"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="110"/>
-    </row>
-    <row r="30" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B30" s="81" t="s">
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
+    </row>
+    <row r="30" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B30" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="88"/>
-    </row>
-    <row r="31" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B31" s="89"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="103" t="s">
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="84"/>
+    </row>
+    <row r="31" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B31" s="85"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="104"/>
-    </row>
-    <row r="32" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B32" s="89"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="106" t="s">
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="100"/>
+    </row>
+    <row r="32" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B32" s="85"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="107"/>
-    </row>
-    <row r="33" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B33" s="89"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="106" t="s">
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="103"/>
+    </row>
+    <row r="33" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B33" s="85"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="107"/>
-    </row>
-    <row r="34" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B34" s="89"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109" t="s">
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="103"/>
+    </row>
+    <row r="34" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B34" s="85"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="110"/>
-    </row>
-    <row r="35" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B35" s="91" t="s">
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="106"/>
+    </row>
+    <row r="35" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B35" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="94"/>
-    </row>
-    <row r="36" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B36" s="81" t="s">
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="90"/>
+    </row>
+    <row r="36" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B36" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="88"/>
-    </row>
-    <row r="37" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B37" s="89"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="84"/>
+    </row>
+    <row r="37" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B37" s="85"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="104"/>
-    </row>
-    <row r="38" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B38" s="89"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="106" t="s">
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="100"/>
+    </row>
+    <row r="38" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B38" s="85"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="107"/>
-    </row>
-    <row r="39" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B39" s="89"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="106" t="s">
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="103"/>
+    </row>
+    <row r="39" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B39" s="85"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="107"/>
-    </row>
-    <row r="40" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B40" s="89"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="107"/>
-    </row>
-    <row r="41" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B41" s="89"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="107"/>
-    </row>
-    <row r="42" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B42" s="89"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="107"/>
-    </row>
-    <row r="43" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B43" s="89"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="107"/>
-    </row>
-    <row r="44" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B44" s="89"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="107"/>
-    </row>
-    <row r="45" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="B45" s="95"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="110"/>
-    </row>
-    <row r="46" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F46" s="101"/>
-    </row>
-    <row r="47" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F47" s="101"/>
-    </row>
-    <row r="48" spans="2:11" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F48" s="101"/>
-    </row>
-    <row r="49" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F49" s="101"/>
-    </row>
-    <row r="50" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F50" s="101"/>
-    </row>
-    <row r="51" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F51" s="101"/>
-    </row>
-    <row r="52" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F52" s="101"/>
-    </row>
-    <row r="53" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F53" s="101"/>
-    </row>
-    <row r="54" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F54" s="101"/>
-    </row>
-    <row r="55" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F55" s="101"/>
-    </row>
-    <row r="56" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F56" s="101"/>
-    </row>
-    <row r="57" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F57" s="101"/>
-    </row>
-    <row r="58" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F58" s="101"/>
-    </row>
-    <row r="59" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F59" s="101"/>
-    </row>
-    <row r="60" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F60" s="101"/>
-    </row>
-    <row r="61" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F61" s="101"/>
-    </row>
-    <row r="62" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F62" s="101"/>
-    </row>
-    <row r="63" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F63" s="101"/>
-    </row>
-    <row r="64" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F64" s="101"/>
-    </row>
-    <row r="65" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F65" s="101"/>
-    </row>
-    <row r="66" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F66" s="101"/>
-    </row>
-    <row r="67" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F67" s="101"/>
-    </row>
-    <row r="68" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F68" s="101"/>
-    </row>
-    <row r="69" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F69" s="101"/>
-    </row>
-    <row r="70" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F70" s="101"/>
-    </row>
-    <row r="71" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F71" s="101"/>
-    </row>
-    <row r="72" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F72" s="101"/>
-    </row>
-    <row r="73" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F73" s="101"/>
-    </row>
-    <row r="74" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F74" s="101"/>
-    </row>
-    <row r="75" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F75" s="101"/>
-    </row>
-    <row r="76" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F76" s="101"/>
-    </row>
-    <row r="77" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F77" s="101"/>
-    </row>
-    <row r="78" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F78" s="101"/>
-    </row>
-    <row r="79" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F79" s="101"/>
-    </row>
-    <row r="80" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F80" s="101"/>
-    </row>
-    <row r="81" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F81" s="101"/>
-    </row>
-    <row r="82" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F82" s="101"/>
-    </row>
-    <row r="83" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F83" s="101"/>
-    </row>
-    <row r="84" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F84" s="101"/>
-    </row>
-    <row r="85" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F85" s="101"/>
-    </row>
-    <row r="86" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F86" s="101"/>
-    </row>
-    <row r="87" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F87" s="101"/>
-    </row>
-    <row r="88" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F88" s="101"/>
-    </row>
-    <row r="89" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F89" s="101"/>
-    </row>
-    <row r="90" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F90" s="101"/>
-    </row>
-    <row r="91" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F91" s="101"/>
-    </row>
-    <row r="92" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F92" s="101"/>
-    </row>
-    <row r="93" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F93" s="101"/>
-    </row>
-    <row r="94" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F94" s="101"/>
-    </row>
-    <row r="95" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F95" s="101"/>
-    </row>
-    <row r="96" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F96" s="101"/>
-    </row>
-    <row r="97" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F97" s="101"/>
-    </row>
-    <row r="98" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F98" s="101"/>
-    </row>
-    <row r="99" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F99" s="101"/>
-    </row>
-    <row r="100" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F100" s="101"/>
-    </row>
-    <row r="101" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F101" s="101"/>
-    </row>
-    <row r="102" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F102" s="101"/>
-    </row>
-    <row r="103" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F103" s="101"/>
-    </row>
-    <row r="104" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F104" s="101"/>
-    </row>
-    <row r="105" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F105" s="101"/>
-    </row>
-    <row r="106" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F106" s="101"/>
-    </row>
-    <row r="107" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F107" s="101"/>
-    </row>
-    <row r="108" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F108" s="101"/>
-    </row>
-    <row r="109" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F109" s="101"/>
-    </row>
-    <row r="110" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F110" s="101"/>
-    </row>
-    <row r="111" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F111" s="101"/>
-    </row>
-    <row r="112" spans="6:6" s="76" customFormat="1" ht="26" customHeight="1">
-      <c r="F112" s="101"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
+    </row>
+    <row r="40" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B40" s="85"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
+    </row>
+    <row r="41" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B41" s="85"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
+    </row>
+    <row r="42" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B42" s="85"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="103"/>
+    </row>
+    <row r="43" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B43" s="85"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="103"/>
+    </row>
+    <row r="44" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B44" s="85"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="103"/>
+    </row>
+    <row r="45" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B45" s="91"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="106"/>
+    </row>
+    <row r="46" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F46" s="97"/>
+    </row>
+    <row r="47" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F47" s="97"/>
+    </row>
+    <row r="48" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F48" s="97"/>
+    </row>
+    <row r="49" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F49" s="97"/>
+    </row>
+    <row r="50" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F50" s="97"/>
+    </row>
+    <row r="51" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F51" s="97"/>
+    </row>
+    <row r="52" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F52" s="97"/>
+    </row>
+    <row r="53" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F53" s="97"/>
+    </row>
+    <row r="54" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F54" s="97"/>
+    </row>
+    <row r="55" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F55" s="97"/>
+    </row>
+    <row r="56" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F56" s="97"/>
+    </row>
+    <row r="57" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F57" s="97"/>
+    </row>
+    <row r="58" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F58" s="97"/>
+    </row>
+    <row r="59" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F59" s="97"/>
+    </row>
+    <row r="60" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F60" s="97"/>
+    </row>
+    <row r="61" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F61" s="97"/>
+    </row>
+    <row r="62" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F62" s="97"/>
+    </row>
+    <row r="63" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F63" s="97"/>
+    </row>
+    <row r="64" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F64" s="97"/>
+    </row>
+    <row r="65" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F65" s="97"/>
+    </row>
+    <row r="66" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F66" s="97"/>
+    </row>
+    <row r="67" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F67" s="97"/>
+    </row>
+    <row r="68" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F68" s="97"/>
+    </row>
+    <row r="69" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F69" s="97"/>
+    </row>
+    <row r="70" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F70" s="97"/>
+    </row>
+    <row r="71" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F71" s="97"/>
+    </row>
+    <row r="72" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F72" s="97"/>
+    </row>
+    <row r="73" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F73" s="97"/>
+    </row>
+    <row r="74" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F74" s="97"/>
+    </row>
+    <row r="75" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F75" s="97"/>
+    </row>
+    <row r="76" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F76" s="97"/>
+    </row>
+    <row r="77" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F77" s="97"/>
+    </row>
+    <row r="78" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F78" s="97"/>
+    </row>
+    <row r="79" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F79" s="97"/>
+    </row>
+    <row r="80" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F80" s="97"/>
+    </row>
+    <row r="81" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F81" s="97"/>
+    </row>
+    <row r="82" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F82" s="97"/>
+    </row>
+    <row r="83" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F83" s="97"/>
+    </row>
+    <row r="84" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F84" s="97"/>
+    </row>
+    <row r="85" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F85" s="97"/>
+    </row>
+    <row r="86" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F86" s="97"/>
+    </row>
+    <row r="87" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F87" s="97"/>
+    </row>
+    <row r="88" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F88" s="97"/>
+    </row>
+    <row r="89" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F89" s="97"/>
+    </row>
+    <row r="90" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F90" s="97"/>
+    </row>
+    <row r="91" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F91" s="97"/>
+    </row>
+    <row r="92" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F92" s="97"/>
+    </row>
+    <row r="93" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F93" s="97"/>
+    </row>
+    <row r="94" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F94" s="97"/>
+    </row>
+    <row r="95" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F95" s="97"/>
+    </row>
+    <row r="96" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F96" s="97"/>
+    </row>
+    <row r="97" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F97" s="97"/>
+    </row>
+    <row r="98" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F98" s="97"/>
+    </row>
+    <row r="99" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F99" s="97"/>
+    </row>
+    <row r="100" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F100" s="97"/>
+    </row>
+    <row r="101" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F101" s="97"/>
+    </row>
+    <row r="102" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F102" s="97"/>
+    </row>
+    <row r="103" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F103" s="97"/>
+    </row>
+    <row r="104" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F104" s="97"/>
+    </row>
+    <row r="105" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F105" s="97"/>
+    </row>
+    <row r="106" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F106" s="97"/>
+    </row>
+    <row r="107" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F107" s="97"/>
+    </row>
+    <row r="108" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F108" s="97"/>
+    </row>
+    <row r="109" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F109" s="97"/>
+    </row>
+    <row r="110" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F110" s="97"/>
+    </row>
+    <row r="111" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F111" s="97"/>
+    </row>
+    <row r="112" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="F112" s="97"/>
     </row>
     <row r="113" spans="6:6">
-      <c r="F113" s="101"/>
+      <c r="F113" s="97"/>
     </row>
     <row r="114" spans="6:6">
-      <c r="F114" s="101"/>
+      <c r="F114" s="97"/>
     </row>
     <row r="115" spans="6:6">
-      <c r="F115" s="101"/>
+      <c r="F115" s="97"/>
     </row>
     <row r="116" spans="6:6">
-      <c r="F116" s="101"/>
+      <c r="F116" s="97"/>
     </row>
     <row r="117" spans="6:6">
-      <c r="F117" s="101"/>
+      <c r="F117" s="97"/>
     </row>
     <row r="118" spans="6:6">
-      <c r="F118" s="101"/>
+      <c r="F118" s="97"/>
     </row>
     <row r="119" spans="6:6">
-      <c r="F119" s="101"/>
+      <c r="F119" s="97"/>
     </row>
     <row r="120" spans="6:6">
-      <c r="F120" s="101"/>
+      <c r="F120" s="97"/>
     </row>
     <row r="121" spans="6:6">
-      <c r="F121" s="101"/>
+      <c r="F121" s="97"/>
     </row>
     <row r="122" spans="6:6">
-      <c r="F122" s="101"/>
+      <c r="F122" s="97"/>
     </row>
     <row r="123" spans="6:6">
-      <c r="F123" s="101"/>
+      <c r="F123" s="97"/>
     </row>
     <row r="124" spans="6:6">
-      <c r="F124" s="101"/>
+      <c r="F124" s="97"/>
     </row>
     <row r="125" spans="6:6">
-      <c r="F125" s="101"/>
+      <c r="F125" s="97"/>
     </row>
     <row r="126" spans="6:6">
-      <c r="F126" s="101"/>
+      <c r="F126" s="97"/>
     </row>
     <row r="127" spans="6:6">
-      <c r="F127" s="101"/>
+      <c r="F127" s="97"/>
     </row>
     <row r="128" spans="6:6">
-      <c r="F128" s="101"/>
+      <c r="F128" s="97"/>
     </row>
     <row r="129" spans="6:6">
-      <c r="F129" s="101"/>
+      <c r="F129" s="97"/>
     </row>
     <row r="130" spans="6:6">
-      <c r="F130" s="101"/>
+      <c r="F130" s="97"/>
     </row>
     <row r="131" spans="6:6">
-      <c r="F131" s="101"/>
+      <c r="F131" s="97"/>
     </row>
     <row r="132" spans="6:6">
-      <c r="F132" s="101"/>
+      <c r="F132" s="97"/>
     </row>
     <row r="133" spans="6:6">
-      <c r="F133" s="101"/>
+      <c r="F133" s="97"/>
     </row>
     <row r="134" spans="6:6">
-      <c r="F134" s="101"/>
+      <c r="F134" s="97"/>
     </row>
     <row r="135" spans="6:6">
-      <c r="F135" s="101"/>
+      <c r="F135" s="97"/>
     </row>
     <row r="136" spans="6:6">
-      <c r="F136" s="101"/>
+      <c r="F136" s="97"/>
     </row>
     <row r="137" spans="6:6">
-      <c r="F137" s="101"/>
+      <c r="F137" s="97"/>
     </row>
     <row r="138" spans="6:6">
-      <c r="F138" s="101"/>
+      <c r="F138" s="97"/>
     </row>
     <row r="139" spans="6:6">
-      <c r="F139" s="101"/>
+      <c r="F139" s="97"/>
     </row>
     <row r="140" spans="6:6">
-      <c r="F140" s="101"/>
+      <c r="F140" s="97"/>
     </row>
     <row r="141" spans="6:6">
-      <c r="F141" s="101"/>
+      <c r="F141" s="97"/>
     </row>
     <row r="142" spans="6:6">
-      <c r="F142" s="101"/>
+      <c r="F142" s="97"/>
     </row>
     <row r="143" spans="6:6">
-      <c r="F143" s="101"/>
+      <c r="F143" s="97"/>
     </row>
     <row r="144" spans="6:6">
-      <c r="F144" s="101"/>
+      <c r="F144" s="97"/>
     </row>
     <row r="145" spans="6:6">
-      <c r="F145" s="101"/>
+      <c r="F145" s="97"/>
     </row>
     <row r="146" spans="6:6">
-      <c r="F146" s="101"/>
+      <c r="F146" s="97"/>
     </row>
     <row r="147" spans="6:6">
-      <c r="F147" s="101"/>
+      <c r="F147" s="97"/>
     </row>
     <row r="148" spans="6:6">
-      <c r="F148" s="101"/>
+      <c r="F148" s="97"/>
     </row>
     <row r="149" spans="6:6">
-      <c r="F149" s="101"/>
+      <c r="F149" s="97"/>
     </row>
     <row r="150" spans="6:6">
-      <c r="F150" s="101"/>
+      <c r="F150" s="97"/>
     </row>
     <row r="151" spans="6:6">
-      <c r="F151" s="101"/>
+      <c r="F151" s="97"/>
     </row>
     <row r="152" spans="6:6">
-      <c r="F152" s="101"/>
+      <c r="F152" s="97"/>
     </row>
     <row r="153" spans="6:6">
-      <c r="F153" s="101"/>
+      <c r="F153" s="97"/>
     </row>
     <row r="154" spans="6:6">
-      <c r="F154" s="101"/>
+      <c r="F154" s="97"/>
     </row>
     <row r="155" spans="6:6">
-      <c r="F155" s="101"/>
+      <c r="F155" s="97"/>
     </row>
     <row r="156" spans="6:6">
-      <c r="F156" s="101"/>
+      <c r="F156" s="97"/>
     </row>
     <row r="157" spans="6:6">
-      <c r="F157" s="101"/>
+      <c r="F157" s="97"/>
     </row>
     <row r="158" spans="6:6">
-      <c r="F158" s="101"/>
+      <c r="F158" s="97"/>
     </row>
     <row r="159" spans="6:6">
-      <c r="F159" s="101"/>
+      <c r="F159" s="97"/>
     </row>
     <row r="160" spans="6:6">
-      <c r="F160" s="101"/>
+      <c r="F160" s="97"/>
     </row>
     <row r="161" spans="6:6">
-      <c r="F161" s="101"/>
+      <c r="F161" s="97"/>
     </row>
     <row r="162" spans="6:6">
-      <c r="F162" s="101"/>
+      <c r="F162" s="97"/>
     </row>
     <row r="163" spans="6:6">
-      <c r="F163" s="101"/>
+      <c r="F163" s="97"/>
     </row>
     <row r="164" spans="6:6">
-      <c r="F164" s="101"/>
+      <c r="F164" s="97"/>
     </row>
     <row r="165" spans="6:6">
-      <c r="F165" s="101"/>
+      <c r="F165" s="97"/>
     </row>
     <row r="166" spans="6:6">
-      <c r="F166" s="101"/>
+      <c r="F166" s="97"/>
     </row>
     <row r="167" spans="6:6">
-      <c r="F167" s="101"/>
+      <c r="F167" s="97"/>
     </row>
     <row r="168" spans="6:6">
-      <c r="F168" s="101"/>
+      <c r="F168" s="97"/>
     </row>
     <row r="169" spans="6:6">
-      <c r="F169" s="101"/>
+      <c r="F169" s="97"/>
     </row>
     <row r="170" spans="6:6">
-      <c r="F170" s="101"/>
+      <c r="F170" s="97"/>
     </row>
     <row r="171" spans="6:6">
-      <c r="F171" s="101"/>
+      <c r="F171" s="97"/>
     </row>
     <row r="172" spans="6:6">
-      <c r="F172" s="101"/>
+      <c r="F172" s="97"/>
     </row>
     <row r="173" spans="6:6">
-      <c r="F173" s="101"/>
+      <c r="F173" s="97"/>
     </row>
     <row r="174" spans="6:6">
-      <c r="F174" s="101"/>
+      <c r="F174" s="97"/>
     </row>
     <row r="175" spans="6:6">
-      <c r="F175" s="101"/>
+      <c r="F175" s="97"/>
     </row>
     <row r="176" spans="6:6">
-      <c r="F176" s="101"/>
+      <c r="F176" s="97"/>
     </row>
     <row r="177" spans="6:6">
-      <c r="F177" s="101"/>
+      <c r="F177" s="97"/>
     </row>
     <row r="178" spans="6:6">
-      <c r="F178" s="101"/>
+      <c r="F178" s="97"/>
     </row>
     <row r="179" spans="6:6">
-      <c r="F179" s="101"/>
+      <c r="F179" s="97"/>
     </row>
     <row r="180" spans="6:6">
-      <c r="F180" s="101"/>
+      <c r="F180" s="97"/>
     </row>
     <row r="181" spans="6:6">
-      <c r="F181" s="101"/>
+      <c r="F181" s="97"/>
     </row>
     <row r="182" spans="6:6">
-      <c r="F182" s="101"/>
+      <c r="F182" s="97"/>
     </row>
     <row r="183" spans="6:6">
-      <c r="F183" s="101"/>
+      <c r="F183" s="97"/>
     </row>
     <row r="184" spans="6:6">
-      <c r="F184" s="101"/>
+      <c r="F184" s="97"/>
     </row>
     <row r="185" spans="6:6">
-      <c r="F185" s="101"/>
+      <c r="F185" s="97"/>
     </row>
     <row r="186" spans="6:6">
-      <c r="F186" s="101"/>
+      <c r="F186" s="97"/>
     </row>
     <row r="187" spans="6:6">
-      <c r="F187" s="101"/>
+      <c r="F187" s="97"/>
     </row>
     <row r="188" spans="6:6">
-      <c r="F188" s="101"/>
+      <c r="F188" s="97"/>
     </row>
     <row r="189" spans="6:6">
-      <c r="F189" s="101"/>
+      <c r="F189" s="97"/>
     </row>
     <row r="190" spans="6:6">
-      <c r="F190" s="101"/>
+      <c r="F190" s="97"/>
     </row>
     <row r="191" spans="6:6">
-      <c r="F191" s="101"/>
+      <c r="F191" s="97"/>
     </row>
     <row r="192" spans="6:6">
-      <c r="F192" s="101"/>
+      <c r="F192" s="97"/>
     </row>
     <row r="193" spans="6:6">
-      <c r="F193" s="101"/>
+      <c r="F193" s="97"/>
     </row>
     <row r="194" spans="6:6">
-      <c r="F194" s="101"/>
+      <c r="F194" s="97"/>
     </row>
     <row r="195" spans="6:6">
-      <c r="F195" s="101"/>
+      <c r="F195" s="97"/>
     </row>
     <row r="196" spans="6:6">
-      <c r="F196" s="101"/>
+      <c r="F196" s="97"/>
     </row>
     <row r="197" spans="6:6">
-      <c r="F197" s="101"/>
+      <c r="F197" s="97"/>
     </row>
     <row r="198" spans="6:6">
-      <c r="F198" s="101"/>
+      <c r="F198" s="97"/>
     </row>
     <row r="199" spans="6:6">
-      <c r="F199" s="101"/>
+      <c r="F199" s="97"/>
     </row>
     <row r="200" spans="6:6">
-      <c r="F200" s="101"/>
+      <c r="F200" s="97"/>
     </row>
     <row r="201" spans="6:6">
-      <c r="F201" s="101"/>
+      <c r="F201" s="97"/>
     </row>
     <row r="202" spans="6:6">
-      <c r="F202" s="101"/>
+      <c r="F202" s="97"/>
     </row>
     <row r="203" spans="6:6">
-      <c r="F203" s="101"/>
+      <c r="F203" s="97"/>
     </row>
     <row r="204" spans="6:6">
-      <c r="F204" s="101"/>
+      <c r="F204" s="97"/>
     </row>
     <row r="205" spans="6:6">
-      <c r="F205" s="101"/>
+      <c r="F205" s="97"/>
     </row>
     <row r="206" spans="6:6">
-      <c r="F206" s="101"/>
+      <c r="F206" s="97"/>
     </row>
     <row r="207" spans="6:6">
-      <c r="F207" s="101"/>
+      <c r="F207" s="97"/>
     </row>
     <row r="208" spans="6:6">
-      <c r="F208" s="101"/>
+      <c r="F208" s="97"/>
     </row>
     <row r="209" spans="6:6">
-      <c r="F209" s="101"/>
+      <c r="F209" s="97"/>
     </row>
     <row r="210" spans="6:6">
-      <c r="F210" s="101"/>
+      <c r="F210" s="97"/>
     </row>
     <row r="211" spans="6:6">
-      <c r="F211" s="101"/>
+      <c r="F211" s="97"/>
     </row>
     <row r="212" spans="6:6">
-      <c r="F212" s="101"/>
+      <c r="F212" s="97"/>
     </row>
     <row r="213" spans="6:6">
-      <c r="F213" s="101"/>
+      <c r="F213" s="97"/>
     </row>
     <row r="214" spans="6:6">
-      <c r="F214" s="101"/>
+      <c r="F214" s="97"/>
     </row>
     <row r="215" spans="6:6">
-      <c r="F215" s="101"/>
+      <c r="F215" s="97"/>
     </row>
     <row r="216" spans="6:6">
-      <c r="F216" s="101"/>
+      <c r="F216" s="97"/>
     </row>
     <row r="217" spans="6:6">
-      <c r="F217" s="101"/>
+      <c r="F217" s="97"/>
     </row>
     <row r="218" spans="6:6">
-      <c r="F218" s="101"/>
+      <c r="F218" s="97"/>
     </row>
     <row r="219" spans="6:6">
-      <c r="F219" s="101"/>
+      <c r="F219" s="97"/>
     </row>
     <row r="220" spans="6:6">
-      <c r="F220" s="101"/>
+      <c r="F220" s="97"/>
     </row>
     <row r="221" spans="6:6">
-      <c r="F221" s="101"/>
+      <c r="F221" s="97"/>
     </row>
     <row r="222" spans="6:6">
-      <c r="F222" s="101"/>
+      <c r="F222" s="97"/>
     </row>
     <row r="223" spans="6:6">
-      <c r="F223" s="101"/>
+      <c r="F223" s="97"/>
     </row>
     <row r="224" spans="6:6">
-      <c r="F224" s="101"/>
+      <c r="F224" s="97"/>
     </row>
     <row r="225" spans="6:6">
-      <c r="F225" s="101"/>
+      <c r="F225" s="97"/>
     </row>
     <row r="226" spans="6:6">
-      <c r="F226" s="101"/>
+      <c r="F226" s="97"/>
     </row>
     <row r="227" spans="6:6">
-      <c r="F227" s="101"/>
+      <c r="F227" s="97"/>
     </row>
     <row r="228" spans="6:6">
-      <c r="F228" s="101"/>
+      <c r="F228" s="97"/>
     </row>
     <row r="229" spans="6:6">
-      <c r="F229" s="101"/>
+      <c r="F229" s="97"/>
     </row>
     <row r="230" spans="6:6">
-      <c r="F230" s="101"/>
+      <c r="F230" s="97"/>
     </row>
     <row r="231" spans="6:6">
-      <c r="F231" s="101"/>
+      <c r="F231" s="97"/>
     </row>
     <row r="232" spans="6:6">
-      <c r="F232" s="101"/>
+      <c r="F232" s="97"/>
     </row>
     <row r="233" spans="6:6">
-      <c r="F233" s="101"/>
+      <c r="F233" s="97"/>
     </row>
     <row r="234" spans="6:6">
-      <c r="F234" s="101"/>
+      <c r="F234" s="97"/>
     </row>
     <row r="235" spans="6:6">
-      <c r="F235" s="101"/>
+      <c r="F235" s="97"/>
     </row>
     <row r="236" spans="6:6">
-      <c r="F236" s="101"/>
+      <c r="F236" s="97"/>
     </row>
     <row r="237" spans="6:6">
-      <c r="F237" s="101"/>
+      <c r="F237" s="97"/>
     </row>
     <row r="238" spans="6:6">
-      <c r="F238" s="101"/>
+      <c r="F238" s="97"/>
     </row>
     <row r="239" spans="6:6">
-      <c r="F239" s="101"/>
+      <c r="F239" s="97"/>
     </row>
     <row r="240" spans="6:6">
-      <c r="F240" s="101"/>
+      <c r="F240" s="97"/>
     </row>
     <row r="241" spans="6:6">
-      <c r="F241" s="101"/>
+      <c r="F241" s="97"/>
     </row>
     <row r="242" spans="6:6">
-      <c r="F242" s="101"/>
+      <c r="F242" s="97"/>
     </row>
     <row r="243" spans="6:6">
-      <c r="F243" s="101"/>
+      <c r="F243" s="97"/>
     </row>
     <row r="244" spans="6:6">
-      <c r="F244" s="101"/>
+      <c r="F244" s="97"/>
     </row>
     <row r="245" spans="6:6">
-      <c r="F245" s="101"/>
+      <c r="F245" s="97"/>
     </row>
     <row r="246" spans="6:6">
-      <c r="F246" s="101"/>
+      <c r="F246" s="97"/>
     </row>
     <row r="247" spans="6:6">
-      <c r="F247" s="101"/>
+      <c r="F247" s="97"/>
     </row>
     <row r="248" spans="6:6">
-      <c r="F248" s="101"/>
+      <c r="F248" s="97"/>
     </row>
     <row r="249" spans="6:6">
-      <c r="F249" s="101"/>
+      <c r="F249" s="97"/>
     </row>
     <row r="250" spans="6:6">
-      <c r="F250" s="101"/>
+      <c r="F250" s="97"/>
     </row>
     <row r="251" spans="6:6">
-      <c r="F251" s="101"/>
+      <c r="F251" s="97"/>
     </row>
     <row r="252" spans="6:6">
-      <c r="F252" s="101"/>
+      <c r="F252" s="97"/>
     </row>
     <row r="253" spans="6:6">
-      <c r="F253" s="101"/>
+      <c r="F253" s="97"/>
     </row>
     <row r="254" spans="6:6">
-      <c r="F254" s="101"/>
+      <c r="F254" s="97"/>
     </row>
     <row r="255" spans="6:6">
-      <c r="F255" s="101"/>
+      <c r="F255" s="97"/>
     </row>
     <row r="256" spans="6:6">
-      <c r="F256" s="101"/>
+      <c r="F256" s="97"/>
     </row>
     <row r="257" spans="6:6">
-      <c r="F257" s="101"/>
+      <c r="F257" s="97"/>
     </row>
     <row r="258" spans="6:6">
-      <c r="F258" s="101"/>
+      <c r="F258" s="97"/>
     </row>
     <row r="259" spans="6:6">
-      <c r="F259" s="101"/>
+      <c r="F259" s="97"/>
     </row>
     <row r="260" spans="6:6">
-      <c r="F260" s="101"/>
+      <c r="F260" s="97"/>
     </row>
     <row r="261" spans="6:6">
-      <c r="F261" s="101"/>
+      <c r="F261" s="97"/>
     </row>
     <row r="262" spans="6:6">
-      <c r="F262" s="101"/>
+      <c r="F262" s="97"/>
     </row>
     <row r="263" spans="6:6">
-      <c r="F263" s="101"/>
+      <c r="F263" s="97"/>
     </row>
     <row r="264" spans="6:6">
-      <c r="F264" s="101"/>
+      <c r="F264" s="97"/>
     </row>
     <row r="265" spans="6:6">
-      <c r="F265" s="101"/>
+      <c r="F265" s="97"/>
     </row>
     <row r="266" spans="6:6">
-      <c r="F266" s="101"/>
+      <c r="F266" s="97"/>
     </row>
     <row r="267" spans="6:6">
-      <c r="F267" s="101"/>
+      <c r="F267" s="97"/>
     </row>
     <row r="268" spans="6:6">
-      <c r="F268" s="101"/>
+      <c r="F268" s="97"/>
     </row>
     <row r="269" spans="6:6">
-      <c r="F269" s="101"/>
+      <c r="F269" s="97"/>
     </row>
     <row r="270" spans="6:6">
-      <c r="F270" s="101"/>
+      <c r="F270" s="97"/>
     </row>
     <row r="271" spans="6:6">
-      <c r="F271" s="101"/>
+      <c r="F271" s="97"/>
     </row>
     <row r="272" spans="6:6">
-      <c r="F272" s="101"/>
+      <c r="F272" s="97"/>
     </row>
     <row r="273" spans="6:6">
-      <c r="F273" s="101"/>
+      <c r="F273" s="97"/>
     </row>
     <row r="274" spans="6:6">
-      <c r="F274" s="101"/>
+      <c r="F274" s="97"/>
     </row>
     <row r="275" spans="6:6">
-      <c r="F275" s="101"/>
+      <c r="F275" s="97"/>
     </row>
     <row r="276" spans="6:6">
-      <c r="F276" s="101"/>
+      <c r="F276" s="97"/>
     </row>
     <row r="277" spans="6:6">
-      <c r="F277" s="101"/>
+      <c r="F277" s="97"/>
     </row>
     <row r="278" spans="6:6">
-      <c r="F278" s="101"/>
+      <c r="F278" s="97"/>
     </row>
     <row r="279" spans="6:6">
-      <c r="F279" s="101"/>
+      <c r="F279" s="97"/>
     </row>
     <row r="280" spans="6:6">
-      <c r="F280" s="101"/>
+      <c r="F280" s="97"/>
     </row>
     <row r="281" spans="6:6">
-      <c r="F281" s="101"/>
+      <c r="F281" s="97"/>
     </row>
     <row r="282" spans="6:6">
-      <c r="F282" s="101"/>
+      <c r="F282" s="97"/>
     </row>
     <row r="283" spans="6:6">
-      <c r="F283" s="101"/>
+      <c r="F283" s="97"/>
     </row>
     <row r="284" spans="6:6">
-      <c r="F284" s="101"/>
+      <c r="F284" s="97"/>
     </row>
     <row r="285" spans="6:6">
-      <c r="F285" s="101"/>
+      <c r="F285" s="97"/>
     </row>
     <row r="286" spans="6:6">
-      <c r="F286" s="101"/>
+      <c r="F286" s="97"/>
     </row>
     <row r="287" spans="6:6">
-      <c r="F287" s="101"/>
+      <c r="F287" s="97"/>
     </row>
     <row r="288" spans="6:6">
-      <c r="F288" s="101"/>
+      <c r="F288" s="97"/>
     </row>
     <row r="289" spans="6:6">
-      <c r="F289" s="101"/>
+      <c r="F289" s="97"/>
     </row>
     <row r="290" spans="6:6">
-      <c r="F290" s="101"/>
+      <c r="F290" s="97"/>
     </row>
     <row r="291" spans="6:6">
-      <c r="F291" s="101"/>
+      <c r="F291" s="97"/>
     </row>
     <row r="292" spans="6:6">
-      <c r="F292" s="101"/>
+      <c r="F292" s="97"/>
     </row>
     <row r="293" spans="6:6">
-      <c r="F293" s="101"/>
+      <c r="F293" s="97"/>
     </row>
     <row r="294" spans="6:6">
-      <c r="F294" s="101"/>
+      <c r="F294" s="97"/>
     </row>
     <row r="295" spans="6:6">
-      <c r="F295" s="101"/>
+      <c r="F295" s="97"/>
     </row>
     <row r="296" spans="6:6">
-      <c r="F296" s="101"/>
+      <c r="F296" s="97"/>
     </row>
     <row r="297" spans="6:6">
-      <c r="F297" s="101"/>
+      <c r="F297" s="97"/>
     </row>
     <row r="298" spans="6:6">
-      <c r="F298" s="101"/>
+      <c r="F298" s="97"/>
     </row>
     <row r="299" spans="6:6">
-      <c r="F299" s="101"/>
+      <c r="F299" s="97"/>
     </row>
     <row r="300" spans="6:6">
-      <c r="F300" s="101"/>
+      <c r="F300" s="97"/>
     </row>
     <row r="301" spans="6:6">
-      <c r="F301" s="101"/>
+      <c r="F301" s="97"/>
     </row>
     <row r="302" spans="6:6">
-      <c r="F302" s="101"/>
+      <c r="F302" s="97"/>
     </row>
     <row r="303" spans="6:6">
-      <c r="F303" s="101"/>
+      <c r="F303" s="97"/>
     </row>
     <row r="304" spans="6:6">
-      <c r="F304" s="101"/>
+      <c r="F304" s="97"/>
     </row>
     <row r="305" spans="6:6">
-      <c r="F305" s="101"/>
+      <c r="F305" s="97"/>
     </row>
     <row r="306" spans="6:6">
-      <c r="F306" s="101"/>
+      <c r="F306" s="97"/>
     </row>
     <row r="307" spans="6:6">
-      <c r="F307" s="101"/>
+      <c r="F307" s="97"/>
     </row>
     <row r="308" spans="6:6">
-      <c r="F308" s="101"/>
+      <c r="F308" s="97"/>
     </row>
     <row r="309" spans="6:6">
-      <c r="F309" s="101"/>
+      <c r="F309" s="97"/>
     </row>
     <row r="310" spans="6:6">
-      <c r="F310" s="101"/>
+      <c r="F310" s="97"/>
     </row>
     <row r="311" spans="6:6">
-      <c r="F311" s="101"/>
+      <c r="F311" s="97"/>
     </row>
     <row r="312" spans="6:6">
-      <c r="F312" s="101"/>
+      <c r="F312" s="97"/>
     </row>
     <row r="313" spans="6:6">
-      <c r="F313" s="101"/>
+      <c r="F313" s="97"/>
     </row>
     <row r="314" spans="6:6">
-      <c r="F314" s="101"/>
+      <c r="F314" s="97"/>
     </row>
     <row r="315" spans="6:6">
-      <c r="F315" s="101"/>
+      <c r="F315" s="97"/>
     </row>
     <row r="316" spans="6:6">
-      <c r="F316" s="101"/>
+      <c r="F316" s="97"/>
     </row>
     <row r="317" spans="6:6">
-      <c r="F317" s="101"/>
+      <c r="F317" s="97"/>
     </row>
     <row r="318" spans="6:6">
-      <c r="F318" s="101"/>
+      <c r="F318" s="97"/>
     </row>
     <row r="319" spans="6:6">
-      <c r="F319" s="101"/>
+      <c r="F319" s="97"/>
     </row>
     <row r="320" spans="6:6">
-      <c r="F320" s="101"/>
+      <c r="F320" s="97"/>
     </row>
     <row r="321" spans="6:6">
-      <c r="F321" s="101"/>
+      <c r="F321" s="97"/>
     </row>
     <row r="322" spans="6:6">
-      <c r="F322" s="101"/>
+      <c r="F322" s="97"/>
     </row>
     <row r="323" spans="6:6">
-      <c r="F323" s="101"/>
+      <c r="F323" s="97"/>
     </row>
     <row r="324" spans="6:6">
-      <c r="F324" s="101"/>
+      <c r="F324" s="97"/>
     </row>
     <row r="325" spans="6:6">
-      <c r="F325" s="101"/>
+      <c r="F325" s="97"/>
     </row>
     <row r="326" spans="6:6">
-      <c r="F326" s="101"/>
+      <c r="F326" s="97"/>
     </row>
     <row r="327" spans="6:6">
-      <c r="F327" s="101"/>
+      <c r="F327" s="97"/>
     </row>
     <row r="328" spans="6:6">
-      <c r="F328" s="101"/>
+      <c r="F328" s="97"/>
     </row>
     <row r="329" spans="6:6">
-      <c r="F329" s="101"/>
+      <c r="F329" s="97"/>
     </row>
     <row r="330" spans="6:6">
-      <c r="F330" s="101"/>
+      <c r="F330" s="97"/>
     </row>
     <row r="331" spans="6:6">
-      <c r="F331" s="101"/>
+      <c r="F331" s="97"/>
     </row>
     <row r="332" spans="6:6">
-      <c r="F332" s="101"/>
+      <c r="F332" s="97"/>
     </row>
     <row r="333" spans="6:6">
-      <c r="F333" s="101"/>
+      <c r="F333" s="97"/>
     </row>
     <row r="334" spans="6:6">
-      <c r="F334" s="101"/>
+      <c r="F334" s="97"/>
     </row>
     <row r="335" spans="6:6">
-      <c r="F335" s="101"/>
+      <c r="F335" s="97"/>
     </row>
     <row r="336" spans="6:6">
-      <c r="F336" s="101"/>
+      <c r="F336" s="97"/>
     </row>
     <row r="337" spans="6:6">
-      <c r="F337" s="101"/>
+      <c r="F337" s="97"/>
     </row>
     <row r="338" spans="6:6">
-      <c r="F338" s="101"/>
+      <c r="F338" s="97"/>
     </row>
     <row r="339" spans="6:6">
-      <c r="F339" s="101"/>
+      <c r="F339" s="97"/>
     </row>
     <row r="340" spans="6:6">
-      <c r="F340" s="101"/>
+      <c r="F340" s="97"/>
     </row>
     <row r="341" spans="6:6">
-      <c r="F341" s="101"/>
+      <c r="F341" s="97"/>
     </row>
     <row r="342" spans="6:6">
-      <c r="F342" s="101"/>
+      <c r="F342" s="97"/>
     </row>
     <row r="343" spans="6:6">
-      <c r="F343" s="101"/>
+      <c r="F343" s="97"/>
     </row>
     <row r="344" spans="6:6">
-      <c r="F344" s="101"/>
+      <c r="F344" s="97"/>
     </row>
     <row r="345" spans="6:6">
-      <c r="F345" s="101"/>
+      <c r="F345" s="97"/>
     </row>
     <row r="346" spans="6:6">
-      <c r="F346" s="101"/>
+      <c r="F346" s="97"/>
     </row>
     <row r="347" spans="6:6">
-      <c r="F347" s="101"/>
+      <c r="F347" s="97"/>
     </row>
     <row r="348" spans="6:6">
-      <c r="F348" s="101"/>
+      <c r="F348" s="97"/>
     </row>
     <row r="349" spans="6:6">
-      <c r="F349" s="101"/>
+      <c r="F349" s="97"/>
     </row>
     <row r="350" spans="6:6">
-      <c r="F350" s="101"/>
+      <c r="F350" s="97"/>
     </row>
     <row r="351" spans="6:6">
-      <c r="F351" s="101"/>
+      <c r="F351" s="97"/>
     </row>
     <row r="352" spans="6:6">
-      <c r="F352" s="101"/>
+      <c r="F352" s="97"/>
     </row>
     <row r="353" spans="6:6">
-      <c r="F353" s="101"/>
+      <c r="F353" s="97"/>
     </row>
     <row r="354" spans="6:6">
-      <c r="F354" s="101"/>
+      <c r="F354" s="97"/>
     </row>
     <row r="355" spans="6:6">
-      <c r="F355" s="101"/>
+      <c r="F355" s="97"/>
     </row>
     <row r="356" spans="6:6">
-      <c r="F356" s="101"/>
+      <c r="F356" s="97"/>
     </row>
     <row r="357" spans="6:6">
-      <c r="F357" s="101"/>
+      <c r="F357" s="97"/>
     </row>
     <row r="358" spans="6:6">
-      <c r="F358" s="101"/>
+      <c r="F358" s="97"/>
     </row>
     <row r="359" spans="6:6">
-      <c r="F359" s="101"/>
+      <c r="F359" s="97"/>
     </row>
     <row r="360" spans="6:6">
-      <c r="F360" s="101"/>
+      <c r="F360" s="97"/>
     </row>
     <row r="361" spans="6:6">
-      <c r="F361" s="101"/>
+      <c r="F361" s="97"/>
     </row>
     <row r="362" spans="6:6">
-      <c r="F362" s="101"/>
+      <c r="F362" s="97"/>
     </row>
     <row r="363" spans="6:6">
-      <c r="F363" s="101"/>
+      <c r="F363" s="97"/>
     </row>
     <row r="364" spans="6:6">
-      <c r="F364" s="101"/>
+      <c r="F364" s="97"/>
     </row>
     <row r="365" spans="6:6">
-      <c r="F365" s="101"/>
+      <c r="F365" s="97"/>
     </row>
     <row r="366" spans="6:6">
-      <c r="F366" s="101"/>
+      <c r="F366" s="97"/>
     </row>
     <row r="367" spans="6:6">
-      <c r="F367" s="101"/>
+      <c r="F367" s="97"/>
     </row>
     <row r="368" spans="6:6">
-      <c r="F368" s="101"/>
+      <c r="F368" s="97"/>
     </row>
     <row r="369" spans="6:6">
-      <c r="F369" s="101"/>
+      <c r="F369" s="97"/>
     </row>
     <row r="370" spans="6:6">
-      <c r="F370" s="101"/>
+      <c r="F370" s="97"/>
     </row>
     <row r="371" spans="6:6">
-      <c r="F371" s="101"/>
+      <c r="F371" s="97"/>
     </row>
     <row r="372" spans="6:6">
-      <c r="F372" s="101"/>
+      <c r="F372" s="97"/>
     </row>
     <row r="373" spans="6:6">
-      <c r="F373" s="101"/>
+      <c r="F373" s="97"/>
     </row>
     <row r="374" spans="6:6">
-      <c r="F374" s="101"/>
+      <c r="F374" s="97"/>
     </row>
     <row r="375" spans="6:6">
-      <c r="F375" s="101"/>
+      <c r="F375" s="97"/>
     </row>
     <row r="376" spans="6:6">
-      <c r="F376" s="101"/>
+      <c r="F376" s="97"/>
     </row>
     <row r="377" spans="6:6">
-      <c r="F377" s="101"/>
+      <c r="F377" s="97"/>
     </row>
     <row r="378" spans="6:6">
-      <c r="F378" s="101"/>
+      <c r="F378" s="97"/>
     </row>
     <row r="379" spans="6:6">
-      <c r="F379" s="101"/>
+      <c r="F379" s="97"/>
     </row>
     <row r="380" spans="6:6">
-      <c r="F380" s="101"/>
+      <c r="F380" s="97"/>
     </row>
     <row r="381" spans="6:6">
-      <c r="F381" s="101"/>
+      <c r="F381" s="97"/>
     </row>
     <row r="382" spans="6:6">
-      <c r="F382" s="101"/>
+      <c r="F382" s="97"/>
     </row>
     <row r="383" spans="6:6">
-      <c r="F383" s="101"/>
+      <c r="F383" s="97"/>
     </row>
     <row r="384" spans="6:6">
-      <c r="F384" s="101"/>
+      <c r="F384" s="97"/>
     </row>
     <row r="385" spans="6:6">
-      <c r="F385" s="101"/>
+      <c r="F385" s="97"/>
     </row>
     <row r="386" spans="6:6">
-      <c r="F386" s="101"/>
+      <c r="F386" s="97"/>
     </row>
     <row r="387" spans="6:6">
-      <c r="F387" s="101"/>
+      <c r="F387" s="97"/>
     </row>
     <row r="388" spans="6:6">
-      <c r="F388" s="101"/>
+      <c r="F388" s="97"/>
     </row>
     <row r="389" spans="6:6">
-      <c r="F389" s="101"/>
+      <c r="F389" s="97"/>
     </row>
     <row r="390" spans="6:6">
-      <c r="F390" s="101"/>
+      <c r="F390" s="97"/>
     </row>
     <row r="391" spans="6:6">
-      <c r="F391" s="101"/>
+      <c r="F391" s="97"/>
     </row>
     <row r="392" spans="6:6">
-      <c r="F392" s="101"/>
+      <c r="F392" s="97"/>
     </row>
     <row r="393" spans="6:6">
-      <c r="F393" s="101"/>
+      <c r="F393" s="97"/>
     </row>
     <row r="394" spans="6:6">
-      <c r="F394" s="101"/>
+      <c r="F394" s="97"/>
     </row>
     <row r="395" spans="6:6">
-      <c r="F395" s="101"/>
+      <c r="F395" s="97"/>
     </row>
     <row r="396" spans="6:6">
-      <c r="F396" s="101"/>
+      <c r="F396" s="97"/>
     </row>
     <row r="397" spans="6:6">
-      <c r="F397" s="101"/>
+      <c r="F397" s="97"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F8:F101">
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AB$3</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$Y$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>$AA$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$Y$3</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AB$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B5836A-86FD-6645-8253-DDA884E18F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0262D9-6617-4046-81D4-54331A8D2497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-82920" yWindow="-20700" windowWidth="34960" windowHeight="18860" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="-82920" yWindow="-20700" windowWidth="34960" windowHeight="18860" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
   </sheets>
   <definedNames>
     <definedName name="CH00001_WindowsEnrollment">'Device ☑️'!$F$10</definedName>
+    <definedName name="CH00002_DeviceEnrollment_Android">'Device ☑️'!$F$27</definedName>
+    <definedName name="CH00003_DeviceEnrollment_Windows">'Device ☑️'!$F$28</definedName>
+    <definedName name="CH00004_DeviceEnrollment_iOS">'Device ☑️'!$F$29</definedName>
+    <definedName name="CH00005_DeviceEnrollment_macOS">'Device ☑️'!$F$30</definedName>
     <definedName name="HeaderAssessedOn">Home!$E$7</definedName>
     <definedName name="HeaderTenantId">Home!$E$5</definedName>
     <definedName name="HeaderTitle">Home!$E$3</definedName>
@@ -1145,7 +1149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="258">
   <si>
     <t>Devices</t>
   </si>
@@ -1908,13 +1912,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Applies to</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>📌</t>
+  </si>
+  <si>
+    <t>User scope</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Configure enrollment restrictions for macOS devices</t>
   </si>
 </sst>
 </file>
@@ -2321,7 +2331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2600,6 +2610,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2609,7 +2639,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2915,6 +2945,12 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -48726,8 +48762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
   <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView showGridLines="0" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49182,7 +49218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:12">
       <c r="C49" s="5" t="s">
         <v>33</v>
       </c>
@@ -49197,7 +49233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:12">
       <c r="C50" s="5" t="s">
         <v>34</v>
       </c>
@@ -49212,17 +49248,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:11" ht="28">
+    <row r="54" spans="3:12" ht="28">
       <c r="C54" s="118" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D54" s="119" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="3:11">
+    <row r="55" spans="3:12">
       <c r="D55" s="120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E55" s="122" t="s">
         <v>252</v>
@@ -49231,12 +49267,15 @@
       <c r="G55" s="122"/>
       <c r="H55" s="122"/>
       <c r="I55" s="122"/>
-      <c r="J55" s="122" t="s">
-        <v>253</v>
-      </c>
-      <c r="K55" s="122"/>
-    </row>
-    <row r="56" spans="3:11">
+      <c r="J55" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12">
       <c r="D56" s="121"/>
       <c r="E56" s="121"/>
       <c r="F56" s="121"/>
@@ -49247,9 +49286,8 @@
       <c r="K56" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="E55:I55"/>
-    <mergeCell ref="J55:K55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C54" r:id="rId1" location="view/Microsoft_AAD_IAM/MdmAppsListBlade" xr:uid="{7CC02CD1-5A3A-C841-B0E4-23769402B4DC}"/>
@@ -49486,10 +49524,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
-  <dimension ref="A1:AF397"/>
+  <dimension ref="A1:AF398"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -49810,7 +49848,7 @@
       <c r="D18" s="77"/>
       <c r="E18" s="77"/>
       <c r="F18" s="95"/>
-      <c r="G18" s="77"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="83"/>
       <c r="I18" s="83"/>
       <c r="J18" s="83"/>
@@ -49916,7 +49954,7 @@
       <c r="D26" s="77"/>
       <c r="E26" s="77"/>
       <c r="F26" s="94"/>
-      <c r="G26" s="77"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="83"/>
       <c r="I26" s="83"/>
       <c r="J26" s="83"/>
@@ -49926,7 +49964,7 @@
       <c r="B27" s="85"/>
       <c r="F27" s="98"/>
       <c r="G27" s="99" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H27" s="99"/>
       <c r="I27" s="99"/>
@@ -49941,61 +49979,61 @@
       </c>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="103"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="124"/>
     </row>
     <row r="29" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="B29" s="85"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="106"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="103"/>
     </row>
     <row r="30" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="85"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="105" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="106"/>
+    </row>
+    <row r="31" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B31" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-    </row>
-    <row r="31" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B31" s="85"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="100"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="84"/>
     </row>
     <row r="32" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="B32" s="85"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="103"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="100"/>
     </row>
     <row r="33" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="B33" s="85"/>
-      <c r="F33" s="101"/>
+      <c r="F33" s="112"/>
       <c r="G33" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
@@ -50004,70 +50042,70 @@
     </row>
     <row r="34" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="B34" s="85"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="105" t="s">
+      <c r="F34" s="101"/>
+      <c r="G34" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="103"/>
+    </row>
+    <row r="35" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B35" s="85"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="106"/>
-    </row>
-    <row r="35" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B35" s="87" t="s">
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="106"/>
+    </row>
+    <row r="36" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B36" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="90"/>
-    </row>
-    <row r="36" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B36" s="77" t="s">
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="90"/>
+    </row>
+    <row r="37" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
+      <c r="B37" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-    </row>
-    <row r="37" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B37" s="85"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="100"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="84"/>
     </row>
     <row r="38" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="B38" s="85"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="103"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="100"/>
     </row>
     <row r="39" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="B39" s="85"/>
       <c r="F39" s="112"/>
       <c r="G39" s="102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
@@ -50076,8 +50114,10 @@
     </row>
     <row r="40" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="B40" s="85"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="102"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="102" t="s">
+        <v>73</v>
+      </c>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -50120,19 +50160,25 @@
       <c r="K44" s="103"/>
     </row>
     <row r="45" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B45" s="91"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="106"/>
+      <c r="B45" s="85"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="103"/>
     </row>
     <row r="46" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F46" s="97"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="106"/>
     </row>
     <row r="47" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="F47" s="97"/>
@@ -50332,7 +50378,7 @@
     <row r="112" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="F112" s="97"/>
     </row>
-    <row r="113" spans="6:6">
+    <row r="113" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="F113" s="97"/>
     </row>
     <row r="114" spans="6:6">
@@ -51187,8 +51233,11 @@
     <row r="397" spans="6:6">
       <c r="F397" s="97"/>
     </row>
+    <row r="398" spans="6:6">
+      <c r="F398" s="97"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:F101">
+  <conditionalFormatting sqref="F8:F102">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>$Y$3</formula>
     </cfRule>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0262D9-6617-4046-81D4-54331A8D2497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667650FB-09F6-3642-B1F7-09AD607DE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-82920" yWindow="-20700" windowWidth="34960" windowHeight="18860" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="-84480" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="ListStatus">'Identity ✍️'!$G$93:$G$100</definedName>
     <definedName name="Status" localSheetId="2">'Device ✍️'!$AD$3:$AK$3</definedName>
     <definedName name="Status">'Identity ✍️'!$AD$3:$AK$3</definedName>
-    <definedName name="Table_WindowsEnrollment">'Device ⚙️'!$D$56</definedName>
+    <definedName name="Table_WindowsEnrollment">'Device ⚙️'!$D$58</definedName>
     <definedName name="WorkshopData" localSheetId="2">'Device ✍️'!$A$2:$AA$216</definedName>
     <definedName name="WorkshopData">'Identity ✍️'!$A$2:$AA$212</definedName>
   </definedNames>
@@ -1149,7 +1149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="259">
   <si>
     <t>Devices</t>
   </si>
@@ -1926,12 +1926,15 @@
   <si>
     <t>Configure enrollment restrictions for macOS devices</t>
   </si>
+  <si>
+    <t>🚦</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2204,6 +2207,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI Semibold"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="22">
@@ -2926,6 +2936,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2938,18 +2959,9 @@
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4395,6 +4407,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF929292"/>
       <color rgb="FF76FC79"/>
       <color rgb="FFBADC6A"/>
       <color rgb="FF797BAA"/>
@@ -40373,6 +40386,208 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC91E696-0C54-8841-2BB0-EDC3F2A06CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="2819400"/>
+          <a:ext cx="6388100" cy="9017000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="929292">
+            <a:alpha val="65098"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB73175-AF95-A05E-FE21-4AF319859A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727200" y="12344400"/>
+          <a:ext cx="5994400" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Configure Windows devices to enroll when they join or register with Azure Active Directory.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1200" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> We recommend setting this to all instead of selected groups and using enrollment restrictions to configure the intake of users.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Graphic 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80A7EB0-CCFB-FA16-0ED8-43FCA8EEF844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244600" y="12407900"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -42517,27 +42732,27 @@
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
       <c r="V5" s="33"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
       <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -45960,7 +46175,7 @@
   <dimension ref="A1:AK154"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -46127,27 +46342,27 @@
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
       <c r="Q5" s="60"/>
       <c r="R5" s="60"/>
       <c r="S5" s="60"/>
       <c r="T5" s="60"/>
       <c r="U5" s="60"/>
       <c r="V5" s="59"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
       <c r="AA5" s="52"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -48760,10 +48975,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
-  <dimension ref="A1:AF56"/>
+  <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49249,45 +49464,43 @@
       </c>
     </row>
     <row r="54" spans="3:12" ht="28">
-      <c r="C54" s="118" t="s">
+      <c r="C54" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="D54" s="119" t="s">
+      <c r="D54" s="115" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="3:12">
-      <c r="D55" s="120" t="s">
+    <row r="55" spans="3:12" ht="28">
+      <c r="C55" s="114"/>
+      <c r="D55" s="115"/>
+    </row>
+    <row r="56" spans="3:12" ht="28">
+      <c r="C56" s="114"/>
+      <c r="D56" s="115"/>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="D57" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="E55" s="122" t="s">
+      <c r="E57" s="123" t="s">
         <v>252</v>
       </c>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="120" t="s">
+      <c r="F57" s="123"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="116" t="s">
         <v>255</v>
       </c>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120" t="s">
+      <c r="K57" s="116"/>
+      <c r="L57" s="116" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="56" spans="3:12">
-      <c r="D56" s="121"/>
-      <c r="E56" s="121"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="121"/>
-      <c r="K56" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="E57:I57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C54" r:id="rId1" location="view/Microsoft_AAD_IAM/MdmAppsListBlade" xr:uid="{7CC02CD1-5A3A-C841-B0E4-23769402B4DC}"/>
@@ -49526,8 +49739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
   <dimension ref="A1:AF398"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -49730,7 +49943,9 @@
       <c r="B10" s="81"/>
       <c r="C10" s="82"/>
       <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
+      <c r="E10" s="124" t="s">
+        <v>258</v>
+      </c>
       <c r="F10" s="98"/>
       <c r="G10" s="99" t="s">
         <v>250</v>
@@ -49979,8 +50194,8 @@
       </c>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="124"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="118"/>
     </row>
     <row r="29" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="B29" s="85"/>
@@ -51248,6 +51463,9 @@
       <formula>$AB$3</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E10" location="Table_WindowsEnrollment" display="🚦" xr:uid="{125D979B-91F1-2D49-91C3-FF4B4D521272}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667650FB-09F6-3642-B1F7-09AD607DE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5D4BE8-30B0-5949-A5BE-4F7ADE583618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-84480" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="-38240" yWindow="-21140" windowWidth="27320" windowHeight="19980" tabRatio="710" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -2947,6 +2947,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2960,9 +2963,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -3000,6 +3000,706 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3078,7 +3778,195 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3097,7 +3985,48 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3127,7 +4056,94 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3151,13 +4167,40 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3176,45 +4219,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3315,7 +4331,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3323,7 +4350,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3339,51 +4385,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3395,1011 +4400,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4701,7 +4701,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="6617691" y="7661785"/>
+          <a:off x="6617691" y="7229985"/>
           <a:ext cx="2854903" cy="333186"/>
           <a:chOff x="3355655" y="5890375"/>
           <a:chExt cx="2854902" cy="333186"/>
@@ -5338,7 +5338,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2729802" y="6490948"/>
+          <a:off x="2729802" y="6059148"/>
           <a:ext cx="881119" cy="882707"/>
           <a:chOff x="3532169" y="4490816"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -6178,7 +6178,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2729802" y="3548100"/>
+          <a:off x="2729802" y="3116300"/>
           <a:ext cx="881119" cy="881120"/>
           <a:chOff x="3532169" y="1564391"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -7655,7 +7655,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9833375" y="5756426"/>
+          <a:off x="9833375" y="5324626"/>
           <a:ext cx="881121" cy="881120"/>
           <a:chOff x="8046234" y="3992399"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -9668,7 +9668,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9833375" y="7228644"/>
+          <a:off x="9833375" y="6796844"/>
           <a:ext cx="881121" cy="879532"/>
           <a:chOff x="7017394" y="5358871"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -11543,7 +11543,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9833375" y="4284208"/>
+          <a:off x="9833375" y="3852408"/>
           <a:ext cx="881121" cy="881120"/>
           <a:chOff x="8046234" y="2294010"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -12344,7 +12344,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9833375" y="2807227"/>
+          <a:off x="9833375" y="2375427"/>
           <a:ext cx="881121" cy="885882"/>
           <a:chOff x="7017394" y="966860"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -13973,7 +13973,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5734780" y="4508171"/>
+          <a:off x="5734780" y="4076371"/>
           <a:ext cx="1974739" cy="1905408"/>
           <a:chOff x="6252798" y="2498464"/>
           <a:chExt cx="1980312" cy="1905677"/>
@@ -14426,7 +14426,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4005511" y="7662919"/>
+          <a:off x="4005511" y="7231119"/>
           <a:ext cx="2849610" cy="333186"/>
           <a:chOff x="3355655" y="5890375"/>
           <a:chExt cx="2854902" cy="333186"/>
@@ -16770,6 +16770,71 @@
             </a:srgbClr>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rectangle 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D733C402-EAD3-FF4A-AB7B-40A7D2B073F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736600" y="1854200"/>
+          <a:ext cx="11709400" cy="7124700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="929292">
+            <a:alpha val="65098"/>
+          </a:srgbClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -42263,9 +42328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6C57C3-010E-3649-B978-A4ACB529691A}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -42518,7 +42581,7 @@
       <c r="Z8" s="68"/>
       <c r="AA8" s="68"/>
     </row>
-    <row r="9" spans="1:27" ht="50">
+    <row r="9" spans="1:27">
       <c r="D9" s="1"/>
     </row>
   </sheetData>
@@ -42732,27 +42795,27 @@
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
       <c r="V5" s="33"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
       <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -45740,29 +45803,29 @@
     <mergeCell ref="W5:Z5"/>
   </mergeCells>
   <conditionalFormatting sqref="A24:K25">
-    <cfRule type="cellIs" dxfId="144" priority="97" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="144" priority="104" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="103" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="102" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="101" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="100" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="99" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="98" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="99" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="100" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="101" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="102" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="103" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="104" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="137" priority="97" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:O47 A67:AA73 A9:AA10 O11 Q11 A11:K12 M11:M12 S11:W12 AA11:AA12 L12 N12:R12 A13:AA13 Q14:AA14 A14:M15 O14:O15 N15 P15:Q15 S15 U15:AA15 A16:AA16 A17:K18 M17:M18 O17:O18 Q17:Q18 S17:S18 U17:AA18 L18 N18 P18 R18 T18 A19:AA19 M20 O20:Q20 R20:S21 A20:K22 U20:AA22 A23:AA23 O24:O25 S24:W25 Y24:Y25 AA24:AA25 A26:AA26 A27:W28 Y27:AA28 A29:AA29 A30:F31 H30:AA31 A32:AA32 A33:Q34 U33:AA34 A35:AA35 A36:F37 H36:AA37 A38:AA38 H39:O40 Q39:AA40 A39:F43 H41:AA43 A44:AA45 A48:AA48 A49:O50 Q49:AA50 A53:O54 Q53:AA54 A55:AA55 A56:O57 S56:AA57 A58:AA58 A59:M60 Q59:AA60 A61:AA61 A64:AA64 A65:F66 H65:M66 S65:AA66 AA74:AA115 A116:K207 S116:AA207 L124:R215">
@@ -45771,92 +45834,92 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:P63">
-    <cfRule type="cellIs" dxfId="135" priority="9" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="10" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="11" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="12" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="13" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="14" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="15" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="16" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="9" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:AA10 O11 Q11 A11:K12 M11:M12 S11:W12 AA11:AA12 L12 N12:R12 A13:AA13 Q14:AA14 A14:M15 O14:O15 N15 P15:Q15 S15 U15:AA15 A16:AA16 A17:K18 M17:M18 O17:O18 Q17:Q18 S17:S18 U17:AA18 L18 N18 P18 R18 T18 A19:AA19 M20 O20:Q20 R20:S21 A20:K22 U20:AA22 A23:AA23 O24:O25 S24:W25 Y24:Y25 AA24:AA25 A26:AA26 A27:W28 Y27:AA28 A29:AA29 A30:F31 H30:AA31 A32:AA32 A33:Q34 U33:AA34 A35:AA35 A36:F37 H36:AA37 A38:AA38 H39:O40 Q39:AA40 A39:F43 H41:AA43 A44:AA45 A46:O47 A48:AA48 A49:O50 Q49:AA50 A53:O54 Q53:AA54 A55:AA55 A56:O57 S56:AA57 A58:AA58 A59:M60 Q59:AA60 A61:AA61 A64:AA64 A65:F66 H65:M66 S65:AA66 A67:AA73 AA74:AA115 A116:K207 S116:AA207 L124:R215">
-    <cfRule type="cellIs" dxfId="127" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="121" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="122" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="125" priority="126" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="125" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="124" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="123" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="124" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="125" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="126" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="127" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="121" priority="122" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:AA52">
-    <cfRule type="cellIs" dxfId="120" priority="17" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="18" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="19" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="24" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="23" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="22" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="21" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="20" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="21" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="22" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="23" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="24" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="113" priority="17" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47 G69">
-    <cfRule type="cellIs" dxfId="112" priority="113" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="112" priority="116" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="119" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="114" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="115" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="108" priority="117" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
@@ -45864,120 +45927,120 @@
     <cfRule type="cellIs" dxfId="107" priority="118" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="119" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="105" priority="89" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="105" priority="95" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="90" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="104" priority="94" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="91" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="103" priority="93" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="102" priority="92" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="93" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
+    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="94" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="100" priority="91" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="95" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="99" priority="90" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="98" priority="89" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:Q21">
-    <cfRule type="cellIs" dxfId="97" priority="105" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="97" priority="112" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="111" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="110" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="109" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="108" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="107" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="106" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="107" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="108" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="109" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="110" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="111" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="112" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="90" priority="105" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="89" priority="73" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="89" priority="79" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="74" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="88" priority="78" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="75" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="87" priority="77" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="76" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="77" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
+    <cfRule type="cellIs" dxfId="85" priority="75" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="78" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="84" priority="74" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="83" priority="73" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="81" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="72" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="65" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="66" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="67" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="68" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="69" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:P47">
-    <cfRule type="cellIs" dxfId="73" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="34" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="33" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="34" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="71" priority="35" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
@@ -45999,159 +46062,159 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R46:AA47">
-    <cfRule type="cellIs" dxfId="65" priority="25" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="26" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="27" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="64" priority="32" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="28" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="63" priority="31" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="30" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="61" priority="29" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="60" priority="28" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="31" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="59" priority="25" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="32" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="58" priority="27" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R62:AA63">
     <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="56" priority="8" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="55" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="54" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="8" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="49" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="87" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="81" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="82" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="83" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="84" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="85" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="86" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="87" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="88" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="41" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="64" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="57" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="58" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="39" priority="63" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="59" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="60" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="38" priority="62" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="61" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="62" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="36" priority="60" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="63" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="35" priority="59" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="64" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="34" priority="58" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="33" priority="41" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="33" priority="48" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="47" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="46" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="45" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="44" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="43" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="42" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="43" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="44" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="45" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="46" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="47" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="48" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="26" priority="41" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25">
-    <cfRule type="cellIs" dxfId="25" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="55" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="49" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="50" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="51" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="52" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="21" priority="56" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="53" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="54" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="55" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="56" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="18" priority="52" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -46342,27 +46405,27 @@
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
       <c r="Q5" s="60"/>
       <c r="R5" s="60"/>
       <c r="S5" s="60"/>
       <c r="T5" s="60"/>
       <c r="U5" s="60"/>
       <c r="V5" s="59"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
       <c r="AA5" s="52"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -48685,26 +48748,26 @@
     <mergeCell ref="W5:Z5"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:AA11 A12:R12 U12:AA12 A13:AA15 A16:Q16 S16 U16:AA16 A17:AA29 A30:Q30 V30:AA30 A31:AA42 A43:Q43 S43:AA43 A44:T44 V44:AA44 A45:AA63 A64:S64 U64:AA64 A65:AA83 A84:T84 V84:AA84 A85:AA211">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:AA63 A65:AA83 A84:T84 V84:AA84 A85:AA211 A9:AA11 A12:R12 U12:AA12 A13:AA15 A16:Q16 S16 U16:AA16 A17:AA29 A30:Q30 V30:AA30 A31:AA42 A43:Q43 S43:AA43 A44:T44 V44:AA44 A64:S64 U64:AA64">
@@ -48713,26 +48776,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50 G70 G73 L84 R84 X84 L87 N87 P87 R87 X87 G90 L90 N90 P90 R90 X90 G93 L93 N93 P93 R93 X93 G96 L96 N96 G99 G102 L105 N105 P105 R105 L108 N108">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -48977,8 +49040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49160,12 +49223,12 @@
       <c r="AE6" s="68"/>
       <c r="AF6" s="68"/>
     </row>
-    <row r="10" spans="1:32" ht="50">
+    <row r="10" spans="1:32">
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="28">
+    <row r="12" spans="1:32">
       <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
@@ -49178,7 +49241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="17">
+    <row r="15" spans="1:32">
       <c r="C15" s="7" t="s">
         <v>3</v>
       </c>
@@ -49237,7 +49300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="17">
+    <row r="23" spans="3:7">
       <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
@@ -49333,12 +49396,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="28">
+    <row r="38" spans="3:9">
       <c r="C38" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="17">
+    <row r="39" spans="3:9">
       <c r="C39" s="7" t="s">
         <v>26</v>
       </c>
@@ -49398,12 +49461,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="28">
+    <row r="46" spans="3:9">
       <c r="C46" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="17">
+    <row r="47" spans="3:9">
       <c r="C47" s="7" t="s">
         <v>26</v>
       </c>
@@ -49463,7 +49526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:12" ht="28">
+    <row r="54" spans="3:12">
       <c r="C54" s="114" t="s">
         <v>254</v>
       </c>
@@ -49471,11 +49534,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="3:12" ht="28">
+    <row r="55" spans="3:12">
       <c r="C55" s="114"/>
       <c r="D55" s="115"/>
     </row>
-    <row r="56" spans="3:12" ht="28">
+    <row r="56" spans="3:12">
       <c r="C56" s="114"/>
       <c r="D56" s="115"/>
     </row>
@@ -49483,13 +49546,13 @@
       <c r="D57" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="123" t="s">
+      <c r="E57" s="124" t="s">
         <v>252</v>
       </c>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
       <c r="J57" s="116" t="s">
         <v>255</v>
       </c>
@@ -49739,9 +49802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
   <dimension ref="A1:AF398"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
@@ -49943,7 +50004,7 @@
       <c r="B10" s="81"/>
       <c r="C10" s="82"/>
       <c r="D10" s="82"/>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="119" t="s">
         <v>258</v>
       </c>
       <c r="F10" s="98"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10607"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5D4BE8-30B0-5949-A5BE-4F7ADE583618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634FC902-9A94-E04D-A831-CDC3F70DFEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38240" yWindow="-21140" windowWidth="27320" windowHeight="19980" tabRatio="710" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="5220" yWindow="-19160" windowWidth="27320" windowHeight="19980" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <definedName name="ListStatus">'Identity ✍️'!$G$93:$G$100</definedName>
     <definedName name="Status" localSheetId="2">'Device ✍️'!$AD$3:$AK$3</definedName>
     <definedName name="Status">'Identity ✍️'!$AD$3:$AK$3</definedName>
+    <definedName name="Table_EnrollmentDevicePlatformRestrictions">'Device ⚙️'!$D$66</definedName>
     <definedName name="Table_WindowsEnrollment">'Device ⚙️'!$D$58</definedName>
     <definedName name="WorkshopData" localSheetId="2">'Device ✍️'!$A$2:$AA$216</definedName>
     <definedName name="WorkshopData">'Identity ✍️'!$A$2:$AA$212</definedName>
@@ -1149,7 +1150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="266">
   <si>
     <t>Devices</t>
   </si>
@@ -1861,9 +1862,6 @@
     <t>Native update management</t>
   </si>
   <si>
-    <t>Zero Trust Assessment for Australian Unity</t>
-  </si>
-  <si>
     <t>Assessed on: 24 Mar 2024</t>
   </si>
   <si>
@@ -1915,9 +1913,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>📌</t>
-  </si>
-  <si>
     <t>User scope</t>
   </si>
   <si>
@@ -1928,6 +1923,33 @@
   </si>
   <si>
     <t>🚦</t>
+  </si>
+  <si>
+    <t>Zero Trust Assessment for …</t>
+  </si>
+  <si>
+    <t>Enrollment device platform restrictions</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>MDM</t>
+  </si>
+  <si>
+    <t>Min Ver</t>
+  </si>
+  <si>
+    <t>Max Ver</t>
+  </si>
+  <si>
+    <t>Personally owned</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
   </si>
 </sst>
 </file>
@@ -2649,7 +2671,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2963,6 +2985,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -4701,7 +4726,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="6617691" y="7229985"/>
+          <a:off x="6617691" y="7661785"/>
           <a:ext cx="2854903" cy="333186"/>
           <a:chOff x="3355655" y="5890375"/>
           <a:chExt cx="2854902" cy="333186"/>
@@ -5338,7 +5363,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2729802" y="6059148"/>
+          <a:off x="2729802" y="6490948"/>
           <a:ext cx="881119" cy="882707"/>
           <a:chOff x="3532169" y="4490816"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -6178,7 +6203,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2729802" y="3116300"/>
+          <a:off x="2729802" y="3548100"/>
           <a:ext cx="881119" cy="881120"/>
           <a:chOff x="3532169" y="1564391"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -7655,7 +7680,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9833375" y="5324626"/>
+          <a:off x="9833375" y="5756426"/>
           <a:ext cx="881121" cy="881120"/>
           <a:chOff x="8046234" y="3992399"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -9668,7 +9693,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9833375" y="6796844"/>
+          <a:off x="9833375" y="7228644"/>
           <a:ext cx="881121" cy="879532"/>
           <a:chOff x="7017394" y="5358871"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -11543,7 +11568,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9833375" y="3852408"/>
+          <a:off x="9833375" y="4284208"/>
           <a:ext cx="881121" cy="881120"/>
           <a:chOff x="8046234" y="2294010"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -12344,7 +12369,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9833375" y="2375427"/>
+          <a:off x="9833375" y="2807227"/>
           <a:ext cx="881121" cy="885882"/>
           <a:chOff x="7017394" y="966860"/>
           <a:chExt cx="1002445" cy="1002445"/>
@@ -13973,7 +13998,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5734780" y="4076371"/>
+          <a:off x="5734780" y="4508171"/>
           <a:ext cx="1974739" cy="1905408"/>
           <a:chOff x="6252798" y="2498464"/>
           <a:chExt cx="1980312" cy="1905677"/>
@@ -14426,7 +14451,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4005511" y="7231119"/>
+          <a:off x="4005511" y="7662919"/>
           <a:ext cx="2849610" cy="333186"/>
           <a:chOff x="3355655" y="5890375"/>
           <a:chExt cx="2854902" cy="333186"/>
@@ -40524,10 +40549,10 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -40543,7 +40568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1727200" y="12344400"/>
-          <a:ext cx="5994400" cy="609600"/>
+          <a:ext cx="6362700" cy="698500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -40605,23 +40630,24 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>377100</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Graphic 19">
+        <xdr:cNvPr id="31" name="Graphic 30">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80A7EB0-CCFB-FA16-0ED8-43FCA8EEF844}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A03F631-602F-FBC9-7350-E40DB2D397F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40630,10 +40656,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -40643,8 +40669,139 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1244600" y="12407900"/>
-          <a:ext cx="381000" cy="381000"/>
+          <a:off x="673100" y="12217400"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B27E34B-B877-804F-AEBB-8C9090EC6E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727200" y="14427200"/>
+          <a:ext cx="6362700" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Device enrollment restrictions let you restrict devices from enrolling in Intune based on certain device attributes. Device platform restrictions restrict devices based on device platform, version, manufacturer, or ownership type.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-AU" sz="1200"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>415200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>250100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Graphic 21">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3D6996-745B-E4BF-1726-878A4DCC4812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="14287500"/>
+          <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -42328,7 +42485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6C57C3-010E-3649-B978-A4ACB529691A}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
@@ -42407,7 +42564,7 @@
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
@@ -42467,7 +42624,7 @@
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F5" s="68"/>
       <c r="G5" s="68"/>
@@ -42527,7 +42684,7 @@
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
       <c r="E7" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
@@ -42581,7 +42738,7 @@
       <c r="Z8" s="68"/>
       <c r="AA8" s="68"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="50">
       <c r="D9" s="1"/>
     </row>
   </sheetData>
@@ -42934,17 +43091,17 @@
       </c>
       <c r="J11" s="39"/>
       <c r="L11" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N11" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="42"/>
       <c r="R11" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S11" s="42"/>
       <c r="T11" s="42"/>
@@ -43894,11 +44051,11 @@
         <v>153</v>
       </c>
       <c r="P62" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q62"/>
       <c r="R62" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V62" s="39"/>
     </row>
@@ -46238,7 +46395,7 @@
   <dimension ref="A1:AK154"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -46319,7 +46476,7 @@
       <c r="D3" s="54"/>
       <c r="E3" s="53"/>
       <c r="F3" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G3" s="56"/>
       <c r="H3" s="53"/>
@@ -47479,7 +47636,7 @@
         <v>187</v>
       </c>
       <c r="P72" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="39"/>
@@ -48897,7 +49054,7 @@
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
@@ -49038,10 +49195,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
-  <dimension ref="A1:AF57"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49091,7 +49248,7 @@
       <c r="C3" s="68"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
@@ -49223,12 +49380,12 @@
       <c r="AE6" s="68"/>
       <c r="AF6" s="68"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" ht="50">
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" ht="28">
       <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
@@ -49241,7 +49398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" ht="17">
       <c r="C15" s="7" t="s">
         <v>3</v>
       </c>
@@ -49300,7 +49457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" ht="17">
       <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
@@ -49396,12 +49553,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:9">
+    <row r="38" spans="3:9" ht="28">
       <c r="C38" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="3:9">
+    <row r="39" spans="3:9" ht="17">
       <c r="C39" s="7" t="s">
         <v>26</v>
       </c>
@@ -49461,12 +49618,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="3:9">
+    <row r="46" spans="3:9" ht="28">
       <c r="C46" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="3:9">
+    <row r="47" spans="3:9" ht="17">
       <c r="C47" s="7" t="s">
         <v>26</v>
       </c>
@@ -49526,51 +49683,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:12">
-      <c r="C54" s="114" t="s">
-        <v>254</v>
-      </c>
+    <row r="54" spans="3:12" ht="28">
+      <c r="C54"/>
       <c r="D54" s="115" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="28">
       <c r="C55" s="114"/>
       <c r="D55" s="115"/>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" ht="28">
       <c r="C56" s="114"/>
       <c r="D56" s="115"/>
     </row>
     <row r="57" spans="3:12">
       <c r="D57" s="116" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E57" s="124" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F57" s="124"/>
       <c r="G57" s="124"/>
       <c r="H57" s="124"/>
       <c r="I57" s="124"/>
       <c r="J57" s="116" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K57" s="116"/>
       <c r="L57" s="116" t="s">
-        <v>256</v>
-      </c>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" ht="28">
+      <c r="C62"/>
+      <c r="D62" s="115" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="28">
+      <c r="C63" s="114"/>
+      <c r="D63" s="115"/>
+    </row>
+    <row r="64" spans="3:12" ht="28">
+      <c r="C64" s="114"/>
+      <c r="D64" s="115"/>
+    </row>
+    <row r="65" spans="4:20" ht="51">
+      <c r="D65" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="F65" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="K65" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="L65" s="116" t="s">
+        <v>262</v>
+      </c>
+      <c r="M65" s="125" t="s">
+        <v>263</v>
+      </c>
+      <c r="N65" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="O65" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="P65" s="116"/>
+      <c r="Q65" s="116"/>
+      <c r="R65" s="116"/>
+      <c r="S65" s="116"/>
+      <c r="T65" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E57:I57"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C54" r:id="rId1" location="view/Microsoft_AAD_IAM/MdmAppsListBlade" xr:uid="{7CC02CD1-5A3A-C841-B0E4-23769402B4DC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -49658,7 +49861,7 @@
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="69"/>
@@ -49802,7 +50005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
   <dimension ref="A1:AF398"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
@@ -49870,7 +50075,7 @@
       <c r="E3" s="68"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H3" s="69"/>
       <c r="I3" s="68"/>
@@ -50005,11 +50210,11 @@
       <c r="C10" s="82"/>
       <c r="D10" s="82"/>
       <c r="E10" s="119" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F10" s="98"/>
       <c r="G10" s="99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H10" s="99"/>
       <c r="I10" s="99" t="s">
@@ -50273,7 +50478,7 @@
       <c r="B30" s="85"/>
       <c r="F30" s="110"/>
       <c r="G30" s="105" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H30" s="105"/>
       <c r="I30" s="105"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634FC902-9A94-E04D-A831-CDC3F70DFEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34824D3-D09D-4B46-A3A9-83C6B139F6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="-19160" windowWidth="27320" windowHeight="19980" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
@@ -1150,7 +1150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="267">
   <si>
     <t>Devices</t>
   </si>
@@ -1950,6 +1950,9 @@
   </si>
   <si>
     <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Blocked manuf.</t>
   </si>
 </sst>
 </file>
@@ -2985,9 +2988,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -3025,706 +3026,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3803,195 +3104,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4010,48 +3123,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
           <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4081,94 +3153,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
           <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4192,40 +3177,13 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4244,18 +3202,45 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FFDBD2E9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4356,7 +3341,53 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4372,10 +3403,24 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4383,7 +3428,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4399,13 +3455,51 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4419,12 +3513,919 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -45960,29 +45961,29 @@
     <mergeCell ref="W5:Z5"/>
   </mergeCells>
   <conditionalFormatting sqref="A24:K25">
-    <cfRule type="cellIs" dxfId="144" priority="104" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="144" priority="97" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="98" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="99" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="100" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="101" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="102" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="103" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="102" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="101" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="100" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="99" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="98" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="97" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="137" priority="104" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:O47 A67:AA73 A9:AA10 O11 Q11 A11:K12 M11:M12 S11:W12 AA11:AA12 L12 N12:R12 A13:AA13 Q14:AA14 A14:M15 O14:O15 N15 P15:Q15 S15 U15:AA15 A16:AA16 A17:K18 M17:M18 O17:O18 Q17:Q18 S17:S18 U17:AA18 L18 N18 P18 R18 T18 A19:AA19 M20 O20:Q20 R20:S21 A20:K22 U20:AA22 A23:AA23 O24:O25 S24:W25 Y24:Y25 AA24:AA25 A26:AA26 A27:W28 Y27:AA28 A29:AA29 A30:F31 H30:AA31 A32:AA32 A33:Q34 U33:AA34 A35:AA35 A36:F37 H36:AA37 A38:AA38 H39:O40 Q39:AA40 A39:F43 H41:AA43 A44:AA45 A48:AA48 A49:O50 Q49:AA50 A53:O54 Q53:AA54 A55:AA55 A56:O57 S56:AA57 A58:AA58 A59:M60 Q59:AA60 A61:AA61 A64:AA64 A65:F66 H65:M66 S65:AA66 AA74:AA115 A116:K207 S116:AA207 L124:R215">
@@ -45991,92 +45992,92 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:P63">
-    <cfRule type="cellIs" dxfId="135" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="9" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="10" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="11" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="12" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="13" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="14" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="15" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="16" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="9" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:AA10 O11 Q11 A11:K12 M11:M12 S11:W12 AA11:AA12 L12 N12:R12 A13:AA13 Q14:AA14 A14:M15 O14:O15 N15 P15:Q15 S15 U15:AA15 A16:AA16 A17:K18 M17:M18 O17:O18 Q17:Q18 S17:S18 U17:AA18 L18 N18 P18 R18 T18 A19:AA19 M20 O20:Q20 R20:S21 A20:K22 U20:AA22 A23:AA23 O24:O25 S24:W25 Y24:Y25 AA24:AA25 A26:AA26 A27:W28 Y27:AA28 A29:AA29 A30:F31 H30:AA31 A32:AA32 A33:Q34 U33:AA34 A35:AA35 A36:F37 H36:AA37 A38:AA38 H39:O40 Q39:AA40 A39:F43 H41:AA43 A44:AA45 A46:O47 A48:AA48 A49:O50 Q49:AA50 A53:O54 Q53:AA54 A55:AA55 A56:O57 S56:AA57 A58:AA58 A59:M60 Q59:AA60 A61:AA61 A64:AA64 A65:F66 H65:M66 S65:AA66 A67:AA73 AA74:AA115 A116:K207 S116:AA207 L124:R215">
-    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="121" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="122" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="123" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="124" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="125" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="126" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="125" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="124" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="123" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="122" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="121" priority="127" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:AA52">
-    <cfRule type="cellIs" dxfId="120" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="17" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="18" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="19" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="24" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="117" priority="20" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="21" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="22" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="23" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="22" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="21" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="20" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="17" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="113" priority="24" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47 G69">
-    <cfRule type="cellIs" dxfId="112" priority="116" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="112" priority="113" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="119" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="114" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="115" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="108" priority="117" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
@@ -46084,120 +46085,120 @@
     <cfRule type="cellIs" dxfId="107" priority="118" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="106" priority="119" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="105" priority="95" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="105" priority="89" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="94" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="104" priority="90" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="93" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
+    <cfRule type="cellIs" dxfId="103" priority="91" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="102" priority="92" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="93" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="94" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="95" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="91" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="90" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="89" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:Q21">
-    <cfRule type="cellIs" dxfId="97" priority="112" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="97" priority="105" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="106" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="107" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="108" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="109" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="110" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="111" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="110" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="109" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="108" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="107" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="106" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="105" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="90" priority="112" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="89" priority="79" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="89" priority="73" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="78" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="88" priority="74" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="77" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
+    <cfRule type="cellIs" dxfId="87" priority="75" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="76" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="75" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="85" priority="77" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="74" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="84" priority="78" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="73" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="81" priority="72" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="65" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="66" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="67" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="68" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="70" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:P47">
-    <cfRule type="cellIs" dxfId="73" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="33" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="34" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="33" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="71" priority="35" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
@@ -46219,159 +46220,159 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R46:AA47">
-    <cfRule type="cellIs" dxfId="65" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="25" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="26" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="32" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="63" priority="27" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="31" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="30" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="62" priority="28" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="61" priority="29" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="28" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="60" priority="30" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="25" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="59" priority="31" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="27" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="58" priority="32" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R62:AA63">
     <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="8" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="56" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="52" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="51" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="50" priority="8" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="49" priority="87" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="81" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="82" stopIfTrue="1" operator="equal">
       <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="83" stopIfTrue="1" operator="equal">
       <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="84" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="85" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="86" stopIfTrue="1" operator="equal">
       <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="87" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="88" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="41" priority="64" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="57" stopIfTrue="1" operator="equal">
       <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="63" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="40" priority="58" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="62" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="39" priority="59" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="60" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="61" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="60" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="36" priority="62" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="59" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="35" priority="63" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="58" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="34" priority="64" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="33" priority="48" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="33" priority="41" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="42" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="43" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="44" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="45" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="46" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="47" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="46" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="45" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="44" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="43" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="42" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="41" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="26" priority="48" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25">
-    <cfRule type="cellIs" dxfId="25" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="49" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="50" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="51" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="52" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="53" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="54" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="55" stopIfTrue="1" operator="equal">
       <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="49" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="50" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="51" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="56" stopIfTrue="1" operator="equal">
       <formula>$AK$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="53" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="54" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="52" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -48905,26 +48906,26 @@
     <mergeCell ref="W5:Z5"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:AA11 A12:R12 U12:AA12 A13:AA15 A16:Q16 S16 U16:AA16 A17:AA29 A30:Q30 V30:AA30 A31:AA42 A43:Q43 S43:AA43 A44:T44 V44:AA44 A45:AA63 A64:S64 U64:AA64 A65:AA83 A84:T84 V84:AA84 A85:AA211">
-    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
-      <formula>$AK$3</formula>
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+      <formula>$AG$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
       <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
-      <formula>$AG$3</formula>
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="equal">
+      <formula>$AK$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:AA63 A65:AA83 A84:T84 V84:AA84 A85:AA211 A9:AA11 A12:R12 U12:AA12 A13:AA15 A16:Q16 S16 U16:AA16 A17:AA29 A30:Q30 V30:AA30 A31:AA42 A43:Q43 S43:AA43 A44:T44 V44:AA44 A64:S64 U64:AA64">
@@ -48933,26 +48934,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50 G70 G73 L84 R84 X84 L87 N87 P87 R87 X87 G90 L90 N90 P90 R90 X90 G93 L93 N93 P93 R93 X93 G96 L96 N96 G99 G102 L105 N105 P105 R105 L108 N108">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$3</formula>
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$3</formula>
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$3</formula>
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$3</formula>
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$3</formula>
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$3</formula>
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -49197,8 +49198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49730,42 +49731,40 @@
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
     </row>
-    <row r="65" spans="4:20" ht="51">
+    <row r="65" spans="4:20">
       <c r="D65" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="116" t="s">
+      <c r="G65" s="116" t="s">
         <v>259</v>
       </c>
-      <c r="F65" s="116" t="s">
+      <c r="H65" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
       <c r="I65" s="116"/>
-      <c r="J65" s="116" t="s">
+      <c r="J65" s="116"/>
+      <c r="K65" s="116"/>
+      <c r="L65" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="K65" s="116" t="s">
+      <c r="M65" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="L65" s="116" t="s">
+      <c r="N65" s="116" t="s">
         <v>262</v>
       </c>
-      <c r="M65" s="125" t="s">
+      <c r="O65" s="125" t="s">
         <v>263</v>
       </c>
-      <c r="N65" s="116" t="s">
+      <c r="Q65" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="S65" s="116" t="s">
         <v>264</v>
       </c>
-      <c r="O65" s="116" t="s">
+      <c r="T65" s="116" t="s">
         <v>265</v>
       </c>
-      <c r="P65" s="116"/>
-      <c r="Q65" s="116"/>
-      <c r="R65" s="116"/>
-      <c r="S65" s="116"/>
-      <c r="T65" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34824D3-D09D-4B46-A3A9-83C6B139F6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647490E3-9DD6-2C4B-ACF2-5C572D278225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="-19160" windowWidth="27320" windowHeight="19980" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="0" yWindow="-23040" windowWidth="40960" windowHeight="23040" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <definedName name="ListStatus">'Identity ✍️'!$G$93:$G$100</definedName>
     <definedName name="Status" localSheetId="2">'Device ✍️'!$AD$3:$AK$3</definedName>
     <definedName name="Status">'Identity ✍️'!$AD$3:$AK$3</definedName>
+    <definedName name="Table_DeviceCompliancePolicies">'Device ⚙️'!$D$74</definedName>
     <definedName name="Table_EnrollmentDevicePlatformRestrictions">'Device ⚙️'!$D$66</definedName>
     <definedName name="Table_WindowsEnrollment">'Device ⚙️'!$D$58</definedName>
     <definedName name="WorkshopData" localSheetId="2">'Device ✍️'!$A$2:$AA$216</definedName>
@@ -1150,7 +1151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="291">
   <si>
     <t>Devices</t>
   </si>
@@ -1954,12 +1955,84 @@
   <si>
     <t>Blocked manuf.</t>
   </si>
+  <si>
+    <t>Compliance policies</t>
+  </si>
+  <si>
+    <t>Min OS Ver</t>
+  </si>
+  <si>
+    <t>Max OS Ver</t>
+  </si>
+  <si>
+    <t>Min OS Mobile Ver</t>
+  </si>
+  <si>
+    <t>Max OS Mobile Ver</t>
+  </si>
+  <si>
+    <t>Valid OS builds</t>
+  </si>
+  <si>
+    <t>Require password to unlock</t>
+  </si>
+  <si>
+    <t>Simple passwords</t>
+  </si>
+  <si>
+    <t>Password type</t>
+  </si>
+  <si>
+    <t>Min password length</t>
+  </si>
+  <si>
+    <t>Max min of inactivity</t>
+  </si>
+  <si>
+    <t>Password expiration (days)</t>
+  </si>
+  <si>
+    <t>Number of previous passwords to prevent reuse</t>
+  </si>
+  <si>
+    <t>Require password when device returns from idle state</t>
+  </si>
+  <si>
+    <t>Require encryption of data storage</t>
+  </si>
+  <si>
+    <t>Trusted Platform Module (TPM)</t>
+  </si>
+  <si>
+    <t>Antivirus</t>
+  </si>
+  <si>
+    <t>Antispyware</t>
+  </si>
+  <si>
+    <t>Microsoft Defender</t>
+  </si>
+  <si>
+    <t>Defender Antimalware min ver</t>
+  </si>
+  <si>
+    <t>Defender Antimalware security intelligence up-to-date</t>
+  </si>
+  <si>
+    <t>Real-time protection</t>
+  </si>
+  <si>
+    <t>Defender for EndPoint</t>
+  </si>
+  <si>
+    <t>Defender for EndPoint risk score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2041,12 +2114,6 @@
       <sz val="10"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI Semibold"/>
       <family val="2"/>
     </font>
     <font>
@@ -2234,7 +2301,7 @@
       <name val="Segoe UI Semibold"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2672,9 +2739,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2698,10 +2765,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2718,73 +2788,70 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2793,7 +2860,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2809,32 +2879,29 @@
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2850,145 +2917,151 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -40811,6 +40884,137 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21D414D-341D-EA4F-85B0-935BE804170B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727200" y="14427200"/>
+          <a:ext cx="6362700" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Device enrollment restrictions let you restrict devices from enrolling in Intune based on certain device attributes. Device platform restrictions restrict devices based on device platform, version, manufacturer, or ownership type.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-AU" sz="1200"/>
+          </a:br>
+          <a:endParaRPr lang="en-GB" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>389800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>148500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Graphic 24">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD04B18-E8A6-CF40-9973-A8DD8C7B565C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="16268700"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -42759,7 +42963,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -42953,27 +43157,27 @@
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
       <c r="V5" s="33"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
       <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -46396,7 +46600,7 @@
   <dimension ref="A1:AK154"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -46563,27 +46767,27 @@
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
       <c r="Q5" s="60"/>
       <c r="R5" s="60"/>
       <c r="S5" s="60"/>
       <c r="T5" s="60"/>
       <c r="U5" s="60"/>
       <c r="V5" s="59"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
       <c r="AA5" s="52"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -49196,10 +49400,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="AG75" sqref="AG75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49686,83 +49890,183 @@
     </row>
     <row r="54" spans="3:12" ht="28">
       <c r="C54"/>
-      <c r="D54" s="115" t="s">
+      <c r="D54" s="89" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="55" spans="3:12" ht="28">
-      <c r="C55" s="114"/>
-      <c r="D55" s="115"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="89"/>
     </row>
     <row r="56" spans="3:12" ht="28">
-      <c r="C56" s="114"/>
-      <c r="D56" s="115"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="89"/>
     </row>
     <row r="57" spans="3:12">
-      <c r="D57" s="116" t="s">
+      <c r="D57" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="124" t="s">
+      <c r="E57" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="116" t="s">
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="90" t="s">
         <v>253</v>
       </c>
-      <c r="K57" s="116"/>
-      <c r="L57" s="116" t="s">
+      <c r="K57" s="90"/>
+      <c r="L57" s="90" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="62" spans="3:12" ht="28">
       <c r="C62"/>
-      <c r="D62" s="115" t="s">
+      <c r="D62" s="89" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="63" spans="3:12" ht="28">
-      <c r="C63" s="114"/>
-      <c r="D63" s="115"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="89"/>
     </row>
     <row r="64" spans="3:12" ht="28">
-      <c r="C64" s="114"/>
-      <c r="D64" s="115"/>
-    </row>
-    <row r="65" spans="4:20">
-      <c r="D65" s="116" t="s">
+      <c r="C64" s="88"/>
+      <c r="D64" s="89"/>
+    </row>
+    <row r="65" spans="3:37">
+      <c r="D65" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="116" t="s">
+      <c r="G65" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="H65" s="116" t="s">
+      <c r="H65" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="I65" s="116"/>
-      <c r="J65" s="116"/>
-      <c r="K65" s="116"/>
-      <c r="L65" s="116" t="s">
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="M65" s="116" t="s">
+      <c r="M65" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="N65" s="116" t="s">
+      <c r="N65" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="O65" s="125" t="s">
+      <c r="O65" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="Q65" s="116" t="s">
+      <c r="Q65" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="S65" s="116" t="s">
+      <c r="S65" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="T65" s="116" t="s">
+      <c r="T65" s="90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="3:37" ht="28">
+      <c r="C70"/>
+      <c r="D70" s="89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="3:37" ht="28">
+      <c r="C71" s="88"/>
+      <c r="D71" s="89"/>
+    </row>
+    <row r="72" spans="3:37" ht="28">
+      <c r="C72" s="88"/>
+      <c r="D72" s="89"/>
+    </row>
+    <row r="73" spans="3:37" s="96" customFormat="1" ht="136">
+      <c r="D73" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="M73" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="N73" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="O73" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="P73" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q73" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="R73" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="S73" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="T73" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="U73" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="V73" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="W73" s="96" t="s">
+        <v>279</v>
+      </c>
+      <c r="X73" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y73" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z73" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA73" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB73" s="96" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC73" s="96" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD73" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE73" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF73" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG73" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH73" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI73" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ73" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK73" s="90" t="s">
         <v>265</v>
       </c>
     </row>
@@ -50004,8 +50308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
   <dimension ref="A1:AF398"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -50171,7 +50475,7 @@
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="77" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="74"/>
@@ -50191,1530 +50495,1608 @@
       <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="102"/>
     </row>
     <row r="10" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="119" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99" t="s">
+      <c r="F10" s="80"/>
+      <c r="G10" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99" t="s">
+      <c r="H10" s="106"/>
+      <c r="I10" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="100"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="107"/>
     </row>
     <row r="11" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102" t="s">
+      <c r="H11" s="108"/>
+      <c r="I11" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="102"/>
-      <c r="K11" s="103"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="109"/>
     </row>
     <row r="12" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105" t="s">
+      <c r="H12" s="110"/>
+      <c r="I12" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="105"/>
-      <c r="K12" s="106"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
     </row>
     <row r="14" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B14" s="85"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="99" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99" t="s">
+      <c r="H14" s="106"/>
+      <c r="I14" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="100"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="107"/>
     </row>
     <row r="15" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B15" s="85"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102" t="s">
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102" t="s">
+      <c r="H15" s="108"/>
+      <c r="I15" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="103"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="109"/>
     </row>
     <row r="16" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B16" s="85"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="102" t="s">
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102" t="s">
+      <c r="H16" s="108"/>
+      <c r="I16" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="102"/>
-      <c r="K16" s="103"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="109"/>
     </row>
     <row r="17" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B17" s="85"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105" t="s">
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105" t="s">
+      <c r="H17" s="110"/>
+      <c r="I17" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="105"/>
-      <c r="K17" s="106"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
     </row>
     <row r="19" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
     </row>
     <row r="20" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B20" s="85"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="99" t="s">
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99" t="s">
+      <c r="H20" s="106"/>
+      <c r="I20" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="100"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="107"/>
     </row>
     <row r="21" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B21" s="85"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="102" t="s">
+      <c r="B21" s="115"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102" t="s">
+      <c r="H21" s="108"/>
+      <c r="I21" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="102"/>
-      <c r="K21" s="103"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="109"/>
     </row>
     <row r="22" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B22" s="85"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="102" t="s">
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102" t="s">
+      <c r="H22" s="108"/>
+      <c r="I22" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="102"/>
-      <c r="K22" s="103"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="109"/>
     </row>
     <row r="23" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B23" s="85"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="102" t="s">
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102" t="s">
+      <c r="H23" s="108"/>
+      <c r="I23" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="102"/>
-      <c r="K23" s="103"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="109"/>
     </row>
     <row r="24" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B24" s="85"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="102" t="s">
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102" t="s">
+      <c r="H24" s="108"/>
+      <c r="I24" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="102"/>
-      <c r="K24" s="103"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="109"/>
     </row>
     <row r="25" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B25" s="85"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="105" t="s">
+      <c r="B25" s="115"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105" t="s">
+      <c r="H25" s="110"/>
+      <c r="I25" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="111"/>
     </row>
     <row r="26" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114"/>
     </row>
     <row r="27" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B27" s="85"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="99" t="s">
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="100"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="107"/>
     </row>
     <row r="28" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B28" s="85"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="102" t="s">
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="118"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="120"/>
     </row>
     <row r="29" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B29" s="85"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="102" t="s">
+      <c r="B29" s="115"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="103"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="109"/>
     </row>
     <row r="30" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B30" s="85"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="105" t="s">
+      <c r="B30" s="115"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="106"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
     </row>
     <row r="31" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
     </row>
     <row r="32" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B32" s="85"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="99" t="s">
+      <c r="B32" s="115"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="100"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="107"/>
     </row>
     <row r="33" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B33" s="85"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="102" t="s">
+      <c r="B33" s="115"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="103"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="109"/>
     </row>
     <row r="34" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B34" s="85"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="102" t="s">
+      <c r="B34" s="115"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="103"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="109"/>
     </row>
     <row r="35" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B35" s="85"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="105" t="s">
+      <c r="B35" s="115"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="106"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="111"/>
     </row>
     <row r="36" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="90"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="125"/>
     </row>
     <row r="37" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="84"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="114"/>
     </row>
     <row r="38" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B38" s="85"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="99" t="s">
+      <c r="B38" s="115"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="100"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="107"/>
     </row>
     <row r="39" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B39" s="85"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="102" t="s">
+      <c r="B39" s="115"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="103"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="109"/>
     </row>
     <row r="40" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B40" s="85"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="102" t="s">
+      <c r="B40" s="115"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="109"/>
     </row>
     <row r="41" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B41" s="85"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="103"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="109"/>
     </row>
     <row r="42" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B42" s="85"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="103"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="109"/>
     </row>
     <row r="43" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B43" s="85"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="103"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="109"/>
     </row>
     <row r="44" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B44" s="85"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="103"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="109"/>
     </row>
     <row r="45" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B45" s="85"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="103"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="109"/>
     </row>
     <row r="46" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B46" s="91"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="106"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="111"/>
     </row>
     <row r="47" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F47" s="97"/>
+      <c r="F47" s="79"/>
     </row>
     <row r="48" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F48" s="97"/>
+      <c r="F48" s="79"/>
     </row>
     <row r="49" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F49" s="97"/>
+      <c r="F49" s="79"/>
     </row>
     <row r="50" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F50" s="97"/>
+      <c r="F50" s="79"/>
     </row>
     <row r="51" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F51" s="97"/>
+      <c r="F51" s="79"/>
     </row>
     <row r="52" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F52" s="97"/>
+      <c r="F52" s="79"/>
     </row>
     <row r="53" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F53" s="97"/>
+      <c r="F53" s="79"/>
     </row>
     <row r="54" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F54" s="97"/>
+      <c r="F54" s="79"/>
     </row>
     <row r="55" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F55" s="97"/>
+      <c r="F55" s="79"/>
     </row>
     <row r="56" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F56" s="97"/>
+      <c r="F56" s="79"/>
     </row>
     <row r="57" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F57" s="97"/>
+      <c r="F57" s="79"/>
     </row>
     <row r="58" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F58" s="97"/>
+      <c r="F58" s="79"/>
     </row>
     <row r="59" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F59" s="97"/>
+      <c r="F59" s="79"/>
     </row>
     <row r="60" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F60" s="97"/>
+      <c r="F60" s="79"/>
     </row>
     <row r="61" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F61" s="97"/>
+      <c r="F61" s="79"/>
     </row>
     <row r="62" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F62" s="97"/>
+      <c r="F62" s="79"/>
     </row>
     <row r="63" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F63" s="97"/>
+      <c r="F63" s="79"/>
     </row>
     <row r="64" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F64" s="97"/>
+      <c r="F64" s="79"/>
     </row>
     <row r="65" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F65" s="97"/>
+      <c r="F65" s="79"/>
     </row>
     <row r="66" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F66" s="97"/>
+      <c r="F66" s="79"/>
     </row>
     <row r="67" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F67" s="97"/>
+      <c r="F67" s="79"/>
     </row>
     <row r="68" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F68" s="97"/>
+      <c r="F68" s="79"/>
     </row>
     <row r="69" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F69" s="97"/>
+      <c r="F69" s="79"/>
     </row>
     <row r="70" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F70" s="97"/>
+      <c r="F70" s="79"/>
     </row>
     <row r="71" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F71" s="97"/>
+      <c r="F71" s="79"/>
     </row>
     <row r="72" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F72" s="97"/>
+      <c r="F72" s="79"/>
     </row>
     <row r="73" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F73" s="97"/>
+      <c r="F73" s="79"/>
     </row>
     <row r="74" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F74" s="97"/>
+      <c r="F74" s="79"/>
     </row>
     <row r="75" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F75" s="97"/>
+      <c r="F75" s="79"/>
     </row>
     <row r="76" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F76" s="97"/>
+      <c r="F76" s="79"/>
     </row>
     <row r="77" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F77" s="97"/>
+      <c r="F77" s="79"/>
     </row>
     <row r="78" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F78" s="97"/>
+      <c r="F78" s="79"/>
     </row>
     <row r="79" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F79" s="97"/>
+      <c r="F79" s="79"/>
     </row>
     <row r="80" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F80" s="97"/>
+      <c r="F80" s="79"/>
     </row>
     <row r="81" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F81" s="97"/>
+      <c r="F81" s="79"/>
     </row>
     <row r="82" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F82" s="97"/>
+      <c r="F82" s="79"/>
     </row>
     <row r="83" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F83" s="97"/>
+      <c r="F83" s="79"/>
     </row>
     <row r="84" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F84" s="97"/>
+      <c r="F84" s="79"/>
     </row>
     <row r="85" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F85" s="97"/>
+      <c r="F85" s="79"/>
     </row>
     <row r="86" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F86" s="97"/>
+      <c r="F86" s="79"/>
     </row>
     <row r="87" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F87" s="97"/>
+      <c r="F87" s="79"/>
     </row>
     <row r="88" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F88" s="97"/>
+      <c r="F88" s="79"/>
     </row>
     <row r="89" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F89" s="97"/>
+      <c r="F89" s="79"/>
     </row>
     <row r="90" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F90" s="97"/>
+      <c r="F90" s="79"/>
     </row>
     <row r="91" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F91" s="97"/>
+      <c r="F91" s="79"/>
     </row>
     <row r="92" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F92" s="97"/>
+      <c r="F92" s="79"/>
     </row>
     <row r="93" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F93" s="97"/>
+      <c r="F93" s="79"/>
     </row>
     <row r="94" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F94" s="97"/>
+      <c r="F94" s="79"/>
     </row>
     <row r="95" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F95" s="97"/>
+      <c r="F95" s="79"/>
     </row>
     <row r="96" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F96" s="97"/>
+      <c r="F96" s="79"/>
     </row>
     <row r="97" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F97" s="97"/>
+      <c r="F97" s="79"/>
     </row>
     <row r="98" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F98" s="97"/>
+      <c r="F98" s="79"/>
     </row>
     <row r="99" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F99" s="97"/>
+      <c r="F99" s="79"/>
     </row>
     <row r="100" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F100" s="97"/>
+      <c r="F100" s="79"/>
     </row>
     <row r="101" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F101" s="97"/>
+      <c r="F101" s="79"/>
     </row>
     <row r="102" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F102" s="97"/>
+      <c r="F102" s="79"/>
     </row>
     <row r="103" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F103" s="97"/>
+      <c r="F103" s="79"/>
     </row>
     <row r="104" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F104" s="97"/>
+      <c r="F104" s="79"/>
     </row>
     <row r="105" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F105" s="97"/>
+      <c r="F105" s="79"/>
     </row>
     <row r="106" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F106" s="97"/>
+      <c r="F106" s="79"/>
     </row>
     <row r="107" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F107" s="97"/>
+      <c r="F107" s="79"/>
     </row>
     <row r="108" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F108" s="97"/>
+      <c r="F108" s="79"/>
     </row>
     <row r="109" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F109" s="97"/>
+      <c r="F109" s="79"/>
     </row>
     <row r="110" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F110" s="97"/>
+      <c r="F110" s="79"/>
     </row>
     <row r="111" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F111" s="97"/>
+      <c r="F111" s="79"/>
     </row>
     <row r="112" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F112" s="97"/>
+      <c r="F112" s="79"/>
     </row>
     <row r="113" spans="6:6" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="F113" s="97"/>
+      <c r="F113" s="79"/>
     </row>
     <row r="114" spans="6:6">
-      <c r="F114" s="97"/>
+      <c r="F114" s="79"/>
     </row>
     <row r="115" spans="6:6">
-      <c r="F115" s="97"/>
+      <c r="F115" s="79"/>
     </row>
     <row r="116" spans="6:6">
-      <c r="F116" s="97"/>
+      <c r="F116" s="79"/>
     </row>
     <row r="117" spans="6:6">
-      <c r="F117" s="97"/>
+      <c r="F117" s="79"/>
     </row>
     <row r="118" spans="6:6">
-      <c r="F118" s="97"/>
+      <c r="F118" s="79"/>
     </row>
     <row r="119" spans="6:6">
-      <c r="F119" s="97"/>
+      <c r="F119" s="79"/>
     </row>
     <row r="120" spans="6:6">
-      <c r="F120" s="97"/>
+      <c r="F120" s="79"/>
     </row>
     <row r="121" spans="6:6">
-      <c r="F121" s="97"/>
+      <c r="F121" s="79"/>
     </row>
     <row r="122" spans="6:6">
-      <c r="F122" s="97"/>
+      <c r="F122" s="79"/>
     </row>
     <row r="123" spans="6:6">
-      <c r="F123" s="97"/>
+      <c r="F123" s="79"/>
     </row>
     <row r="124" spans="6:6">
-      <c r="F124" s="97"/>
+      <c r="F124" s="79"/>
     </row>
     <row r="125" spans="6:6">
-      <c r="F125" s="97"/>
+      <c r="F125" s="79"/>
     </row>
     <row r="126" spans="6:6">
-      <c r="F126" s="97"/>
+      <c r="F126" s="79"/>
     </row>
     <row r="127" spans="6:6">
-      <c r="F127" s="97"/>
+      <c r="F127" s="79"/>
     </row>
     <row r="128" spans="6:6">
-      <c r="F128" s="97"/>
+      <c r="F128" s="79"/>
     </row>
     <row r="129" spans="6:6">
-      <c r="F129" s="97"/>
+      <c r="F129" s="79"/>
     </row>
     <row r="130" spans="6:6">
-      <c r="F130" s="97"/>
+      <c r="F130" s="79"/>
     </row>
     <row r="131" spans="6:6">
-      <c r="F131" s="97"/>
+      <c r="F131" s="79"/>
     </row>
     <row r="132" spans="6:6">
-      <c r="F132" s="97"/>
+      <c r="F132" s="79"/>
     </row>
     <row r="133" spans="6:6">
-      <c r="F133" s="97"/>
+      <c r="F133" s="79"/>
     </row>
     <row r="134" spans="6:6">
-      <c r="F134" s="97"/>
+      <c r="F134" s="79"/>
     </row>
     <row r="135" spans="6:6">
-      <c r="F135" s="97"/>
+      <c r="F135" s="79"/>
     </row>
     <row r="136" spans="6:6">
-      <c r="F136" s="97"/>
+      <c r="F136" s="79"/>
     </row>
     <row r="137" spans="6:6">
-      <c r="F137" s="97"/>
+      <c r="F137" s="79"/>
     </row>
     <row r="138" spans="6:6">
-      <c r="F138" s="97"/>
+      <c r="F138" s="79"/>
     </row>
     <row r="139" spans="6:6">
-      <c r="F139" s="97"/>
+      <c r="F139" s="79"/>
     </row>
     <row r="140" spans="6:6">
-      <c r="F140" s="97"/>
+      <c r="F140" s="79"/>
     </row>
     <row r="141" spans="6:6">
-      <c r="F141" s="97"/>
+      <c r="F141" s="79"/>
     </row>
     <row r="142" spans="6:6">
-      <c r="F142" s="97"/>
+      <c r="F142" s="79"/>
     </row>
     <row r="143" spans="6:6">
-      <c r="F143" s="97"/>
+      <c r="F143" s="79"/>
     </row>
     <row r="144" spans="6:6">
-      <c r="F144" s="97"/>
+      <c r="F144" s="79"/>
     </row>
     <row r="145" spans="6:6">
-      <c r="F145" s="97"/>
+      <c r="F145" s="79"/>
     </row>
     <row r="146" spans="6:6">
-      <c r="F146" s="97"/>
+      <c r="F146" s="79"/>
     </row>
     <row r="147" spans="6:6">
-      <c r="F147" s="97"/>
+      <c r="F147" s="79"/>
     </row>
     <row r="148" spans="6:6">
-      <c r="F148" s="97"/>
+      <c r="F148" s="79"/>
     </row>
     <row r="149" spans="6:6">
-      <c r="F149" s="97"/>
+      <c r="F149" s="79"/>
     </row>
     <row r="150" spans="6:6">
-      <c r="F150" s="97"/>
+      <c r="F150" s="79"/>
     </row>
     <row r="151" spans="6:6">
-      <c r="F151" s="97"/>
+      <c r="F151" s="79"/>
     </row>
     <row r="152" spans="6:6">
-      <c r="F152" s="97"/>
+      <c r="F152" s="79"/>
     </row>
     <row r="153" spans="6:6">
-      <c r="F153" s="97"/>
+      <c r="F153" s="79"/>
     </row>
     <row r="154" spans="6:6">
-      <c r="F154" s="97"/>
+      <c r="F154" s="79"/>
     </row>
     <row r="155" spans="6:6">
-      <c r="F155" s="97"/>
+      <c r="F155" s="79"/>
     </row>
     <row r="156" spans="6:6">
-      <c r="F156" s="97"/>
+      <c r="F156" s="79"/>
     </row>
     <row r="157" spans="6:6">
-      <c r="F157" s="97"/>
+      <c r="F157" s="79"/>
     </row>
     <row r="158" spans="6:6">
-      <c r="F158" s="97"/>
+      <c r="F158" s="79"/>
     </row>
     <row r="159" spans="6:6">
-      <c r="F159" s="97"/>
+      <c r="F159" s="79"/>
     </row>
     <row r="160" spans="6:6">
-      <c r="F160" s="97"/>
+      <c r="F160" s="79"/>
     </row>
     <row r="161" spans="6:6">
-      <c r="F161" s="97"/>
+      <c r="F161" s="79"/>
     </row>
     <row r="162" spans="6:6">
-      <c r="F162" s="97"/>
+      <c r="F162" s="79"/>
     </row>
     <row r="163" spans="6:6">
-      <c r="F163" s="97"/>
+      <c r="F163" s="79"/>
     </row>
     <row r="164" spans="6:6">
-      <c r="F164" s="97"/>
+      <c r="F164" s="79"/>
     </row>
     <row r="165" spans="6:6">
-      <c r="F165" s="97"/>
+      <c r="F165" s="79"/>
     </row>
     <row r="166" spans="6:6">
-      <c r="F166" s="97"/>
+      <c r="F166" s="79"/>
     </row>
     <row r="167" spans="6:6">
-      <c r="F167" s="97"/>
+      <c r="F167" s="79"/>
     </row>
     <row r="168" spans="6:6">
-      <c r="F168" s="97"/>
+      <c r="F168" s="79"/>
     </row>
     <row r="169" spans="6:6">
-      <c r="F169" s="97"/>
+      <c r="F169" s="79"/>
     </row>
     <row r="170" spans="6:6">
-      <c r="F170" s="97"/>
+      <c r="F170" s="79"/>
     </row>
     <row r="171" spans="6:6">
-      <c r="F171" s="97"/>
+      <c r="F171" s="79"/>
     </row>
     <row r="172" spans="6:6">
-      <c r="F172" s="97"/>
+      <c r="F172" s="79"/>
     </row>
     <row r="173" spans="6:6">
-      <c r="F173" s="97"/>
+      <c r="F173" s="79"/>
     </row>
     <row r="174" spans="6:6">
-      <c r="F174" s="97"/>
+      <c r="F174" s="79"/>
     </row>
     <row r="175" spans="6:6">
-      <c r="F175" s="97"/>
+      <c r="F175" s="79"/>
     </row>
     <row r="176" spans="6:6">
-      <c r="F176" s="97"/>
+      <c r="F176" s="79"/>
     </row>
     <row r="177" spans="6:6">
-      <c r="F177" s="97"/>
+      <c r="F177" s="79"/>
     </row>
     <row r="178" spans="6:6">
-      <c r="F178" s="97"/>
+      <c r="F178" s="79"/>
     </row>
     <row r="179" spans="6:6">
-      <c r="F179" s="97"/>
+      <c r="F179" s="79"/>
     </row>
     <row r="180" spans="6:6">
-      <c r="F180" s="97"/>
+      <c r="F180" s="79"/>
     </row>
     <row r="181" spans="6:6">
-      <c r="F181" s="97"/>
+      <c r="F181" s="79"/>
     </row>
     <row r="182" spans="6:6">
-      <c r="F182" s="97"/>
+      <c r="F182" s="79"/>
     </row>
     <row r="183" spans="6:6">
-      <c r="F183" s="97"/>
+      <c r="F183" s="79"/>
     </row>
     <row r="184" spans="6:6">
-      <c r="F184" s="97"/>
+      <c r="F184" s="79"/>
     </row>
     <row r="185" spans="6:6">
-      <c r="F185" s="97"/>
+      <c r="F185" s="79"/>
     </row>
     <row r="186" spans="6:6">
-      <c r="F186" s="97"/>
+      <c r="F186" s="79"/>
     </row>
     <row r="187" spans="6:6">
-      <c r="F187" s="97"/>
+      <c r="F187" s="79"/>
     </row>
     <row r="188" spans="6:6">
-      <c r="F188" s="97"/>
+      <c r="F188" s="79"/>
     </row>
     <row r="189" spans="6:6">
-      <c r="F189" s="97"/>
+      <c r="F189" s="79"/>
     </row>
     <row r="190" spans="6:6">
-      <c r="F190" s="97"/>
+      <c r="F190" s="79"/>
     </row>
     <row r="191" spans="6:6">
-      <c r="F191" s="97"/>
+      <c r="F191" s="79"/>
     </row>
     <row r="192" spans="6:6">
-      <c r="F192" s="97"/>
+      <c r="F192" s="79"/>
     </row>
     <row r="193" spans="6:6">
-      <c r="F193" s="97"/>
+      <c r="F193" s="79"/>
     </row>
     <row r="194" spans="6:6">
-      <c r="F194" s="97"/>
+      <c r="F194" s="79"/>
     </row>
     <row r="195" spans="6:6">
-      <c r="F195" s="97"/>
+      <c r="F195" s="79"/>
     </row>
     <row r="196" spans="6:6">
-      <c r="F196" s="97"/>
+      <c r="F196" s="79"/>
     </row>
     <row r="197" spans="6:6">
-      <c r="F197" s="97"/>
+      <c r="F197" s="79"/>
     </row>
     <row r="198" spans="6:6">
-      <c r="F198" s="97"/>
+      <c r="F198" s="79"/>
     </row>
     <row r="199" spans="6:6">
-      <c r="F199" s="97"/>
+      <c r="F199" s="79"/>
     </row>
     <row r="200" spans="6:6">
-      <c r="F200" s="97"/>
+      <c r="F200" s="79"/>
     </row>
     <row r="201" spans="6:6">
-      <c r="F201" s="97"/>
+      <c r="F201" s="79"/>
     </row>
     <row r="202" spans="6:6">
-      <c r="F202" s="97"/>
+      <c r="F202" s="79"/>
     </row>
     <row r="203" spans="6:6">
-      <c r="F203" s="97"/>
+      <c r="F203" s="79"/>
     </row>
     <row r="204" spans="6:6">
-      <c r="F204" s="97"/>
+      <c r="F204" s="79"/>
     </row>
     <row r="205" spans="6:6">
-      <c r="F205" s="97"/>
+      <c r="F205" s="79"/>
     </row>
     <row r="206" spans="6:6">
-      <c r="F206" s="97"/>
+      <c r="F206" s="79"/>
     </row>
     <row r="207" spans="6:6">
-      <c r="F207" s="97"/>
+      <c r="F207" s="79"/>
     </row>
     <row r="208" spans="6:6">
-      <c r="F208" s="97"/>
+      <c r="F208" s="79"/>
     </row>
     <row r="209" spans="6:6">
-      <c r="F209" s="97"/>
+      <c r="F209" s="79"/>
     </row>
     <row r="210" spans="6:6">
-      <c r="F210" s="97"/>
+      <c r="F210" s="79"/>
     </row>
     <row r="211" spans="6:6">
-      <c r="F211" s="97"/>
+      <c r="F211" s="79"/>
     </row>
     <row r="212" spans="6:6">
-      <c r="F212" s="97"/>
+      <c r="F212" s="79"/>
     </row>
     <row r="213" spans="6:6">
-      <c r="F213" s="97"/>
+      <c r="F213" s="79"/>
     </row>
     <row r="214" spans="6:6">
-      <c r="F214" s="97"/>
+      <c r="F214" s="79"/>
     </row>
     <row r="215" spans="6:6">
-      <c r="F215" s="97"/>
+      <c r="F215" s="79"/>
     </row>
     <row r="216" spans="6:6">
-      <c r="F216" s="97"/>
+      <c r="F216" s="79"/>
     </row>
     <row r="217" spans="6:6">
-      <c r="F217" s="97"/>
+      <c r="F217" s="79"/>
     </row>
     <row r="218" spans="6:6">
-      <c r="F218" s="97"/>
+      <c r="F218" s="79"/>
     </row>
     <row r="219" spans="6:6">
-      <c r="F219" s="97"/>
+      <c r="F219" s="79"/>
     </row>
     <row r="220" spans="6:6">
-      <c r="F220" s="97"/>
+      <c r="F220" s="79"/>
     </row>
     <row r="221" spans="6:6">
-      <c r="F221" s="97"/>
+      <c r="F221" s="79"/>
     </row>
     <row r="222" spans="6:6">
-      <c r="F222" s="97"/>
+      <c r="F222" s="79"/>
     </row>
     <row r="223" spans="6:6">
-      <c r="F223" s="97"/>
+      <c r="F223" s="79"/>
     </row>
     <row r="224" spans="6:6">
-      <c r="F224" s="97"/>
+      <c r="F224" s="79"/>
     </row>
     <row r="225" spans="6:6">
-      <c r="F225" s="97"/>
+      <c r="F225" s="79"/>
     </row>
     <row r="226" spans="6:6">
-      <c r="F226" s="97"/>
+      <c r="F226" s="79"/>
     </row>
     <row r="227" spans="6:6">
-      <c r="F227" s="97"/>
+      <c r="F227" s="79"/>
     </row>
     <row r="228" spans="6:6">
-      <c r="F228" s="97"/>
+      <c r="F228" s="79"/>
     </row>
     <row r="229" spans="6:6">
-      <c r="F229" s="97"/>
+      <c r="F229" s="79"/>
     </row>
     <row r="230" spans="6:6">
-      <c r="F230" s="97"/>
+      <c r="F230" s="79"/>
     </row>
     <row r="231" spans="6:6">
-      <c r="F231" s="97"/>
+      <c r="F231" s="79"/>
     </row>
     <row r="232" spans="6:6">
-      <c r="F232" s="97"/>
+      <c r="F232" s="79"/>
     </row>
     <row r="233" spans="6:6">
-      <c r="F233" s="97"/>
+      <c r="F233" s="79"/>
     </row>
     <row r="234" spans="6:6">
-      <c r="F234" s="97"/>
+      <c r="F234" s="79"/>
     </row>
     <row r="235" spans="6:6">
-      <c r="F235" s="97"/>
+      <c r="F235" s="79"/>
     </row>
     <row r="236" spans="6:6">
-      <c r="F236" s="97"/>
+      <c r="F236" s="79"/>
     </row>
     <row r="237" spans="6:6">
-      <c r="F237" s="97"/>
+      <c r="F237" s="79"/>
     </row>
     <row r="238" spans="6:6">
-      <c r="F238" s="97"/>
+      <c r="F238" s="79"/>
     </row>
     <row r="239" spans="6:6">
-      <c r="F239" s="97"/>
+      <c r="F239" s="79"/>
     </row>
     <row r="240" spans="6:6">
-      <c r="F240" s="97"/>
+      <c r="F240" s="79"/>
     </row>
     <row r="241" spans="6:6">
-      <c r="F241" s="97"/>
+      <c r="F241" s="79"/>
     </row>
     <row r="242" spans="6:6">
-      <c r="F242" s="97"/>
+      <c r="F242" s="79"/>
     </row>
     <row r="243" spans="6:6">
-      <c r="F243" s="97"/>
+      <c r="F243" s="79"/>
     </row>
     <row r="244" spans="6:6">
-      <c r="F244" s="97"/>
+      <c r="F244" s="79"/>
     </row>
     <row r="245" spans="6:6">
-      <c r="F245" s="97"/>
+      <c r="F245" s="79"/>
     </row>
     <row r="246" spans="6:6">
-      <c r="F246" s="97"/>
+      <c r="F246" s="79"/>
     </row>
     <row r="247" spans="6:6">
-      <c r="F247" s="97"/>
+      <c r="F247" s="79"/>
     </row>
     <row r="248" spans="6:6">
-      <c r="F248" s="97"/>
+      <c r="F248" s="79"/>
     </row>
     <row r="249" spans="6:6">
-      <c r="F249" s="97"/>
+      <c r="F249" s="79"/>
     </row>
     <row r="250" spans="6:6">
-      <c r="F250" s="97"/>
+      <c r="F250" s="79"/>
     </row>
     <row r="251" spans="6:6">
-      <c r="F251" s="97"/>
+      <c r="F251" s="79"/>
     </row>
     <row r="252" spans="6:6">
-      <c r="F252" s="97"/>
+      <c r="F252" s="79"/>
     </row>
     <row r="253" spans="6:6">
-      <c r="F253" s="97"/>
+      <c r="F253" s="79"/>
     </row>
     <row r="254" spans="6:6">
-      <c r="F254" s="97"/>
+      <c r="F254" s="79"/>
     </row>
     <row r="255" spans="6:6">
-      <c r="F255" s="97"/>
+      <c r="F255" s="79"/>
     </row>
     <row r="256" spans="6:6">
-      <c r="F256" s="97"/>
+      <c r="F256" s="79"/>
     </row>
     <row r="257" spans="6:6">
-      <c r="F257" s="97"/>
+      <c r="F257" s="79"/>
     </row>
     <row r="258" spans="6:6">
-      <c r="F258" s="97"/>
+      <c r="F258" s="79"/>
     </row>
     <row r="259" spans="6:6">
-      <c r="F259" s="97"/>
+      <c r="F259" s="79"/>
     </row>
     <row r="260" spans="6:6">
-      <c r="F260" s="97"/>
+      <c r="F260" s="79"/>
     </row>
     <row r="261" spans="6:6">
-      <c r="F261" s="97"/>
+      <c r="F261" s="79"/>
     </row>
     <row r="262" spans="6:6">
-      <c r="F262" s="97"/>
+      <c r="F262" s="79"/>
     </row>
     <row r="263" spans="6:6">
-      <c r="F263" s="97"/>
+      <c r="F263" s="79"/>
     </row>
     <row r="264" spans="6:6">
-      <c r="F264" s="97"/>
+      <c r="F264" s="79"/>
     </row>
     <row r="265" spans="6:6">
-      <c r="F265" s="97"/>
+      <c r="F265" s="79"/>
     </row>
     <row r="266" spans="6:6">
-      <c r="F266" s="97"/>
+      <c r="F266" s="79"/>
     </row>
     <row r="267" spans="6:6">
-      <c r="F267" s="97"/>
+      <c r="F267" s="79"/>
     </row>
     <row r="268" spans="6:6">
-      <c r="F268" s="97"/>
+      <c r="F268" s="79"/>
     </row>
     <row r="269" spans="6:6">
-      <c r="F269" s="97"/>
+      <c r="F269" s="79"/>
     </row>
     <row r="270" spans="6:6">
-      <c r="F270" s="97"/>
+      <c r="F270" s="79"/>
     </row>
     <row r="271" spans="6:6">
-      <c r="F271" s="97"/>
+      <c r="F271" s="79"/>
     </row>
     <row r="272" spans="6:6">
-      <c r="F272" s="97"/>
+      <c r="F272" s="79"/>
     </row>
     <row r="273" spans="6:6">
-      <c r="F273" s="97"/>
+      <c r="F273" s="79"/>
     </row>
     <row r="274" spans="6:6">
-      <c r="F274" s="97"/>
+      <c r="F274" s="79"/>
     </row>
     <row r="275" spans="6:6">
-      <c r="F275" s="97"/>
+      <c r="F275" s="79"/>
     </row>
     <row r="276" spans="6:6">
-      <c r="F276" s="97"/>
+      <c r="F276" s="79"/>
     </row>
     <row r="277" spans="6:6">
-      <c r="F277" s="97"/>
+      <c r="F277" s="79"/>
     </row>
     <row r="278" spans="6:6">
-      <c r="F278" s="97"/>
+      <c r="F278" s="79"/>
     </row>
     <row r="279" spans="6:6">
-      <c r="F279" s="97"/>
+      <c r="F279" s="79"/>
     </row>
     <row r="280" spans="6:6">
-      <c r="F280" s="97"/>
+      <c r="F280" s="79"/>
     </row>
     <row r="281" spans="6:6">
-      <c r="F281" s="97"/>
+      <c r="F281" s="79"/>
     </row>
     <row r="282" spans="6:6">
-      <c r="F282" s="97"/>
+      <c r="F282" s="79"/>
     </row>
     <row r="283" spans="6:6">
-      <c r="F283" s="97"/>
+      <c r="F283" s="79"/>
     </row>
     <row r="284" spans="6:6">
-      <c r="F284" s="97"/>
+      <c r="F284" s="79"/>
     </row>
     <row r="285" spans="6:6">
-      <c r="F285" s="97"/>
+      <c r="F285" s="79"/>
     </row>
     <row r="286" spans="6:6">
-      <c r="F286" s="97"/>
+      <c r="F286" s="79"/>
     </row>
     <row r="287" spans="6:6">
-      <c r="F287" s="97"/>
+      <c r="F287" s="79"/>
     </row>
     <row r="288" spans="6:6">
-      <c r="F288" s="97"/>
+      <c r="F288" s="79"/>
     </row>
     <row r="289" spans="6:6">
-      <c r="F289" s="97"/>
+      <c r="F289" s="79"/>
     </row>
     <row r="290" spans="6:6">
-      <c r="F290" s="97"/>
+      <c r="F290" s="79"/>
     </row>
     <row r="291" spans="6:6">
-      <c r="F291" s="97"/>
+      <c r="F291" s="79"/>
     </row>
     <row r="292" spans="6:6">
-      <c r="F292" s="97"/>
+      <c r="F292" s="79"/>
     </row>
     <row r="293" spans="6:6">
-      <c r="F293" s="97"/>
+      <c r="F293" s="79"/>
     </row>
     <row r="294" spans="6:6">
-      <c r="F294" s="97"/>
+      <c r="F294" s="79"/>
     </row>
     <row r="295" spans="6:6">
-      <c r="F295" s="97"/>
+      <c r="F295" s="79"/>
     </row>
     <row r="296" spans="6:6">
-      <c r="F296" s="97"/>
+      <c r="F296" s="79"/>
     </row>
     <row r="297" spans="6:6">
-      <c r="F297" s="97"/>
+      <c r="F297" s="79"/>
     </row>
     <row r="298" spans="6:6">
-      <c r="F298" s="97"/>
+      <c r="F298" s="79"/>
     </row>
     <row r="299" spans="6:6">
-      <c r="F299" s="97"/>
+      <c r="F299" s="79"/>
     </row>
     <row r="300" spans="6:6">
-      <c r="F300" s="97"/>
+      <c r="F300" s="79"/>
     </row>
     <row r="301" spans="6:6">
-      <c r="F301" s="97"/>
+      <c r="F301" s="79"/>
     </row>
     <row r="302" spans="6:6">
-      <c r="F302" s="97"/>
+      <c r="F302" s="79"/>
     </row>
     <row r="303" spans="6:6">
-      <c r="F303" s="97"/>
+      <c r="F303" s="79"/>
     </row>
     <row r="304" spans="6:6">
-      <c r="F304" s="97"/>
+      <c r="F304" s="79"/>
     </row>
     <row r="305" spans="6:6">
-      <c r="F305" s="97"/>
+      <c r="F305" s="79"/>
     </row>
     <row r="306" spans="6:6">
-      <c r="F306" s="97"/>
+      <c r="F306" s="79"/>
     </row>
     <row r="307" spans="6:6">
-      <c r="F307" s="97"/>
+      <c r="F307" s="79"/>
     </row>
     <row r="308" spans="6:6">
-      <c r="F308" s="97"/>
+      <c r="F308" s="79"/>
     </row>
     <row r="309" spans="6:6">
-      <c r="F309" s="97"/>
+      <c r="F309" s="79"/>
     </row>
     <row r="310" spans="6:6">
-      <c r="F310" s="97"/>
+      <c r="F310" s="79"/>
     </row>
     <row r="311" spans="6:6">
-      <c r="F311" s="97"/>
+      <c r="F311" s="79"/>
     </row>
     <row r="312" spans="6:6">
-      <c r="F312" s="97"/>
+      <c r="F312" s="79"/>
     </row>
     <row r="313" spans="6:6">
-      <c r="F313" s="97"/>
+      <c r="F313" s="79"/>
     </row>
     <row r="314" spans="6:6">
-      <c r="F314" s="97"/>
+      <c r="F314" s="79"/>
     </row>
     <row r="315" spans="6:6">
-      <c r="F315" s="97"/>
+      <c r="F315" s="79"/>
     </row>
     <row r="316" spans="6:6">
-      <c r="F316" s="97"/>
+      <c r="F316" s="79"/>
     </row>
     <row r="317" spans="6:6">
-      <c r="F317" s="97"/>
+      <c r="F317" s="79"/>
     </row>
     <row r="318" spans="6:6">
-      <c r="F318" s="97"/>
+      <c r="F318" s="79"/>
     </row>
     <row r="319" spans="6:6">
-      <c r="F319" s="97"/>
+      <c r="F319" s="79"/>
     </row>
     <row r="320" spans="6:6">
-      <c r="F320" s="97"/>
+      <c r="F320" s="79"/>
     </row>
     <row r="321" spans="6:6">
-      <c r="F321" s="97"/>
+      <c r="F321" s="79"/>
     </row>
     <row r="322" spans="6:6">
-      <c r="F322" s="97"/>
+      <c r="F322" s="79"/>
     </row>
     <row r="323" spans="6:6">
-      <c r="F323" s="97"/>
+      <c r="F323" s="79"/>
     </row>
     <row r="324" spans="6:6">
-      <c r="F324" s="97"/>
+      <c r="F324" s="79"/>
     </row>
     <row r="325" spans="6:6">
-      <c r="F325" s="97"/>
+      <c r="F325" s="79"/>
     </row>
     <row r="326" spans="6:6">
-      <c r="F326" s="97"/>
+      <c r="F326" s="79"/>
     </row>
     <row r="327" spans="6:6">
-      <c r="F327" s="97"/>
+      <c r="F327" s="79"/>
     </row>
     <row r="328" spans="6:6">
-      <c r="F328" s="97"/>
+      <c r="F328" s="79"/>
     </row>
     <row r="329" spans="6:6">
-      <c r="F329" s="97"/>
+      <c r="F329" s="79"/>
     </row>
     <row r="330" spans="6:6">
-      <c r="F330" s="97"/>
+      <c r="F330" s="79"/>
     </row>
     <row r="331" spans="6:6">
-      <c r="F331" s="97"/>
+      <c r="F331" s="79"/>
     </row>
     <row r="332" spans="6:6">
-      <c r="F332" s="97"/>
+      <c r="F332" s="79"/>
     </row>
     <row r="333" spans="6:6">
-      <c r="F333" s="97"/>
+      <c r="F333" s="79"/>
     </row>
     <row r="334" spans="6:6">
-      <c r="F334" s="97"/>
+      <c r="F334" s="79"/>
     </row>
     <row r="335" spans="6:6">
-      <c r="F335" s="97"/>
+      <c r="F335" s="79"/>
     </row>
     <row r="336" spans="6:6">
-      <c r="F336" s="97"/>
+      <c r="F336" s="79"/>
     </row>
     <row r="337" spans="6:6">
-      <c r="F337" s="97"/>
+      <c r="F337" s="79"/>
     </row>
     <row r="338" spans="6:6">
-      <c r="F338" s="97"/>
+      <c r="F338" s="79"/>
     </row>
     <row r="339" spans="6:6">
-      <c r="F339" s="97"/>
+      <c r="F339" s="79"/>
     </row>
     <row r="340" spans="6:6">
-      <c r="F340" s="97"/>
+      <c r="F340" s="79"/>
     </row>
     <row r="341" spans="6:6">
-      <c r="F341" s="97"/>
+      <c r="F341" s="79"/>
     </row>
     <row r="342" spans="6:6">
-      <c r="F342" s="97"/>
+      <c r="F342" s="79"/>
     </row>
     <row r="343" spans="6:6">
-      <c r="F343" s="97"/>
+      <c r="F343" s="79"/>
     </row>
     <row r="344" spans="6:6">
-      <c r="F344" s="97"/>
+      <c r="F344" s="79"/>
     </row>
     <row r="345" spans="6:6">
-      <c r="F345" s="97"/>
+      <c r="F345" s="79"/>
     </row>
     <row r="346" spans="6:6">
-      <c r="F346" s="97"/>
+      <c r="F346" s="79"/>
     </row>
     <row r="347" spans="6:6">
-      <c r="F347" s="97"/>
+      <c r="F347" s="79"/>
     </row>
     <row r="348" spans="6:6">
-      <c r="F348" s="97"/>
+      <c r="F348" s="79"/>
     </row>
     <row r="349" spans="6:6">
-      <c r="F349" s="97"/>
+      <c r="F349" s="79"/>
     </row>
     <row r="350" spans="6:6">
-      <c r="F350" s="97"/>
+      <c r="F350" s="79"/>
     </row>
     <row r="351" spans="6:6">
-      <c r="F351" s="97"/>
+      <c r="F351" s="79"/>
     </row>
     <row r="352" spans="6:6">
-      <c r="F352" s="97"/>
+      <c r="F352" s="79"/>
     </row>
     <row r="353" spans="6:6">
-      <c r="F353" s="97"/>
+      <c r="F353" s="79"/>
     </row>
     <row r="354" spans="6:6">
-      <c r="F354" s="97"/>
+      <c r="F354" s="79"/>
     </row>
     <row r="355" spans="6:6">
-      <c r="F355" s="97"/>
+      <c r="F355" s="79"/>
     </row>
     <row r="356" spans="6:6">
-      <c r="F356" s="97"/>
+      <c r="F356" s="79"/>
     </row>
     <row r="357" spans="6:6">
-      <c r="F357" s="97"/>
+      <c r="F357" s="79"/>
     </row>
     <row r="358" spans="6:6">
-      <c r="F358" s="97"/>
+      <c r="F358" s="79"/>
     </row>
     <row r="359" spans="6:6">
-      <c r="F359" s="97"/>
+      <c r="F359" s="79"/>
     </row>
     <row r="360" spans="6:6">
-      <c r="F360" s="97"/>
+      <c r="F360" s="79"/>
     </row>
     <row r="361" spans="6:6">
-      <c r="F361" s="97"/>
+      <c r="F361" s="79"/>
     </row>
     <row r="362" spans="6:6">
-      <c r="F362" s="97"/>
+      <c r="F362" s="79"/>
     </row>
     <row r="363" spans="6:6">
-      <c r="F363" s="97"/>
+      <c r="F363" s="79"/>
     </row>
     <row r="364" spans="6:6">
-      <c r="F364" s="97"/>
+      <c r="F364" s="79"/>
     </row>
     <row r="365" spans="6:6">
-      <c r="F365" s="97"/>
+      <c r="F365" s="79"/>
     </row>
     <row r="366" spans="6:6">
-      <c r="F366" s="97"/>
+      <c r="F366" s="79"/>
     </row>
     <row r="367" spans="6:6">
-      <c r="F367" s="97"/>
+      <c r="F367" s="79"/>
     </row>
     <row r="368" spans="6:6">
-      <c r="F368" s="97"/>
+      <c r="F368" s="79"/>
     </row>
     <row r="369" spans="6:6">
-      <c r="F369" s="97"/>
+      <c r="F369" s="79"/>
     </row>
     <row r="370" spans="6:6">
-      <c r="F370" s="97"/>
+      <c r="F370" s="79"/>
     </row>
     <row r="371" spans="6:6">
-      <c r="F371" s="97"/>
+      <c r="F371" s="79"/>
     </row>
     <row r="372" spans="6:6">
-      <c r="F372" s="97"/>
+      <c r="F372" s="79"/>
     </row>
     <row r="373" spans="6:6">
-      <c r="F373" s="97"/>
+      <c r="F373" s="79"/>
     </row>
     <row r="374" spans="6:6">
-      <c r="F374" s="97"/>
+      <c r="F374" s="79"/>
     </row>
     <row r="375" spans="6:6">
-      <c r="F375" s="97"/>
+      <c r="F375" s="79"/>
     </row>
     <row r="376" spans="6:6">
-      <c r="F376" s="97"/>
+      <c r="F376" s="79"/>
     </row>
     <row r="377" spans="6:6">
-      <c r="F377" s="97"/>
+      <c r="F377" s="79"/>
     </row>
     <row r="378" spans="6:6">
-      <c r="F378" s="97"/>
+      <c r="F378" s="79"/>
     </row>
     <row r="379" spans="6:6">
-      <c r="F379" s="97"/>
+      <c r="F379" s="79"/>
     </row>
     <row r="380" spans="6:6">
-      <c r="F380" s="97"/>
+      <c r="F380" s="79"/>
     </row>
     <row r="381" spans="6:6">
-      <c r="F381" s="97"/>
+      <c r="F381" s="79"/>
     </row>
     <row r="382" spans="6:6">
-      <c r="F382" s="97"/>
+      <c r="F382" s="79"/>
     </row>
     <row r="383" spans="6:6">
-      <c r="F383" s="97"/>
+      <c r="F383" s="79"/>
     </row>
     <row r="384" spans="6:6">
-      <c r="F384" s="97"/>
+      <c r="F384" s="79"/>
     </row>
     <row r="385" spans="6:6">
-      <c r="F385" s="97"/>
+      <c r="F385" s="79"/>
     </row>
     <row r="386" spans="6:6">
-      <c r="F386" s="97"/>
+      <c r="F386" s="79"/>
     </row>
     <row r="387" spans="6:6">
-      <c r="F387" s="97"/>
+      <c r="F387" s="79"/>
     </row>
     <row r="388" spans="6:6">
-      <c r="F388" s="97"/>
+      <c r="F388" s="79"/>
     </row>
     <row r="389" spans="6:6">
-      <c r="F389" s="97"/>
+      <c r="F389" s="79"/>
     </row>
     <row r="390" spans="6:6">
-      <c r="F390" s="97"/>
+      <c r="F390" s="79"/>
     </row>
     <row r="391" spans="6:6">
-      <c r="F391" s="97"/>
+      <c r="F391" s="79"/>
     </row>
     <row r="392" spans="6:6">
-      <c r="F392" s="97"/>
+      <c r="F392" s="79"/>
     </row>
     <row r="393" spans="6:6">
-      <c r="F393" s="97"/>
+      <c r="F393" s="79"/>
     </row>
     <row r="394" spans="6:6">
-      <c r="F394" s="97"/>
+      <c r="F394" s="79"/>
     </row>
     <row r="395" spans="6:6">
-      <c r="F395" s="97"/>
+      <c r="F395" s="79"/>
     </row>
     <row r="396" spans="6:6">
-      <c r="F396" s="97"/>
+      <c r="F396" s="79"/>
     </row>
     <row r="397" spans="6:6">
-      <c r="F397" s="97"/>
+      <c r="F397" s="79"/>
     </row>
     <row r="398" spans="6:6">
-      <c r="F398" s="97"/>
+      <c r="F398" s="79"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F8:F102">

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647490E3-9DD6-2C4B-ACF2-5C572D278225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C067DB17-03C9-074B-8E56-D9D711DF973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-23040" windowWidth="40960" windowHeight="23040" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
@@ -2971,7 +2971,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3062,6 +3061,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -49402,8 +49402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
   <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="AG75" sqref="AG75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49913,10 +49913,10 @@
       <c r="G57" s="95"/>
       <c r="H57" s="95"/>
       <c r="I57" s="95"/>
-      <c r="J57" s="90" t="s">
+      <c r="J57" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="K57" s="90"/>
+      <c r="K57" s="95"/>
       <c r="L57" s="90" t="s">
         <v>254</v>
       </c>
@@ -49936,18 +49936,20 @@
       <c r="D64" s="89"/>
     </row>
     <row r="65" spans="3:37">
-      <c r="D65" s="90" t="s">
+      <c r="D65" s="95" t="s">
         <v>35</v>
       </c>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
       <c r="G65" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="H65" s="90" t="s">
+      <c r="H65" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="90"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="95"/>
       <c r="L65" s="90" t="s">
         <v>260</v>
       </c>
@@ -49957,12 +49959,14 @@
       <c r="N65" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="O65" s="97" t="s">
+      <c r="O65" s="127" t="s">
         <v>263</v>
       </c>
-      <c r="Q65" s="90" t="s">
+      <c r="P65" s="127"/>
+      <c r="Q65" s="95" t="s">
         <v>266</v>
       </c>
+      <c r="R65" s="95"/>
       <c r="S65" s="90" t="s">
         <v>264</v>
       </c>
@@ -50071,8 +50075,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
     <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="H65:K65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50495,552 +50504,552 @@
       <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="102"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
     </row>
     <row r="10" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104" t="s">
         <v>256</v>
       </c>
       <c r="F10" s="80"/>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106" t="s">
+      <c r="H10" s="105"/>
+      <c r="I10" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="106"/>
     </row>
     <row r="11" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="81"/>
-      <c r="G11" s="108" t="s">
+      <c r="G11" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="108"/>
     </row>
     <row r="12" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="82"/>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110" t="s">
+      <c r="H12" s="109"/>
+      <c r="I12" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
     </row>
     <row r="14" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
       <c r="F14" s="80"/>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106" t="s">
+      <c r="H14" s="105"/>
+      <c r="I14" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
     </row>
     <row r="15" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
       <c r="F15" s="81"/>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108" t="s">
+      <c r="H15" s="107"/>
+      <c r="I15" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="108"/>
-      <c r="K15" s="109"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
       <c r="F16" s="83"/>
-      <c r="G16" s="108" t="s">
+      <c r="G16" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108" t="s">
+      <c r="H16" s="107"/>
+      <c r="I16" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="108"/>
-      <c r="K16" s="109"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="108"/>
     </row>
     <row r="17" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
       <c r="F17" s="82"/>
-      <c r="G17" s="110" t="s">
+      <c r="G17" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110" t="s">
+      <c r="H17" s="109"/>
+      <c r="I17" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="110"/>
     </row>
     <row r="18" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="78"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="113"/>
     </row>
     <row r="19" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="113"/>
     </row>
     <row r="20" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="80"/>
-      <c r="G20" s="106" t="s">
+      <c r="G20" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106" t="s">
+      <c r="H20" s="105"/>
+      <c r="I20" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="106"/>
-      <c r="K20" s="107"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
     </row>
     <row r="21" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="83"/>
-      <c r="G21" s="108" t="s">
+      <c r="G21" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108" t="s">
+      <c r="H21" s="107"/>
+      <c r="I21" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="108"/>
-      <c r="K21" s="109"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
     </row>
     <row r="22" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="83"/>
-      <c r="G22" s="108" t="s">
+      <c r="G22" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108" t="s">
+      <c r="H22" s="107"/>
+      <c r="I22" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="109"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="108"/>
     </row>
     <row r="23" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="108" t="s">
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108" t="s">
+      <c r="H23" s="107"/>
+      <c r="I23" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="108"/>
-      <c r="K23" s="109"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
     </row>
     <row r="24" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="83"/>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108" t="s">
+      <c r="H24" s="107"/>
+      <c r="I24" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="108"/>
-      <c r="K24" s="109"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="108"/>
     </row>
     <row r="25" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B25" s="115"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="110" t="s">
+      <c r="G25" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110" t="s">
+      <c r="H25" s="109"/>
+      <c r="I25" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="111"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
     </row>
     <row r="26" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="113"/>
     </row>
     <row r="27" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B27" s="115"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="80"/>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
     </row>
     <row r="28" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="83"/>
-      <c r="G28" s="108" t="s">
+      <c r="G28" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="120"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="119"/>
     </row>
     <row r="29" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B29" s="115"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
       <c r="F29" s="83"/>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="109"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="108"/>
     </row>
     <row r="30" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B30" s="115"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
       <c r="F30" s="85"/>
-      <c r="G30" s="110" t="s">
+      <c r="G30" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="110"/>
     </row>
     <row r="31" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="113"/>
     </row>
     <row r="32" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
       <c r="F32" s="86"/>
-      <c r="G32" s="106" t="s">
+      <c r="G32" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="107"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="106"/>
     </row>
     <row r="33" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
       <c r="F33" s="87"/>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="109"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="108"/>
     </row>
     <row r="34" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
       <c r="F34" s="81"/>
-      <c r="G34" s="108" t="s">
+      <c r="G34" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="109"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="108"/>
     </row>
     <row r="35" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
       <c r="F35" s="82"/>
-      <c r="G35" s="110" t="s">
+      <c r="G35" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="111"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="110"/>
     </row>
     <row r="36" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="125"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="124"/>
     </row>
     <row r="37" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="114"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="113"/>
     </row>
     <row r="38" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B38" s="115"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
       <c r="F38" s="80"/>
-      <c r="G38" s="106" t="s">
+      <c r="G38" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="107"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="106"/>
     </row>
     <row r="39" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B39" s="115"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
       <c r="F39" s="87"/>
-      <c r="G39" s="108" t="s">
+      <c r="G39" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="109"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="108"/>
     </row>
     <row r="40" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B40" s="115"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
       <c r="F40" s="87"/>
-      <c r="G40" s="108" t="s">
+      <c r="G40" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="109"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="108"/>
     </row>
     <row r="41" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="109"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="108"/>
     </row>
     <row r="42" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B42" s="115"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="109"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="108"/>
     </row>
     <row r="43" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B43" s="115"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="109"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="108"/>
     </row>
     <row r="44" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B44" s="115"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="109"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="108"/>
     </row>
     <row r="45" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B45" s="115"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="109"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="108"/>
     </row>
     <row r="46" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="111"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="110"/>
     </row>
     <row r="47" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="F47" s="79"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C067DB17-03C9-074B-8E56-D9D711DF973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F55239B-9587-854C-B5FE-E40EA2D5C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-23040" windowWidth="40960" windowHeight="23040" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
@@ -2741,7 +2741,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3061,7 +3061,13 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -40951,7 +40957,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Device enrollment restrictions let you restrict devices from enrolling in Intune based on certain device attributes. Device platform restrictions restrict devices based on device platform, version, manufacturer, or ownership type.</a:t>
+            <a:t>Device enrollment restrict`ions let you restrict devices from enrolling in Intune based on certain device attributes. Device platform restrictions restrict devices based on device platform, version, manufacturer, or ownership type.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -40964,18 +40970,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>389800</xdr:colOff>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>148500</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -41005,8 +41011,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="16268700"/>
-          <a:ext cx="720000" cy="720000"/>
+          <a:off x="711200" y="16281400"/>
+          <a:ext cx="749300" cy="749300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -49402,8 +49408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
   <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49959,10 +49965,10 @@
       <c r="N65" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="O65" s="127" t="s">
+      <c r="O65" s="128" t="s">
         <v>263</v>
       </c>
-      <c r="P65" s="127"/>
+      <c r="P65" s="128"/>
       <c r="Q65" s="95" t="s">
         <v>266</v>
       </c>
@@ -49973,6 +49979,9 @@
       <c r="T65" s="90" t="s">
         <v>265</v>
       </c>
+    </row>
+    <row r="66" spans="3:37">
+      <c r="G66" s="129"/>
     </row>
     <row r="70" spans="3:37" ht="28">
       <c r="C70"/>
@@ -49989,12 +49998,18 @@
       <c r="D72" s="89"/>
     </row>
     <row r="73" spans="3:37" s="96" customFormat="1" ht="136">
-      <c r="D73" s="96" t="s">
+      <c r="D73" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="G73" s="96" t="s">
+      <c r="E73" s="127"/>
+      <c r="F73" s="127"/>
+      <c r="G73" s="127" t="s">
         <v>26</v>
       </c>
+      <c r="H73" s="127"/>
+      <c r="I73" s="127"/>
+      <c r="J73" s="127"/>
+      <c r="K73" s="127"/>
       <c r="L73" s="96" t="s">
         <v>268</v>
       </c>
@@ -50075,10 +50090,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="O65:P65"/>
     <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="D73:F73"/>
     <mergeCell ref="E57:I57"/>
+    <mergeCell ref="G73:K73"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="H65:K65"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F55239B-9587-854C-B5FE-E40EA2D5C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C25FF0B-545C-EA42-B0E2-A0C23087BC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-23040" windowWidth="40960" windowHeight="23040" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="ListStatus">'Identity ✍️'!$G$93:$G$100</definedName>
     <definedName name="Status" localSheetId="2">'Device ✍️'!$AD$3:$AK$3</definedName>
     <definedName name="Status">'Identity ✍️'!$AD$3:$AK$3</definedName>
-    <definedName name="Table_DeviceCompliancePolicies">'Device ⚙️'!$D$74</definedName>
+    <definedName name="Table_DeviceCompliancePolicies">'Device ⚙️'!$D$77</definedName>
     <definedName name="Table_EnrollmentDevicePlatformRestrictions">'Device ⚙️'!$D$66</definedName>
     <definedName name="Table_WindowsEnrollment">'Device ⚙️'!$D$58</definedName>
     <definedName name="WorkshopData" localSheetId="2">'Device ✍️'!$A$2:$AA$216</definedName>
@@ -1151,7 +1151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="281">
   <si>
     <t>Devices</t>
   </si>
@@ -1959,73 +1959,43 @@
     <t>Compliance policies</t>
   </si>
   <si>
-    <t>Min OS Ver</t>
-  </si>
-  <si>
-    <t>Max OS Ver</t>
-  </si>
-  <si>
-    <t>Min OS Mobile Ver</t>
-  </si>
-  <si>
-    <t>Max OS Mobile Ver</t>
-  </si>
-  <si>
-    <t>Valid OS builds</t>
-  </si>
-  <si>
-    <t>Require password to unlock</t>
-  </si>
-  <si>
-    <t>Simple passwords</t>
-  </si>
-  <si>
-    <t>Password type</t>
-  </si>
-  <si>
-    <t>Min password length</t>
-  </si>
-  <si>
-    <t>Max min of inactivity</t>
-  </si>
-  <si>
-    <t>Password expiration (days)</t>
-  </si>
-  <si>
-    <t>Number of previous passwords to prevent reuse</t>
-  </si>
-  <si>
-    <t>Require password when device returns from idle state</t>
-  </si>
-  <si>
-    <t>Require encryption of data storage</t>
-  </si>
-  <si>
-    <t>Trusted Platform Module (TPM)</t>
-  </si>
-  <si>
-    <t>Antivirus</t>
-  </si>
-  <si>
-    <t>Antispyware</t>
-  </si>
-  <si>
-    <t>Microsoft Defender</t>
-  </si>
-  <si>
-    <t>Defender Antimalware min ver</t>
-  </si>
-  <si>
-    <t>Defender Antimalware security intelligence up-to-date</t>
-  </si>
-  <si>
-    <t>Real-time protection</t>
-  </si>
-  <si>
     <t>Defender for EndPoint</t>
   </si>
   <si>
-    <t>Defender for EndPoint risk score</t>
+    <t>Min OS version</t>
+  </si>
+  <si>
+    <t>Max OS version</t>
+  </si>
+  <si>
+    <t>Rooted devices</t>
+  </si>
+  <si>
+    <t>Included groups</t>
+  </si>
+  <si>
+    <t>Excluded groups</t>
+  </si>
+  <si>
+    <t>Require pswd</t>
+  </si>
+  <si>
+    <t>Min pswd length</t>
+  </si>
+  <si>
+    <t>Pswd type</t>
+  </si>
+  <si>
+    <t>Pswd expiry (days)</t>
+  </si>
+  <si>
+    <t>Max minutes of inactivity before pswd reqd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Require encryption </t>
+  </si>
+  <si>
+    <t># of previous pswds to prevent reuse</t>
   </si>
 </sst>
 </file>
@@ -2741,7 +2711,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3066,6 +3036,9 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -40916,7 +40889,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1727200" y="14427200"/>
+          <a:off x="1727200" y="16510000"/>
           <a:ext cx="6362700" cy="711200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -40970,18 +40943,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>292100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -41011,7 +40984,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="711200" y="16281400"/>
+          <a:off x="723900" y="16383000"/>
           <a:ext cx="749300" cy="749300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -49406,10 +49379,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
-  <dimension ref="A1:AK73"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73:F73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49941,7 +49914,7 @@
       <c r="C64" s="88"/>
       <c r="D64" s="89"/>
     </row>
-    <row r="65" spans="3:37">
+    <row r="65" spans="3:27">
       <c r="D65" s="95" t="s">
         <v>35</v>
       </c>
@@ -49980,122 +49953,114 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="3:37">
+    <row r="66" spans="3:27">
       <c r="G66" s="129"/>
-    </row>
-    <row r="70" spans="3:37" ht="28">
+      <c r="M66" s="130"/>
+      <c r="N66" s="130"/>
+    </row>
+    <row r="70" spans="3:27" ht="28">
       <c r="C70"/>
       <c r="D70" s="89" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="3:37" ht="28">
+    <row r="71" spans="3:27" ht="28">
       <c r="C71" s="88"/>
       <c r="D71" s="89"/>
     </row>
-    <row r="72" spans="3:37" ht="28">
+    <row r="72" spans="3:27" ht="28">
       <c r="C72" s="88"/>
       <c r="D72" s="89"/>
     </row>
-    <row r="73" spans="3:37" s="96" customFormat="1" ht="136">
-      <c r="D73" s="127" t="s">
+    <row r="73" spans="3:27" ht="28">
+      <c r="C73" s="88"/>
+      <c r="D73" s="89"/>
+    </row>
+    <row r="74" spans="3:27" ht="28">
+      <c r="C74" s="88"/>
+      <c r="D74" s="89"/>
+    </row>
+    <row r="75" spans="3:27" ht="28">
+      <c r="C75" s="88"/>
+      <c r="D75" s="89"/>
+    </row>
+    <row r="76" spans="3:27" s="96" customFormat="1" ht="119">
+      <c r="D76" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="127"/>
-      <c r="F73" s="127"/>
-      <c r="G73" s="127" t="s">
+      <c r="E76" s="127"/>
+      <c r="F76" s="127"/>
+      <c r="G76" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="127"/>
-      <c r="I73" s="127"/>
-      <c r="J73" s="127"/>
-      <c r="K73" s="127"/>
-      <c r="L73" s="96" t="s">
+      <c r="H76" s="127"/>
+      <c r="I76" s="127"/>
+      <c r="J76" s="127"/>
+      <c r="K76" s="127"/>
+      <c r="L76" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="M73" s="96" t="s">
+      <c r="M76" s="96" t="s">
         <v>269</v>
       </c>
-      <c r="N73" s="96" t="s">
+      <c r="N76" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="O73" s="96" t="s">
+      <c r="O76" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="P76" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q76" s="127" t="s">
+        <v>276</v>
+      </c>
+      <c r="R76" s="127"/>
+      <c r="S76" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="T76" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="U76" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="V76" s="96" t="s">
+        <v>279</v>
+      </c>
+      <c r="W76" s="96" t="s">
         <v>271</v>
       </c>
-      <c r="P73" s="96" t="s">
+      <c r="X76" s="96" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y76" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z76" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="Q73" s="96" t="s">
+      <c r="AA76" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="R73" s="96" t="s">
-        <v>274</v>
-      </c>
-      <c r="S73" s="96" t="s">
-        <v>275</v>
-      </c>
-      <c r="T73" s="96" t="s">
-        <v>276</v>
-      </c>
-      <c r="U73" s="96" t="s">
-        <v>277</v>
-      </c>
-      <c r="V73" s="96" t="s">
-        <v>278</v>
-      </c>
-      <c r="W73" s="96" t="s">
-        <v>279</v>
-      </c>
-      <c r="X73" s="96" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y73" s="96" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z73" s="96" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA73" s="96" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB73" s="96" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC73" s="96" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD73" s="96" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE73" s="96" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF73" s="96" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG73" s="96" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH73" s="96" t="s">
-        <v>289</v>
-      </c>
-      <c r="AI73" s="96" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ73" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="AK73" s="90" t="s">
-        <v>265</v>
-      </c>
+    </row>
+    <row r="77" spans="3:27">
+      <c r="M77" s="130"/>
+      <c r="N77" s="130"/>
+      <c r="P77" s="130"/>
+      <c r="R77" s="130"/>
+      <c r="S77" s="130"/>
+      <c r="T77" s="130"/>
+      <c r="U77" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="O65:P65"/>
     <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="Q76:R76"/>
     <mergeCell ref="E57:I57"/>
-    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="G76:K76"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="H65:K65"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C25FF0B-545C-EA42-B0E2-A0C23087BC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9DE677-20C3-654D-859E-CBE224FBD62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-23040" windowWidth="40960" windowHeight="23040" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="ListStatus">'Identity ✍️'!$G$93:$G$100</definedName>
     <definedName name="Status" localSheetId="2">'Device ✍️'!$AD$3:$AK$3</definedName>
     <definedName name="Status">'Identity ✍️'!$AD$3:$AK$3</definedName>
-    <definedName name="Table_DeviceCompliancePolicies">'Device ⚙️'!$D$77</definedName>
+    <definedName name="Table_DeviceCompliancePolicies">'Device ⚙️'!$D$76</definedName>
     <definedName name="Table_EnrollmentDevicePlatformRestrictions">'Device ⚙️'!$D$66</definedName>
     <definedName name="Table_WindowsEnrollment">'Device ⚙️'!$D$58</definedName>
     <definedName name="WorkshopData" localSheetId="2">'Device ✍️'!$A$2:$AA$216</definedName>
@@ -2711,7 +2711,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3041,6 +3041,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -40874,7 +40890,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -49379,10 +49395,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="P77" sqref="P77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49914,7 +49930,7 @@
       <c r="C64" s="88"/>
       <c r="D64" s="89"/>
     </row>
-    <row r="65" spans="3:27">
+    <row r="65" spans="3:30">
       <c r="D65" s="95" t="s">
         <v>35</v>
       </c>
@@ -49953,114 +49969,131 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="3:27">
+    <row r="66" spans="3:30">
       <c r="G66" s="129"/>
       <c r="M66" s="130"/>
       <c r="N66" s="130"/>
     </row>
-    <row r="70" spans="3:27" ht="28">
+    <row r="70" spans="3:30" ht="28">
       <c r="C70"/>
       <c r="D70" s="89" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="3:27" ht="28">
+    <row r="71" spans="3:30" ht="28">
       <c r="C71" s="88"/>
       <c r="D71" s="89"/>
     </row>
-    <row r="72" spans="3:27" ht="28">
+    <row r="72" spans="3:30" ht="28">
       <c r="C72" s="88"/>
       <c r="D72" s="89"/>
     </row>
-    <row r="73" spans="3:27" ht="28">
+    <row r="73" spans="3:30" ht="28">
       <c r="C73" s="88"/>
       <c r="D73" s="89"/>
     </row>
-    <row r="74" spans="3:27" ht="28">
+    <row r="74" spans="3:30" ht="28">
       <c r="C74" s="88"/>
       <c r="D74" s="89"/>
     </row>
-    <row r="75" spans="3:27" ht="28">
-      <c r="C75" s="88"/>
-      <c r="D75" s="89"/>
-    </row>
-    <row r="76" spans="3:27" s="96" customFormat="1" ht="119">
-      <c r="D76" s="127" t="s">
+    <row r="75" spans="3:30" s="96" customFormat="1" ht="119">
+      <c r="D75" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="127"/>
-      <c r="F76" s="127"/>
-      <c r="G76" s="127" t="s">
+      <c r="E75" s="127"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="H76" s="127"/>
-      <c r="I76" s="127"/>
-      <c r="J76" s="127"/>
-      <c r="K76" s="127"/>
-      <c r="L76" s="96" t="s">
+      <c r="H75" s="127"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="127"/>
+      <c r="L75" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="M76" s="96" t="s">
+      <c r="M75" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="N76" s="96" t="s">
+      <c r="N75" s="131" t="s">
         <v>270</v>
       </c>
-      <c r="O76" s="96" t="s">
+      <c r="O75" s="132" t="s">
         <v>274</v>
       </c>
-      <c r="P76" s="96" t="s">
+      <c r="P75" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="Q76" s="127" t="s">
+      <c r="Q75" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="R76" s="127"/>
-      <c r="S76" s="96" t="s">
+      <c r="R75" s="134"/>
+      <c r="S75" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="T76" s="96" t="s">
+      <c r="T75" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="U76" s="96" t="s">
+      <c r="U75" s="131" t="s">
         <v>278</v>
       </c>
-      <c r="V76" s="96" t="s">
+      <c r="V75" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="W76" s="96" t="s">
+      <c r="W75" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="X76" s="96" t="s">
+      <c r="X75" s="132" t="s">
         <v>230</v>
       </c>
-      <c r="Y76" s="90" t="s">
+      <c r="Y75" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="Z76" s="96" t="s">
+      <c r="Z75" s="95"/>
+      <c r="AA75" s="127" t="s">
         <v>272</v>
       </c>
-      <c r="AA76" s="96" t="s">
+      <c r="AB75" s="127"/>
+      <c r="AC75" s="127" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="77" spans="3:27">
-      <c r="M77" s="130"/>
-      <c r="N77" s="130"/>
-      <c r="P77" s="130"/>
-      <c r="R77" s="130"/>
-      <c r="S77" s="130"/>
-      <c r="T77" s="130"/>
-      <c r="U77" s="130"/>
+      <c r="AD75" s="127"/>
+    </row>
+    <row r="76" spans="3:30">
+      <c r="L76" s="133"/>
+      <c r="M76" s="130"/>
+      <c r="N76" s="130"/>
+      <c r="O76" s="133"/>
+      <c r="P76" s="130"/>
+      <c r="Q76" s="135"/>
+      <c r="R76" s="135"/>
+      <c r="S76" s="130"/>
+      <c r="T76" s="130"/>
+      <c r="U76" s="130"/>
+      <c r="V76" s="133"/>
+      <c r="W76" s="133"/>
+      <c r="X76" s="133"/>
+      <c r="Y76" s="136"/>
+      <c r="Z76" s="136"/>
+      <c r="AA76" s="136"/>
+      <c r="AB76" s="136"/>
+      <c r="AC76" s="136"/>
+      <c r="AD76" s="136"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA75:AB75"/>
+    <mergeCell ref="AA76:AB76"/>
+    <mergeCell ref="AC75:AD75"/>
+    <mergeCell ref="AC76:AD76"/>
     <mergeCell ref="O65:P65"/>
     <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="Q75:R75"/>
     <mergeCell ref="E57:I57"/>
-    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G75:K75"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="H65:K65"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9DE677-20C3-654D-859E-CBE224FBD62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E374E0C8-A9CE-4349-843F-F7D2D24A890A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-23040" windowWidth="40960" windowHeight="23040" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="ListStatus">'Identity ✍️'!$G$93:$G$100</definedName>
     <definedName name="Status" localSheetId="2">'Device ✍️'!$AD$3:$AK$3</definedName>
     <definedName name="Status">'Identity ✍️'!$AD$3:$AK$3</definedName>
-    <definedName name="Table_DeviceCompliancePolicies">'Device ⚙️'!$D$76</definedName>
+    <definedName name="Table_DeviceCompliancePolicies">'Device ⚙️'!$D$77</definedName>
     <definedName name="Table_EnrollmentDevicePlatformRestrictions">'Device ⚙️'!$D$66</definedName>
     <definedName name="Table_WindowsEnrollment">'Device ⚙️'!$D$58</definedName>
     <definedName name="WorkshopData" localSheetId="2">'Device ✍️'!$A$2:$AA$216</definedName>
@@ -1151,7 +1151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="282">
   <si>
     <t>Devices</t>
   </si>
@@ -1968,9 +1968,6 @@
     <t>Max OS version</t>
   </si>
   <si>
-    <t>Rooted devices</t>
-  </si>
-  <si>
     <t>Included groups</t>
   </si>
   <si>
@@ -1996,6 +1993,12 @@
   </si>
   <si>
     <t># of previous pswds to prevent reuse</t>
+  </si>
+  <si>
+    <t>Require Firewall</t>
+  </si>
+  <si>
+    <t>Rooted / Jailbroken  devices</t>
   </si>
 </sst>
 </file>
@@ -40962,15 +40965,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -41000,7 +41003,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="16383000"/>
+          <a:off x="685800" y="16167100"/>
           <a:ext cx="749300" cy="749300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -49395,9 +49398,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -49996,104 +49999,108 @@
       <c r="C74" s="88"/>
       <c r="D74" s="89"/>
     </row>
-    <row r="75" spans="3:30" s="96" customFormat="1" ht="119">
-      <c r="D75" s="127" t="s">
+    <row r="75" spans="3:30" ht="28">
+      <c r="C75" s="88"/>
+      <c r="D75" s="89"/>
+    </row>
+    <row r="76" spans="3:30" s="96" customFormat="1" ht="119">
+      <c r="D76" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="127"/>
-      <c r="F75" s="127"/>
-      <c r="G75" s="127" t="s">
+      <c r="E76" s="127"/>
+      <c r="F76" s="127"/>
+      <c r="G76" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="127"/>
-      <c r="I75" s="127"/>
-      <c r="J75" s="127"/>
-      <c r="K75" s="127"/>
-      <c r="L75" s="132" t="s">
+      <c r="H76" s="127"/>
+      <c r="I76" s="127"/>
+      <c r="J76" s="127"/>
+      <c r="K76" s="127"/>
+      <c r="L76" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="M75" s="131" t="s">
+      <c r="M76" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="N75" s="131" t="s">
+      <c r="N76" s="131" t="s">
         <v>270</v>
       </c>
-      <c r="O75" s="132" t="s">
+      <c r="O76" s="132" t="s">
+        <v>273</v>
+      </c>
+      <c r="P76" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="P75" s="131" t="s">
+      <c r="Q76" s="134" t="s">
         <v>275</v>
       </c>
-      <c r="Q75" s="134" t="s">
+      <c r="R76" s="134"/>
+      <c r="S76" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="R75" s="134"/>
-      <c r="S75" s="131" t="s">
+      <c r="T76" s="131" t="s">
+        <v>279</v>
+      </c>
+      <c r="U76" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="T75" s="131" t="s">
+      <c r="V76" s="132" t="s">
+        <v>278</v>
+      </c>
+      <c r="W76" s="132" t="s">
+        <v>281</v>
+      </c>
+      <c r="X76" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="U75" s="131" t="s">
-        <v>278</v>
-      </c>
-      <c r="V75" s="132" t="s">
-        <v>279</v>
-      </c>
-      <c r="W75" s="132" t="s">
+      <c r="Y76" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z76" s="95"/>
+      <c r="AA76" s="127" t="s">
         <v>271</v>
       </c>
-      <c r="X75" s="132" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y75" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z75" s="95"/>
-      <c r="AA75" s="127" t="s">
+      <c r="AB76" s="127"/>
+      <c r="AC76" s="127" t="s">
         <v>272</v>
       </c>
-      <c r="AB75" s="127"/>
-      <c r="AC75" s="127" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD75" s="127"/>
-    </row>
-    <row r="76" spans="3:30">
-      <c r="L76" s="133"/>
-      <c r="M76" s="130"/>
-      <c r="N76" s="130"/>
-      <c r="O76" s="133"/>
-      <c r="P76" s="130"/>
-      <c r="Q76" s="135"/>
-      <c r="R76" s="135"/>
-      <c r="S76" s="130"/>
-      <c r="T76" s="130"/>
-      <c r="U76" s="130"/>
-      <c r="V76" s="133"/>
-      <c r="W76" s="133"/>
-      <c r="X76" s="133"/>
-      <c r="Y76" s="136"/>
-      <c r="Z76" s="136"/>
-      <c r="AA76" s="136"/>
-      <c r="AB76" s="136"/>
-      <c r="AC76" s="136"/>
-      <c r="AD76" s="136"/>
+      <c r="AD76" s="127"/>
+    </row>
+    <row r="77" spans="3:30">
+      <c r="L77" s="133"/>
+      <c r="M77" s="130"/>
+      <c r="N77" s="130"/>
+      <c r="O77" s="133"/>
+      <c r="P77" s="130"/>
+      <c r="Q77" s="135"/>
+      <c r="R77" s="135"/>
+      <c r="S77" s="130"/>
+      <c r="T77" s="130"/>
+      <c r="U77" s="130"/>
+      <c r="V77" s="133"/>
+      <c r="W77" s="133"/>
+      <c r="X77" s="133"/>
+      <c r="Y77" s="136"/>
+      <c r="Z77" s="136"/>
+      <c r="AA77" s="136"/>
+      <c r="AB77" s="136"/>
+      <c r="AC77" s="136"/>
+      <c r="AD77" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Y75:Z75"/>
     <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA75:AB75"/>
+    <mergeCell ref="Y77:Z77"/>
     <mergeCell ref="AA76:AB76"/>
-    <mergeCell ref="AC75:AD75"/>
+    <mergeCell ref="AA77:AB77"/>
     <mergeCell ref="AC76:AD76"/>
+    <mergeCell ref="AC77:AD77"/>
     <mergeCell ref="O65:P65"/>
     <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="Q76:R76"/>
     <mergeCell ref="E57:I57"/>
-    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="G76:K76"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="H65:K65"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E374E0C8-A9CE-4349-843F-F7D2D24A890A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C1A109-F633-D648-B9B9-D3FD59FABDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-23040" windowWidth="40960" windowHeight="23040" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="ListStatus">'Identity ✍️'!$G$93:$G$100</definedName>
     <definedName name="Status" localSheetId="2">'Device ✍️'!$AD$3:$AK$3</definedName>
     <definedName name="Status">'Identity ✍️'!$AD$3:$AK$3</definedName>
-    <definedName name="Table_DeviceCompliancePolicies">'Device ⚙️'!$D$77</definedName>
+    <definedName name="Table_DeviceCompliancePolicies">'Device ⚙️'!$D$75</definedName>
     <definedName name="Table_EnrollmentDevicePlatformRestrictions">'Device ⚙️'!$D$66</definedName>
     <definedName name="Table_WindowsEnrollment">'Device ⚙️'!$D$58</definedName>
     <definedName name="WorkshopData" localSheetId="2">'Device ✍️'!$A$2:$AA$216</definedName>
@@ -1150,8 +1150,31 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="U74" authorId="0" shapeId="0" xr:uid="{E62AE457-C5BA-8C48-B372-F3450239150D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="34"/>
+          </rPr>
+          <t>Max minutes of inactivity before password is required</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="288">
   <si>
     <t>Devices</t>
   </si>
@@ -1959,6 +1982,9 @@
     <t>Compliance policies</t>
   </si>
   <si>
+    <t>Password type</t>
+  </si>
+  <si>
     <t>Defender for EndPoint</t>
   </si>
   <si>
@@ -1980,19 +2006,10 @@
     <t>Min pswd length</t>
   </si>
   <si>
-    <t>Pswd type</t>
-  </si>
-  <si>
     <t>Pswd expiry (days)</t>
   </si>
   <si>
-    <t>Max minutes of inactivity before pswd reqd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Require encryption </t>
-  </si>
-  <si>
-    <t># of previous pswds to prevent reuse</t>
   </si>
   <si>
     <t>Require Firewall</t>
@@ -2000,12 +2017,106 @@
   <si>
     <t>Rooted / Jailbroken  devices</t>
   </si>
+  <si>
+    <t>Max Device Threat Level</t>
+  </si>
+  <si>
+    <t>Max  inactivity (min)</t>
+  </si>
+  <si>
+    <t>Count of previous pswds to block</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t>Action for noncompliance (days)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI Semibold"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Push notification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve">Action for noncompliance (days) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI Semibold"/>
+      </rPr>
+      <t xml:space="preserve">
+Send email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve">Action for noncompliance (days) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI Semibold"/>
+      </rPr>
+      <t xml:space="preserve">
+Remote lock</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve">Action for noncompliance (days) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI Semibold"/>
+      </rPr>
+      <t xml:space="preserve">
+Block</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+      </rPr>
+      <t xml:space="preserve">Action for noncompliance (days) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI Semibold"/>
+      </rPr>
+      <t xml:space="preserve">
+Retire</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="47">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2280,8 +2391,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI Semibold"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="34"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2405,8 +2535,32 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2705,6 +2859,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2714,7 +2896,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2928,19 +3110,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3034,32 +3203,80 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -4504,6 +4721,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD883FF"/>
+      <color rgb="FFFF7E79"/>
       <color rgb="FF929292"/>
       <color rgb="FF76FC79"/>
       <color rgb="FFBADC6A"/>
@@ -4512,7 +4731,6 @@
       <color rgb="FFCFE2FD"/>
       <color rgb="FF000000"/>
       <color rgb="FF424579"/>
-      <color rgb="FF005493"/>
     </mruColors>
   </colors>
   <extLst>
@@ -40759,10 +40977,10 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -40778,7 +40996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1727200" y="14427200"/>
-          <a:ext cx="6362700" cy="711200"/>
+          <a:ext cx="14846300" cy="444500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -40809,7 +41027,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0">
+            <a:rPr lang="en-AU" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -40884,16 +41102,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -40908,8 +41126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1727200" y="16510000"/>
-          <a:ext cx="6362700" cy="711200"/>
+          <a:off x="1663700" y="16510000"/>
+          <a:ext cx="15506700" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -40940,7 +41158,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-AU" sz="1100" b="0" i="0">
+            <a:rPr lang="en-AU" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -40949,14 +41167,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Device enrollment restrict`ions let you restrict devices from enrolling in Intune based on certain device attributes. Device platform restrictions restrict devices based on device platform, version, manufacturer, or ownership type.</a:t>
+            <a:t>Device enrollment restrictions let you restrict devices from enrolling in Intune based on certain device attributes. Device platform restrictions restrict devices based on device platform, version, manufacturer, or ownership type.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en-AU" sz="1200"/>
-          </a:br>
-          <a:endParaRPr lang="en-GB" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -40965,23 +41177,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>427900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>21500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Graphic 24">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        <xdr:cNvPr id="21" name="Graphic 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD04B18-E8A6-CF40-9973-A8DD8C7B565C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C95CCE-2BF4-9351-5471-6278CED598E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40993,7 +41204,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -41003,8 +41214,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="16167100"/>
-          <a:ext cx="749300" cy="749300"/>
+          <a:off x="723900" y="16408400"/>
+          <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -43155,27 +43366,27 @@
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
       <c r="V5" s="33"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
       <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -46598,7 +46809,7 @@
   <dimension ref="A1:AK154"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -46765,27 +46976,27 @@
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
       <c r="Q5" s="60"/>
       <c r="R5" s="60"/>
       <c r="S5" s="60"/>
       <c r="T5" s="60"/>
       <c r="U5" s="60"/>
       <c r="V5" s="59"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
       <c r="AA5" s="52"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -49397,11 +49608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
-  <dimension ref="A1:AF77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
+  <dimension ref="A1:AO75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49904,17 +50115,17 @@
       <c r="D57" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="95" t="s">
+      <c r="E57" s="149" t="s">
         <v>251</v>
       </c>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95" t="s">
+      <c r="F57" s="149"/>
+      <c r="G57" s="149"/>
+      <c r="H57" s="149"/>
+      <c r="I57" s="149"/>
+      <c r="J57" s="149" t="s">
         <v>253</v>
       </c>
-      <c r="K57" s="95"/>
+      <c r="K57" s="149"/>
       <c r="L57" s="90" t="s">
         <v>254</v>
       </c>
@@ -49933,21 +50144,21 @@
       <c r="C64" s="88"/>
       <c r="D64" s="89"/>
     </row>
-    <row r="65" spans="3:30">
-      <c r="D65" s="95" t="s">
+    <row r="65" spans="3:41">
+      <c r="D65" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
+      <c r="E65" s="149"/>
+      <c r="F65" s="149"/>
       <c r="G65" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="H65" s="95" t="s">
+      <c r="H65" s="149" t="s">
         <v>251</v>
       </c>
-      <c r="I65" s="95"/>
-      <c r="J65" s="95"/>
-      <c r="K65" s="95"/>
+      <c r="I65" s="149"/>
+      <c r="J65" s="149"/>
+      <c r="K65" s="149"/>
       <c r="L65" s="90" t="s">
         <v>260</v>
       </c>
@@ -49957,14 +50168,14 @@
       <c r="N65" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="O65" s="128" t="s">
+      <c r="O65" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="P65" s="128"/>
-      <c r="Q65" s="95" t="s">
+      <c r="P65" s="149"/>
+      <c r="Q65" s="149" t="s">
         <v>266</v>
       </c>
-      <c r="R65" s="95"/>
+      <c r="R65" s="149"/>
       <c r="S65" s="90" t="s">
         <v>264</v>
       </c>
@@ -49972,142 +50183,190 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="3:30">
-      <c r="G66" s="129"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="130"/>
-    </row>
-    <row r="70" spans="3:30" ht="28">
+    <row r="66" spans="3:41">
+      <c r="G66" s="122"/>
+      <c r="M66" s="123"/>
+      <c r="N66" s="123"/>
+    </row>
+    <row r="67" spans="3:41" ht="17" customHeight="1"/>
+    <row r="70" spans="3:41" ht="28">
       <c r="C70"/>
       <c r="D70" s="89" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="3:30" ht="28">
+    <row r="71" spans="3:41" ht="16" customHeight="1">
       <c r="C71" s="88"/>
       <c r="D71" s="89"/>
     </row>
-    <row r="72" spans="3:30" ht="28">
+    <row r="72" spans="3:41" ht="16" customHeight="1">
       <c r="C72" s="88"/>
       <c r="D72" s="89"/>
     </row>
-    <row r="73" spans="3:30" ht="28">
+    <row r="73" spans="3:41" ht="16" customHeight="1">
       <c r="C73" s="88"/>
       <c r="D73" s="89"/>
     </row>
-    <row r="74" spans="3:30" ht="28">
-      <c r="C74" s="88"/>
-      <c r="D74" s="89"/>
-    </row>
-    <row r="75" spans="3:30" ht="28">
-      <c r="C75" s="88"/>
-      <c r="D75" s="89"/>
-    </row>
-    <row r="76" spans="3:30" s="96" customFormat="1" ht="119">
-      <c r="D76" s="127" t="s">
+    <row r="74" spans="3:41" s="91" customFormat="1" ht="68">
+      <c r="D74" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="127"/>
-      <c r="F76" s="127"/>
-      <c r="G76" s="127" t="s">
+      <c r="E74" s="150"/>
+      <c r="F74" s="150"/>
+      <c r="G74" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="H76" s="127"/>
-      <c r="I76" s="127"/>
-      <c r="J76" s="127"/>
-      <c r="K76" s="127"/>
-      <c r="L76" s="132" t="s">
+      <c r="H74" s="150"/>
+      <c r="I74" s="150"/>
+      <c r="J74" s="150"/>
+      <c r="K74" s="150"/>
+      <c r="L74" s="124" t="s">
+        <v>269</v>
+      </c>
+      <c r="M74" s="125" t="s">
+        <v>270</v>
+      </c>
+      <c r="N74" s="125" t="s">
+        <v>271</v>
+      </c>
+      <c r="O74" s="126" t="s">
+        <v>274</v>
+      </c>
+      <c r="P74" s="125" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q74" s="151" t="s">
         <v>268</v>
       </c>
-      <c r="M76" s="131" t="s">
-        <v>269</v>
-      </c>
-      <c r="N76" s="131" t="s">
-        <v>270</v>
-      </c>
-      <c r="O76" s="132" t="s">
+      <c r="R74" s="151"/>
+      <c r="S74" s="125" t="s">
+        <v>276</v>
+      </c>
+      <c r="T74" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="U74" s="125" t="s">
+        <v>281</v>
+      </c>
+      <c r="V74" s="127" t="s">
+        <v>277</v>
+      </c>
+      <c r="W74" s="127" t="s">
+        <v>279</v>
+      </c>
+      <c r="X74" s="127" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y74" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z74" s="145" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA74" s="145"/>
+      <c r="AB74" s="145" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC74" s="145"/>
+      <c r="AD74" s="145" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE74" s="145"/>
+      <c r="AF74" s="145" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG74" s="145"/>
+      <c r="AH74" s="145" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI74" s="145"/>
+      <c r="AJ74" s="144" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK74" s="144"/>
+      <c r="AL74" s="143" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM74" s="143"/>
+      <c r="AN74" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="P76" s="131" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q76" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="R76" s="134"/>
-      <c r="S76" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="T76" s="131" t="s">
-        <v>279</v>
-      </c>
-      <c r="U76" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="V76" s="132" t="s">
-        <v>278</v>
-      </c>
-      <c r="W76" s="132" t="s">
-        <v>281</v>
-      </c>
-      <c r="X76" s="132" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y76" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z76" s="95"/>
-      <c r="AA76" s="127" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB76" s="127"/>
-      <c r="AC76" s="127" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD76" s="127"/>
-    </row>
-    <row r="77" spans="3:30">
-      <c r="L77" s="133"/>
-      <c r="M77" s="130"/>
-      <c r="N77" s="130"/>
-      <c r="O77" s="133"/>
-      <c r="P77" s="130"/>
-      <c r="Q77" s="135"/>
-      <c r="R77" s="135"/>
-      <c r="S77" s="130"/>
-      <c r="T77" s="130"/>
-      <c r="U77" s="130"/>
-      <c r="V77" s="133"/>
-      <c r="W77" s="133"/>
-      <c r="X77" s="133"/>
-      <c r="Y77" s="136"/>
-      <c r="Z77" s="136"/>
-      <c r="AA77" s="136"/>
-      <c r="AB77" s="136"/>
-      <c r="AC77" s="136"/>
-      <c r="AD77" s="136"/>
+      <c r="AO74" s="143"/>
+    </row>
+    <row r="75" spans="3:41">
+      <c r="D75" s="137"/>
+      <c r="E75" s="138"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="141"/>
+      <c r="I75" s="141"/>
+      <c r="J75" s="141"/>
+      <c r="K75" s="142"/>
+      <c r="L75" s="128"/>
+      <c r="M75" s="129"/>
+      <c r="N75" s="129"/>
+      <c r="O75" s="130"/>
+      <c r="P75" s="129"/>
+      <c r="Q75" s="131"/>
+      <c r="R75" s="131"/>
+      <c r="S75" s="129"/>
+      <c r="T75" s="129"/>
+      <c r="U75" s="129"/>
+      <c r="V75" s="132"/>
+      <c r="W75" s="132"/>
+      <c r="X75" s="132"/>
+      <c r="Y75" s="132"/>
+      <c r="Z75" s="146"/>
+      <c r="AA75" s="146"/>
+      <c r="AB75" s="146"/>
+      <c r="AC75" s="146"/>
+      <c r="AD75" s="146"/>
+      <c r="AE75" s="146"/>
+      <c r="AF75" s="146"/>
+      <c r="AG75" s="146"/>
+      <c r="AH75" s="146"/>
+      <c r="AI75" s="146"/>
+      <c r="AJ75" s="148"/>
+      <c r="AK75" s="148"/>
+      <c r="AL75" s="147"/>
+      <c r="AM75" s="147"/>
+      <c r="AN75" s="147"/>
+      <c r="AO75" s="147"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA76:AB76"/>
-    <mergeCell ref="AA77:AB77"/>
-    <mergeCell ref="AC76:AD76"/>
-    <mergeCell ref="AC77:AD77"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="Q76:R76"/>
+  <mergeCells count="27">
     <mergeCell ref="E57:I57"/>
-    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G74:K74"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="H65:K65"/>
+    <mergeCell ref="AF75:AG75"/>
+    <mergeCell ref="AH75:AI75"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="AL74:AM74"/>
+    <mergeCell ref="AN74:AO74"/>
+    <mergeCell ref="AJ74:AK74"/>
+    <mergeCell ref="AH74:AI74"/>
+    <mergeCell ref="AF74:AG74"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="AB74:AC74"/>
+    <mergeCell ref="Z74:AA74"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="AB75:AC75"/>
+    <mergeCell ref="AD75:AE75"/>
+    <mergeCell ref="AN75:AO75"/>
+    <mergeCell ref="AL75:AM75"/>
+    <mergeCell ref="AJ75:AK75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -50526,552 +50785,552 @@
       <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
     </row>
     <row r="10" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99" t="s">
         <v>256</v>
       </c>
       <c r="F10" s="80"/>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105" t="s">
+      <c r="H10" s="100"/>
+      <c r="I10" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="106"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="101"/>
     </row>
     <row r="11" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="81"/>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107" t="s">
+      <c r="H11" s="102"/>
+      <c r="I11" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="103"/>
     </row>
     <row r="12" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="82"/>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109" t="s">
+      <c r="H12" s="104"/>
+      <c r="I12" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="105"/>
     </row>
     <row r="13" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="113"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
     </row>
     <row r="14" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="80"/>
-      <c r="G14" s="105" t="s">
+      <c r="G14" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105" t="s">
+      <c r="H14" s="100"/>
+      <c r="I14" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="106"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="101"/>
     </row>
     <row r="15" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="81"/>
-      <c r="G15" s="107" t="s">
+      <c r="G15" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107" t="s">
+      <c r="H15" s="102"/>
+      <c r="I15" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="103"/>
     </row>
     <row r="16" spans="1:32" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="83"/>
-      <c r="G16" s="107" t="s">
+      <c r="G16" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107" t="s">
+      <c r="H16" s="102"/>
+      <c r="I16" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="108"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
     </row>
     <row r="17" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="82"/>
-      <c r="G17" s="109" t="s">
+      <c r="G17" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109" t="s">
+      <c r="H17" s="104"/>
+      <c r="I17" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="105"/>
     </row>
     <row r="18" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="78"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="113"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
     </row>
     <row r="19" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="113"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="108"/>
     </row>
     <row r="20" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
       <c r="F20" s="80"/>
-      <c r="G20" s="105" t="s">
+      <c r="G20" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105" t="s">
+      <c r="H20" s="100"/>
+      <c r="I20" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="101"/>
     </row>
     <row r="21" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="83"/>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107" t="s">
+      <c r="H21" s="102"/>
+      <c r="I21" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="103"/>
     </row>
     <row r="22" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="83"/>
-      <c r="G22" s="107" t="s">
+      <c r="G22" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107" t="s">
+      <c r="H22" s="102"/>
+      <c r="I22" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="103"/>
     </row>
     <row r="23" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="107" t="s">
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107" t="s">
+      <c r="H23" s="102"/>
+      <c r="I23" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="103"/>
     </row>
     <row r="24" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
       <c r="F24" s="83"/>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107" t="s">
+      <c r="H24" s="102"/>
+      <c r="I24" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="107"/>
-      <c r="K24" s="108"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="103"/>
     </row>
     <row r="25" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="109" t="s">
+      <c r="G25" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109" t="s">
+      <c r="H25" s="104"/>
+      <c r="I25" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="105"/>
     </row>
     <row r="26" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="113"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="108"/>
     </row>
     <row r="27" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
       <c r="F27" s="80"/>
-      <c r="G27" s="105" t="s">
+      <c r="G27" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="106"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="101"/>
     </row>
     <row r="28" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
       <c r="F28" s="83"/>
-      <c r="G28" s="107" t="s">
+      <c r="G28" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="119"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114"/>
     </row>
     <row r="29" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="83"/>
-      <c r="G29" s="107" t="s">
+      <c r="G29" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="108"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="103"/>
     </row>
     <row r="30" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="85"/>
-      <c r="G30" s="109" t="s">
+      <c r="G30" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="110"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="105"/>
     </row>
     <row r="31" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="113"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108"/>
     </row>
     <row r="32" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
       <c r="F32" s="86"/>
-      <c r="G32" s="105" t="s">
+      <c r="G32" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="106"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="101"/>
     </row>
     <row r="33" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
       <c r="F33" s="87"/>
-      <c r="G33" s="107" t="s">
+      <c r="G33" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="108"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="103"/>
     </row>
     <row r="34" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
       <c r="F34" s="81"/>
-      <c r="G34" s="107" t="s">
+      <c r="G34" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="108"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="103"/>
     </row>
     <row r="35" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B35" s="114"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
       <c r="F35" s="82"/>
-      <c r="G35" s="109" t="s">
+      <c r="G35" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="110"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="105"/>
     </row>
     <row r="36" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="124"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="119"/>
     </row>
     <row r="37" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="113"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="108"/>
     </row>
     <row r="38" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
       <c r="F38" s="80"/>
-      <c r="G38" s="105" t="s">
+      <c r="G38" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="106"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="101"/>
     </row>
     <row r="39" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
       <c r="F39" s="87"/>
-      <c r="G39" s="107" t="s">
+      <c r="G39" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="108"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B40" s="114"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="87"/>
-      <c r="G40" s="107" t="s">
+      <c r="G40" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="108"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B41" s="114"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="108"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B42" s="114"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="108"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="103"/>
     </row>
     <row r="43" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B43" s="114"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="108"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="103"/>
     </row>
     <row r="44" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B44" s="114"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="103"/>
     </row>
     <row r="45" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="108"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="103"/>
     </row>
     <row r="46" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
-      <c r="B46" s="125"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="110"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="105"/>
     </row>
     <row r="47" spans="2:11" s="72" customFormat="1" ht="26" customHeight="1">
       <c r="F47" s="79"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63455D-7586-4D4E-9A79-0B62DCF6A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7C88C8-97F8-F845-99CB-8AB82A7896D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="710" activeTab="4" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="-30780" yWindow="-18040" windowWidth="28800" windowHeight="18000" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,17 @@
   </sheets>
   <definedNames>
     <definedName name="CH00001_WindowsEnrollment">'Device ☑️'!$F$10</definedName>
-    <definedName name="CH00002_DeviceEnrollment_Android">'Device ☑️'!$F$27</definedName>
-    <definedName name="CH00003_DeviceEnrollment_Windows">'Device ☑️'!$F$28</definedName>
-    <definedName name="CH00004_DeviceEnrollment_iOS">'Device ☑️'!$F$29</definedName>
-    <definedName name="CH00005_DeviceEnrollment_macOS">'Device ☑️'!$F$30</definedName>
+    <definedName name="CH00002_DeviceEnrollment_Android">'Device ☑️'!$F$30</definedName>
+    <definedName name="CH00003_DeviceEnrollment_Windows">'Device ☑️'!$F$31</definedName>
+    <definedName name="CH00004_DeviceEnrollment_iOS">'Device ☑️'!$F$32</definedName>
+    <definedName name="CH00005_DeviceEnrollment_macOS">'Device ☑️'!$F$33</definedName>
+    <definedName name="CH00006_DeviceCompliance_Android_AOSP">'Device ☑️'!$F$20</definedName>
+    <definedName name="CH00007_DeviceCompliance_Android_DeviceAdmin">'Device ☑️'!$F$21</definedName>
+    <definedName name="CH00008_DeviceCompliance_Android_EntCorp">'Device ☑️'!$F$22</definedName>
+    <definedName name="CH00009_DeviceCompliance_Android_EntPersonal">'Device ☑️'!$F$23</definedName>
+    <definedName name="CH00009_DeviceCompliance_iOS">'Device ☑️'!$F$24</definedName>
+    <definedName name="CH00009_DeviceCompliance_macOS">'Device ☑️'!$F$25</definedName>
+    <definedName name="CH00009_DeviceCompliance_Windows">'Device ☑️'!$F$26</definedName>
     <definedName name="HeaderAssessedOn">Home!$E$7</definedName>
     <definedName name="HeaderTenantId">Home!$E$5</definedName>
     <definedName name="HeaderTitle">Home!$E$3</definedName>
@@ -1174,7 +1181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="254">
   <si>
     <t>Devices: Info</t>
   </si>
@@ -1233,22 +1240,10 @@
     <t>Device compliance policies to ensure devices meet minimum requirements</t>
   </si>
   <si>
-    <t>Configure compliance policies for Android Enterprise - Fully managed</t>
-  </si>
-  <si>
-    <t>Configure compliance policies for Android Enterprise - personally owned Work profile</t>
-  </si>
-  <si>
     <t>Configure actions for non-compliant devices</t>
   </si>
   <si>
-    <t>Compliance policies for iOS</t>
-  </si>
-  <si>
     <t>Compliance policies for macOS</t>
-  </si>
-  <si>
-    <t>Compliance policies for Windows</t>
   </si>
   <si>
     <t>Configure Enrollment restrictions</t>
@@ -2002,6 +1997,24 @@
       <t xml:space="preserve">
 Retire</t>
     </r>
+  </si>
+  <si>
+    <t>Compliance policies for iOS / iPadOS</t>
+  </si>
+  <si>
+    <t>Configure compliance policies for Android (AOSP)</t>
+  </si>
+  <si>
+    <t>Configure compliance policies for Android device administrator</t>
+  </si>
+  <si>
+    <t>Configure compliance policies for Android Enterprise (Fully managed and corporate owned work profile)</t>
+  </si>
+  <si>
+    <t>Configure compliance policies for Android Enterprise (Personally-owned work profile)</t>
+  </si>
+  <si>
+    <t>Compliance policies for Windows 10 and later</t>
   </si>
 </sst>
 </file>
@@ -42404,7 +42417,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
@@ -42464,7 +42477,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
       <c r="E5" s="61" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
@@ -42524,7 +42537,7 @@
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
       <c r="E7" s="61" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
@@ -42706,7 +42719,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
       <c r="F3" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -42730,31 +42743,31 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="5"/>
       <c r="AC3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AH3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AI3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AJ3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AK3" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK3" s="22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="11" customHeight="1">
@@ -42927,21 +42940,21 @@
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J11" s="29"/>
       <c r="L11" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="32"/>
       <c r="R11" s="37" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
@@ -42958,21 +42971,21 @@
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="G12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J12" s="29"/>
       <c r="L12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
@@ -42998,17 +43011,17 @@
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="G14" s="36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J14" s="29"/>
       <c r="L14" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
@@ -43024,17 +43037,17 @@
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="G15" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J15" s="29"/>
       <c r="L15" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="35"/>
       <c r="R15"/>
@@ -43059,23 +43072,23 @@
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
       <c r="G17" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J17" s="29"/>
       <c r="L17" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="R17" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="T17" s="31" t="s">
-        <v>61</v>
       </c>
       <c r="V17" s="29"/>
     </row>
@@ -43086,23 +43099,23 @@
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
       <c r="G18" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J18" s="29"/>
       <c r="L18" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T18" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V18" s="29"/>
     </row>
@@ -43122,23 +43135,23 @@
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
       <c r="G20" s="30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J20" s="29"/>
       <c r="L20" s="37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P20" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="37" t="s">
         <v>65</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="T20" s="37" t="s">
-        <v>69</v>
       </c>
       <c r="V20" s="29"/>
     </row>
@@ -43149,23 +43162,23 @@
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
       <c r="G21" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J21" s="29"/>
       <c r="L21" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V21" s="29"/>
     </row>
@@ -43204,24 +43217,24 @@
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="G24" s="40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J24" s="29"/>
       <c r="L24" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V24" s="29"/>
       <c r="X24" s="37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z24" s="33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -43231,24 +43244,24 @@
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="G25" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J25" s="29"/>
       <c r="L25" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V25" s="29"/>
       <c r="X25" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Z25" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -43267,28 +43280,28 @@
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
       <c r="G27" s="36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J27" s="29"/>
       <c r="L27" s="36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P27" s="36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="38"/>
       <c r="R27" s="36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="38"/>
       <c r="V27" s="29"/>
       <c r="X27" s="37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -43298,28 +43311,28 @@
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
       <c r="G28" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J28" s="29"/>
       <c r="L28" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
       <c r="V28" s="29"/>
       <c r="X28" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -43340,19 +43353,19 @@
       <c r="G30"/>
       <c r="J30" s="29"/>
       <c r="L30" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="T30" s="40" t="s">
         <v>80</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="P30" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="R30" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="T30" s="40" t="s">
-        <v>84</v>
       </c>
       <c r="V30" s="29"/>
     </row>
@@ -43365,19 +43378,19 @@
       <c r="G31"/>
       <c r="J31" s="29"/>
       <c r="L31" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N31" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P31" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R31" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V31" s="29"/>
     </row>
@@ -43398,13 +43411,13 @@
       <c r="E33" s="29"/>
       <c r="J33" s="29"/>
       <c r="L33" s="30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P33" s="40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="R33"/>
       <c r="S33"/>
@@ -43419,13 +43432,13 @@
       <c r="E34" s="29"/>
       <c r="J34" s="29"/>
       <c r="L34" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P34" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R34"/>
       <c r="S34"/>
@@ -43450,20 +43463,20 @@
       <c r="G36"/>
       <c r="J36" s="29"/>
       <c r="L36" s="40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N36" s="30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P36" s="30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R36" s="30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V36" s="29"/>
       <c r="X36" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -43475,20 +43488,20 @@
       <c r="G37"/>
       <c r="J37" s="29"/>
       <c r="L37" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N37" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P37" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R37" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V37" s="29"/>
       <c r="X37" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -43509,10 +43522,10 @@
       <c r="G39"/>
       <c r="J39" s="29"/>
       <c r="L39" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U39" s="38"/>
       <c r="V39" s="29"/>
@@ -43526,10 +43539,10 @@
       <c r="G40"/>
       <c r="J40" s="29"/>
       <c r="L40" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P40"/>
       <c r="U40" s="35"/>
@@ -43554,20 +43567,20 @@
       <c r="G42"/>
       <c r="J42" s="29"/>
       <c r="L42" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N42" s="30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P42" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R42" s="40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="V42" s="29"/>
       <c r="X42" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -43579,20 +43592,20 @@
       <c r="G43"/>
       <c r="J43" s="29"/>
       <c r="L43" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P43" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R43" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V43" s="29"/>
       <c r="X43" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="30" customHeight="1">
@@ -43620,21 +43633,21 @@
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="G46" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J46" s="29"/>
       <c r="L46" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N46" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q46"/>
       <c r="R46" s="40" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="V46" s="29"/>
     </row>
@@ -43645,21 +43658,21 @@
       <c r="D47" s="28"/>
       <c r="E47" s="29"/>
       <c r="G47" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J47" s="29"/>
       <c r="L47" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N47" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q47"/>
       <c r="R47" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V47" s="29"/>
     </row>
@@ -43684,10 +43697,10 @@
       <c r="G49"/>
       <c r="J49" s="29"/>
       <c r="L49" s="40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N49" s="30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="R49"/>
       <c r="V49" s="29"/>
@@ -43701,10 +43714,10 @@
       <c r="G50"/>
       <c r="J50" s="29"/>
       <c r="L50" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N50" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R50"/>
       <c r="V50" s="29"/>
@@ -43734,14 +43747,14 @@
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
       <c r="G53" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J53" s="29"/>
       <c r="L53" s="40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N53" s="36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P53"/>
       <c r="R53"/>
@@ -43754,14 +43767,14 @@
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
       <c r="G54" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J54" s="29"/>
       <c r="L54" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N54" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P54"/>
       <c r="R54"/>
@@ -43783,14 +43796,14 @@
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
       <c r="G56" s="40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J56" s="29"/>
       <c r="L56" s="36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
@@ -43804,14 +43817,14 @@
       <c r="D57" s="28"/>
       <c r="E57" s="29"/>
       <c r="G57" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J57" s="29"/>
       <c r="L57" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N57" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
@@ -43834,11 +43847,11 @@
       <c r="D59" s="28"/>
       <c r="E59" s="29"/>
       <c r="G59" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J59" s="29"/>
       <c r="L59" s="30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -43853,11 +43866,11 @@
       <c r="D60" s="28"/>
       <c r="E60" s="29"/>
       <c r="G60" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J60" s="29"/>
       <c r="L60" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
@@ -43881,21 +43894,21 @@
       <c r="D62" s="28"/>
       <c r="E62" s="29"/>
       <c r="G62" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J62" s="29"/>
       <c r="L62" s="41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N62" s="36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P62" s="36" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q62"/>
       <c r="R62" s="41" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="V62" s="29"/>
     </row>
@@ -43906,21 +43919,21 @@
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
       <c r="G63" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J63" s="29"/>
       <c r="L63" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P63" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q63"/>
       <c r="R63" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V63" s="29"/>
     </row>
@@ -43942,7 +43955,7 @@
       <c r="G65"/>
       <c r="J65" s="29"/>
       <c r="L65" s="40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -43960,7 +43973,7 @@
       <c r="G66"/>
       <c r="J66" s="29"/>
       <c r="L66" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -43988,17 +44001,17 @@
       <c r="E68" s="29"/>
       <c r="F68"/>
       <c r="G68" s="30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J68" s="29"/>
       <c r="L68" s="30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N68" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P68" s="36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R68"/>
       <c r="V68" s="29"/>
@@ -44010,17 +44023,17 @@
       <c r="D69" s="28"/>
       <c r="E69" s="29"/>
       <c r="G69" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J69" s="29"/>
       <c r="L69" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N69" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P69" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R69"/>
       <c r="V69" s="29"/>
@@ -44042,13 +44055,13 @@
       <c r="E71" s="29"/>
       <c r="J71" s="29"/>
       <c r="L71" s="40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N71" s="40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P71" s="40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R71"/>
       <c r="V71" s="29"/>
@@ -44061,13 +44074,13 @@
       <c r="E72" s="29"/>
       <c r="J72" s="29"/>
       <c r="L72" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N72" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P72" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="29"/>
@@ -46316,7 +46329,7 @@
       <c r="D3" s="44"/>
       <c r="E3" s="43"/>
       <c r="F3" s="45" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G3" s="46"/>
       <c r="H3" s="43"/>
@@ -46340,31 +46353,31 @@
       <c r="Z3" s="43"/>
       <c r="AA3" s="42"/>
       <c r="AC3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AH3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AI3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AJ3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AK3" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK3" s="22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="11" customHeight="1">
@@ -46538,13 +46551,13 @@
       <c r="E11" s="29"/>
       <c r="J11" s="29"/>
       <c r="L11" s="52" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
@@ -46553,10 +46566,10 @@
       <c r="U11" s="32"/>
       <c r="V11" s="29"/>
       <c r="X11" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Z11" s="52" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1">
@@ -46568,13 +46581,13 @@
       <c r="G12" s="35"/>
       <c r="J12" s="29"/>
       <c r="L12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
@@ -46583,10 +46596,10 @@
       <c r="U12" s="35"/>
       <c r="V12" s="29"/>
       <c r="X12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z12" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="30" customHeight="1">
@@ -46614,17 +46627,17 @@
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="G15" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J15" s="29"/>
       <c r="L15" s="30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
@@ -46640,17 +46653,17 @@
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
       <c r="G16" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J16" s="29"/>
       <c r="L16" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="35"/>
       <c r="R16"/>
@@ -46675,7 +46688,7 @@
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
       <c r="G18" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J18" s="29"/>
       <c r="V18" s="29"/>
@@ -46687,7 +46700,7 @@
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
       <c r="G19" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J19" s="29"/>
       <c r="V19" s="29"/>
@@ -46709,16 +46722,16 @@
       <c r="E21" s="29"/>
       <c r="J21" s="29"/>
       <c r="N21" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P21" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R21" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="T21" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="V21" s="29"/>
     </row>
@@ -46730,16 +46743,16 @@
       <c r="E22" s="29"/>
       <c r="J22" s="29"/>
       <c r="N22" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T22" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V22" s="29"/>
     </row>
@@ -46759,11 +46772,11 @@
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="G24" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J24" s="29"/>
       <c r="L24" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V24" s="29"/>
     </row>
@@ -46774,11 +46787,11 @@
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="G25" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J25" s="29"/>
       <c r="L25" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V25" s="29"/>
     </row>
@@ -46816,17 +46829,17 @@
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
       <c r="G29" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J29" s="29"/>
       <c r="L29" s="30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P29" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
@@ -46842,17 +46855,17 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
       <c r="G30" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J30" s="29"/>
       <c r="L30" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="35"/>
       <c r="R30"/>
@@ -46877,7 +46890,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
       <c r="G32" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J32" s="29"/>
       <c r="V32" s="29"/>
@@ -46889,7 +46902,7 @@
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
       <c r="G33" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J33" s="29"/>
       <c r="V33" s="29"/>
@@ -46911,16 +46924,16 @@
       <c r="E35" s="29"/>
       <c r="J35" s="29"/>
       <c r="N35" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P35" s="40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R35" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="T35" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="V35" s="29"/>
     </row>
@@ -46932,16 +46945,16 @@
       <c r="E36" s="29"/>
       <c r="J36" s="29"/>
       <c r="N36" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P36" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R36" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T36" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V36" s="29"/>
     </row>
@@ -46961,11 +46974,11 @@
       <c r="D38" s="28"/>
       <c r="E38" s="29"/>
       <c r="G38" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J38" s="29"/>
       <c r="L38" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V38" s="29"/>
     </row>
@@ -46976,11 +46989,11 @@
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
       <c r="G39" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J39" s="29"/>
       <c r="L39" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V39" s="29"/>
     </row>
@@ -47018,14 +47031,14 @@
       <c r="D43" s="28"/>
       <c r="E43" s="29"/>
       <c r="G43" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J43" s="29"/>
       <c r="N43" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P43" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U43" s="38"/>
       <c r="V43" s="29"/>
@@ -47037,14 +47050,14 @@
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
       <c r="G44" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J44" s="29"/>
       <c r="N44" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U44"/>
       <c r="V44" s="29"/>
@@ -47065,17 +47078,17 @@
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="G46" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J46" s="29"/>
       <c r="N46" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R46" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V46" s="29"/>
     </row>
@@ -47086,17 +47099,17 @@
       <c r="D47" s="28"/>
       <c r="E47" s="29"/>
       <c r="G47" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J47" s="29"/>
       <c r="N47" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R47" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V47" s="29"/>
     </row>
@@ -47116,17 +47129,17 @@
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
       <c r="G49" s="40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J49" s="29"/>
       <c r="N49" s="30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P49" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="R49" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V49" s="29"/>
     </row>
@@ -47137,17 +47150,17 @@
       <c r="D50" s="28"/>
       <c r="E50" s="29"/>
       <c r="G50" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J50" s="29"/>
       <c r="N50" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R50" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V50" s="29"/>
     </row>
@@ -47172,10 +47185,10 @@
       <c r="G52"/>
       <c r="J52" s="29"/>
       <c r="N52" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P52" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R52"/>
       <c r="V52" s="29"/>
@@ -47189,10 +47202,10 @@
       <c r="G53"/>
       <c r="J53" s="29"/>
       <c r="N53" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P53" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R53"/>
       <c r="V53" s="29"/>
@@ -47214,10 +47227,10 @@
       <c r="E55" s="29"/>
       <c r="J55" s="29"/>
       <c r="N55" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P55" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="R55"/>
       <c r="V55" s="29"/>
@@ -47230,10 +47243,10 @@
       <c r="E56" s="29"/>
       <c r="J56" s="29"/>
       <c r="N56" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R56"/>
       <c r="V56" s="29"/>
@@ -47255,13 +47268,13 @@
       <c r="E58" s="29"/>
       <c r="J58" s="29"/>
       <c r="N58" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P58" s="30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="R58" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="V58" s="29"/>
     </row>
@@ -47273,13 +47286,13 @@
       <c r="E59" s="29"/>
       <c r="J59" s="29"/>
       <c r="N59" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P59" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R59" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V59" s="29"/>
     </row>
@@ -47317,14 +47330,14 @@
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
       <c r="G63" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J63" s="29"/>
       <c r="N63" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P63" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U63" s="38"/>
       <c r="V63" s="29"/>
@@ -47336,14 +47349,14 @@
       <c r="D64" s="28"/>
       <c r="E64" s="29"/>
       <c r="G64" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J64" s="29"/>
       <c r="N64" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P64" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U64" s="35"/>
       <c r="V64" s="29"/>
@@ -47364,17 +47377,17 @@
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
       <c r="G66" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J66" s="29"/>
       <c r="N66" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P66" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R66" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V66" s="29"/>
     </row>
@@ -47385,17 +47398,17 @@
       <c r="D67" s="28"/>
       <c r="E67" s="29"/>
       <c r="G67" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J67" s="29"/>
       <c r="N67" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P67" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R67" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V67" s="29"/>
     </row>
@@ -47415,17 +47428,17 @@
       <c r="D69" s="28"/>
       <c r="E69" s="29"/>
       <c r="G69" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J69" s="29"/>
       <c r="N69" s="30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P69" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="R69" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V69" s="29"/>
     </row>
@@ -47436,17 +47449,17 @@
       <c r="D70" s="28"/>
       <c r="E70" s="29"/>
       <c r="G70" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J70" s="29"/>
       <c r="N70" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P70" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R70" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V70" s="29"/>
     </row>
@@ -47469,14 +47482,14 @@
       <c r="E72" s="29"/>
       <c r="F72"/>
       <c r="G72" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J72" s="29"/>
       <c r="N72" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P72" s="40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="29"/>
@@ -47488,14 +47501,14 @@
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="G73" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J73" s="29"/>
       <c r="N73" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P73" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R73"/>
       <c r="V73" s="29"/>
@@ -47517,10 +47530,10 @@
       <c r="E75" s="29"/>
       <c r="J75" s="29"/>
       <c r="N75" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P75" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="R75"/>
       <c r="V75" s="29"/>
@@ -47533,10 +47546,10 @@
       <c r="E76" s="29"/>
       <c r="J76" s="29"/>
       <c r="N76" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P76" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R76"/>
       <c r="V76" s="29"/>
@@ -47558,13 +47571,13 @@
       <c r="E78" s="29"/>
       <c r="J78" s="29"/>
       <c r="N78" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P78" s="41" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="V78" s="29"/>
     </row>
@@ -47576,13 +47589,13 @@
       <c r="E79" s="29"/>
       <c r="J79" s="29"/>
       <c r="N79" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P79" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R79" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V79" s="29"/>
     </row>
@@ -47616,25 +47629,25 @@
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
       <c r="G83" s="30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J83" s="29"/>
       <c r="L83" s="30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N83" s="30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P83" s="30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R83" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U83" s="38"/>
       <c r="V83" s="29"/>
       <c r="X83" s="30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -47644,25 +47657,25 @@
       <c r="D84" s="28"/>
       <c r="E84" s="29"/>
       <c r="G84" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J84" s="29"/>
       <c r="L84" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N84" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P84" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R84" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U84"/>
       <c r="V84" s="29"/>
       <c r="X84" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -47681,24 +47694,24 @@
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
       <c r="G86" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J86" s="29"/>
       <c r="L86" s="30" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N86" s="40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P86" s="30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="R86" s="30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V86" s="29"/>
       <c r="X86" s="30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -47708,24 +47721,24 @@
       <c r="D87" s="28"/>
       <c r="E87" s="29"/>
       <c r="G87" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J87" s="29"/>
       <c r="L87" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N87" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P87" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R87" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V87" s="29"/>
       <c r="X87" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -47744,24 +47757,24 @@
       <c r="D89" s="28"/>
       <c r="E89" s="29"/>
       <c r="G89" s="30" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J89" s="29"/>
       <c r="L89" s="30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N89" s="40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P89" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="R89" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="V89" s="29"/>
       <c r="X89" s="30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -47771,24 +47784,24 @@
       <c r="D90" s="28"/>
       <c r="E90" s="29"/>
       <c r="G90" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J90" s="29"/>
       <c r="L90" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N90" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P90" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R90" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V90" s="29"/>
       <c r="X90" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -47810,24 +47823,24 @@
       <c r="E92" s="29"/>
       <c r="F92"/>
       <c r="G92" s="41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J92" s="29"/>
       <c r="L92" s="40" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P92" s="30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R92" s="30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="V92" s="29"/>
       <c r="X92" s="30" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -47837,24 +47850,24 @@
       <c r="D93" s="28"/>
       <c r="E93" s="29"/>
       <c r="G93" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J93" s="29"/>
       <c r="L93" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N93" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P93" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R93" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V93" s="29"/>
       <c r="X93" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -47873,14 +47886,14 @@
       <c r="D95" s="28"/>
       <c r="E95" s="29"/>
       <c r="G95" s="40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J95" s="29"/>
       <c r="L95" s="30" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P95"/>
       <c r="Q95"/>
@@ -47894,14 +47907,14 @@
       <c r="D96" s="28"/>
       <c r="E96" s="29"/>
       <c r="G96" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J96" s="29"/>
       <c r="L96" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N96" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P96"/>
       <c r="Q96"/>
@@ -47927,7 +47940,7 @@
       <c r="D98" s="28"/>
       <c r="E98" s="29"/>
       <c r="G98" s="30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J98" s="29"/>
       <c r="L98"/>
@@ -47946,7 +47959,7 @@
       <c r="D99" s="28"/>
       <c r="E99" s="29"/>
       <c r="G99" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J99" s="29"/>
       <c r="L99"/>
@@ -47971,7 +47984,7 @@
       <c r="E101" s="29"/>
       <c r="F101" s="53"/>
       <c r="G101" s="30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J101" s="29"/>
       <c r="V101" s="29"/>
@@ -47979,7 +47992,7 @@
     <row r="102" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="E102" s="29"/>
       <c r="G102" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J102" s="29"/>
       <c r="V102" s="29"/>
@@ -47995,16 +48008,16 @@
       <c r="G104" s="54"/>
       <c r="J104" s="29"/>
       <c r="L104" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N104" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P104" s="30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="R104" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="V104" s="29"/>
     </row>
@@ -48012,16 +48025,16 @@
       <c r="E105" s="29"/>
       <c r="J105" s="29"/>
       <c r="L105" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N105" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P105" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R105" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V105" s="29"/>
     </row>
@@ -48034,10 +48047,10 @@
       <c r="E107" s="29"/>
       <c r="J107" s="29"/>
       <c r="L107" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="V107" s="29"/>
     </row>
@@ -48045,10 +48058,10 @@
       <c r="E108" s="29"/>
       <c r="J108" s="29"/>
       <c r="L108" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N108" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V108" s="29"/>
     </row>
@@ -48078,30 +48091,30 @@
       <c r="D112" s="28"/>
       <c r="E112" s="29"/>
       <c r="G112" s="30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J112" s="29"/>
       <c r="L112" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N112" s="40" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P112" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q112" s="38"/>
       <c r="R112" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="S112" s="38"/>
       <c r="T112" s="30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="U112" s="38"/>
       <c r="V112" s="29"/>
       <c r="X112" s="30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1">
@@ -48111,30 +48124,30 @@
       <c r="D113" s="28"/>
       <c r="E113" s="29"/>
       <c r="G113" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J113" s="29"/>
       <c r="L113" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N113" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P113" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q113" s="35"/>
       <c r="R113" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S113" s="35"/>
       <c r="T113" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U113" s="35"/>
       <c r="V113" s="29"/>
       <c r="X113" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="30" customHeight="1" thickBot="1">
@@ -48153,27 +48166,27 @@
       <c r="D115" s="28"/>
       <c r="E115" s="29"/>
       <c r="G115" s="40" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J115" s="29"/>
       <c r="L115" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N115" s="30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P115" s="30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R115" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="T115" s="30" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="V115" s="29"/>
       <c r="X115" s="30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="30" customHeight="1" thickBot="1">
@@ -48183,27 +48196,27 @@
       <c r="D116" s="28"/>
       <c r="E116" s="29"/>
       <c r="G116" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J116" s="29"/>
       <c r="L116" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N116" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P116" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R116" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T116" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V116" s="29"/>
       <c r="X116" s="34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="30" customHeight="1">
@@ -48894,7 +48907,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
@@ -49037,7 +49050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -49088,7 +49101,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
@@ -49228,7 +49241,7 @@
     <row r="14" spans="1:32" ht="28">
       <c r="C14"/>
       <c r="D14" s="79" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="28">
@@ -49241,21 +49254,21 @@
     </row>
     <row r="17" spans="3:21">
       <c r="D17" s="139" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E17" s="138" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F17" s="138"/>
       <c r="G17" s="138"/>
       <c r="H17" s="138"/>
       <c r="I17" s="138"/>
       <c r="J17" s="138" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K17" s="138"/>
       <c r="L17" s="139" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M17" s="140"/>
     </row>
@@ -49274,7 +49287,7 @@
     <row r="22" spans="3:21" ht="28">
       <c r="C22"/>
       <c r="D22" s="79" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="3:21" ht="28">
@@ -49292,36 +49305,36 @@
       <c r="E25" s="138"/>
       <c r="F25" s="138"/>
       <c r="G25" s="139" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H25" s="138" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I25" s="138"/>
       <c r="J25" s="138"/>
       <c r="K25" s="138"/>
       <c r="L25" s="139" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M25" s="139" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N25" s="139" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O25" s="138" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P25" s="138"/>
       <c r="Q25" s="138" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R25" s="138"/>
       <c r="S25" s="139" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="T25" s="139" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="U25" s="140"/>
     </row>
@@ -49349,7 +49362,7 @@
     <row r="30" spans="3:21" ht="28">
       <c r="C30"/>
       <c r="D30" s="79" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="3:21" ht="16" customHeight="1">
@@ -49378,75 +49391,75 @@
       <c r="J34" s="124"/>
       <c r="K34" s="124"/>
       <c r="L34" s="111" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M34" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="N34" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="O34" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="N34" s="112" t="s">
+      <c r="P34" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="O34" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="P34" s="112" t="s">
-        <v>239</v>
-      </c>
       <c r="Q34" s="126" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="R34" s="126"/>
       <c r="S34" s="112" t="s">
+        <v>236</v>
+      </c>
+      <c r="T34" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="U34" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="V34" s="114" t="s">
+        <v>237</v>
+      </c>
+      <c r="W34" s="114" t="s">
+        <v>239</v>
+      </c>
+      <c r="X34" s="114" t="s">
         <v>240</v>
       </c>
-      <c r="T34" s="112" t="s">
-        <v>246</v>
-      </c>
-      <c r="U34" s="112" t="s">
-        <v>245</v>
-      </c>
-      <c r="V34" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="W34" s="114" t="s">
+      <c r="Y34" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z34" s="135" t="s">
         <v>243</v>
-      </c>
-      <c r="X34" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y34" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z34" s="135" t="s">
-        <v>247</v>
       </c>
       <c r="AA34" s="135"/>
       <c r="AB34" s="135" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AC34" s="135"/>
       <c r="AD34" s="135" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AE34" s="135"/>
       <c r="AF34" s="135" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AG34" s="135"/>
       <c r="AH34" s="135" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AI34" s="135"/>
       <c r="AJ34" s="134" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AK34" s="134"/>
       <c r="AL34" s="133" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AM34" s="133"/>
       <c r="AN34" s="133" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AO34" s="133"/>
     </row>
@@ -49619,7 +49632,7 @@
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="59" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="59"/>
@@ -49761,10 +49774,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
-  <dimension ref="A1:AF398"/>
+  <dimension ref="A1:AF401"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -49833,7 +49846,7 @@
       <c r="E3" s="58"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H3" s="59"/>
       <c r="I3" s="58"/>
@@ -49850,31 +49863,31 @@
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
       <c r="X3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="AC3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="AD3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AE3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AF3" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF3" s="22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -49968,15 +49981,15 @@
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
       <c r="E10" s="88" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F10" s="70"/>
       <c r="G10" s="89" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H10" s="89"/>
       <c r="I10" s="89" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J10" s="89"/>
       <c r="K10" s="90"/>
@@ -49992,7 +50005,7 @@
       </c>
       <c r="H11" s="91"/>
       <c r="I11" s="91" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J11" s="91"/>
       <c r="K11" s="92"/>
@@ -50008,7 +50021,7 @@
       </c>
       <c r="H12" s="93"/>
       <c r="I12" s="93" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J12" s="93"/>
       <c r="K12" s="94"/>
@@ -50038,7 +50051,7 @@
       </c>
       <c r="H14" s="89"/>
       <c r="I14" s="89" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J14" s="89"/>
       <c r="K14" s="90"/>
@@ -50054,7 +50067,7 @@
       </c>
       <c r="H15" s="91"/>
       <c r="I15" s="91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J15" s="91"/>
       <c r="K15" s="92"/>
@@ -50070,7 +50083,7 @@
       </c>
       <c r="H16" s="91"/>
       <c r="I16" s="91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J16" s="91"/>
       <c r="K16" s="92"/>
@@ -50086,7 +50099,7 @@
       </c>
       <c r="H17" s="93"/>
       <c r="I17" s="93" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J17" s="93"/>
       <c r="K17" s="94"/>
@@ -50126,11 +50139,11 @@
       <c r="E20" s="99"/>
       <c r="F20" s="70"/>
       <c r="G20" s="89" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="H20" s="89"/>
       <c r="I20" s="89" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J20" s="89"/>
       <c r="K20" s="90"/>
@@ -50142,11 +50155,11 @@
       <c r="E21" s="99"/>
       <c r="F21" s="73"/>
       <c r="G21" s="91" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="H21" s="91"/>
       <c r="I21" s="91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J21" s="91"/>
       <c r="K21" s="92"/>
@@ -50158,11 +50171,11 @@
       <c r="E22" s="99"/>
       <c r="F22" s="73"/>
       <c r="G22" s="91" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="H22" s="91"/>
       <c r="I22" s="91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J22" s="91"/>
       <c r="K22" s="92"/>
@@ -50174,11 +50187,11 @@
       <c r="E23" s="99"/>
       <c r="F23" s="101"/>
       <c r="G23" s="91" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="H23" s="91"/>
       <c r="I23" s="91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J23" s="91"/>
       <c r="K23" s="92"/>
@@ -50188,13 +50201,13 @@
       <c r="C24" s="99"/>
       <c r="D24" s="99"/>
       <c r="E24" s="99"/>
-      <c r="F24" s="73"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="91" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="H24" s="91"/>
       <c r="I24" s="91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J24" s="91"/>
       <c r="K24" s="92"/>
@@ -50204,246 +50217,252 @@
       <c r="C25" s="99"/>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
     </row>
     <row r="26" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B26" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
     </row>
     <row r="27" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B27" s="98"/>
       <c r="C27" s="99"/>
       <c r="D27" s="99"/>
       <c r="E27" s="99"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
     </row>
     <row r="28" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B28" s="98"/>
       <c r="C28" s="99"/>
       <c r="D28" s="99"/>
       <c r="E28" s="99"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="103"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="93"/>
+      <c r="K28" s="94"/>
     </row>
     <row r="29" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B29" s="98"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
+      <c r="B29" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="97"/>
     </row>
     <row r="30" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B30" s="98"/>
       <c r="C30" s="99"/>
       <c r="D30" s="99"/>
       <c r="E30" s="99"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="90"/>
     </row>
     <row r="31" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B31" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="97"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="103"/>
     </row>
     <row r="32" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B32" s="98"/>
       <c r="C32" s="99"/>
       <c r="D32" s="99"/>
       <c r="E32" s="99"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="90"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="92"/>
     </row>
     <row r="33" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B33" s="98"/>
       <c r="C33" s="99"/>
       <c r="D33" s="99"/>
       <c r="E33" s="99"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="94"/>
     </row>
     <row r="34" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B34" s="98"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="92"/>
+      <c r="B34" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="97"/>
     </row>
     <row r="35" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B35" s="98"/>
       <c r="C35" s="99"/>
       <c r="D35" s="99"/>
       <c r="E35" s="99"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="94"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="90"/>
     </row>
     <row r="36" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B36" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="108"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="92"/>
     </row>
     <row r="37" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B37" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="97"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="92"/>
     </row>
     <row r="38" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B38" s="98"/>
       <c r="C38" s="99"/>
       <c r="D38" s="99"/>
       <c r="E38" s="99"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="90"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="94"/>
     </row>
     <row r="39" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="92"/>
+      <c r="B39" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="108"/>
     </row>
     <row r="40" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B40" s="98"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="92"/>
+      <c r="B40" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="97"/>
     </row>
     <row r="41" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B41" s="98"/>
       <c r="C41" s="99"/>
       <c r="D41" s="99"/>
       <c r="E41" s="99"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="92"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="90"/>
     </row>
     <row r="42" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B42" s="98"/>
       <c r="C42" s="99"/>
       <c r="D42" s="99"/>
       <c r="E42" s="99"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="91"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="91" t="s">
+        <v>32</v>
+      </c>
       <c r="H42" s="91"/>
       <c r="I42" s="91"/>
       <c r="J42" s="91"/>
@@ -50454,8 +50473,10 @@
       <c r="C43" s="99"/>
       <c r="D43" s="99"/>
       <c r="E43" s="99"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="91"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="91" t="s">
+        <v>33</v>
+      </c>
       <c r="H43" s="91"/>
       <c r="I43" s="91"/>
       <c r="J43" s="91"/>
@@ -50486,69 +50507,96 @@
       <c r="K45" s="92"/>
     </row>
     <row r="46" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B46" s="109"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="94"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="92"/>
     </row>
     <row r="47" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="F47" s="69"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="92"/>
     </row>
     <row r="48" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="F48" s="69"/>
-    </row>
-    <row r="49" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="F49" s="69"/>
-    </row>
-    <row r="50" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B48" s="98"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="92"/>
+    </row>
+    <row r="49" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B49" s="109"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="94"/>
+    </row>
+    <row r="50" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F50" s="69"/>
     </row>
-    <row r="51" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="51" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F51" s="69"/>
     </row>
-    <row r="52" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="52" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F52" s="69"/>
     </row>
-    <row r="53" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="53" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F53" s="69"/>
     </row>
-    <row r="54" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="54" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F54" s="69"/>
     </row>
-    <row r="55" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="55" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F55" s="69"/>
     </row>
-    <row r="56" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="56" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F56" s="69"/>
     </row>
-    <row r="57" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="57" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F57" s="69"/>
     </row>
-    <row r="58" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="58" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F58" s="69"/>
     </row>
-    <row r="59" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="59" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F59" s="69"/>
     </row>
-    <row r="60" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="60" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F60" s="69"/>
     </row>
-    <row r="61" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="61" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F61" s="69"/>
     </row>
-    <row r="62" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="62" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F62" s="69"/>
     </row>
-    <row r="63" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="63" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F63" s="69"/>
     </row>
-    <row r="64" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="64" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F64" s="69"/>
     </row>
     <row r="65" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
@@ -50698,13 +50746,13 @@
     <row r="113" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F113" s="69"/>
     </row>
-    <row r="114" spans="6:6">
+    <row r="114" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F114" s="69"/>
     </row>
-    <row r="115" spans="6:6">
+    <row r="115" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F115" s="69"/>
     </row>
-    <row r="116" spans="6:6">
+    <row r="116" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F116" s="69"/>
     </row>
     <row r="117" spans="6:6">
@@ -51553,8 +51601,17 @@
     <row r="398" spans="6:6">
       <c r="F398" s="69"/>
     </row>
+    <row r="399" spans="6:6">
+      <c r="F399" s="69"/>
+    </row>
+    <row r="400" spans="6:6">
+      <c r="F400" s="69"/>
+    </row>
+    <row r="401" spans="6:6">
+      <c r="F401" s="69"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:F102">
+  <conditionalFormatting sqref="F8:F105">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>$Y$3</formula>
     </cfRule>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7C88C8-97F8-F845-99CB-8AB82A7896D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BDE463-5D76-3B4D-8504-19D19F2A6070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30780" yWindow="-18040" windowWidth="28800" windowHeight="18000" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="-35740" yWindow="-21000" windowWidth="28800" windowHeight="18000" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,14 @@
     <definedName name="CH00009_DeviceCompliance_iOS">'Device ☑️'!$F$24</definedName>
     <definedName name="CH00009_DeviceCompliance_macOS">'Device ☑️'!$F$25</definedName>
     <definedName name="CH00009_DeviceCompliance_Windows">'Device ☑️'!$F$26</definedName>
+    <definedName name="Device_CP">'Device ☑️'!$B$19</definedName>
+    <definedName name="Device_CP_ADA">'Device ☑️'!$C$66:$C$74</definedName>
+    <definedName name="Device_CP_AECorp">'Device ☑️'!$C$79:$C$87</definedName>
+    <definedName name="Device_CP_AEPersonal">'Device ☑️'!$C$92:$C$100</definedName>
+    <definedName name="Device_CP_AOSP">'Device ☑️'!$C$53:$C$62</definedName>
+    <definedName name="Device_CP_iOS">'Device ☑️'!$C$105:$C$113</definedName>
+    <definedName name="Device_CP_macOS">'Device ☑️'!$C$118:$C$133</definedName>
+    <definedName name="Device_CP_Windows">'Device ☑️'!$C$138:$C$154</definedName>
     <definedName name="HeaderAssessedOn">Home!$E$7</definedName>
     <definedName name="HeaderTenantId">Home!$E$5</definedName>
     <definedName name="HeaderTitle">Home!$E$3</definedName>
@@ -1181,7 +1189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="255">
   <si>
     <t>Devices: Info</t>
   </si>
@@ -2016,6 +2024,9 @@
   <si>
     <t>Compliance policies for Windows 10 and later</t>
   </si>
+  <si>
+    <t>Low</t>
+  </si>
 </sst>
 </file>
 
@@ -2781,7 +2792,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3098,6 +3109,14 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3110,21 +3129,13 @@
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3134,18 +3145,33 @@
     <xf numFmtId="0" fontId="40" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -42036,6 +42062,2795 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11112500" cy="3644900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27617B9-DD3A-4E43-8021-BDCFC1D17B3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="16319500"/>
+          <a:ext cx="11112500" cy="3644900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6214"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Android (AOSP) - Intune Compliance Policy assigned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Microsoft Intune Compliance Policies compare a device's security configuration and health based on rules and settings that devices must meet to be considered compliant. Corporate data and resources can be restricted based on the compliance of a managed device. We found that you have no compliance policy for AOSP configured.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Threats: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Data Exfiltration, Data Deletion, Password Cracking, Data Spillage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Create and assign an AOSP compliance policy. Clicking the manage button below will take you to the Device compliance blade of the Microsoft Intune console where you can create and assign a Compliance Policy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation impact:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> This change will have low impact on your users.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0674F3C1-E49C-30D6-A345-26A4A2722304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="444500" y="19418300"/>
+          <a:ext cx="1346200" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Manage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>491400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>46900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphic 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6534B89E-C6ED-3248-AE75-CFB3FBAE8EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11074400" y="16408400"/>
+          <a:ext cx="288200" cy="288200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11112500" cy="3644900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68919E6-ADDF-394B-9A40-76A9B229BD9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="20612100"/>
+          <a:ext cx="11112500" cy="3644900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5517"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Android device administrator - Intune Compliance Policy assigned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Microsoft Intune Compliance Policies compare a device's security configuration and health based on rules and settings that devices must meet to be considered compliant. Corporate data and resources can be restricted based on the compliance of a managed device. We found that you have no compliance policy for Android configured. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Threats: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Data Exfiltration, Data Deletion, Password Cracking, Data Spillage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Create and assign an Android device administrator compliance policy. Clicking the manage button below will take you to the Device compliance blade of the Microsoft Intune console where you can create and assign a Compliance Policy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation impact:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> This change will have low impact on your users.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30834F02-37AA-4F4A-A97D-4A71247250A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="444500" y="19418300"/>
+          <a:ext cx="1346200" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Manage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11112500" cy="3644900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A183B7-504E-5E43-95C0-4E492B9CD1F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="24904700"/>
+          <a:ext cx="11112500" cy="3644900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5866"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Android Enterprise - Fully Managed - Intune Compliance Policy assigned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Microsoft Intune Compliance Policies compare a device's security configuration and health based on rules and settings that devices must meet to be considered compliant. Corporate data and resources can be restricted based on the compliance of a managed device. We found that you have no compliance policy for Android Enterprise - Fully Managed devices configured.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Threats: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Data Exfiltration, Data Deletion, Password Cracking, Data Spillage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Create and assign an Android Enterprise compliance policy. Clicking the manage button below will take you to the Device compliance blade of the Microsoft Intune console where you can create and assign a Compliance Policy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation impact:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> This change will have low impact on your users.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21EA5046-C3C2-7C45-9492-E46B1A547870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="444500" y="19418300"/>
+          <a:ext cx="1346200" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Manage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11112500" cy="3644900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73706C4-BACE-874E-9E1D-E60F10F1C7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="29197300"/>
+          <a:ext cx="11112500" cy="3644900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5517"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Android Enterprise - personally owned Work Profile - Intune Compliance policy assigned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Microsoft Intune Compliance Policies compare a device's security configuration and health based on rules and settings that devices must meet to be considered compliant. Corporate data and resources can be restricted based on the compliance of a managed device. We found that you have no compliance policy for Android Enterprise - Personally Owned Work Profile configured.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Threats: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Data Exfiltration, Data Deletion, Password Cracking, Data Spillage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Create and assign an Android Enterprise compliance policy. Clicking the manage button below will take you to the Device compliance blade of the Microsoft Intune console where you can create and assign a Compliance Policy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation impact:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> This change will have low impact on your users.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangle 21">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120EB6CD-CC19-B347-B425-1B648724A189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="444500" y="19418300"/>
+          <a:ext cx="1346200" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Manage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11112500" cy="3644900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4027853C-AE6F-4E43-8D0F-64BD88A4E70C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="33489900"/>
+          <a:ext cx="11112500" cy="3644900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5517"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>iOS/iPadOS - Intune Compliance Policy assigned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Microsoft Intune Compliance Policies compare a device's security configuration and health based on rules and settings that devices must meet to be considered compliant. Corporate data and resources can be restricted based on the compliance of a managed device. We found that you have no compliance policy for iOS/iPadOS configured.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Threats: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Data Exfiltration, Data Deletion, Password Cracking, Data Spillage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Create and assign an iOS/iPadOS compliance policy. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Clicking the manage button below will take you to the Device compliance blade of the Microsoft Intune console where you can create and assign a Compliance Policy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation impact:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> This change will have low impact on your users.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rounded Rectangle 24">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DED7E1-9E6A-1D4A-8138-B3942B61C067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="444500" y="19418300"/>
+          <a:ext cx="1346200" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Manage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7742870</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>216064</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Graphic 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAB89B5-6443-C545-961D-021C4C0BC9B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10752770" y="16395701"/>
+          <a:ext cx="334494" cy="330199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11112500" cy="3644900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC47B5B4-4103-6842-962E-ACC861A315A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="37795200"/>
+          <a:ext cx="11112500" cy="3644900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5169"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>macOS - Intune Compliance Policy assigned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Microsoft Intune Compliance Policies compare a device's security configuration and health based on rules and settings that devices must meet to be considered compliant. Corporate data and resources can be restricted based on the compliance of a managed device. We found that you have no compliance policy for MacOS configured.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Threats: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Data Exfiltration, Data Deletion, Password Cracking, Data Spillage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Create and assign a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> macOS </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>compliance policy. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Clicking the manage button below will take you to the Device compliance blade of the Microsoft Intune console where you can create and assign a Compliance Policy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation impact:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> This change will have low impact on your users.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>98200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rounded Rectangle 32">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29D90DB-7954-4247-B112-08E98E767D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="444500" y="40919400"/>
+          <a:ext cx="1346200" cy="428400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Manage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>232730</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520930</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>72299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Graphic 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3234A5-30B5-064A-8F20-2E6A56A95900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11103930" y="20726399"/>
+          <a:ext cx="288200" cy="288200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7772400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>245594</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Graphic 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD1A4AF-284D-1340-A468-6F3AF71D35A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="20713700"/>
+          <a:ext cx="334494" cy="330199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181930</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470130</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>84999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Graphic 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41A9EA6-FEC2-7441-8A98-24D114A4614E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11053130" y="25031699"/>
+          <a:ext cx="288200" cy="288200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7721600</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194794</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Graphic 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB16296B-6E9A-1645-B11A-87E595CA82A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10731500" y="25019000"/>
+          <a:ext cx="334494" cy="330199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194630</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482830</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>72299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Graphic 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41167CB-D9EC-2E46-B993-A1D7F4C62089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11065830" y="29311599"/>
+          <a:ext cx="288200" cy="288200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7734300</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207494</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Graphic 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EB896D-47E4-B642-A39C-CDA74C28A3B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="29298900"/>
+          <a:ext cx="334494" cy="330199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194630</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482830</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>84999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Graphic 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DE6F35-017F-5C42-A5C1-00D65B963837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11065830" y="33616899"/>
+          <a:ext cx="288200" cy="288200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181930</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470130</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>186599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Graphic 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A8218A-63B8-E244-923F-91B14523BE85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11053130" y="37896799"/>
+          <a:ext cx="288200" cy="288200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7696200</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>186999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Graphic 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9ED24F-FB30-6842-A32D-67E9435D9AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706100" y="37896801"/>
+          <a:ext cx="279400" cy="288598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11112500" cy="3644900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3CBE39-1EC8-5EFF-88AA-BD03D1E2413A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="41922700"/>
+          <a:ext cx="11112500" cy="3644900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5168"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Windows 10 and later - Intune Compliance Policy assigned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Microsoft Intune Compliance Policies compare a device's security configuration and health based on rules and settings that devices must meet to be considered compliant. Corporate data and resources can be restricted based on the compliance of a managed device. We found that you have no compliance policy for Windows configured.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>If you create and assign an iOS/iPadOS Compliance Policy, your score will go up {Score} points.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Threats: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Data Exfiltration, Data Deletion, Password Cracking, Data Spillage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Create and assign a Windows 10 and later compliance policy. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Clicking the manage button below will take you to the Device compliance blade of the Microsoft Intune console where you can create and assign a Compliance Policy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remediation impact:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" baseline="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> This change will have low impact on your users.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0" baseline="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1200" b="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>161700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rounded Rectangle 47">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37576708-5E1A-F0F2-6C44-DD63A2F3BFB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="444500" y="45046900"/>
+          <a:ext cx="1346200" cy="428400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Manage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181930</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470130</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>46899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Graphic 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77FED22-4539-4E81-7EAF-FDC52C67270F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11053130" y="42024299"/>
+          <a:ext cx="288200" cy="288200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7708901</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>173376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139701</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>61063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Graphic 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77D237B-4B50-ED42-9A78-E423B1F70E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10718801" y="42032576"/>
+          <a:ext cx="292100" cy="294087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7747001</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>50921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Graphic 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB711A9E-EF1A-0349-87E4-268D935CC1A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10756901" y="33642300"/>
+          <a:ext cx="228600" cy="228721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7823200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Graphic 53" descr="Caret Up with solid fill">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FA23C5-AA28-712A-734F-F32B2C319686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10833100" y="19456400"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Graphic 54" descr="Caret Up with solid fill">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A5B87A-3008-0A46-BFB8-4EC4FC02A707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10871200" y="23736300"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Graphic 55" descr="Caret Up with solid fill">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA731DB-A588-1246-9C3C-6F88DBC5DFFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10871200" y="28067000"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Graphic 56" descr="Caret Up with solid fill">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D1237A-BDB8-9448-81A2-1007A7B8EB70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10909300" y="32359600"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Graphic 57" descr="Caret Up with solid fill">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7853FDA-9F46-0045-87FD-8B45A047CD25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10883900" y="36677600"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Graphic 58" descr="Caret Up with solid fill">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA81728-66D9-A340-947B-B24D36FE1F61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10883900" y="40982900"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7848600</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Graphic 59" descr="Caret Up with solid fill">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B432232-139D-B346-A0FB-C3E3115CE9FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId26"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10858500" y="45110400"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -42805,27 +45620,27 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="23"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
       <c r="V5" s="23"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -46248,7 +49063,7 @@
   <dimension ref="A1:AK154"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -46415,27 +49230,27 @@
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="49"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
       <c r="Q5" s="50"/>
       <c r="R5" s="50"/>
       <c r="S5" s="50"/>
       <c r="T5" s="50"/>
       <c r="U5" s="50"/>
       <c r="V5" s="49"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
       <c r="AA5" s="42"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -49050,8 +51865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -49253,35 +52068,35 @@
       <c r="D16" s="79"/>
     </row>
     <row r="17" spans="3:21">
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="138" t="s">
+      <c r="E17" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138" t="s">
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="K17" s="138"/>
-      <c r="L17" s="139" t="s">
+      <c r="K17" s="137"/>
+      <c r="L17" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="M17" s="140"/>
+      <c r="M17" s="121"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="D18" s="140"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
       <c r="I18" s="129"/>
-      <c r="J18" s="127"/>
+      <c r="J18" s="128"/>
       <c r="K18" s="129"/>
-      <c r="L18" s="127"/>
+      <c r="L18" s="128"/>
       <c r="M18" s="129"/>
     </row>
     <row r="22" spans="3:21" ht="28">
@@ -49299,63 +52114,63 @@
       <c r="D24" s="79"/>
     </row>
     <row r="25" spans="3:21">
-      <c r="D25" s="138" t="s">
+      <c r="D25" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="139" t="s">
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="120" t="s">
         <v>219</v>
       </c>
-      <c r="H25" s="138" t="s">
+      <c r="H25" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="139" t="s">
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="M25" s="139" t="s">
+      <c r="M25" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="N25" s="139" t="s">
+      <c r="N25" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="O25" s="138" t="s">
+      <c r="O25" s="137" t="s">
         <v>223</v>
       </c>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="138" t="s">
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="R25" s="138"/>
-      <c r="S25" s="139" t="s">
+      <c r="R25" s="137"/>
+      <c r="S25" s="120" t="s">
         <v>224</v>
       </c>
-      <c r="T25" s="139" t="s">
+      <c r="T25" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="U25" s="140"/>
+      <c r="U25" s="121"/>
     </row>
     <row r="26" spans="3:21">
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="132"/>
       <c r="F26" s="129"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
       <c r="K26" s="129"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="127"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="128"/>
       <c r="P26" s="129"/>
-      <c r="Q26" s="127"/>
+      <c r="Q26" s="128"/>
       <c r="R26" s="129"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="127"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="128"/>
       <c r="U26" s="129"/>
     </row>
     <row r="27" spans="3:21" ht="17" customHeight="1"/>
@@ -49378,18 +52193,18 @@
       <c r="D33" s="79"/>
     </row>
     <row r="34" spans="3:41" s="80" customFormat="1" ht="68">
-      <c r="D34" s="124" t="s">
+      <c r="D34" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124" t="s">
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
       <c r="L34" s="111" t="s">
         <v>229</v>
       </c>
@@ -49405,10 +52220,10 @@
       <c r="P34" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="Q34" s="126" t="s">
+      <c r="Q34" s="139" t="s">
         <v>228</v>
       </c>
-      <c r="R34" s="126"/>
+      <c r="R34" s="139"/>
       <c r="S34" s="112" t="s">
         <v>236</v>
       </c>
@@ -49464,14 +52279,14 @@
       <c r="AO34" s="133"/>
     </row>
     <row r="35" spans="3:41">
-      <c r="D35" s="127"/>
-      <c r="E35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="132"/>
       <c r="F35" s="129"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="142"/>
       <c r="L35" s="115"/>
       <c r="M35" s="116"/>
       <c r="N35" s="116"/>
@@ -49486,25 +52301,44 @@
       <c r="W35" s="119"/>
       <c r="X35" s="119"/>
       <c r="Y35" s="119"/>
-      <c r="Z35" s="125"/>
-      <c r="AA35" s="125"/>
-      <c r="AB35" s="125"/>
-      <c r="AC35" s="125"/>
-      <c r="AD35" s="125"/>
-      <c r="AE35" s="125"/>
-      <c r="AF35" s="125"/>
-      <c r="AG35" s="125"/>
-      <c r="AH35" s="125"/>
-      <c r="AI35" s="125"/>
-      <c r="AJ35" s="137"/>
-      <c r="AK35" s="137"/>
-      <c r="AL35" s="136"/>
-      <c r="AM35" s="136"/>
-      <c r="AN35" s="136"/>
-      <c r="AO35" s="136"/>
+      <c r="Z35" s="136"/>
+      <c r="AA35" s="136"/>
+      <c r="AB35" s="136"/>
+      <c r="AC35" s="136"/>
+      <c r="AD35" s="136"/>
+      <c r="AE35" s="136"/>
+      <c r="AF35" s="136"/>
+      <c r="AG35" s="136"/>
+      <c r="AH35" s="136"/>
+      <c r="AI35" s="136"/>
+      <c r="AJ35" s="131"/>
+      <c r="AK35" s="131"/>
+      <c r="AL35" s="130"/>
+      <c r="AM35" s="130"/>
+      <c r="AN35" s="130"/>
+      <c r="AO35" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:K35"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="AN35:AO35"/>
     <mergeCell ref="AL35:AM35"/>
@@ -49521,25 +52355,6 @@
     <mergeCell ref="AF34:AG34"/>
     <mergeCell ref="AF35:AG35"/>
     <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -49776,8 +52591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
   <dimension ref="A1:AF401"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -49971,7 +52786,7 @@
       <c r="E9" s="82"/>
       <c r="F9" s="83"/>
       <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="84"/>
       <c r="J9" s="84"/>
       <c r="K9" s="85"/>
@@ -49987,7 +52802,7 @@
       <c r="G10" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="89"/>
+      <c r="H10" s="143"/>
       <c r="I10" s="89" t="s">
         <v>36</v>
       </c>
@@ -50003,7 +52818,7 @@
       <c r="G11" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="91"/>
+      <c r="H11" s="144"/>
       <c r="I11" s="91" t="s">
         <v>36</v>
       </c>
@@ -50019,7 +52834,7 @@
       <c r="G12" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="93"/>
+      <c r="H12" s="145"/>
       <c r="I12" s="93" t="s">
         <v>36</v>
       </c>
@@ -50035,7 +52850,7 @@
       <c r="E13" s="81"/>
       <c r="F13" s="95"/>
       <c r="G13" s="81"/>
-      <c r="H13" s="96"/>
+      <c r="H13" s="95"/>
       <c r="I13" s="96"/>
       <c r="J13" s="96"/>
       <c r="K13" s="97"/>
@@ -50049,7 +52864,7 @@
       <c r="G14" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="89"/>
+      <c r="H14" s="143"/>
       <c r="I14" s="89" t="s">
         <v>35</v>
       </c>
@@ -50065,7 +52880,7 @@
       <c r="G15" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="91"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="91" t="s">
         <v>35</v>
       </c>
@@ -50081,7 +52896,7 @@
       <c r="G16" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="91"/>
+      <c r="H16" s="144"/>
       <c r="I16" s="91" t="s">
         <v>35</v>
       </c>
@@ -50097,7 +52912,7 @@
       <c r="G17" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="93"/>
+      <c r="H17" s="145"/>
       <c r="I17" s="93" t="s">
         <v>36</v>
       </c>
@@ -50113,7 +52928,7 @@
       <c r="E18" s="81"/>
       <c r="F18" s="68"/>
       <c r="G18" s="100"/>
-      <c r="H18" s="96"/>
+      <c r="H18" s="95"/>
       <c r="I18" s="96"/>
       <c r="J18" s="96"/>
       <c r="K18" s="97"/>
@@ -50127,7 +52942,7 @@
       <c r="E19" s="81"/>
       <c r="F19" s="95"/>
       <c r="G19" s="81"/>
-      <c r="H19" s="96"/>
+      <c r="H19" s="95"/>
       <c r="I19" s="96"/>
       <c r="J19" s="96"/>
       <c r="K19" s="97"/>
@@ -50136,12 +52951,16 @@
       <c r="B20" s="98"/>
       <c r="C20" s="99"/>
       <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
+      <c r="E20" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F20" s="70"/>
-      <c r="G20" s="89" t="s">
+      <c r="G20" s="146" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="89"/>
+      <c r="H20" s="143" t="s">
+        <v>254</v>
+      </c>
       <c r="I20" s="89" t="s">
         <v>35</v>
       </c>
@@ -50152,12 +52971,16 @@
       <c r="B21" s="98"/>
       <c r="C21" s="99"/>
       <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
+      <c r="E21" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F21" s="73"/>
-      <c r="G21" s="91" t="s">
+      <c r="G21" s="147" t="s">
         <v>250</v>
       </c>
-      <c r="H21" s="91"/>
+      <c r="H21" s="144" t="s">
+        <v>254</v>
+      </c>
       <c r="I21" s="91" t="s">
         <v>35</v>
       </c>
@@ -50168,12 +52991,16 @@
       <c r="B22" s="98"/>
       <c r="C22" s="99"/>
       <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
+      <c r="E22" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F22" s="73"/>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="147" t="s">
         <v>251</v>
       </c>
-      <c r="H22" s="91"/>
+      <c r="H22" s="144" t="s">
+        <v>254</v>
+      </c>
       <c r="I22" s="91" t="s">
         <v>35</v>
       </c>
@@ -50184,12 +53011,16 @@
       <c r="B23" s="98"/>
       <c r="C23" s="99"/>
       <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
+      <c r="E23" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F23" s="101"/>
-      <c r="G23" s="91" t="s">
+      <c r="G23" s="147" t="s">
         <v>252</v>
       </c>
-      <c r="H23" s="91"/>
+      <c r="H23" s="144" t="s">
+        <v>254</v>
+      </c>
       <c r="I23" s="91" t="s">
         <v>35</v>
       </c>
@@ -50200,12 +53031,16 @@
       <c r="B24" s="98"/>
       <c r="C24" s="99"/>
       <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
+      <c r="E24" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F24" s="101"/>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="H24" s="91"/>
+      <c r="H24" s="144" t="s">
+        <v>254</v>
+      </c>
       <c r="I24" s="91" t="s">
         <v>35</v>
       </c>
@@ -50216,12 +53051,16 @@
       <c r="B25" s="98"/>
       <c r="C25" s="99"/>
       <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
+      <c r="E25" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F25" s="101"/>
-      <c r="G25" s="91" t="s">
+      <c r="G25" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="91"/>
+      <c r="H25" s="144" t="s">
+        <v>254</v>
+      </c>
       <c r="I25" s="91" t="s">
         <v>35</v>
       </c>
@@ -50232,12 +53071,16 @@
       <c r="B26" s="98"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
+      <c r="E26" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F26" s="101"/>
-      <c r="G26" s="91" t="s">
+      <c r="G26" s="147" t="s">
         <v>253</v>
       </c>
-      <c r="H26" s="91"/>
+      <c r="H26" s="144" t="s">
+        <v>254</v>
+      </c>
       <c r="I26" s="91" t="s">
         <v>35</v>
       </c>
@@ -50251,7 +53094,7 @@
       <c r="E27" s="99"/>
       <c r="F27" s="73"/>
       <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
+      <c r="H27" s="144"/>
       <c r="I27" s="91"/>
       <c r="J27" s="91"/>
       <c r="K27" s="92"/>
@@ -50265,7 +53108,7 @@
       <c r="G28" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="93"/>
+      <c r="H28" s="145"/>
       <c r="I28" s="93" t="s">
         <v>36</v>
       </c>
@@ -50281,7 +53124,7 @@
       <c r="E29" s="81"/>
       <c r="F29" s="95"/>
       <c r="G29" s="100"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="96"/>
       <c r="J29" s="96"/>
       <c r="K29" s="97"/>
@@ -50290,12 +53133,14 @@
       <c r="B30" s="98"/>
       <c r="C30" s="99"/>
       <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
+      <c r="E30" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F30" s="70"/>
       <c r="G30" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="89"/>
+      <c r="H30" s="143"/>
       <c r="I30" s="89"/>
       <c r="J30" s="89"/>
       <c r="K30" s="90"/>
@@ -50304,12 +53149,14 @@
       <c r="B31" s="98"/>
       <c r="C31" s="99"/>
       <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
+      <c r="E31" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F31" s="73"/>
       <c r="G31" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="91"/>
+      <c r="H31" s="144"/>
       <c r="I31" s="91"/>
       <c r="J31" s="102"/>
       <c r="K31" s="103"/>
@@ -50318,12 +53165,14 @@
       <c r="B32" s="98"/>
       <c r="C32" s="99"/>
       <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
+      <c r="E32" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F32" s="73"/>
       <c r="G32" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="91"/>
+      <c r="H32" s="144"/>
       <c r="I32" s="91"/>
       <c r="J32" s="91"/>
       <c r="K32" s="92"/>
@@ -50332,12 +53181,14 @@
       <c r="B33" s="98"/>
       <c r="C33" s="99"/>
       <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
+      <c r="E33" s="78" t="s">
+        <v>216</v>
+      </c>
       <c r="F33" s="75"/>
       <c r="G33" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="H33" s="93"/>
+      <c r="H33" s="145"/>
       <c r="I33" s="93"/>
       <c r="J33" s="93"/>
       <c r="K33" s="94"/>
@@ -50351,7 +53202,7 @@
       <c r="E34" s="100"/>
       <c r="F34" s="95"/>
       <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
+      <c r="H34" s="95"/>
       <c r="I34" s="96"/>
       <c r="J34" s="96"/>
       <c r="K34" s="97"/>
@@ -50365,7 +53216,7 @@
       <c r="G35" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="89"/>
+      <c r="H35" s="143"/>
       <c r="I35" s="89"/>
       <c r="J35" s="89"/>
       <c r="K35" s="90"/>
@@ -50379,7 +53230,7 @@
       <c r="G36" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="91"/>
+      <c r="H36" s="144"/>
       <c r="I36" s="91"/>
       <c r="J36" s="91"/>
       <c r="K36" s="92"/>
@@ -50393,7 +53244,7 @@
       <c r="G37" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="91"/>
+      <c r="H37" s="144"/>
       <c r="I37" s="91"/>
       <c r="J37" s="91"/>
       <c r="K37" s="92"/>
@@ -50407,7 +53258,7 @@
       <c r="G38" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="93"/>
+      <c r="H38" s="145"/>
       <c r="I38" s="93"/>
       <c r="J38" s="93"/>
       <c r="K38" s="94"/>
@@ -50421,7 +53272,7 @@
       <c r="E39" s="105"/>
       <c r="F39" s="106"/>
       <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
+      <c r="H39" s="106"/>
       <c r="I39" s="107"/>
       <c r="J39" s="107"/>
       <c r="K39" s="108"/>
@@ -50435,7 +53286,7 @@
       <c r="E40" s="100"/>
       <c r="F40" s="95"/>
       <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
+      <c r="H40" s="95"/>
       <c r="I40" s="96"/>
       <c r="J40" s="96"/>
       <c r="K40" s="97"/>
@@ -50449,7 +53300,7 @@
       <c r="G41" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="89"/>
+      <c r="H41" s="143"/>
       <c r="I41" s="89"/>
       <c r="J41" s="89"/>
       <c r="K41" s="90"/>
@@ -50463,7 +53314,7 @@
       <c r="G42" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="91"/>
+      <c r="H42" s="144"/>
       <c r="I42" s="91"/>
       <c r="J42" s="91"/>
       <c r="K42" s="92"/>
@@ -50477,7 +53328,7 @@
       <c r="G43" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="91"/>
+      <c r="H43" s="144"/>
       <c r="I43" s="91"/>
       <c r="J43" s="91"/>
       <c r="K43" s="92"/>
@@ -50489,7 +53340,7 @@
       <c r="E44" s="99"/>
       <c r="F44" s="101"/>
       <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
+      <c r="H44" s="144"/>
       <c r="I44" s="91"/>
       <c r="J44" s="91"/>
       <c r="K44" s="92"/>
@@ -50501,7 +53352,7 @@
       <c r="E45" s="99"/>
       <c r="F45" s="101"/>
       <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
+      <c r="H45" s="144"/>
       <c r="I45" s="91"/>
       <c r="J45" s="91"/>
       <c r="K45" s="92"/>
@@ -50513,7 +53364,7 @@
       <c r="E46" s="99"/>
       <c r="F46" s="101"/>
       <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
+      <c r="H46" s="144"/>
       <c r="I46" s="91"/>
       <c r="J46" s="91"/>
       <c r="K46" s="92"/>
@@ -50525,7 +53376,7 @@
       <c r="E47" s="99"/>
       <c r="F47" s="101"/>
       <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
+      <c r="H47" s="144"/>
       <c r="I47" s="91"/>
       <c r="J47" s="91"/>
       <c r="K47" s="92"/>
@@ -50537,7 +53388,7 @@
       <c r="E48" s="99"/>
       <c r="F48" s="101"/>
       <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
+      <c r="H48" s="144"/>
       <c r="I48" s="91"/>
       <c r="J48" s="91"/>
       <c r="K48" s="92"/>
@@ -50549,7 +53400,7 @@
       <c r="E49" s="84"/>
       <c r="F49" s="110"/>
       <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
+      <c r="H49" s="145"/>
       <c r="I49" s="93"/>
       <c r="J49" s="93"/>
       <c r="K49" s="94"/>
@@ -50743,53 +53594,137 @@
     <row r="112" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F112" s="69"/>
     </row>
-    <row r="113" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="113" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F113" s="69"/>
     </row>
-    <row r="114" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="114" spans="1:8" s="62" customFormat="1" ht="27" customHeight="1">
       <c r="F114" s="69"/>
     </row>
-    <row r="115" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="115" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F115" s="69"/>
     </row>
-    <row r="116" spans="6:6" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="116" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F116" s="69"/>
     </row>
-    <row r="117" spans="6:6">
+    <row r="117" spans="1:8">
+      <c r="A117" s="62"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="62"/>
       <c r="F117" s="69"/>
-    </row>
-    <row r="118" spans="6:6">
+      <c r="G117" s="62"/>
+      <c r="H117" s="62"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="62"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="62"/>
       <c r="F118" s="69"/>
-    </row>
-    <row r="119" spans="6:6">
+      <c r="G118" s="62"/>
+      <c r="H118" s="62"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="62"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
       <c r="F119" s="69"/>
-    </row>
-    <row r="120" spans="6:6">
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="62"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="62"/>
+      <c r="E120" s="62"/>
       <c r="F120" s="69"/>
-    </row>
-    <row r="121" spans="6:6">
+      <c r="G120" s="62"/>
+      <c r="H120" s="62"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="62"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="62"/>
+      <c r="E121" s="62"/>
       <c r="F121" s="69"/>
-    </row>
-    <row r="122" spans="6:6">
+      <c r="G121" s="62"/>
+      <c r="H121" s="62"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="62"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="62"/>
       <c r="F122" s="69"/>
-    </row>
-    <row r="123" spans="6:6">
+      <c r="G122" s="62"/>
+      <c r="H122" s="62"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="62"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="62"/>
+      <c r="E123" s="62"/>
       <c r="F123" s="69"/>
-    </row>
-    <row r="124" spans="6:6">
+      <c r="G123" s="62"/>
+      <c r="H123" s="62"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="62"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="62"/>
       <c r="F124" s="69"/>
-    </row>
-    <row r="125" spans="6:6">
+      <c r="G124" s="62"/>
+      <c r="H124" s="62"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="62"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="62"/>
       <c r="F125" s="69"/>
-    </row>
-    <row r="126" spans="6:6">
+      <c r="G125" s="62"/>
+      <c r="H125" s="62"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="62"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
       <c r="F126" s="69"/>
-    </row>
-    <row r="127" spans="6:6">
+      <c r="G126" s="62"/>
+      <c r="H126" s="62"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="62"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="62"/>
       <c r="F127" s="69"/>
-    </row>
-    <row r="128" spans="6:6">
+      <c r="G127" s="62"/>
+      <c r="H127" s="62"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="62"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
       <c r="F128" s="69"/>
+      <c r="G128" s="62"/>
+      <c r="H128" s="62"/>
     </row>
     <row r="129" spans="6:6">
       <c r="F129" s="69"/>
@@ -51611,7 +54546,7 @@
       <c r="F401" s="69"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:F105">
+  <conditionalFormatting sqref="F8:F128">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>$Y$3</formula>
     </cfRule>
@@ -51624,6 +54559,22 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E10" location="Table_WindowsEnrollment" display="🚦" xr:uid="{125D979B-91F1-2D49-91C3-FF4B4D521272}"/>
+    <hyperlink ref="G20" location="Device_CP_AOSP" display="Configure compliance policies for Android (AOSP)" xr:uid="{23939289-DE49-D04A-8339-7B3CA5980B7D}"/>
+    <hyperlink ref="G21" location="Device_CP_ADA" display="Configure compliance policies for Android device administrator" xr:uid="{6AF3688C-D5E9-9A42-AD35-B70AA4D4DBF4}"/>
+    <hyperlink ref="G22" location="Device_CP_AECorp" display="Configure compliance policies for Android Enterprise (Fully managed and corporate owned work profile)" xr:uid="{51835BAB-F979-D541-A7D6-70AC07583D5D}"/>
+    <hyperlink ref="G23" location="Device_CP_AEPersonal" display="Configure compliance policies for Android Enterprise (Personally-owned work profile)" xr:uid="{76865993-ED23-1B48-833B-A0319452CCE5}"/>
+    <hyperlink ref="G24" location="CH00009_DeviceCompliance_iOS" display="Compliance policies for iOS / iPadOS" xr:uid="{A7F52174-E1A5-3043-AC37-8129383D6B35}"/>
+    <hyperlink ref="G25" location="CH00009_DeviceCompliance_macOS" display="Compliance policies for macOS" xr:uid="{18F8A74F-E190-2542-8FAC-49B71AC30367}"/>
+    <hyperlink ref="G26" location="CH00009_DeviceCompliance_Windows" display="Compliance policies for Windows 10 and later" xr:uid="{CB3977F1-717F-304E-8386-8157562BEBB0}"/>
+    <hyperlink ref="E20" location="Table_WindowsEnrollment" display="🚦" xr:uid="{77046714-6AF1-7047-ACE7-5F8B7FCF5FCA}"/>
+    <hyperlink ref="E21" location="Table_WindowsEnrollment" display="🚦" xr:uid="{FF368CA2-6459-FB4E-AB30-F0E9EB937F4F}"/>
+    <hyperlink ref="E22" location="Table_WindowsEnrollment" display="🚦" xr:uid="{86511167-F3A7-F049-AEEE-AAA028001F3C}"/>
+    <hyperlink ref="E23" location="Table_WindowsEnrollment" display="🚦" xr:uid="{02475BFA-96DD-2746-BEE2-2C04717BEBF9}"/>
+    <hyperlink ref="E24" location="Table_WindowsEnrollment" display="🚦" xr:uid="{A1F7A123-D72F-0344-BA14-60CD29DD0BFB}"/>
+    <hyperlink ref="E25" location="Table_WindowsEnrollment" display="🚦" xr:uid="{43EE7E23-C858-404E-9715-BC3D33BBE1E2}"/>
+    <hyperlink ref="E26" location="Table_WindowsEnrollment" display="🚦" xr:uid="{DE507200-CEB6-3243-BED2-C3C30F98C48F}"/>
+    <hyperlink ref="E20:E26" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{3A549D6D-14CB-DF43-9030-B6A5AB6125ED}"/>
+    <hyperlink ref="E30:E33" location="Table_EnrollmentDevicePlatformRestrictions" display="🚦" xr:uid="{8E195C76-CEC1-F84A-983C-906F37236965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BDE463-5D76-3B4D-8504-19D19F2A6070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E8F80-FDBF-2E4D-B592-7085C4DCF923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35740" yWindow="-21000" windowWidth="28800" windowHeight="18000" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="-34600" yWindow="-20500" windowWidth="28800" windowHeight="18000" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -31,17 +31,20 @@
     <definedName name="CH00007_DeviceCompliance_Android_DeviceAdmin">'Device ☑️'!$F$21</definedName>
     <definedName name="CH00008_DeviceCompliance_Android_EntCorp">'Device ☑️'!$F$22</definedName>
     <definedName name="CH00009_DeviceCompliance_Android_EntPersonal">'Device ☑️'!$F$23</definedName>
-    <definedName name="CH00009_DeviceCompliance_iOS">'Device ☑️'!$F$24</definedName>
-    <definedName name="CH00009_DeviceCompliance_macOS">'Device ☑️'!$F$25</definedName>
-    <definedName name="CH00009_DeviceCompliance_Windows">'Device ☑️'!$F$26</definedName>
+    <definedName name="CH00010_DeviceCompliance_iOS">'Device ☑️'!$F$24</definedName>
+    <definedName name="CH00011_DeviceCompliance_macOS">'Device ☑️'!$F$25</definedName>
+    <definedName name="CH00012_DeviceCompliance_Windows">'Device ☑️'!$F$26</definedName>
+    <definedName name="CH00013_DeviceCompliance_iOS_Jailbreak">'Device ☑️'!$F$39</definedName>
+    <definedName name="CH00014_DeviceCompliance_Windows_BitLocker">'Device ☑️'!$F$43</definedName>
+    <definedName name="CH00015_DeviceCompliance_DefenderEndPoint">'Device ☑️'!$F$40</definedName>
     <definedName name="Device_CP">'Device ☑️'!$B$19</definedName>
-    <definedName name="Device_CP_ADA">'Device ☑️'!$C$66:$C$74</definedName>
-    <definedName name="Device_CP_AECorp">'Device ☑️'!$C$79:$C$87</definedName>
-    <definedName name="Device_CP_AEPersonal">'Device ☑️'!$C$92:$C$100</definedName>
-    <definedName name="Device_CP_AOSP">'Device ☑️'!$C$53:$C$62</definedName>
-    <definedName name="Device_CP_iOS">'Device ☑️'!$C$105:$C$113</definedName>
-    <definedName name="Device_CP_macOS">'Device ☑️'!$C$118:$C$133</definedName>
-    <definedName name="Device_CP_Windows">'Device ☑️'!$C$138:$C$154</definedName>
+    <definedName name="Device_CP_ADA">'Device ☑️'!$C$72:$C$80</definedName>
+    <definedName name="Device_CP_AECorp">'Device ☑️'!$C$85:$C$93</definedName>
+    <definedName name="Device_CP_AEPersonal">'Device ☑️'!$C$98:$C$106</definedName>
+    <definedName name="Device_CP_AOSP">'Device ☑️'!$C$59:$C$68</definedName>
+    <definedName name="Device_CP_iOS">'Device ☑️'!$C$111:$C$119</definedName>
+    <definedName name="Device_CP_macOS">'Device ☑️'!$C$124:$C$139</definedName>
+    <definedName name="Device_CP_Windows">'Device ☑️'!$C$144:$C$160</definedName>
     <definedName name="HeaderAssessedOn">Home!$E$7</definedName>
     <definedName name="HeaderTenantId">Home!$E$5</definedName>
     <definedName name="HeaderTitle">Home!$E$3</definedName>
@@ -1189,7 +1192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="262">
   <si>
     <t>Devices: Info</t>
   </si>
@@ -1257,9 +1260,6 @@
     <t>Configure Enrollment restrictions</t>
   </si>
   <si>
-    <t>Configure enrollment restrictions for iOS devices</t>
-  </si>
-  <si>
     <t>Configure enrollment restrictions for Windows devices</t>
   </si>
   <si>
@@ -1269,16 +1269,7 @@
     <t>Protect from data leakage on mobile devices at the application layer</t>
   </si>
   <si>
-    <t>Enable intune App Protection Policy for iOS</t>
-  </si>
-  <si>
-    <t>Microsoft first party apps included in iOS app protection policy?</t>
-  </si>
-  <si>
     <t>Enable intune App Protection Policy for Android</t>
-  </si>
-  <si>
-    <t>Microsoft first party apps included in Android app protection policy?</t>
   </si>
   <si>
     <t>Enable MAM CA Policy</t>
@@ -2027,6 +2018,39 @@
   <si>
     <t>Low</t>
   </si>
+  <si>
+    <t>Configure enrollment restrictions for iOS/iPadOS devices</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>iOS/iPadOS - Intune App Protection Policy assigned</t>
+  </si>
+  <si>
+    <t>Android - Intune App Protection Policy assigned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android root detection is Enabled - App Protection </t>
+  </si>
+  <si>
+    <t>iOS Jailbreak detection is Enabled - Device Compliance Policy</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint is configured</t>
+  </si>
+  <si>
+    <t>Windows - Windows Update policy is assigned</t>
+  </si>
+  <si>
+    <t>Windows - BitLocker is assigned</t>
+  </si>
+  <si>
+    <t>Windows - Hello for Business is assigned</t>
+  </si>
+  <si>
+    <t>iOS Jailbreak detection is Enabled - App Protection</t>
+  </si>
 </sst>
 </file>
 
@@ -2457,7 +2481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2784,6 +2808,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2792,7 +2847,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3013,9 +3068,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3172,6 +3224,24 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -42066,7 +42136,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -42086,10 +42156,8 @@
           <a:off x="330200" y="16319500"/>
           <a:ext cx="11112500" cy="3644900"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 6214"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -42233,13 +42301,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42300,13 +42368,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>491400</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>46900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -42350,7 +42418,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -42370,10 +42438,8 @@
           <a:off x="330200" y="20612100"/>
           <a:ext cx="11112500" cy="3644900"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 5517"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -42517,13 +42583,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42584,7 +42650,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -42604,10 +42670,8 @@
           <a:off x="330200" y="24904700"/>
           <a:ext cx="11112500" cy="3644900"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 5866"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -42751,13 +42815,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42818,7 +42882,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -42838,10 +42902,8 @@
           <a:off x="330200" y="29197300"/>
           <a:ext cx="11112500" cy="3644900"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 5517"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -42985,13 +43047,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -43052,7 +43114,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -43072,10 +43134,8 @@
           <a:off x="330200" y="33489900"/>
           <a:ext cx="11112500" cy="3644900"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 5517"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -43233,13 +43293,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -43300,13 +43360,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7742870</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>216064</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43350,7 +43410,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -43370,10 +43430,8 @@
           <a:off x="330200" y="37795200"/>
           <a:ext cx="11112500" cy="3644900"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 5169"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -43545,13 +43603,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>98200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -43612,13 +43670,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>232730</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>520930</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>72299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43662,13 +43720,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7772400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>245594</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43712,13 +43770,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>181930</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>470130</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>84999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43762,13 +43820,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7721600</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>194794</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43812,13 +43870,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>194630</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>482830</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>72299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43862,13 +43920,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7734300</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>207494</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43912,13 +43970,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>194630</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>482830</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>84999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43962,13 +44020,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>181930</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>470130</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>186599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44012,13 +44070,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7696200</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>186999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44062,7 +44120,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -44082,10 +44140,8 @@
           <a:off x="330200" y="41922700"/>
           <a:ext cx="11112500" cy="3644900"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 5168"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -44258,13 +44314,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>161700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -44325,13 +44381,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>181930</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>470130</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>46899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44375,13 +44431,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7708901</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>173376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>139701</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>61063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44425,13 +44481,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7747001</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>50921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44477,13 +44533,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7823200</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44531,13 +44587,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>317500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44585,13 +44641,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44639,13 +44695,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44693,13 +44749,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44747,13 +44803,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44801,13 +44857,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7848600</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -45232,7 +45288,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
@@ -45292,7 +45348,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
       <c r="E5" s="61" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
@@ -45352,7 +45408,7 @@
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
       <c r="E7" s="61" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
@@ -45534,7 +45590,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
       <c r="F3" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -45558,31 +45614,31 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="5"/>
       <c r="AC3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AH3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AI3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AJ3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AK3" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK3" s="22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="11" customHeight="1">
@@ -45620,27 +45676,27 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="23"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
       <c r="V5" s="23"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124"/>
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -45755,21 +45811,21 @@
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J11" s="29"/>
       <c r="L11" s="37" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="32"/>
       <c r="R11" s="37" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
@@ -45786,21 +45842,21 @@
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="G12" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J12" s="29"/>
       <c r="L12" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
@@ -45826,17 +45882,17 @@
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="G14" s="36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J14" s="29"/>
       <c r="L14" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
@@ -45852,17 +45908,17 @@
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="G15" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J15" s="29"/>
       <c r="L15" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="35"/>
       <c r="R15"/>
@@ -45887,23 +45943,23 @@
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
       <c r="G17" s="30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J17" s="29"/>
       <c r="L17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="31" t="s">
         <v>53</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="T17" s="31" t="s">
-        <v>57</v>
       </c>
       <c r="V17" s="29"/>
     </row>
@@ -45914,23 +45970,23 @@
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
       <c r="G18" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J18" s="29"/>
       <c r="L18" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T18" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V18" s="29"/>
     </row>
@@ -45950,23 +46006,23 @@
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
       <c r="G20" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J20" s="29"/>
       <c r="L20" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P20" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="T20" s="37" t="s">
         <v>61</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="T20" s="37" t="s">
-        <v>65</v>
       </c>
       <c r="V20" s="29"/>
     </row>
@@ -45977,23 +46033,23 @@
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
       <c r="G21" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J21" s="29"/>
       <c r="L21" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V21" s="29"/>
     </row>
@@ -46032,24 +46088,24 @@
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="G24" s="40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J24" s="29"/>
       <c r="L24" s="33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V24" s="29"/>
       <c r="X24" s="37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Z24" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -46059,24 +46115,24 @@
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="G25" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J25" s="29"/>
       <c r="L25" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V25" s="29"/>
       <c r="X25" s="34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z25" s="34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -46095,28 +46151,28 @@
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
       <c r="G27" s="36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J27" s="29"/>
       <c r="L27" s="36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P27" s="36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q27" s="38"/>
       <c r="R27" s="36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="38"/>
       <c r="V27" s="29"/>
       <c r="X27" s="37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -46126,28 +46182,28 @@
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
       <c r="G28" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J28" s="29"/>
       <c r="L28" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
       <c r="V28" s="29"/>
       <c r="X28" s="34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -46168,19 +46224,19 @@
       <c r="G30"/>
       <c r="J30" s="29"/>
       <c r="L30" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="T30" s="40" t="s">
         <v>76</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="P30" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="R30" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="T30" s="40" t="s">
-        <v>80</v>
       </c>
       <c r="V30" s="29"/>
     </row>
@@ -46193,19 +46249,19 @@
       <c r="G31"/>
       <c r="J31" s="29"/>
       <c r="L31" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N31" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P31" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R31" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V31" s="29"/>
     </row>
@@ -46226,13 +46282,13 @@
       <c r="E33" s="29"/>
       <c r="J33" s="29"/>
       <c r="L33" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P33" s="40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R33"/>
       <c r="S33"/>
@@ -46247,13 +46303,13 @@
       <c r="E34" s="29"/>
       <c r="J34" s="29"/>
       <c r="L34" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P34" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R34"/>
       <c r="S34"/>
@@ -46278,20 +46334,20 @@
       <c r="G36"/>
       <c r="J36" s="29"/>
       <c r="L36" s="40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N36" s="30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P36" s="30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R36" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="V36" s="29"/>
       <c r="X36" s="30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -46303,20 +46359,20 @@
       <c r="G37"/>
       <c r="J37" s="29"/>
       <c r="L37" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N37" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P37" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R37" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V37" s="29"/>
       <c r="X37" s="34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -46337,10 +46393,10 @@
       <c r="G39"/>
       <c r="J39" s="29"/>
       <c r="L39" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U39" s="38"/>
       <c r="V39" s="29"/>
@@ -46354,10 +46410,10 @@
       <c r="G40"/>
       <c r="J40" s="29"/>
       <c r="L40" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P40"/>
       <c r="U40" s="35"/>
@@ -46382,20 +46438,20 @@
       <c r="G42"/>
       <c r="J42" s="29"/>
       <c r="L42" s="40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N42" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P42" s="30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R42" s="40" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="V42" s="29"/>
       <c r="X42" s="36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -46407,20 +46463,20 @@
       <c r="G43"/>
       <c r="J43" s="29"/>
       <c r="L43" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P43" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R43" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V43" s="29"/>
       <c r="X43" s="34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="30" customHeight="1">
@@ -46448,21 +46504,21 @@
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="G46" s="30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J46" s="29"/>
       <c r="L46" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N46" s="40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q46"/>
       <c r="R46" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="V46" s="29"/>
     </row>
@@ -46473,21 +46529,21 @@
       <c r="D47" s="28"/>
       <c r="E47" s="29"/>
       <c r="G47" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J47" s="29"/>
       <c r="L47" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N47" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q47"/>
       <c r="R47" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V47" s="29"/>
     </row>
@@ -46512,10 +46568,10 @@
       <c r="G49"/>
       <c r="J49" s="29"/>
       <c r="L49" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N49" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R49"/>
       <c r="V49" s="29"/>
@@ -46529,10 +46585,10 @@
       <c r="G50"/>
       <c r="J50" s="29"/>
       <c r="L50" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N50" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R50"/>
       <c r="V50" s="29"/>
@@ -46562,14 +46618,14 @@
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
       <c r="G53" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J53" s="29"/>
       <c r="L53" s="40" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N53" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P53"/>
       <c r="R53"/>
@@ -46582,14 +46638,14 @@
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
       <c r="G54" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J54" s="29"/>
       <c r="L54" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N54" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P54"/>
       <c r="R54"/>
@@ -46611,14 +46667,14 @@
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
       <c r="G56" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J56" s="29"/>
       <c r="L56" s="36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
@@ -46632,14 +46688,14 @@
       <c r="D57" s="28"/>
       <c r="E57" s="29"/>
       <c r="G57" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J57" s="29"/>
       <c r="L57" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N57" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
@@ -46662,11 +46718,11 @@
       <c r="D59" s="28"/>
       <c r="E59" s="29"/>
       <c r="G59" s="30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J59" s="29"/>
       <c r="L59" s="30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -46681,11 +46737,11 @@
       <c r="D60" s="28"/>
       <c r="E60" s="29"/>
       <c r="G60" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J60" s="29"/>
       <c r="L60" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
@@ -46709,21 +46765,21 @@
       <c r="D62" s="28"/>
       <c r="E62" s="29"/>
       <c r="G62" s="36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J62" s="29"/>
       <c r="L62" s="41" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N62" s="36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P62" s="36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q62"/>
       <c r="R62" s="41" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V62" s="29"/>
     </row>
@@ -46734,21 +46790,21 @@
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
       <c r="G63" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J63" s="29"/>
       <c r="L63" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P63" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q63"/>
       <c r="R63" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V63" s="29"/>
     </row>
@@ -46770,7 +46826,7 @@
       <c r="G65"/>
       <c r="J65" s="29"/>
       <c r="L65" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -46788,7 +46844,7 @@
       <c r="G66"/>
       <c r="J66" s="29"/>
       <c r="L66" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -46816,17 +46872,17 @@
       <c r="E68" s="29"/>
       <c r="F68"/>
       <c r="G68" s="30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J68" s="29"/>
       <c r="L68" s="30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N68" s="40" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P68" s="36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R68"/>
       <c r="V68" s="29"/>
@@ -46838,17 +46894,17 @@
       <c r="D69" s="28"/>
       <c r="E69" s="29"/>
       <c r="G69" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J69" s="29"/>
       <c r="L69" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N69" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P69" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R69"/>
       <c r="V69" s="29"/>
@@ -46870,13 +46926,13 @@
       <c r="E71" s="29"/>
       <c r="J71" s="29"/>
       <c r="L71" s="40" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N71" s="40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P71" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="R71"/>
       <c r="V71" s="29"/>
@@ -46889,13 +46945,13 @@
       <c r="E72" s="29"/>
       <c r="J72" s="29"/>
       <c r="L72" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N72" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P72" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="29"/>
@@ -49144,7 +49200,7 @@
       <c r="D3" s="44"/>
       <c r="E3" s="43"/>
       <c r="F3" s="45" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G3" s="46"/>
       <c r="H3" s="43"/>
@@ -49168,31 +49224,31 @@
       <c r="Z3" s="43"/>
       <c r="AA3" s="42"/>
       <c r="AC3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AH3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AI3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="17" t="s">
+      <c r="AJ3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AK3" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK3" s="22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="11" customHeight="1">
@@ -49230,27 +49286,27 @@
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
       <c r="I5" s="49"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
       <c r="Q5" s="50"/>
       <c r="R5" s="50"/>
       <c r="S5" s="50"/>
       <c r="T5" s="50"/>
       <c r="U5" s="50"/>
       <c r="V5" s="49"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
       <c r="AA5" s="42"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -49366,13 +49422,13 @@
       <c r="E11" s="29"/>
       <c r="J11" s="29"/>
       <c r="L11" s="52" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
@@ -49381,10 +49437,10 @@
       <c r="U11" s="32"/>
       <c r="V11" s="29"/>
       <c r="X11" s="40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Z11" s="52" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1">
@@ -49396,13 +49452,13 @@
       <c r="G12" s="35"/>
       <c r="J12" s="29"/>
       <c r="L12" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
@@ -49411,10 +49467,10 @@
       <c r="U12" s="35"/>
       <c r="V12" s="29"/>
       <c r="X12" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Z12" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="30" customHeight="1">
@@ -49442,17 +49498,17 @@
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="G15" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J15" s="29"/>
       <c r="L15" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
@@ -49468,17 +49524,17 @@
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
       <c r="G16" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J16" s="29"/>
       <c r="L16" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="35"/>
       <c r="R16"/>
@@ -49503,7 +49559,7 @@
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
       <c r="G18" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J18" s="29"/>
       <c r="V18" s="29"/>
@@ -49515,7 +49571,7 @@
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
       <c r="G19" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J19" s="29"/>
       <c r="V19" s="29"/>
@@ -49537,16 +49593,16 @@
       <c r="E21" s="29"/>
       <c r="J21" s="29"/>
       <c r="N21" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P21" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R21" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="T21" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V21" s="29"/>
     </row>
@@ -49558,16 +49614,16 @@
       <c r="E22" s="29"/>
       <c r="J22" s="29"/>
       <c r="N22" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T22" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V22" s="29"/>
     </row>
@@ -49587,11 +49643,11 @@
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="G24" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J24" s="29"/>
       <c r="L24" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="V24" s="29"/>
     </row>
@@ -49602,11 +49658,11 @@
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="G25" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J25" s="29"/>
       <c r="L25" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V25" s="29"/>
     </row>
@@ -49644,17 +49700,17 @@
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
       <c r="G29" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J29" s="29"/>
       <c r="L29" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P29" s="30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
@@ -49670,17 +49726,17 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
       <c r="G30" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J30" s="29"/>
       <c r="L30" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="35"/>
       <c r="R30"/>
@@ -49705,7 +49761,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
       <c r="G32" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J32" s="29"/>
       <c r="V32" s="29"/>
@@ -49717,7 +49773,7 @@
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
       <c r="G33" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J33" s="29"/>
       <c r="V33" s="29"/>
@@ -49739,16 +49795,16 @@
       <c r="E35" s="29"/>
       <c r="J35" s="29"/>
       <c r="N35" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P35" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R35" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="T35" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V35" s="29"/>
     </row>
@@ -49760,16 +49816,16 @@
       <c r="E36" s="29"/>
       <c r="J36" s="29"/>
       <c r="N36" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P36" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R36" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T36" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V36" s="29"/>
     </row>
@@ -49789,11 +49845,11 @@
       <c r="D38" s="28"/>
       <c r="E38" s="29"/>
       <c r="G38" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J38" s="29"/>
       <c r="L38" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="V38" s="29"/>
     </row>
@@ -49804,11 +49860,11 @@
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
       <c r="G39" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J39" s="29"/>
       <c r="L39" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V39" s="29"/>
     </row>
@@ -49846,14 +49902,14 @@
       <c r="D43" s="28"/>
       <c r="E43" s="29"/>
       <c r="G43" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J43" s="29"/>
       <c r="N43" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P43" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U43" s="38"/>
       <c r="V43" s="29"/>
@@ -49865,14 +49921,14 @@
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
       <c r="G44" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J44" s="29"/>
       <c r="N44" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U44"/>
       <c r="V44" s="29"/>
@@ -49893,17 +49949,17 @@
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="G46" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J46" s="29"/>
       <c r="N46" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="R46" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="V46" s="29"/>
     </row>
@@ -49914,17 +49970,17 @@
       <c r="D47" s="28"/>
       <c r="E47" s="29"/>
       <c r="G47" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J47" s="29"/>
       <c r="N47" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R47" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V47" s="29"/>
     </row>
@@ -49944,17 +50000,17 @@
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
       <c r="G49" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J49" s="29"/>
       <c r="N49" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P49" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R49" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V49" s="29"/>
     </row>
@@ -49965,17 +50021,17 @@
       <c r="D50" s="28"/>
       <c r="E50" s="29"/>
       <c r="G50" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J50" s="29"/>
       <c r="N50" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R50" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V50" s="29"/>
     </row>
@@ -50000,10 +50056,10 @@
       <c r="G52"/>
       <c r="J52" s="29"/>
       <c r="N52" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P52" s="30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="R52"/>
       <c r="V52" s="29"/>
@@ -50017,10 +50073,10 @@
       <c r="G53"/>
       <c r="J53" s="29"/>
       <c r="N53" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P53" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R53"/>
       <c r="V53" s="29"/>
@@ -50042,10 +50098,10 @@
       <c r="E55" s="29"/>
       <c r="J55" s="29"/>
       <c r="N55" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P55" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="R55"/>
       <c r="V55" s="29"/>
@@ -50058,10 +50114,10 @@
       <c r="E56" s="29"/>
       <c r="J56" s="29"/>
       <c r="N56" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R56"/>
       <c r="V56" s="29"/>
@@ -50083,13 +50139,13 @@
       <c r="E58" s="29"/>
       <c r="J58" s="29"/>
       <c r="N58" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P58" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="R58" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V58" s="29"/>
     </row>
@@ -50101,13 +50157,13 @@
       <c r="E59" s="29"/>
       <c r="J59" s="29"/>
       <c r="N59" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P59" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R59" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V59" s="29"/>
     </row>
@@ -50145,14 +50201,14 @@
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
       <c r="G63" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J63" s="29"/>
       <c r="N63" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P63" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U63" s="38"/>
       <c r="V63" s="29"/>
@@ -50164,14 +50220,14 @@
       <c r="D64" s="28"/>
       <c r="E64" s="29"/>
       <c r="G64" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J64" s="29"/>
       <c r="N64" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P64" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U64" s="35"/>
       <c r="V64" s="29"/>
@@ -50192,17 +50248,17 @@
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
       <c r="G66" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J66" s="29"/>
       <c r="N66" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P66" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="R66" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="V66" s="29"/>
     </row>
@@ -50213,17 +50269,17 @@
       <c r="D67" s="28"/>
       <c r="E67" s="29"/>
       <c r="G67" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J67" s="29"/>
       <c r="N67" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P67" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R67" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V67" s="29"/>
     </row>
@@ -50243,17 +50299,17 @@
       <c r="D69" s="28"/>
       <c r="E69" s="29"/>
       <c r="G69" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J69" s="29"/>
       <c r="N69" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P69" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R69" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V69" s="29"/>
     </row>
@@ -50264,17 +50320,17 @@
       <c r="D70" s="28"/>
       <c r="E70" s="29"/>
       <c r="G70" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J70" s="29"/>
       <c r="N70" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P70" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R70" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V70" s="29"/>
     </row>
@@ -50297,14 +50353,14 @@
       <c r="E72" s="29"/>
       <c r="F72"/>
       <c r="G72" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J72" s="29"/>
       <c r="N72" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P72" s="40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="29"/>
@@ -50316,14 +50372,14 @@
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="G73" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J73" s="29"/>
       <c r="N73" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P73" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R73"/>
       <c r="V73" s="29"/>
@@ -50345,10 +50401,10 @@
       <c r="E75" s="29"/>
       <c r="J75" s="29"/>
       <c r="N75" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P75" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="R75"/>
       <c r="V75" s="29"/>
@@ -50361,10 +50417,10 @@
       <c r="E76" s="29"/>
       <c r="J76" s="29"/>
       <c r="N76" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P76" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R76"/>
       <c r="V76" s="29"/>
@@ -50386,13 +50442,13 @@
       <c r="E78" s="29"/>
       <c r="J78" s="29"/>
       <c r="N78" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P78" s="41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V78" s="29"/>
     </row>
@@ -50404,13 +50460,13 @@
       <c r="E79" s="29"/>
       <c r="J79" s="29"/>
       <c r="N79" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P79" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R79" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V79" s="29"/>
     </row>
@@ -50444,25 +50500,25 @@
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
       <c r="G83" s="30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J83" s="29"/>
       <c r="L83" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N83" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P83" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="R83" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="U83" s="38"/>
       <c r="V83" s="29"/>
       <c r="X83" s="30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50472,25 +50528,25 @@
       <c r="D84" s="28"/>
       <c r="E84" s="29"/>
       <c r="G84" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J84" s="29"/>
       <c r="L84" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N84" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P84" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R84" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U84"/>
       <c r="V84" s="29"/>
       <c r="X84" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50509,24 +50565,24 @@
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
       <c r="G86" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J86" s="29"/>
       <c r="L86" s="30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N86" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P86" s="30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R86" s="30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V86" s="29"/>
       <c r="X86" s="30" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50536,24 +50592,24 @@
       <c r="D87" s="28"/>
       <c r="E87" s="29"/>
       <c r="G87" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J87" s="29"/>
       <c r="L87" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N87" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P87" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R87" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V87" s="29"/>
       <c r="X87" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50572,24 +50628,24 @@
       <c r="D89" s="28"/>
       <c r="E89" s="29"/>
       <c r="G89" s="30" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J89" s="29"/>
       <c r="L89" s="30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N89" s="40" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P89" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="R89" s="30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="V89" s="29"/>
       <c r="X89" s="30" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50599,24 +50655,24 @@
       <c r="D90" s="28"/>
       <c r="E90" s="29"/>
       <c r="G90" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J90" s="29"/>
       <c r="L90" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N90" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P90" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R90" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V90" s="29"/>
       <c r="X90" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50638,24 +50694,24 @@
       <c r="E92" s="29"/>
       <c r="F92"/>
       <c r="G92" s="41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J92" s="29"/>
       <c r="L92" s="40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P92" s="30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R92" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="V92" s="29"/>
       <c r="X92" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50665,24 +50721,24 @@
       <c r="D93" s="28"/>
       <c r="E93" s="29"/>
       <c r="G93" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J93" s="29"/>
       <c r="L93" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N93" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P93" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R93" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V93" s="29"/>
       <c r="X93" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50701,14 +50757,14 @@
       <c r="D95" s="28"/>
       <c r="E95" s="29"/>
       <c r="G95" s="40" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J95" s="29"/>
       <c r="L95" s="30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P95"/>
       <c r="Q95"/>
@@ -50722,14 +50778,14 @@
       <c r="D96" s="28"/>
       <c r="E96" s="29"/>
       <c r="G96" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J96" s="29"/>
       <c r="L96" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N96" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P96"/>
       <c r="Q96"/>
@@ -50755,7 +50811,7 @@
       <c r="D98" s="28"/>
       <c r="E98" s="29"/>
       <c r="G98" s="30" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J98" s="29"/>
       <c r="L98"/>
@@ -50774,7 +50830,7 @@
       <c r="D99" s="28"/>
       <c r="E99" s="29"/>
       <c r="G99" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J99" s="29"/>
       <c r="L99"/>
@@ -50799,7 +50855,7 @@
       <c r="E101" s="29"/>
       <c r="F101" s="53"/>
       <c r="G101" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J101" s="29"/>
       <c r="V101" s="29"/>
@@ -50807,7 +50863,7 @@
     <row r="102" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="E102" s="29"/>
       <c r="G102" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J102" s="29"/>
       <c r="V102" s="29"/>
@@ -50823,16 +50879,16 @@
       <c r="G104" s="54"/>
       <c r="J104" s="29"/>
       <c r="L104" s="30" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N104" s="40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P104" s="30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="R104" s="30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="V104" s="29"/>
     </row>
@@ -50840,16 +50896,16 @@
       <c r="E105" s="29"/>
       <c r="J105" s="29"/>
       <c r="L105" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N105" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P105" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R105" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V105" s="29"/>
     </row>
@@ -50862,10 +50918,10 @@
       <c r="E107" s="29"/>
       <c r="J107" s="29"/>
       <c r="L107" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V107" s="29"/>
     </row>
@@ -50873,10 +50929,10 @@
       <c r="E108" s="29"/>
       <c r="J108" s="29"/>
       <c r="L108" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N108" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V108" s="29"/>
     </row>
@@ -50906,30 +50962,30 @@
       <c r="D112" s="28"/>
       <c r="E112" s="29"/>
       <c r="G112" s="30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J112" s="29"/>
       <c r="L112" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N112" s="40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P112" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q112" s="38"/>
       <c r="R112" s="30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="S112" s="38"/>
       <c r="T112" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="U112" s="38"/>
       <c r="V112" s="29"/>
       <c r="X112" s="30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1">
@@ -50939,30 +50995,30 @@
       <c r="D113" s="28"/>
       <c r="E113" s="29"/>
       <c r="G113" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J113" s="29"/>
       <c r="L113" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N113" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P113" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q113" s="35"/>
       <c r="R113" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S113" s="35"/>
       <c r="T113" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U113" s="35"/>
       <c r="V113" s="29"/>
       <c r="X113" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="30" customHeight="1" thickBot="1">
@@ -50981,27 +51037,27 @@
       <c r="D115" s="28"/>
       <c r="E115" s="29"/>
       <c r="G115" s="40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J115" s="29"/>
       <c r="L115" s="30" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N115" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P115" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R115" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T115" s="30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="V115" s="29"/>
       <c r="X115" s="30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="30" customHeight="1" thickBot="1">
@@ -51011,27 +51067,27 @@
       <c r="D116" s="28"/>
       <c r="E116" s="29"/>
       <c r="G116" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J116" s="29"/>
       <c r="L116" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N116" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P116" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R116" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T116" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V116" s="29"/>
       <c r="X116" s="34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="30" customHeight="1">
@@ -51722,7 +51778,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
@@ -51916,7 +51972,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
@@ -52056,7 +52112,7 @@
     <row r="14" spans="1:32" ht="28">
       <c r="C14"/>
       <c r="D14" s="79" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="28">
@@ -52068,41 +52124,41 @@
       <c r="D16" s="79"/>
     </row>
     <row r="17" spans="3:21">
-      <c r="D17" s="120" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="137" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137" t="s">
-        <v>213</v>
-      </c>
-      <c r="K17" s="137"/>
-      <c r="L17" s="120" t="s">
-        <v>214</v>
-      </c>
-      <c r="M17" s="121"/>
+      <c r="D17" s="119" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="136"/>
+      <c r="L17" s="119" t="s">
+        <v>210</v>
+      </c>
+      <c r="M17" s="120"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="D18" s="121"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="129"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="128"/>
     </row>
     <row r="22" spans="3:21" ht="28">
       <c r="C22"/>
       <c r="D22" s="79" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="3:21" ht="28">
@@ -52114,70 +52170,70 @@
       <c r="D24" s="79"/>
     </row>
     <row r="25" spans="3:21">
-      <c r="D25" s="137" t="s">
+      <c r="D25" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="120" t="s">
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" s="119" t="s">
+        <v>217</v>
+      </c>
+      <c r="N25" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="H25" s="137" t="s">
-        <v>211</v>
-      </c>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="120" t="s">
+      <c r="P25" s="136"/>
+      <c r="Q25" s="136" t="s">
+        <v>222</v>
+      </c>
+      <c r="R25" s="136"/>
+      <c r="S25" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="M25" s="120" t="s">
+      <c r="T25" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="N25" s="120" t="s">
-        <v>222</v>
-      </c>
-      <c r="O25" s="137" t="s">
-        <v>223</v>
-      </c>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="R25" s="137"/>
-      <c r="S25" s="120" t="s">
-        <v>224</v>
-      </c>
-      <c r="T25" s="120" t="s">
-        <v>225</v>
-      </c>
-      <c r="U25" s="121"/>
+      <c r="U25" s="120"/>
     </row>
     <row r="26" spans="3:21">
-      <c r="D26" s="128"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="129"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="128"/>
     </row>
     <row r="27" spans="3:21" ht="17" customHeight="1"/>
     <row r="30" spans="3:21" ht="28">
       <c r="C30"/>
       <c r="D30" s="79" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="3:21" ht="16" customHeight="1">
@@ -52193,130 +52249,130 @@
       <c r="D33" s="79"/>
     </row>
     <row r="34" spans="3:41" s="80" customFormat="1" ht="68">
-      <c r="D34" s="138" t="s">
+      <c r="D34" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138" t="s">
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="111" t="s">
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="M34" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="N34" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="O34" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q34" s="138" t="s">
+        <v>224</v>
+      </c>
+      <c r="R34" s="138"/>
+      <c r="S34" s="111" t="s">
+        <v>232</v>
+      </c>
+      <c r="T34" s="111" t="s">
+        <v>238</v>
+      </c>
+      <c r="U34" s="111" t="s">
+        <v>237</v>
+      </c>
+      <c r="V34" s="113" t="s">
+        <v>233</v>
+      </c>
+      <c r="W34" s="113" t="s">
+        <v>235</v>
+      </c>
+      <c r="X34" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y34" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z34" s="134" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA34" s="134"/>
+      <c r="AB34" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC34" s="134"/>
+      <c r="AD34" s="134" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE34" s="134"/>
+      <c r="AF34" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG34" s="134"/>
+      <c r="AH34" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI34" s="134"/>
+      <c r="AJ34" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK34" s="133"/>
+      <c r="AL34" s="132" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM34" s="132"/>
+      <c r="AN34" s="132" t="s">
         <v>229</v>
       </c>
-      <c r="M34" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="N34" s="112" t="s">
-        <v>231</v>
-      </c>
-      <c r="O34" s="113" t="s">
-        <v>234</v>
-      </c>
-      <c r="P34" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q34" s="139" t="s">
-        <v>228</v>
-      </c>
-      <c r="R34" s="139"/>
-      <c r="S34" s="112" t="s">
-        <v>236</v>
-      </c>
-      <c r="T34" s="112" t="s">
-        <v>242</v>
-      </c>
-      <c r="U34" s="112" t="s">
-        <v>241</v>
-      </c>
-      <c r="V34" s="114" t="s">
-        <v>237</v>
-      </c>
-      <c r="W34" s="114" t="s">
-        <v>239</v>
-      </c>
-      <c r="X34" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y34" s="114" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z34" s="135" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA34" s="135"/>
-      <c r="AB34" s="135" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC34" s="135"/>
-      <c r="AD34" s="135" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE34" s="135"/>
-      <c r="AF34" s="135" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG34" s="135"/>
-      <c r="AH34" s="135" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI34" s="135"/>
-      <c r="AJ34" s="134" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK34" s="134"/>
-      <c r="AL34" s="133" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM34" s="133"/>
-      <c r="AN34" s="133" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO34" s="133"/>
+      <c r="AO34" s="132"/>
     </row>
     <row r="35" spans="3:41">
-      <c r="D35" s="128"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="142"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="116"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="116"/>
-      <c r="V35" s="119"/>
-      <c r="W35" s="119"/>
-      <c r="X35" s="119"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="136"/>
-      <c r="AA35" s="136"/>
-      <c r="AB35" s="136"/>
-      <c r="AC35" s="136"/>
-      <c r="AD35" s="136"/>
-      <c r="AE35" s="136"/>
-      <c r="AF35" s="136"/>
-      <c r="AG35" s="136"/>
-      <c r="AH35" s="136"/>
-      <c r="AI35" s="136"/>
-      <c r="AJ35" s="131"/>
-      <c r="AK35" s="131"/>
-      <c r="AL35" s="130"/>
-      <c r="AM35" s="130"/>
-      <c r="AN35" s="130"/>
-      <c r="AO35" s="130"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="117"/>
+      <c r="S35" s="115"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="118"/>
+      <c r="W35" s="118"/>
+      <c r="X35" s="118"/>
+      <c r="Y35" s="118"/>
+      <c r="Z35" s="135"/>
+      <c r="AA35" s="135"/>
+      <c r="AB35" s="135"/>
+      <c r="AC35" s="135"/>
+      <c r="AD35" s="135"/>
+      <c r="AE35" s="135"/>
+      <c r="AF35" s="135"/>
+      <c r="AG35" s="135"/>
+      <c r="AH35" s="135"/>
+      <c r="AI35" s="135"/>
+      <c r="AJ35" s="130"/>
+      <c r="AK35" s="130"/>
+      <c r="AL35" s="129"/>
+      <c r="AM35" s="129"/>
+      <c r="AN35" s="129"/>
+      <c r="AO35" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -52447,7 +52503,7 @@
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="59"/>
@@ -52589,11 +52645,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
-  <dimension ref="A1:AF401"/>
+  <dimension ref="A1:AF407"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
@@ -52661,7 +52715,7 @@
       <c r="E3" s="58"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H3" s="59"/>
       <c r="I3" s="58"/>
@@ -52678,31 +52732,31 @@
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
       <c r="X3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="AC3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="AD3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AE3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AF3" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF3" s="22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -52795,19 +52849,19 @@
       <c r="B10" s="86"/>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
-      <c r="E10" s="88" t="s">
-        <v>216</v>
+      <c r="E10" s="152" t="s">
+        <v>212</v>
       </c>
       <c r="F10" s="70"/>
-      <c r="G10" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="143"/>
-      <c r="I10" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
+      <c r="G10" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="142"/>
+      <c r="I10" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B11" s="86"/>
@@ -52815,15 +52869,15 @@
       <c r="D11" s="87"/>
       <c r="E11" s="87"/>
       <c r="F11" s="71"/>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91"/>
     </row>
     <row r="12" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B12" s="86"/>
@@ -52831,15 +52885,15 @@
       <c r="D12" s="87"/>
       <c r="E12" s="87"/>
       <c r="F12" s="72"/>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="145"/>
-      <c r="I12" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B13" s="81" t="s">
@@ -52848,76 +52902,76 @@
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
-      <c r="F13" s="95"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="81"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="70"/>
-      <c r="G14" s="89" t="s">
+      <c r="G14" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="143"/>
-      <c r="I14" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
     </row>
     <row r="15" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="71"/>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
     </row>
     <row r="16" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="73"/>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="144"/>
-      <c r="I16" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
     </row>
     <row r="17" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="72"/>
-      <c r="G17" s="93" t="s">
+      <c r="G17" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="145"/>
-      <c r="I17" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
     </row>
     <row r="18" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B18" s="81" t="s">
@@ -52927,11 +52981,11 @@
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="68"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="97"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
     </row>
     <row r="19" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B19" s="81" t="s">
@@ -52940,180 +52994,180 @@
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
-      <c r="F19" s="95"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="81"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="97"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
     </row>
     <row r="20" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="78" t="s">
-        <v>216</v>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="151" t="s">
+        <v>212</v>
       </c>
       <c r="F20" s="70"/>
-      <c r="G20" s="146" t="s">
+      <c r="G20" s="145" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+    </row>
+    <row r="21" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="143" t="s">
+        <v>252</v>
+      </c>
+      <c r="I21" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91"/>
+    </row>
+    <row r="22" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="146" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="143" t="s">
+        <v>252</v>
+      </c>
+      <c r="I22" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91"/>
+    </row>
+    <row r="23" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="100"/>
+      <c r="G23" s="146" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23" s="143" t="s">
+        <v>252</v>
+      </c>
+      <c r="I23" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
+    </row>
+    <row r="24" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="100"/>
+      <c r="G24" s="146" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" s="143" t="s">
+        <v>252</v>
+      </c>
+      <c r="I24" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91"/>
+    </row>
+    <row r="25" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="100"/>
+      <c r="G25" s="146" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="143" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91"/>
+    </row>
+    <row r="26" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="100"/>
+      <c r="G26" s="146" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="143" t="s">
-        <v>254</v>
-      </c>
-      <c r="I20" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-    </row>
-    <row r="21" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="147" t="s">
-        <v>250</v>
-      </c>
-      <c r="H21" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="I21" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-    </row>
-    <row r="22" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="147" t="s">
-        <v>251</v>
-      </c>
-      <c r="H22" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="I22" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-    </row>
-    <row r="23" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" s="101"/>
-      <c r="G23" s="147" t="s">
+      <c r="H26" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="H23" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="I23" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-    </row>
-    <row r="24" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="147" t="s">
-        <v>248</v>
-      </c>
-      <c r="H24" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="I24" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-    </row>
-    <row r="25" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="147" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="I25" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-    </row>
-    <row r="26" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="147" t="s">
-        <v>253</v>
-      </c>
-      <c r="H26" s="144" t="s">
-        <v>254</v>
-      </c>
-      <c r="I26" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
+      <c r="I26" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="90"/>
+      <c r="K26" s="91"/>
     </row>
     <row r="27" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
       <c r="F27" s="73"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91"/>
     </row>
     <row r="28" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
       <c r="F28" s="74"/>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="145"/>
-      <c r="I28" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="93"/>
-      <c r="K28" s="94"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="92"/>
+      <c r="K28" s="93"/>
     </row>
     <row r="29" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B29" s="81" t="s">
@@ -53122,306 +53176,414 @@
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
       <c r="E29" s="81"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="97"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
     </row>
     <row r="30" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B30" s="98"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="78" t="s">
-        <v>216</v>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="151" t="s">
+        <v>212</v>
       </c>
       <c r="F30" s="70"/>
-      <c r="G30" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="143"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
+      <c r="G30" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="142" t="s">
+        <v>250</v>
+      </c>
+      <c r="I30" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
     </row>
     <row r="31" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B31" s="98"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="78" t="s">
-        <v>216</v>
+      <c r="B31" s="97"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="151" t="s">
+        <v>212</v>
       </c>
       <c r="F31" s="73"/>
-      <c r="G31" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="144"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="103"/>
+      <c r="G31" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="143" t="s">
+        <v>250</v>
+      </c>
+      <c r="I31" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="101"/>
+      <c r="K31" s="102"/>
     </row>
     <row r="32" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="78" t="s">
-        <v>216</v>
+      <c r="B32" s="97"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="151" t="s">
+        <v>212</v>
       </c>
       <c r="F32" s="73"/>
-      <c r="G32" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="144"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="92"/>
+      <c r="G32" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="H32" s="143" t="s">
+        <v>250</v>
+      </c>
+      <c r="I32" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="90"/>
+      <c r="K32" s="91"/>
     </row>
     <row r="33" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B33" s="98"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="78" t="s">
-        <v>216</v>
+      <c r="B33" s="97"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="151" t="s">
+        <v>212</v>
       </c>
       <c r="F33" s="75"/>
-      <c r="G33" s="93" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33" s="145"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="94"/>
+      <c r="G33" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="144" t="s">
+        <v>250</v>
+      </c>
+      <c r="I33" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="92"/>
+      <c r="K33" s="93"/>
     </row>
     <row r="34" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B34" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="96"/>
+    </row>
+    <row r="35" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B35" s="97"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="89"/>
+    </row>
+    <row r="36" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B36" s="97"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="143" t="s">
+        <v>252</v>
+      </c>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="91"/>
+    </row>
+    <row r="37" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B37" s="97"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="H37" s="143" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="91"/>
+    </row>
+    <row r="38" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B38" s="97"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="90" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="143" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="91"/>
+    </row>
+    <row r="39" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B39" s="97"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="77"/>
+      <c r="G39" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" s="143" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="91"/>
+    </row>
+    <row r="40" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B40" s="97"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" s="77"/>
+      <c r="G40" s="90" t="s">
+        <v>257</v>
+      </c>
+      <c r="H40" s="143" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="91"/>
+    </row>
+    <row r="41" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B41" s="97"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="90" t="s">
+        <v>258</v>
+      </c>
+      <c r="H41" s="143" t="s">
+        <v>250</v>
+      </c>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="91"/>
+    </row>
+    <row r="42" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B42" s="97"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="97"/>
-    </row>
-    <row r="35" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B35" s="98"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="89" t="s">
+      <c r="H42" s="143" t="s">
+        <v>252</v>
+      </c>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="91"/>
+    </row>
+    <row r="43" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B43" s="97"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="147"/>
+      <c r="G43" s="148" t="s">
+        <v>259</v>
+      </c>
+      <c r="H43" s="149" t="s">
+        <v>252</v>
+      </c>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="150"/>
+    </row>
+    <row r="44" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B44" s="97"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="H44" s="144" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="93"/>
+    </row>
+    <row r="45" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B45" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="143"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="90"/>
-    </row>
-    <row r="36" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B36" s="98"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="91" t="s">
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="107"/>
+    </row>
+    <row r="46" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B46" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="144"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="92"/>
-    </row>
-    <row r="37" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="144"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="92"/>
-    </row>
-    <row r="38" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B38" s="98"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="145"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="94"/>
-    </row>
-    <row r="39" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B39" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="108"/>
-    </row>
-    <row r="40" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B40" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="97"/>
-    </row>
-    <row r="41" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="143"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="90"/>
-    </row>
-    <row r="42" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="144"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="92"/>
-    </row>
-    <row r="43" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="144"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="92"/>
-    </row>
-    <row r="44" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B44" s="98"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="92"/>
-    </row>
-    <row r="45" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B45" s="98"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="92"/>
-    </row>
-    <row r="46" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B46" s="98"/>
       <c r="C46" s="99"/>
       <c r="D46" s="99"/>
       <c r="E46" s="99"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="92"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="96"/>
     </row>
     <row r="47" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B47" s="98"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="92"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="142"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="89"/>
     </row>
     <row r="48" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B48" s="98"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="92"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="143"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="91"/>
     </row>
     <row r="49" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B49" s="109"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="94"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="143"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="91"/>
     </row>
     <row r="50" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="F50" s="69"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="91"/>
     </row>
     <row r="51" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="F51" s="69"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="91"/>
     </row>
     <row r="52" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="F52" s="69"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="91"/>
     </row>
     <row r="53" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="F53" s="69"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="91"/>
     </row>
     <row r="54" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="F54" s="69"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="91"/>
     </row>
     <row r="55" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="F55" s="69"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="93"/>
     </row>
     <row r="56" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F56" s="69"/>
@@ -53597,7 +53759,7 @@
     <row r="113" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F113" s="69"/>
     </row>
-    <row r="114" spans="1:8" s="62" customFormat="1" ht="27" customHeight="1">
+    <row r="114" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F114" s="69"/>
     </row>
     <row r="115" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
@@ -53606,65 +53768,23 @@
     <row r="116" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F116" s="69"/>
     </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="62"/>
-      <c r="B117" s="62"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
+    <row r="117" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F117" s="69"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="62"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="62"/>
-      <c r="B118" s="62"/>
-      <c r="C118" s="62"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
+    </row>
+    <row r="118" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F118" s="69"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="62"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="62"/>
-      <c r="B119" s="62"/>
-      <c r="C119" s="62"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
+    </row>
+    <row r="119" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F119" s="69"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="62"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="62"/>
-      <c r="B120" s="62"/>
-      <c r="C120" s="62"/>
-      <c r="D120" s="62"/>
-      <c r="E120" s="62"/>
+    </row>
+    <row r="120" spans="1:8" s="62" customFormat="1" ht="27" customHeight="1">
       <c r="F120" s="69"/>
-      <c r="G120" s="62"/>
-      <c r="H120" s="62"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="62"/>
-      <c r="B121" s="62"/>
-      <c r="C121" s="62"/>
-      <c r="D121" s="62"/>
-      <c r="E121" s="62"/>
+    </row>
+    <row r="121" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F121" s="69"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="62"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="62"/>
-      <c r="B122" s="62"/>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
+    </row>
+    <row r="122" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F122" s="69"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="62"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="62"/>
@@ -53726,52 +53846,94 @@
       <c r="G128" s="62"/>
       <c r="H128" s="62"/>
     </row>
-    <row r="129" spans="6:6">
+    <row r="129" spans="1:8">
+      <c r="A129" s="62"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="62"/>
       <c r="F129" s="69"/>
-    </row>
-    <row r="130" spans="6:6">
+      <c r="G129" s="62"/>
+      <c r="H129" s="62"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="62"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="62"/>
+      <c r="E130" s="62"/>
       <c r="F130" s="69"/>
-    </row>
-    <row r="131" spans="6:6">
+      <c r="G130" s="62"/>
+      <c r="H130" s="62"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="62"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="62"/>
+      <c r="E131" s="62"/>
       <c r="F131" s="69"/>
-    </row>
-    <row r="132" spans="6:6">
+      <c r="G131" s="62"/>
+      <c r="H131" s="62"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="62"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="62"/>
+      <c r="D132" s="62"/>
+      <c r="E132" s="62"/>
       <c r="F132" s="69"/>
-    </row>
-    <row r="133" spans="6:6">
+      <c r="G132" s="62"/>
+      <c r="H132" s="62"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="62"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="62"/>
       <c r="F133" s="69"/>
-    </row>
-    <row r="134" spans="6:6">
+      <c r="G133" s="62"/>
+      <c r="H133" s="62"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="62"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="62"/>
       <c r="F134" s="69"/>
-    </row>
-    <row r="135" spans="6:6">
+      <c r="G134" s="62"/>
+      <c r="H134" s="62"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="F135" s="69"/>
     </row>
-    <row r="136" spans="6:6">
+    <row r="136" spans="1:8">
       <c r="F136" s="69"/>
     </row>
-    <row r="137" spans="6:6">
+    <row r="137" spans="1:8">
       <c r="F137" s="69"/>
     </row>
-    <row r="138" spans="6:6">
+    <row r="138" spans="1:8">
       <c r="F138" s="69"/>
     </row>
-    <row r="139" spans="6:6">
+    <row r="139" spans="1:8">
       <c r="F139" s="69"/>
     </row>
-    <row r="140" spans="6:6">
+    <row r="140" spans="1:8">
       <c r="F140" s="69"/>
     </row>
-    <row r="141" spans="6:6">
+    <row r="141" spans="1:8">
       <c r="F141" s="69"/>
     </row>
-    <row r="142" spans="6:6">
+    <row r="142" spans="1:8">
       <c r="F142" s="69"/>
     </row>
-    <row r="143" spans="6:6">
+    <row r="143" spans="1:8">
       <c r="F143" s="69"/>
     </row>
-    <row r="144" spans="6:6">
+    <row r="144" spans="1:8">
       <c r="F144" s="69"/>
     </row>
     <row r="145" spans="6:6">
@@ -54545,8 +54707,26 @@
     <row r="401" spans="6:6">
       <c r="F401" s="69"/>
     </row>
+    <row r="402" spans="6:6">
+      <c r="F402" s="69"/>
+    </row>
+    <row r="403" spans="6:6">
+      <c r="F403" s="69"/>
+    </row>
+    <row r="404" spans="6:6">
+      <c r="F404" s="69"/>
+    </row>
+    <row r="405" spans="6:6">
+      <c r="F405" s="69"/>
+    </row>
+    <row r="406" spans="6:6">
+      <c r="F406" s="69"/>
+    </row>
+    <row r="407" spans="6:6">
+      <c r="F407" s="69"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:F128">
+  <conditionalFormatting sqref="F8:F134">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>$Y$3</formula>
     </cfRule>
@@ -54575,6 +54755,9 @@
     <hyperlink ref="E26" location="Table_WindowsEnrollment" display="🚦" xr:uid="{DE507200-CEB6-3243-BED2-C3C30F98C48F}"/>
     <hyperlink ref="E20:E26" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{3A549D6D-14CB-DF43-9030-B6A5AB6125ED}"/>
     <hyperlink ref="E30:E33" location="Table_EnrollmentDevicePlatformRestrictions" display="🚦" xr:uid="{8E195C76-CEC1-F84A-983C-906F37236965}"/>
+    <hyperlink ref="E39" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{BCBE9148-2D47-3247-822C-0F59830EAB4A}"/>
+    <hyperlink ref="E43" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{926241E4-CD42-474B-8E11-F444A9AA977E}"/>
+    <hyperlink ref="E40" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{DF8D7B5A-DFE1-3C4B-8514-0792D497ADA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10612"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E8F80-FDBF-2E4D-B592-7085C4DCF923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE3FD7B-5F21-C342-AE22-EECB8DE67A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34600" yWindow="-20500" windowWidth="28800" windowHeight="18000" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
+    <workbookView xWindow="0" yWindow="-23040" windowWidth="40960" windowHeight="23040" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,18 @@
     <definedName name="CH00010_DeviceCompliance_iOS">'Device ☑️'!$F$24</definedName>
     <definedName name="CH00011_DeviceCompliance_macOS">'Device ☑️'!$F$25</definedName>
     <definedName name="CH00012_DeviceCompliance_Windows">'Device ☑️'!$F$26</definedName>
-    <definedName name="CH00013_DeviceCompliance_iOS_Jailbreak">'Device ☑️'!$F$39</definedName>
-    <definedName name="CH00014_DeviceCompliance_Windows_BitLocker">'Device ☑️'!$F$43</definedName>
-    <definedName name="CH00015_DeviceCompliance_DefenderEndPoint">'Device ☑️'!$F$40</definedName>
+    <definedName name="CH00013_DeviceCompliance_iOS_Jailbreak">'Device ☑️'!$F$40</definedName>
+    <definedName name="CH00014_DeviceCompliance_Windows_BitLocker">'Device ☑️'!$F$44</definedName>
+    <definedName name="CH00015_DeviceCompliance_AndroidRoot">'Device ☑️'!$F$39</definedName>
+    <definedName name="CH00015_DeviceCompliance_DefenderEndPoint">'Device ☑️'!$F$41</definedName>
     <definedName name="Device_CP">'Device ☑️'!$B$19</definedName>
-    <definedName name="Device_CP_ADA">'Device ☑️'!$C$72:$C$80</definedName>
-    <definedName name="Device_CP_AECorp">'Device ☑️'!$C$85:$C$93</definedName>
-    <definedName name="Device_CP_AEPersonal">'Device ☑️'!$C$98:$C$106</definedName>
-    <definedName name="Device_CP_AOSP">'Device ☑️'!$C$59:$C$68</definedName>
-    <definedName name="Device_CP_iOS">'Device ☑️'!$C$111:$C$119</definedName>
-    <definedName name="Device_CP_macOS">'Device ☑️'!$C$124:$C$139</definedName>
-    <definedName name="Device_CP_Windows">'Device ☑️'!$C$144:$C$160</definedName>
+    <definedName name="Device_CP_ADA">'Device ☑️'!$C$73:$C$81</definedName>
+    <definedName name="Device_CP_AECorp">'Device ☑️'!$C$86:$C$94</definedName>
+    <definedName name="Device_CP_AEPersonal">'Device ☑️'!$C$99:$C$107</definedName>
+    <definedName name="Device_CP_AOSP">'Device ☑️'!$C$60:$C$69</definedName>
+    <definedName name="Device_CP_iOS">'Device ☑️'!$C$112:$C$120</definedName>
+    <definedName name="Device_CP_macOS">'Device ☑️'!$C$125:$C$140</definedName>
+    <definedName name="Device_CP_Windows">'Device ☑️'!$C$145:$C$161</definedName>
     <definedName name="HeaderAssessedOn">Home!$E$7</definedName>
     <definedName name="HeaderTenantId">Home!$E$5</definedName>
     <definedName name="HeaderTitle">Home!$E$3</definedName>
@@ -1192,7 +1193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="263">
   <si>
     <t>Devices: Info</t>
   </si>
@@ -2050,6 +2051,9 @@
   </si>
   <si>
     <t>iOS Jailbreak detection is Enabled - App Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android root detection is Enabled - Device Compliance Policy </t>
   </si>
 </sst>
 </file>
@@ -3169,47 +3173,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3242,6 +3205,47 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -42136,7 +42140,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -42301,13 +42305,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42368,13 +42372,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>491400</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>46900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -42418,7 +42422,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -42583,13 +42587,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42650,7 +42654,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -42815,13 +42819,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42882,7 +42886,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -43047,13 +43051,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -43114,7 +43118,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -43293,13 +43297,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -43360,13 +43364,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7742870</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>216064</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43410,7 +43414,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -43603,13 +43607,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>98200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -43670,13 +43674,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>232730</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>520930</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>72299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43720,13 +43724,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7772400</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>245594</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43770,13 +43774,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>181930</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>470130</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>84999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43820,13 +43824,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7721600</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>194794</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43870,13 +43874,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>194630</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>482830</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>72299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43920,13 +43924,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7734300</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>207494</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43970,13 +43974,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>194630</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>482830</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>84999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44020,13 +44024,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>181930</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>470130</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>186599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44070,13 +44074,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7696200</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>186999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44120,7 +44124,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -44314,13 +44318,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>161700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -44381,13 +44385,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>181930</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>470130</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>46899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44431,13 +44435,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7708901</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>173376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>139701</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>61063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44481,13 +44485,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7747001</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>50921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44533,13 +44537,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7823200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44587,13 +44591,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>317500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44641,13 +44645,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44695,13 +44699,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44749,13 +44753,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44803,13 +44807,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44857,13 +44861,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7848600</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -45676,27 +45680,27 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
       <c r="I5" s="23"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
       <c r="V5" s="23"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="124"/>
-      <c r="Z5" s="124"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -49286,27 +49290,27 @@
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
       <c r="I5" s="49"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
       <c r="Q5" s="50"/>
       <c r="R5" s="50"/>
       <c r="S5" s="50"/>
       <c r="T5" s="50"/>
       <c r="U5" s="50"/>
       <c r="V5" s="49"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
       <c r="AA5" s="42"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -51921,7 +51925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10B830-2EC7-4D7B-A783-4C17DFC99A4F}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D35" sqref="D35:F35"/>
     </sheetView>
   </sheetViews>
@@ -52127,17 +52131,17 @@
       <c r="D17" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="136" t="s">
+      <c r="E17" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136" t="s">
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138" t="s">
         <v>209</v>
       </c>
-      <c r="K17" s="136"/>
+      <c r="K17" s="138"/>
       <c r="L17" s="119" t="s">
         <v>210</v>
       </c>
@@ -52145,15 +52149,15 @@
     </row>
     <row r="18" spans="3:21">
       <c r="D18" s="120"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="128"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="142"/>
     </row>
     <row r="22" spans="3:21" ht="28">
       <c r="C22"/>
@@ -52170,20 +52174,20 @@
       <c r="D24" s="79"/>
     </row>
     <row r="25" spans="3:21">
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="H25" s="136" t="s">
+      <c r="H25" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
       <c r="L25" s="119" t="s">
         <v>216</v>
       </c>
@@ -52193,14 +52197,14 @@
       <c r="N25" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="O25" s="136" t="s">
+      <c r="O25" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="P25" s="136"/>
-      <c r="Q25" s="136" t="s">
+      <c r="P25" s="138"/>
+      <c r="Q25" s="138" t="s">
         <v>222</v>
       </c>
-      <c r="R25" s="136"/>
+      <c r="R25" s="138"/>
       <c r="S25" s="119" t="s">
         <v>220</v>
       </c>
@@ -52210,24 +52214,24 @@
       <c r="U25" s="120"/>
     </row>
     <row r="26" spans="3:21">
-      <c r="D26" s="127"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="128"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="121"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="128"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
       <c r="L26" s="120"/>
       <c r="M26" s="122"/>
       <c r="N26" s="122"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="128"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="128"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="142"/>
       <c r="S26" s="120"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="128"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="142"/>
     </row>
     <row r="27" spans="3:21" ht="17" customHeight="1"/>
     <row r="30" spans="3:21" ht="28">
@@ -52249,18 +52253,18 @@
       <c r="D33" s="79"/>
     </row>
     <row r="34" spans="3:41" s="80" customFormat="1" ht="68">
-      <c r="D34" s="137" t="s">
+      <c r="D34" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137" t="s">
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
       <c r="L34" s="110" t="s">
         <v>225</v>
       </c>
@@ -52276,10 +52280,10 @@
       <c r="P34" s="111" t="s">
         <v>231</v>
       </c>
-      <c r="Q34" s="138" t="s">
+      <c r="Q34" s="145" t="s">
         <v>224</v>
       </c>
-      <c r="R34" s="138"/>
+      <c r="R34" s="145"/>
       <c r="S34" s="111" t="s">
         <v>232</v>
       </c>
@@ -52301,48 +52305,48 @@
       <c r="Y34" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="Z34" s="134" t="s">
+      <c r="Z34" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="AA34" s="134"/>
-      <c r="AB34" s="134" t="s">
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="AC34" s="134"/>
-      <c r="AD34" s="134" t="s">
+      <c r="AC34" s="143"/>
+      <c r="AD34" s="143" t="s">
         <v>241</v>
       </c>
-      <c r="AE34" s="134"/>
-      <c r="AF34" s="134" t="s">
+      <c r="AE34" s="143"/>
+      <c r="AF34" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="AG34" s="134"/>
-      <c r="AH34" s="134" t="s">
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="AI34" s="134"/>
-      <c r="AJ34" s="133" t="s">
+      <c r="AI34" s="143"/>
+      <c r="AJ34" s="152" t="s">
         <v>220</v>
       </c>
-      <c r="AK34" s="133"/>
-      <c r="AL34" s="132" t="s">
+      <c r="AK34" s="152"/>
+      <c r="AL34" s="151" t="s">
         <v>228</v>
       </c>
-      <c r="AM34" s="132"/>
-      <c r="AN34" s="132" t="s">
+      <c r="AM34" s="151"/>
+      <c r="AN34" s="151" t="s">
         <v>229</v>
       </c>
-      <c r="AO34" s="132"/>
+      <c r="AO34" s="151"/>
     </row>
     <row r="35" spans="3:41">
-      <c r="D35" s="127"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="141"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="148"/>
       <c r="L35" s="114"/>
       <c r="M35" s="115"/>
       <c r="N35" s="115"/>
@@ -52357,44 +52361,25 @@
       <c r="W35" s="118"/>
       <c r="X35" s="118"/>
       <c r="Y35" s="118"/>
-      <c r="Z35" s="135"/>
-      <c r="AA35" s="135"/>
-      <c r="AB35" s="135"/>
-      <c r="AC35" s="135"/>
-      <c r="AD35" s="135"/>
-      <c r="AE35" s="135"/>
-      <c r="AF35" s="135"/>
-      <c r="AG35" s="135"/>
-      <c r="AH35" s="135"/>
-      <c r="AI35" s="135"/>
-      <c r="AJ35" s="130"/>
-      <c r="AK35" s="130"/>
-      <c r="AL35" s="129"/>
-      <c r="AM35" s="129"/>
-      <c r="AN35" s="129"/>
-      <c r="AO35" s="129"/>
+      <c r="Z35" s="144"/>
+      <c r="AA35" s="144"/>
+      <c r="AB35" s="144"/>
+      <c r="AC35" s="144"/>
+      <c r="AD35" s="144"/>
+      <c r="AE35" s="144"/>
+      <c r="AF35" s="144"/>
+      <c r="AG35" s="144"/>
+      <c r="AH35" s="144"/>
+      <c r="AI35" s="144"/>
+      <c r="AJ35" s="150"/>
+      <c r="AK35" s="150"/>
+      <c r="AL35" s="149"/>
+      <c r="AM35" s="149"/>
+      <c r="AN35" s="149"/>
+      <c r="AO35" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:K35"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="AN35:AO35"/>
     <mergeCell ref="AL35:AM35"/>
@@ -52411,6 +52396,25 @@
     <mergeCell ref="AF34:AG34"/>
     <mergeCell ref="AF35:AG35"/>
     <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -52645,9 +52649,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
-  <dimension ref="A1:AF407"/>
+  <dimension ref="A1:AF408"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
@@ -52849,14 +52855,14 @@
       <c r="B10" s="86"/>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
-      <c r="E10" s="152" t="s">
+      <c r="E10" s="133" t="s">
         <v>212</v>
       </c>
       <c r="F10" s="70"/>
       <c r="G10" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="142"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="88" t="s">
         <v>32</v>
       </c>
@@ -52872,7 +52878,7 @@
       <c r="G11" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="143"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="90" t="s">
         <v>32</v>
       </c>
@@ -52888,7 +52894,7 @@
       <c r="G12" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="144"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="92" t="s">
         <v>32</v>
       </c>
@@ -52918,7 +52924,7 @@
       <c r="G14" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="142"/>
+      <c r="H14" s="123"/>
       <c r="I14" s="88" t="s">
         <v>31</v>
       </c>
@@ -52934,7 +52940,7 @@
       <c r="G15" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="143"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="90" t="s">
         <v>31</v>
       </c>
@@ -52950,7 +52956,7 @@
       <c r="G16" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="143"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="90" t="s">
         <v>31</v>
       </c>
@@ -52966,7 +52972,7 @@
       <c r="G17" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="144"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="92" t="s">
         <v>32</v>
       </c>
@@ -53005,14 +53011,14 @@
       <c r="B20" s="97"/>
       <c r="C20" s="98"/>
       <c r="D20" s="98"/>
-      <c r="E20" s="151" t="s">
+      <c r="E20" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F20" s="70"/>
-      <c r="G20" s="145" t="s">
+      <c r="G20" s="126" t="s">
         <v>245</v>
       </c>
-      <c r="H20" s="142" t="s">
+      <c r="H20" s="123" t="s">
         <v>252</v>
       </c>
       <c r="I20" s="88" t="s">
@@ -53025,14 +53031,14 @@
       <c r="B21" s="97"/>
       <c r="C21" s="98"/>
       <c r="D21" s="98"/>
-      <c r="E21" s="151" t="s">
+      <c r="E21" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F21" s="73"/>
-      <c r="G21" s="146" t="s">
+      <c r="G21" s="127" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="143" t="s">
+      <c r="H21" s="124" t="s">
         <v>252</v>
       </c>
       <c r="I21" s="90" t="s">
@@ -53045,14 +53051,14 @@
       <c r="B22" s="97"/>
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
-      <c r="E22" s="151" t="s">
+      <c r="E22" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F22" s="73"/>
-      <c r="G22" s="146" t="s">
+      <c r="G22" s="127" t="s">
         <v>247</v>
       </c>
-      <c r="H22" s="143" t="s">
+      <c r="H22" s="124" t="s">
         <v>252</v>
       </c>
       <c r="I22" s="90" t="s">
@@ -53065,14 +53071,14 @@
       <c r="B23" s="97"/>
       <c r="C23" s="98"/>
       <c r="D23" s="98"/>
-      <c r="E23" s="151" t="s">
+      <c r="E23" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F23" s="100"/>
-      <c r="G23" s="146" t="s">
+      <c r="G23" s="127" t="s">
         <v>248</v>
       </c>
-      <c r="H23" s="143" t="s">
+      <c r="H23" s="124" t="s">
         <v>252</v>
       </c>
       <c r="I23" s="90" t="s">
@@ -53085,14 +53091,14 @@
       <c r="B24" s="97"/>
       <c r="C24" s="98"/>
       <c r="D24" s="98"/>
-      <c r="E24" s="151" t="s">
+      <c r="E24" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F24" s="100"/>
-      <c r="G24" s="146" t="s">
+      <c r="G24" s="127" t="s">
         <v>244</v>
       </c>
-      <c r="H24" s="143" t="s">
+      <c r="H24" s="124" t="s">
         <v>252</v>
       </c>
       <c r="I24" s="90" t="s">
@@ -53105,14 +53111,14 @@
       <c r="B25" s="97"/>
       <c r="C25" s="98"/>
       <c r="D25" s="98"/>
-      <c r="E25" s="151" t="s">
+      <c r="E25" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F25" s="100"/>
-      <c r="G25" s="146" t="s">
+      <c r="G25" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="143" t="s">
+      <c r="H25" s="124" t="s">
         <v>252</v>
       </c>
       <c r="I25" s="90" t="s">
@@ -53125,14 +53131,14 @@
       <c r="B26" s="97"/>
       <c r="C26" s="98"/>
       <c r="D26" s="98"/>
-      <c r="E26" s="151" t="s">
+      <c r="E26" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F26" s="100"/>
-      <c r="G26" s="146" t="s">
+      <c r="G26" s="127" t="s">
         <v>249</v>
       </c>
-      <c r="H26" s="143" t="s">
+      <c r="H26" s="124" t="s">
         <v>252</v>
       </c>
       <c r="I26" s="90" t="s">
@@ -53148,7 +53154,7 @@
       <c r="E27" s="98"/>
       <c r="F27" s="73"/>
       <c r="G27" s="90"/>
-      <c r="H27" s="143"/>
+      <c r="H27" s="124"/>
       <c r="I27" s="90"/>
       <c r="J27" s="90"/>
       <c r="K27" s="91"/>
@@ -53162,7 +53168,7 @@
       <c r="G28" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="144"/>
+      <c r="H28" s="125"/>
       <c r="I28" s="92" t="s">
         <v>32</v>
       </c>
@@ -53187,14 +53193,14 @@
       <c r="B30" s="97"/>
       <c r="C30" s="98"/>
       <c r="D30" s="98"/>
-      <c r="E30" s="151" t="s">
+      <c r="E30" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F30" s="70"/>
       <c r="G30" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="142" t="s">
+      <c r="H30" s="123" t="s">
         <v>250</v>
       </c>
       <c r="I30" s="88" t="s">
@@ -53207,14 +53213,14 @@
       <c r="B31" s="97"/>
       <c r="C31" s="98"/>
       <c r="D31" s="98"/>
-      <c r="E31" s="151" t="s">
+      <c r="E31" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F31" s="73"/>
       <c r="G31" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="143" t="s">
+      <c r="H31" s="124" t="s">
         <v>250</v>
       </c>
       <c r="I31" s="90" t="s">
@@ -53227,14 +53233,14 @@
       <c r="B32" s="97"/>
       <c r="C32" s="98"/>
       <c r="D32" s="98"/>
-      <c r="E32" s="151" t="s">
+      <c r="E32" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F32" s="73"/>
       <c r="G32" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="H32" s="143" t="s">
+      <c r="H32" s="124" t="s">
         <v>250</v>
       </c>
       <c r="I32" s="90" t="s">
@@ -53247,14 +53253,14 @@
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
       <c r="D33" s="98"/>
-      <c r="E33" s="151" t="s">
+      <c r="E33" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F33" s="75"/>
       <c r="G33" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="H33" s="144" t="s">
+      <c r="H33" s="125" t="s">
         <v>250</v>
       </c>
       <c r="I33" s="92" t="s">
@@ -53286,7 +53292,7 @@
       <c r="G35" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="142" t="s">
+      <c r="H35" s="123" t="s">
         <v>252</v>
       </c>
       <c r="I35" s="88"/>
@@ -53302,7 +53308,7 @@
       <c r="G36" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="H36" s="143" t="s">
+      <c r="H36" s="124" t="s">
         <v>252</v>
       </c>
       <c r="I36" s="90"/>
@@ -53318,7 +53324,7 @@
       <c r="G37" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="H37" s="143" t="s">
+      <c r="H37" s="124" t="s">
         <v>31</v>
       </c>
       <c r="I37" s="90"/>
@@ -53334,7 +53340,7 @@
       <c r="G38" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="H38" s="143" t="s">
+      <c r="H38" s="124" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="90"/>
@@ -53345,14 +53351,14 @@
       <c r="B39" s="97"/>
       <c r="C39" s="98"/>
       <c r="D39" s="98"/>
-      <c r="E39" s="151" t="s">
+      <c r="E39" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F39" s="77"/>
       <c r="G39" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="H39" s="143" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" s="124" t="s">
         <v>31</v>
       </c>
       <c r="I39" s="90"/>
@@ -53363,14 +53369,14 @@
       <c r="B40" s="97"/>
       <c r="C40" s="98"/>
       <c r="D40" s="98"/>
-      <c r="E40" s="151" t="s">
+      <c r="E40" s="132" t="s">
         <v>212</v>
       </c>
       <c r="F40" s="77"/>
       <c r="G40" s="90" t="s">
-        <v>257</v>
-      </c>
-      <c r="H40" s="143" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" s="124" t="s">
         <v>31</v>
       </c>
       <c r="I40" s="90"/>
@@ -53381,13 +53387,15 @@
       <c r="B41" s="97"/>
       <c r="C41" s="98"/>
       <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
+      <c r="E41" s="132" t="s">
+        <v>212</v>
+      </c>
       <c r="F41" s="77"/>
       <c r="G41" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="H41" s="143" t="s">
-        <v>250</v>
+        <v>257</v>
+      </c>
+      <c r="H41" s="124" t="s">
+        <v>31</v>
       </c>
       <c r="I41" s="90"/>
       <c r="J41" s="90"/>
@@ -53398,12 +53406,12 @@
       <c r="C42" s="98"/>
       <c r="D42" s="98"/>
       <c r="E42" s="98"/>
-      <c r="F42" s="71"/>
+      <c r="F42" s="77"/>
       <c r="G42" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="143" t="s">
-        <v>252</v>
+        <v>258</v>
+      </c>
+      <c r="H42" s="124" t="s">
+        <v>250</v>
       </c>
       <c r="I42" s="90"/>
       <c r="J42" s="90"/>
@@ -53413,91 +53421,93 @@
       <c r="B43" s="97"/>
       <c r="C43" s="98"/>
       <c r="D43" s="98"/>
-      <c r="E43" s="151" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" s="147"/>
-      <c r="G43" s="148" t="s">
-        <v>259</v>
-      </c>
-      <c r="H43" s="149" t="s">
+      <c r="E43" s="98"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="124" t="s">
         <v>252</v>
       </c>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="150"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="91"/>
     </row>
     <row r="44" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B44" s="97"/>
       <c r="C44" s="98"/>
       <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="92" t="s">
+      <c r="E44" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="128"/>
+      <c r="G44" s="129" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" s="130" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="131"/>
+    </row>
+    <row r="45" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B45" s="97"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="H44" s="144" t="s">
+      <c r="H45" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="93"/>
-    </row>
-    <row r="45" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B45" s="103" t="s">
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="93"/>
+    </row>
+    <row r="46" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B46" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="107"/>
-    </row>
-    <row r="46" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B46" s="81" t="s">
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="107"/>
+    </row>
+    <row r="47" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B47" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="96"/>
-    </row>
-    <row r="47" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B47" s="97"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" s="142"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="89"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="96"/>
     </row>
     <row r="48" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B48" s="97"/>
       <c r="C48" s="98"/>
       <c r="D48" s="98"/>
       <c r="E48" s="98"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="143"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="91"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="123"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="89"/>
     </row>
     <row r="49" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="B49" s="97"/>
@@ -53506,9 +53516,9 @@
       <c r="E49" s="98"/>
       <c r="F49" s="77"/>
       <c r="G49" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="143"/>
+        <v>28</v>
+      </c>
+      <c r="H49" s="124"/>
       <c r="I49" s="90"/>
       <c r="J49" s="90"/>
       <c r="K49" s="91"/>
@@ -53518,9 +53528,11 @@
       <c r="C50" s="98"/>
       <c r="D50" s="98"/>
       <c r="E50" s="98"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="143"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="124"/>
       <c r="I50" s="90"/>
       <c r="J50" s="90"/>
       <c r="K50" s="91"/>
@@ -53532,7 +53544,7 @@
       <c r="E51" s="98"/>
       <c r="F51" s="100"/>
       <c r="G51" s="90"/>
-      <c r="H51" s="143"/>
+      <c r="H51" s="124"/>
       <c r="I51" s="90"/>
       <c r="J51" s="90"/>
       <c r="K51" s="91"/>
@@ -53544,7 +53556,7 @@
       <c r="E52" s="98"/>
       <c r="F52" s="100"/>
       <c r="G52" s="90"/>
-      <c r="H52" s="143"/>
+      <c r="H52" s="124"/>
       <c r="I52" s="90"/>
       <c r="J52" s="90"/>
       <c r="K52" s="91"/>
@@ -53556,7 +53568,7 @@
       <c r="E53" s="98"/>
       <c r="F53" s="100"/>
       <c r="G53" s="90"/>
-      <c r="H53" s="143"/>
+      <c r="H53" s="124"/>
       <c r="I53" s="90"/>
       <c r="J53" s="90"/>
       <c r="K53" s="91"/>
@@ -53568,25 +53580,34 @@
       <c r="E54" s="98"/>
       <c r="F54" s="100"/>
       <c r="G54" s="90"/>
-      <c r="H54" s="143"/>
+      <c r="H54" s="124"/>
       <c r="I54" s="90"/>
       <c r="J54" s="90"/>
       <c r="K54" s="91"/>
     </row>
     <row r="55" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B55" s="108"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="93"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="91"/>
     </row>
     <row r="56" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="F56" s="69"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="93"/>
     </row>
     <row r="57" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F57" s="69"/>
@@ -53777,24 +53798,17 @@
     <row r="119" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F119" s="69"/>
     </row>
-    <row r="120" spans="1:8" s="62" customFormat="1" ht="27" customHeight="1">
+    <row r="120" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F120" s="69"/>
     </row>
-    <row r="121" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
+    <row r="121" spans="1:8" s="62" customFormat="1" ht="27" customHeight="1">
       <c r="F121" s="69"/>
     </row>
     <row r="122" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F122" s="69"/>
     </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="62"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
+    <row r="123" spans="1:8" s="62" customFormat="1" ht="26" customHeight="1">
       <c r="F123" s="69"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="62"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="62"/>
@@ -53907,7 +53921,14 @@
       <c r="H134" s="62"/>
     </row>
     <row r="135" spans="1:8">
+      <c r="A135" s="62"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="62"/>
       <c r="F135" s="69"/>
+      <c r="G135" s="62"/>
+      <c r="H135" s="62"/>
     </row>
     <row r="136" spans="1:8">
       <c r="F136" s="69"/>
@@ -54725,8 +54746,11 @@
     <row r="407" spans="6:6">
       <c r="F407" s="69"/>
     </row>
+    <row r="408" spans="6:6">
+      <c r="F408" s="69"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:F134">
+  <conditionalFormatting sqref="F8:F135">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>$Y$3</formula>
     </cfRule>
@@ -54755,9 +54779,10 @@
     <hyperlink ref="E26" location="Table_WindowsEnrollment" display="🚦" xr:uid="{DE507200-CEB6-3243-BED2-C3C30F98C48F}"/>
     <hyperlink ref="E20:E26" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{3A549D6D-14CB-DF43-9030-B6A5AB6125ED}"/>
     <hyperlink ref="E30:E33" location="Table_EnrollmentDevicePlatformRestrictions" display="🚦" xr:uid="{8E195C76-CEC1-F84A-983C-906F37236965}"/>
-    <hyperlink ref="E39" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{BCBE9148-2D47-3247-822C-0F59830EAB4A}"/>
-    <hyperlink ref="E43" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{926241E4-CD42-474B-8E11-F444A9AA977E}"/>
-    <hyperlink ref="E40" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{DF8D7B5A-DFE1-3C4B-8514-0792D497ADA6}"/>
+    <hyperlink ref="E40" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{BCBE9148-2D47-3247-822C-0F59830EAB4A}"/>
+    <hyperlink ref="E44" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{926241E4-CD42-474B-8E11-F444A9AA977E}"/>
+    <hyperlink ref="E41" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{DF8D7B5A-DFE1-3C4B-8514-0792D497ADA6}"/>
+    <hyperlink ref="E39" location="Table_DeviceCompliancePolicies" display="🚦" xr:uid="{AD8C9AF0-CB43-C044-96A0-ABAAC7B9DB66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE3FD7B-5F21-C342-AE22-EECB8DE67A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FC103-01E5-A84F-AC88-F0CF92AC2D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-23040" windowWidth="40960" windowHeight="23040" tabRatio="710" activeTab="6" xr2:uid="{5EA7E585-8CA3-BF47-B9B9-48D1FF6D96B1}"/>
   </bookViews>
@@ -23,29 +23,31 @@
   </sheets>
   <definedNames>
     <definedName name="CH00001_WindowsEnrollment">'Device ☑️'!$F$10</definedName>
-    <definedName name="CH00002_DeviceEnrollment_Android">'Device ☑️'!$F$30</definedName>
-    <definedName name="CH00003_DeviceEnrollment_Windows">'Device ☑️'!$F$31</definedName>
-    <definedName name="CH00004_DeviceEnrollment_iOS">'Device ☑️'!$F$32</definedName>
-    <definedName name="CH00005_DeviceEnrollment_macOS">'Device ☑️'!$F$33</definedName>
-    <definedName name="CH00006_DeviceCompliance_Android_AOSP">'Device ☑️'!$F$20</definedName>
-    <definedName name="CH00007_DeviceCompliance_Android_DeviceAdmin">'Device ☑️'!$F$21</definedName>
-    <definedName name="CH00008_DeviceCompliance_Android_EntCorp">'Device ☑️'!$F$22</definedName>
-    <definedName name="CH00009_DeviceCompliance_Android_EntPersonal">'Device ☑️'!$F$23</definedName>
-    <definedName name="CH00010_DeviceCompliance_iOS">'Device ☑️'!$F$24</definedName>
-    <definedName name="CH00011_DeviceCompliance_macOS">'Device ☑️'!$F$25</definedName>
-    <definedName name="CH00012_DeviceCompliance_Windows">'Device ☑️'!$F$26</definedName>
-    <definedName name="CH00013_DeviceCompliance_iOS_Jailbreak">'Device ☑️'!$F$40</definedName>
-    <definedName name="CH00014_DeviceCompliance_Windows_BitLocker">'Device ☑️'!$F$44</definedName>
-    <definedName name="CH00015_DeviceCompliance_AndroidRoot">'Device ☑️'!$F$39</definedName>
-    <definedName name="CH00015_DeviceCompliance_DefenderEndPoint">'Device ☑️'!$F$41</definedName>
-    <definedName name="Device_CP">'Device ☑️'!$B$19</definedName>
-    <definedName name="Device_CP_ADA">'Device ☑️'!$C$73:$C$81</definedName>
-    <definedName name="Device_CP_AECorp">'Device ☑️'!$C$86:$C$94</definedName>
-    <definedName name="Device_CP_AEPersonal">'Device ☑️'!$C$99:$C$107</definedName>
-    <definedName name="Device_CP_AOSP">'Device ☑️'!$C$60:$C$69</definedName>
-    <definedName name="Device_CP_iOS">'Device ☑️'!$C$112:$C$120</definedName>
-    <definedName name="Device_CP_macOS">'Device ☑️'!$C$125:$C$140</definedName>
-    <definedName name="Device_CP_Windows">'Device ☑️'!$C$145:$C$161</definedName>
+    <definedName name="CH00002_DeviceEnrollment_Android">'Device ☑️'!$F$23</definedName>
+    <definedName name="CH00003_DeviceEnrollment_Windows">'Device ☑️'!$F$24</definedName>
+    <definedName name="CH00004_DeviceEnrollment_iOS">'Device ☑️'!$F$25</definedName>
+    <definedName name="CH00005_DeviceEnrollment_macOS">'Device ☑️'!$F$26</definedName>
+    <definedName name="CH00006_DeviceCompliance_Android_AOSP">'Device ☑️'!$F$14</definedName>
+    <definedName name="CH00007_DeviceCompliance_Android_DeviceAdmin">'Device ☑️'!$F$15</definedName>
+    <definedName name="CH00008_DeviceCompliance_Android_EntCorp">'Device ☑️'!$F$16</definedName>
+    <definedName name="CH00009_DeviceCompliance_Android_EntPersonal">'Device ☑️'!$F$17</definedName>
+    <definedName name="CH00010_DeviceCompliance_iOS">'Device ☑️'!$F$18</definedName>
+    <definedName name="CH00011_DeviceCompliance_macOS">'Device ☑️'!$F$19</definedName>
+    <definedName name="CH00012_DeviceCompliance_Windows">'Device ☑️'!$F$20</definedName>
+    <definedName name="CH00013_DeviceCompliance_iOS_Jailbreak">'Device ☑️'!$F$33</definedName>
+    <definedName name="CH00014_DeviceCompliance_Windows_BitLocker">'Device ☑️'!$F$37</definedName>
+    <definedName name="CH00015_DeviceCompliance_AndroidRoot">'Device ☑️'!$F$32</definedName>
+    <definedName name="CH00015_DeviceCompliance_DefenderEndPoint">'Device ☑️'!$F$34</definedName>
+    <definedName name="CH00016_DeviceCompliance_macOS_Firewall">'Device ☑️'!$F$40</definedName>
+    <definedName name="CH00016_DeviceCompliance_Windows_Firewall">'Device ☑️'!$F$39</definedName>
+    <definedName name="Device_CP">'Device ☑️'!$B$13</definedName>
+    <definedName name="Device_CP_ADA">'Device ☑️'!$C$68:$C$76</definedName>
+    <definedName name="Device_CP_AECorp">'Device ☑️'!$C$81:$C$89</definedName>
+    <definedName name="Device_CP_AEPersonal">'Device ☑️'!$C$94:$C$102</definedName>
+    <definedName name="Device_CP_AOSP">'Device ☑️'!$C$55:$C$64</definedName>
+    <definedName name="Device_CP_iOS">'Device ☑️'!$C$107:$C$115</definedName>
+    <definedName name="Device_CP_macOS">'Device ☑️'!$C$120:$C$135</definedName>
+    <definedName name="Device_CP_Windows">'Device ☑️'!$C$140:$C$156</definedName>
     <definedName name="HeaderAssessedOn">Home!$E$7</definedName>
     <definedName name="HeaderTenantId">Home!$E$5</definedName>
     <definedName name="HeaderTitle">Home!$E$3</definedName>
@@ -1193,7 +1195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="259">
   <si>
     <t>Devices: Info</t>
   </si>
@@ -1216,21 +1218,6 @@
     <t>Assessment check</t>
   </si>
   <si>
-    <t>Configure MDM configuration profiles that meet Microsoft recommended best practices</t>
-  </si>
-  <si>
-    <t>Apply Windows Security Baselines</t>
-  </si>
-  <si>
-    <t>Apply iOS recommended settings (Golden Config)</t>
-  </si>
-  <si>
-    <t>Apply Android recommended settings (Golden Config)</t>
-  </si>
-  <si>
-    <t>Apple macOS recommended settings</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -1244,9 +1231,6 @@
   </si>
   <si>
     <t>Imp. cost</t>
-  </si>
-  <si>
-    <t>On-prem Group Policy for Windows devices?</t>
   </si>
   <si>
     <t>Device compliance policies to ensure devices meet minimum requirements</t>
@@ -2055,6 +2039,12 @@
   <si>
     <t xml:space="preserve">Android root detection is Enabled - Device Compliance Policy </t>
   </si>
+  <si>
+    <t xml:space="preserve">Windows - Firewall is enabled </t>
+  </si>
+  <si>
+    <t>macOS - Firewall is enabled</t>
+  </si>
 </sst>
 </file>
 
@@ -2851,7 +2841,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3012,9 +3002,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -42140,7 +42127,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -42305,13 +42292,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42372,13 +42359,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>491400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>46900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -42422,7 +42409,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -42587,13 +42574,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42654,7 +42641,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -42819,13 +42806,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42886,7 +42873,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -43051,13 +43038,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -43118,7 +43105,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -43297,13 +43284,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -43364,13 +43351,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7742870</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>216064</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43414,7 +43401,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -43607,13 +43594,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>98200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -43674,13 +43661,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>232730</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>520930</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>72299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43724,13 +43711,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7772400</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>245594</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43774,13 +43761,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>181930</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>470130</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>84999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43824,13 +43811,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7721600</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>194794</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43874,13 +43861,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>194630</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>482830</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>72299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43924,13 +43911,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7734300</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>207494</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -43974,13 +43961,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>194630</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>482830</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>84999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44024,13 +44011,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>181930</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>470130</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>186599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44074,13 +44061,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7696200</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>186999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44124,7 +44111,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11112500" cy="3644900"/>
@@ -44318,13 +44305,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>161700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -44385,13 +44372,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>181930</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>470130</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>46899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44435,13 +44422,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7708901</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>173376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>139701</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>61063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44485,13 +44472,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7747001</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>50921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44537,13 +44524,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7823200</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44591,13 +44578,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>317500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44645,13 +44632,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44699,13 +44686,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44753,13 +44740,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44807,13 +44794,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -44861,13 +44848,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7848600</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -45292,7 +45279,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
@@ -45352,7 +45339,7 @@
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
       <c r="E5" s="61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
@@ -45412,7 +45399,7 @@
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
       <c r="E7" s="61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
@@ -45594,7 +45581,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
       <c r="F3" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -45618,31 +45605,31 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="5"/>
       <c r="AC3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AJ3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AK3" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="AF3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK3" s="22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="11" customHeight="1">
@@ -45680,27 +45667,27 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
       <c r="I5" s="23"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
       <c r="V5" s="23"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="135"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -45815,21 +45802,21 @@
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J11" s="29"/>
       <c r="L11" s="37" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="32"/>
       <c r="R11" s="37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
@@ -45846,21 +45833,21 @@
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="G12" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J12" s="29"/>
       <c r="L12" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
@@ -45886,17 +45873,17 @@
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="G14" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J14" s="29"/>
       <c r="L14" s="30" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
@@ -45912,17 +45899,17 @@
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="G15" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J15" s="29"/>
       <c r="L15" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="35"/>
       <c r="R15"/>
@@ -45947,23 +45934,23 @@
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
       <c r="G17" s="30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J17" s="29"/>
       <c r="L17" s="31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="R17" s="31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="T17" s="31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V17" s="29"/>
     </row>
@@ -45974,23 +45961,23 @@
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
       <c r="G18" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J18" s="29"/>
       <c r="L18" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T18" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V18" s="29"/>
     </row>
@@ -46010,23 +45997,23 @@
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
       <c r="G20" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J20" s="29"/>
       <c r="L20" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" s="37" t="s">
         <v>55</v>
-      </c>
-      <c r="N20" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="T20" s="37" t="s">
-        <v>61</v>
       </c>
       <c r="V20" s="29"/>
     </row>
@@ -46037,23 +46024,23 @@
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
       <c r="G21" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J21" s="29"/>
       <c r="L21" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V21" s="29"/>
     </row>
@@ -46092,24 +46079,24 @@
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="G24" s="40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J24" s="29"/>
       <c r="L24" s="33" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="V24" s="29"/>
       <c r="X24" s="37" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Z24" s="33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -46119,24 +46106,24 @@
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="G25" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J25" s="29"/>
       <c r="L25" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V25" s="29"/>
       <c r="X25" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Z25" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -46155,28 +46142,28 @@
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
       <c r="G27" s="36" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J27" s="29"/>
       <c r="L27" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N27" s="40" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P27" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="38"/>
       <c r="R27" s="36" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="38"/>
       <c r="V27" s="29"/>
       <c r="X27" s="37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -46186,28 +46173,28 @@
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
       <c r="G28" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J28" s="29"/>
       <c r="L28" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
       <c r="V28" s="29"/>
       <c r="X28" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="30" customHeight="1" thickBot="1">
@@ -46228,19 +46215,19 @@
       <c r="G30"/>
       <c r="J30" s="29"/>
       <c r="L30" s="36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N30" s="40" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P30" s="40" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="R30" s="36" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T30" s="40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="V30" s="29"/>
     </row>
@@ -46253,19 +46240,19 @@
       <c r="G31"/>
       <c r="J31" s="29"/>
       <c r="L31" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N31" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P31" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R31" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V31" s="29"/>
     </row>
@@ -46286,13 +46273,13 @@
       <c r="E33" s="29"/>
       <c r="J33" s="29"/>
       <c r="L33" s="30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P33" s="40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R33"/>
       <c r="S33"/>
@@ -46307,13 +46294,13 @@
       <c r="E34" s="29"/>
       <c r="J34" s="29"/>
       <c r="L34" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P34" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R34"/>
       <c r="S34"/>
@@ -46338,20 +46325,20 @@
       <c r="G36"/>
       <c r="J36" s="29"/>
       <c r="L36" s="40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N36" s="30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P36" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R36" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="V36" s="29"/>
       <c r="X36" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -46363,20 +46350,20 @@
       <c r="G37"/>
       <c r="J37" s="29"/>
       <c r="L37" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N37" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P37" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R37" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V37" s="29"/>
       <c r="X37" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -46397,10 +46384,10 @@
       <c r="G39"/>
       <c r="J39" s="29"/>
       <c r="L39" s="36" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U39" s="38"/>
       <c r="V39" s="29"/>
@@ -46414,10 +46401,10 @@
       <c r="G40"/>
       <c r="J40" s="29"/>
       <c r="L40" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P40"/>
       <c r="U40" s="35"/>
@@ -46442,20 +46429,20 @@
       <c r="G42"/>
       <c r="J42" s="29"/>
       <c r="L42" s="40" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N42" s="30" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P42" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R42" s="40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="V42" s="29"/>
       <c r="X42" s="36" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -46467,20 +46454,20 @@
       <c r="G43"/>
       <c r="J43" s="29"/>
       <c r="L43" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N43" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P43" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R43" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V43" s="29"/>
       <c r="X43" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="30" customHeight="1">
@@ -46508,21 +46495,21 @@
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="G46" s="30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J46" s="29"/>
       <c r="L46" s="30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N46" s="40" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Q46"/>
       <c r="R46" s="40" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="V46" s="29"/>
     </row>
@@ -46533,21 +46520,21 @@
       <c r="D47" s="28"/>
       <c r="E47" s="29"/>
       <c r="G47" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J47" s="29"/>
       <c r="L47" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N47" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q47"/>
       <c r="R47" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V47" s="29"/>
     </row>
@@ -46572,10 +46559,10 @@
       <c r="G49"/>
       <c r="J49" s="29"/>
       <c r="L49" s="40" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N49" s="30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="R49"/>
       <c r="V49" s="29"/>
@@ -46589,10 +46576,10 @@
       <c r="G50"/>
       <c r="J50" s="29"/>
       <c r="L50" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N50" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R50"/>
       <c r="V50" s="29"/>
@@ -46622,14 +46609,14 @@
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
       <c r="G53" s="40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J53" s="29"/>
       <c r="L53" s="40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N53" s="36" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P53"/>
       <c r="R53"/>
@@ -46642,14 +46629,14 @@
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
       <c r="G54" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J54" s="29"/>
       <c r="L54" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N54" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P54"/>
       <c r="R54"/>
@@ -46671,14 +46658,14 @@
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
       <c r="G56" s="40" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J56" s="29"/>
       <c r="L56" s="36" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N56" s="30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
@@ -46692,14 +46679,14 @@
       <c r="D57" s="28"/>
       <c r="E57" s="29"/>
       <c r="G57" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J57" s="29"/>
       <c r="L57" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N57" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
@@ -46722,11 +46709,11 @@
       <c r="D59" s="28"/>
       <c r="E59" s="29"/>
       <c r="G59" s="30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J59" s="29"/>
       <c r="L59" s="30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -46741,11 +46728,11 @@
       <c r="D60" s="28"/>
       <c r="E60" s="29"/>
       <c r="G60" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J60" s="29"/>
       <c r="L60" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
@@ -46769,21 +46756,21 @@
       <c r="D62" s="28"/>
       <c r="E62" s="29"/>
       <c r="G62" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J62" s="29"/>
       <c r="L62" s="41" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N62" s="36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P62" s="36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q62"/>
       <c r="R62" s="41" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="V62" s="29"/>
     </row>
@@ -46794,21 +46781,21 @@
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
       <c r="G63" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J63" s="29"/>
       <c r="L63" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N63" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P63" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q63"/>
       <c r="R63" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V63" s="29"/>
     </row>
@@ -46830,7 +46817,7 @@
       <c r="G65"/>
       <c r="J65" s="29"/>
       <c r="L65" s="40" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -46848,7 +46835,7 @@
       <c r="G66"/>
       <c r="J66" s="29"/>
       <c r="L66" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -46876,17 +46863,17 @@
       <c r="E68" s="29"/>
       <c r="F68"/>
       <c r="G68" s="30" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J68" s="29"/>
       <c r="L68" s="30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N68" s="40" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P68" s="36" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="R68"/>
       <c r="V68" s="29"/>
@@ -46898,17 +46885,17 @@
       <c r="D69" s="28"/>
       <c r="E69" s="29"/>
       <c r="G69" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J69" s="29"/>
       <c r="L69" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N69" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P69" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R69"/>
       <c r="V69" s="29"/>
@@ -46930,13 +46917,13 @@
       <c r="E71" s="29"/>
       <c r="J71" s="29"/>
       <c r="L71" s="40" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N71" s="40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P71" s="40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="R71"/>
       <c r="V71" s="29"/>
@@ -46949,13 +46936,13 @@
       <c r="E72" s="29"/>
       <c r="J72" s="29"/>
       <c r="L72" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N72" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P72" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="29"/>
@@ -49204,7 +49191,7 @@
       <c r="D3" s="44"/>
       <c r="E3" s="43"/>
       <c r="F3" s="45" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G3" s="46"/>
       <c r="H3" s="43"/>
@@ -49228,31 +49215,31 @@
       <c r="Z3" s="43"/>
       <c r="AA3" s="42"/>
       <c r="AC3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AJ3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AK3" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="AF3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK3" s="22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="11" customHeight="1">
@@ -49290,27 +49277,27 @@
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
       <c r="I5" s="49"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
       <c r="Q5" s="50"/>
       <c r="R5" s="50"/>
       <c r="S5" s="50"/>
       <c r="T5" s="50"/>
       <c r="U5" s="50"/>
       <c r="V5" s="49"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
       <c r="AA5" s="42"/>
     </row>
     <row r="6" spans="1:37" ht="5" customHeight="1">
@@ -49426,13 +49413,13 @@
       <c r="E11" s="29"/>
       <c r="J11" s="29"/>
       <c r="L11" s="52" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
@@ -49441,10 +49428,10 @@
       <c r="U11" s="32"/>
       <c r="V11" s="29"/>
       <c r="X11" s="40" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Z11" s="52" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1">
@@ -49456,13 +49443,13 @@
       <c r="G12" s="35"/>
       <c r="J12" s="29"/>
       <c r="L12" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
@@ -49471,10 +49458,10 @@
       <c r="U12" s="35"/>
       <c r="V12" s="29"/>
       <c r="X12" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z12" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="30" customHeight="1">
@@ -49502,17 +49489,17 @@
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="G15" s="40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J15" s="29"/>
       <c r="L15" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
@@ -49528,17 +49515,17 @@
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
       <c r="G16" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J16" s="29"/>
       <c r="L16" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="35"/>
       <c r="R16"/>
@@ -49563,7 +49550,7 @@
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
       <c r="G18" s="41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J18" s="29"/>
       <c r="V18" s="29"/>
@@ -49575,7 +49562,7 @@
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
       <c r="G19" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J19" s="29"/>
       <c r="V19" s="29"/>
@@ -49597,16 +49584,16 @@
       <c r="E21" s="29"/>
       <c r="J21" s="29"/>
       <c r="N21" s="40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P21" s="40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="R21" s="30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="T21" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="V21" s="29"/>
     </row>
@@ -49618,16 +49605,16 @@
       <c r="E22" s="29"/>
       <c r="J22" s="29"/>
       <c r="N22" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T22" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V22" s="29"/>
     </row>
@@ -49647,11 +49634,11 @@
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="G24" s="40" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J24" s="29"/>
       <c r="L24" s="30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="V24" s="29"/>
     </row>
@@ -49662,11 +49649,11 @@
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
       <c r="G25" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J25" s="29"/>
       <c r="L25" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V25" s="29"/>
     </row>
@@ -49704,17 +49691,17 @@
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
       <c r="G29" s="40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J29" s="29"/>
       <c r="L29" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P29" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
@@ -49730,17 +49717,17 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
       <c r="G30" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J30" s="29"/>
       <c r="L30" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="35"/>
       <c r="R30"/>
@@ -49765,7 +49752,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
       <c r="G32" s="41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J32" s="29"/>
       <c r="V32" s="29"/>
@@ -49777,7 +49764,7 @@
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
       <c r="G33" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J33" s="29"/>
       <c r="V33" s="29"/>
@@ -49799,16 +49786,16 @@
       <c r="E35" s="29"/>
       <c r="J35" s="29"/>
       <c r="N35" s="40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P35" s="40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="R35" s="30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="T35" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="V35" s="29"/>
     </row>
@@ -49820,16 +49807,16 @@
       <c r="E36" s="29"/>
       <c r="J36" s="29"/>
       <c r="N36" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P36" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R36" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T36" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V36" s="29"/>
     </row>
@@ -49849,11 +49836,11 @@
       <c r="D38" s="28"/>
       <c r="E38" s="29"/>
       <c r="G38" s="40" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J38" s="29"/>
       <c r="L38" s="30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="V38" s="29"/>
     </row>
@@ -49864,11 +49851,11 @@
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
       <c r="G39" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J39" s="29"/>
       <c r="L39" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V39" s="29"/>
     </row>
@@ -49906,14 +49893,14 @@
       <c r="D43" s="28"/>
       <c r="E43" s="29"/>
       <c r="G43" s="40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J43" s="29"/>
       <c r="N43" s="30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P43" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U43" s="38"/>
       <c r="V43" s="29"/>
@@ -49925,14 +49912,14 @@
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
       <c r="G44" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J44" s="29"/>
       <c r="N44" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U44"/>
       <c r="V44" s="29"/>
@@ -49953,17 +49940,17 @@
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="G46" s="41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J46" s="29"/>
       <c r="N46" s="30" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R46" s="30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="V46" s="29"/>
     </row>
@@ -49974,17 +49961,17 @@
       <c r="D47" s="28"/>
       <c r="E47" s="29"/>
       <c r="G47" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J47" s="29"/>
       <c r="N47" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R47" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V47" s="29"/>
     </row>
@@ -50004,17 +49991,17 @@
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
       <c r="G49" s="40" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J49" s="29"/>
       <c r="N49" s="30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P49" s="30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R49" s="30" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="V49" s="29"/>
     </row>
@@ -50025,17 +50012,17 @@
       <c r="D50" s="28"/>
       <c r="E50" s="29"/>
       <c r="G50" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J50" s="29"/>
       <c r="N50" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R50" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V50" s="29"/>
     </row>
@@ -50060,10 +50047,10 @@
       <c r="G52"/>
       <c r="J52" s="29"/>
       <c r="N52" s="30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P52" s="30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="R52"/>
       <c r="V52" s="29"/>
@@ -50077,10 +50064,10 @@
       <c r="G53"/>
       <c r="J53" s="29"/>
       <c r="N53" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P53" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R53"/>
       <c r="V53" s="29"/>
@@ -50102,10 +50089,10 @@
       <c r="E55" s="29"/>
       <c r="J55" s="29"/>
       <c r="N55" s="30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P55" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R55"/>
       <c r="V55" s="29"/>
@@ -50118,10 +50105,10 @@
       <c r="E56" s="29"/>
       <c r="J56" s="29"/>
       <c r="N56" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R56"/>
       <c r="V56" s="29"/>
@@ -50143,13 +50130,13 @@
       <c r="E58" s="29"/>
       <c r="J58" s="29"/>
       <c r="N58" s="30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P58" s="30" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R58" s="40" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V58" s="29"/>
     </row>
@@ -50161,13 +50148,13 @@
       <c r="E59" s="29"/>
       <c r="J59" s="29"/>
       <c r="N59" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P59" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R59" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V59" s="29"/>
     </row>
@@ -50205,14 +50192,14 @@
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
       <c r="G63" s="40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J63" s="29"/>
       <c r="N63" s="30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P63" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U63" s="38"/>
       <c r="V63" s="29"/>
@@ -50224,14 +50211,14 @@
       <c r="D64" s="28"/>
       <c r="E64" s="29"/>
       <c r="G64" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J64" s="29"/>
       <c r="N64" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P64" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U64" s="35"/>
       <c r="V64" s="29"/>
@@ -50252,17 +50239,17 @@
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
       <c r="G66" s="41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J66" s="29"/>
       <c r="N66" s="30" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P66" s="30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R66" s="30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="V66" s="29"/>
     </row>
@@ -50273,17 +50260,17 @@
       <c r="D67" s="28"/>
       <c r="E67" s="29"/>
       <c r="G67" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J67" s="29"/>
       <c r="N67" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P67" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R67" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V67" s="29"/>
     </row>
@@ -50303,17 +50290,17 @@
       <c r="D69" s="28"/>
       <c r="E69" s="29"/>
       <c r="G69" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J69" s="29"/>
       <c r="N69" s="30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P69" s="30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R69" s="30" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="V69" s="29"/>
     </row>
@@ -50324,17 +50311,17 @@
       <c r="D70" s="28"/>
       <c r="E70" s="29"/>
       <c r="G70" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J70" s="29"/>
       <c r="N70" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P70" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R70" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V70" s="29"/>
     </row>
@@ -50357,14 +50344,14 @@
       <c r="E72" s="29"/>
       <c r="F72"/>
       <c r="G72" s="30" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J72" s="29"/>
       <c r="N72" s="30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P72" s="40" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="R72"/>
       <c r="V72" s="29"/>
@@ -50376,14 +50363,14 @@
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="G73" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J73" s="29"/>
       <c r="N73" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P73" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R73"/>
       <c r="V73" s="29"/>
@@ -50405,10 +50392,10 @@
       <c r="E75" s="29"/>
       <c r="J75" s="29"/>
       <c r="N75" s="30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P75" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R75"/>
       <c r="V75" s="29"/>
@@ -50421,10 +50408,10 @@
       <c r="E76" s="29"/>
       <c r="J76" s="29"/>
       <c r="N76" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P76" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R76"/>
       <c r="V76" s="29"/>
@@ -50446,13 +50433,13 @@
       <c r="E78" s="29"/>
       <c r="J78" s="29"/>
       <c r="N78" s="30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P78" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V78" s="29"/>
     </row>
@@ -50464,13 +50451,13 @@
       <c r="E79" s="29"/>
       <c r="J79" s="29"/>
       <c r="N79" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P79" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R79" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V79" s="29"/>
     </row>
@@ -50504,25 +50491,25 @@
       <c r="D83" s="28"/>
       <c r="E83" s="29"/>
       <c r="G83" s="30" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J83" s="29"/>
       <c r="L83" s="30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="N83" s="30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P83" s="30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="R83" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U83" s="38"/>
       <c r="V83" s="29"/>
       <c r="X83" s="30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50532,25 +50519,25 @@
       <c r="D84" s="28"/>
       <c r="E84" s="29"/>
       <c r="G84" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J84" s="29"/>
       <c r="L84" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N84" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P84" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R84" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U84"/>
       <c r="V84" s="29"/>
       <c r="X84" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50569,24 +50556,24 @@
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
       <c r="G86" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J86" s="29"/>
       <c r="L86" s="30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N86" s="40" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="P86" s="30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R86" s="30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="V86" s="29"/>
       <c r="X86" s="30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50596,24 +50583,24 @@
       <c r="D87" s="28"/>
       <c r="E87" s="29"/>
       <c r="G87" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J87" s="29"/>
       <c r="L87" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N87" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P87" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R87" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V87" s="29"/>
       <c r="X87" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50632,24 +50619,24 @@
       <c r="D89" s="28"/>
       <c r="E89" s="29"/>
       <c r="G89" s="30" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J89" s="29"/>
       <c r="L89" s="30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N89" s="40" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P89" s="30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="R89" s="30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="V89" s="29"/>
       <c r="X89" s="30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50659,24 +50646,24 @@
       <c r="D90" s="28"/>
       <c r="E90" s="29"/>
       <c r="G90" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J90" s="29"/>
       <c r="L90" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N90" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P90" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R90" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V90" s="29"/>
       <c r="X90" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50698,24 +50685,24 @@
       <c r="E92" s="29"/>
       <c r="F92"/>
       <c r="G92" s="41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J92" s="29"/>
       <c r="L92" s="40" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P92" s="30" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="R92" s="30" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="V92" s="29"/>
       <c r="X92" s="30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50725,24 +50712,24 @@
       <c r="D93" s="28"/>
       <c r="E93" s="29"/>
       <c r="G93" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J93" s="29"/>
       <c r="L93" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N93" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P93" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R93" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V93" s="29"/>
       <c r="X93" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="30" customHeight="1" thickBot="1">
@@ -50761,14 +50748,14 @@
       <c r="D95" s="28"/>
       <c r="E95" s="29"/>
       <c r="G95" s="40" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J95" s="29"/>
       <c r="L95" s="30" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P95"/>
       <c r="Q95"/>
@@ -50782,14 +50769,14 @@
       <c r="D96" s="28"/>
       <c r="E96" s="29"/>
       <c r="G96" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J96" s="29"/>
       <c r="L96" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N96" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P96"/>
       <c r="Q96"/>
@@ -50815,7 +50802,7 @@
       <c r="D98" s="28"/>
       <c r="E98" s="29"/>
       <c r="G98" s="30" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J98" s="29"/>
       <c r="L98"/>
@@ -50834,7 +50821,7 @@
       <c r="D99" s="28"/>
       <c r="E99" s="29"/>
       <c r="G99" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J99" s="29"/>
       <c r="L99"/>
@@ -50859,7 +50846,7 @@
       <c r="E101" s="29"/>
       <c r="F101" s="53"/>
       <c r="G101" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J101" s="29"/>
       <c r="V101" s="29"/>
@@ -50867,7 +50854,7 @@
     <row r="102" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="E102" s="29"/>
       <c r="G102" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J102" s="29"/>
       <c r="V102" s="29"/>
@@ -50883,16 +50870,16 @@
       <c r="G104" s="54"/>
       <c r="J104" s="29"/>
       <c r="L104" s="30" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N104" s="40" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P104" s="30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="R104" s="30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="V104" s="29"/>
     </row>
@@ -50900,16 +50887,16 @@
       <c r="E105" s="29"/>
       <c r="J105" s="29"/>
       <c r="L105" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N105" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P105" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R105" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V105" s="29"/>
     </row>
@@ -50922,10 +50909,10 @@
       <c r="E107" s="29"/>
       <c r="J107" s="29"/>
       <c r="L107" s="30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N107" s="30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="V107" s="29"/>
     </row>
@@ -50933,10 +50920,10 @@
       <c r="E108" s="29"/>
       <c r="J108" s="29"/>
       <c r="L108" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N108" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V108" s="29"/>
     </row>
@@ -50966,30 +50953,30 @@
       <c r="D112" s="28"/>
       <c r="E112" s="29"/>
       <c r="G112" s="30" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J112" s="29"/>
       <c r="L112" s="30" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N112" s="40" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P112" s="30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q112" s="38"/>
       <c r="R112" s="30" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="S112" s="38"/>
       <c r="T112" s="30" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="U112" s="38"/>
       <c r="V112" s="29"/>
       <c r="X112" s="30" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="30" customHeight="1" thickBot="1">
@@ -50999,30 +50986,30 @@
       <c r="D113" s="28"/>
       <c r="E113" s="29"/>
       <c r="G113" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J113" s="29"/>
       <c r="L113" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N113" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P113" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q113" s="35"/>
       <c r="R113" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S113" s="35"/>
       <c r="T113" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="U113" s="35"/>
       <c r="V113" s="29"/>
       <c r="X113" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="30" customHeight="1" thickBot="1">
@@ -51041,27 +51028,27 @@
       <c r="D115" s="28"/>
       <c r="E115" s="29"/>
       <c r="G115" s="40" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J115" s="29"/>
       <c r="L115" s="30" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N115" s="30" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P115" s="30" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="R115" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="T115" s="30" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="V115" s="29"/>
       <c r="X115" s="30" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="30" customHeight="1" thickBot="1">
@@ -51071,27 +51058,27 @@
       <c r="D116" s="28"/>
       <c r="E116" s="29"/>
       <c r="G116" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J116" s="29"/>
       <c r="L116" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N116" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P116" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R116" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T116" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V116" s="29"/>
       <c r="X116" s="34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="30" customHeight="1">
@@ -51782,7 +51769,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
@@ -51976,7 +51963,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
@@ -52115,268 +52102,268 @@
     </row>
     <row r="14" spans="1:32" ht="28">
       <c r="C14"/>
-      <c r="D14" s="79" t="s">
-        <v>205</v>
+      <c r="D14" s="78" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="28">
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
     </row>
     <row r="16" spans="1:32" ht="28">
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
     </row>
     <row r="17" spans="3:21">
-      <c r="D17" s="119" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="K17" s="138"/>
-      <c r="L17" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="M17" s="120"/>
+      <c r="D17" s="118" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="137"/>
+      <c r="L17" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="M17" s="119"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="D18" s="120"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="142"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="141"/>
     </row>
     <row r="22" spans="3:21" ht="28">
       <c r="C22"/>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" ht="28">
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+    </row>
+    <row r="24" spans="3:21" ht="28">
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+    </row>
+    <row r="25" spans="3:21">
+      <c r="D25" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" s="118" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25" s="118" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137" t="s">
+        <v>216</v>
+      </c>
+      <c r="R25" s="137"/>
+      <c r="S25" s="118" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" ht="28">
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-    </row>
-    <row r="24" spans="3:21" ht="28">
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-    </row>
-    <row r="25" spans="3:21">
-      <c r="D25" s="138" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="119" t="s">
+      <c r="T25" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="H25" s="138" t="s">
-        <v>207</v>
-      </c>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="119" t="s">
-        <v>216</v>
-      </c>
-      <c r="M25" s="119" t="s">
-        <v>217</v>
-      </c>
-      <c r="N25" s="119" t="s">
-        <v>218</v>
-      </c>
-      <c r="O25" s="138" t="s">
-        <v>219</v>
-      </c>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="138" t="s">
-        <v>222</v>
-      </c>
-      <c r="R25" s="138"/>
-      <c r="S25" s="119" t="s">
-        <v>220</v>
-      </c>
-      <c r="T25" s="119" t="s">
-        <v>221</v>
-      </c>
-      <c r="U25" s="120"/>
+      <c r="U25" s="119"/>
     </row>
     <row r="26" spans="3:21">
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="142"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="140"/>
-      <c r="U26" s="142"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="141"/>
     </row>
     <row r="27" spans="3:21" ht="17" customHeight="1"/>
     <row r="30" spans="3:21" ht="28">
       <c r="C30"/>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" ht="16" customHeight="1">
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+    </row>
+    <row r="32" spans="3:21" ht="16" customHeight="1">
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
+    </row>
+    <row r="33" spans="3:41" ht="16" customHeight="1">
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+    </row>
+    <row r="34" spans="3:41" s="79" customFormat="1" ht="68">
+      <c r="D34" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="M34" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="N34" s="110" t="s">
+        <v>221</v>
+      </c>
+      <c r="O34" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="P34" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q34" s="144" t="s">
+        <v>218</v>
+      </c>
+      <c r="R34" s="144"/>
+      <c r="S34" s="110" t="s">
+        <v>226</v>
+      </c>
+      <c r="T34" s="110" t="s">
+        <v>232</v>
+      </c>
+      <c r="U34" s="110" t="s">
+        <v>231</v>
+      </c>
+      <c r="V34" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="W34" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="X34" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y34" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z34" s="142" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA34" s="142"/>
+      <c r="AB34" s="142" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC34" s="142"/>
+      <c r="AD34" s="142" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE34" s="142"/>
+      <c r="AF34" s="142" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG34" s="142"/>
+      <c r="AH34" s="142" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI34" s="142"/>
+      <c r="AJ34" s="151" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK34" s="151"/>
+      <c r="AL34" s="150" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="150" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" ht="16" customHeight="1">
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-    </row>
-    <row r="32" spans="3:21" ht="16" customHeight="1">
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-    </row>
-    <row r="33" spans="3:41" ht="16" customHeight="1">
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-    </row>
-    <row r="34" spans="3:41" s="80" customFormat="1" ht="68">
-      <c r="D34" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="110" t="s">
-        <v>225</v>
-      </c>
-      <c r="M34" s="111" t="s">
-        <v>226</v>
-      </c>
-      <c r="N34" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="O34" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="P34" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q34" s="145" t="s">
-        <v>224</v>
-      </c>
-      <c r="R34" s="145"/>
-      <c r="S34" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="T34" s="111" t="s">
-        <v>238</v>
-      </c>
-      <c r="U34" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="V34" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="W34" s="113" t="s">
-        <v>235</v>
-      </c>
-      <c r="X34" s="113" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y34" s="113" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z34" s="143" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA34" s="143"/>
-      <c r="AB34" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC34" s="143"/>
-      <c r="AD34" s="143" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE34" s="143"/>
-      <c r="AF34" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG34" s="143"/>
-      <c r="AH34" s="143" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI34" s="143"/>
-      <c r="AJ34" s="152" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK34" s="152"/>
-      <c r="AL34" s="151" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM34" s="151"/>
-      <c r="AN34" s="151" t="s">
-        <v>229</v>
-      </c>
-      <c r="AO34" s="151"/>
+      <c r="AO34" s="150"/>
     </row>
     <row r="35" spans="3:41">
-      <c r="D35" s="140"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="115"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="117"/>
-      <c r="S35" s="115"/>
-      <c r="T35" s="115"/>
-      <c r="U35" s="115"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="118"/>
-      <c r="X35" s="118"/>
-      <c r="Y35" s="118"/>
-      <c r="Z35" s="144"/>
-      <c r="AA35" s="144"/>
-      <c r="AB35" s="144"/>
-      <c r="AC35" s="144"/>
-      <c r="AD35" s="144"/>
-      <c r="AE35" s="144"/>
-      <c r="AF35" s="144"/>
-      <c r="AG35" s="144"/>
-      <c r="AH35" s="144"/>
-      <c r="AI35" s="144"/>
-      <c r="AJ35" s="150"/>
-      <c r="AK35" s="150"/>
-      <c r="AL35" s="149"/>
-      <c r="AM35" s="149"/>
-      <c r="AN35" s="149"/>
-      <c r="AO35" s="149"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="116"/>
+      <c r="R35" s="116"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="117"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="143"/>
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="143"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="143"/>
+      <c r="AF35" s="143"/>
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="143"/>
+      <c r="AI35" s="143"/>
+      <c r="AJ35" s="149"/>
+      <c r="AK35" s="149"/>
+      <c r="AL35" s="148"/>
+      <c r="AM35" s="148"/>
+      <c r="AN35" s="148"/>
+      <c r="AO35" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -52507,7 +52494,7 @@
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="59" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="59"/>
@@ -52649,10 +52636,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B279FE6-9E53-40E0-8700-C52FFFC93FCF}">
-  <dimension ref="A1:AF408"/>
+  <dimension ref="A1:AF403"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -52721,7 +52708,7 @@
       <c r="E3" s="58"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H3" s="59"/>
       <c r="I3" s="58"/>
@@ -52738,31 +52725,31 @@
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
       <c r="X3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="AE3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="AF3" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="AA3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF3" s="22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -52819,996 +52806,978 @@
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
       <c r="F8" s="67" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="64" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J8" s="64" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K8" s="65" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L8" s="66"/>
       <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="133" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="88" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="132" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+    </row>
+    <row r="11" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="123"/>
+      <c r="I11" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+    </row>
+    <row r="12" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="124"/>
+      <c r="I12" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+    </row>
+    <row r="13" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B13" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+    </row>
+    <row r="14" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="69"/>
+      <c r="G14" s="125" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="122" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+    </row>
+    <row r="15" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="72"/>
+      <c r="G15" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="I15" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+    </row>
+    <row r="16" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="126" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+    </row>
+    <row r="17" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="99"/>
+      <c r="G17" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
+    </row>
+    <row r="18" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="H18" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="I18" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
+    </row>
+    <row r="19" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="99"/>
+      <c r="G19" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="I19" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
+    </row>
+    <row r="20" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="99"/>
+      <c r="G20" s="126" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="I20" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="89"/>
+      <c r="K20" s="90"/>
+    </row>
+    <row r="21" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="124"/>
+      <c r="I21" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+    </row>
+    <row r="22" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B22" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+    </row>
+    <row r="23" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="69"/>
+      <c r="G23" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="122" t="s">
+        <v>244</v>
+      </c>
+      <c r="I23" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+    </row>
+    <row r="24" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="123" t="s">
+        <v>244</v>
+      </c>
+      <c r="I24" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="100"/>
+      <c r="K24" s="101"/>
+    </row>
+    <row r="25" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="123" t="s">
+        <v>244</v>
+      </c>
+      <c r="I25" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="89"/>
+      <c r="K25" s="90"/>
+    </row>
+    <row r="26" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B26" s="96"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="74"/>
+      <c r="G26" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-    </row>
-    <row r="11" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-    </row>
-    <row r="12" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-    </row>
-    <row r="13" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B13" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-    </row>
-    <row r="14" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="123"/>
-      <c r="I14" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-    </row>
-    <row r="15" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="124"/>
-      <c r="I15" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-    </row>
-    <row r="16" spans="1:32" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="124"/>
-      <c r="I16" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-    </row>
-    <row r="17" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-    </row>
-    <row r="18" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B18" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-    </row>
-    <row r="19" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B19" s="81" t="s">
+      <c r="H26" s="124" t="s">
+        <v>244</v>
+      </c>
+      <c r="I26" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+    </row>
+    <row r="27" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
+      <c r="B27" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-    </row>
-    <row r="20" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="126" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20" s="123" t="s">
-        <v>252</v>
-      </c>
-      <c r="I20" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-    </row>
-    <row r="21" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="127" t="s">
-        <v>246</v>
-      </c>
-      <c r="H21" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="I21" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-    </row>
-    <row r="22" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="127" t="s">
-        <v>247</v>
-      </c>
-      <c r="H22" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="I22" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-    </row>
-    <row r="23" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="127" t="s">
-        <v>248</v>
-      </c>
-      <c r="H23" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="I23" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-    </row>
-    <row r="24" spans="2:11" s="62" customFormat="1" ht="26" customHeight="1">
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="100"/>
-      <c r="G24" s="127" t="s">
-        <v>244</v>
-      </c>
-      <c r="H24" s="124" t="s">
-        <v>252</v>
-      </c>
-      <c r="I24" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-    </row>
-    <row r="25" spans="2:11" s="62" customFormat="1" ht="26" customHeight="